--- a/server/Dungeonz.io translations.xlsx
+++ b/server/Dungeonz.io translations.xlsx
@@ -5240,7 +5240,7 @@
     <t>Mage</t>
   </si>
   <si>
-    <t>Mob name: Arch-mage</t>
+    <t>Mob name: Arch mage</t>
   </si>
   <si>
     <t>Arch mage</t>

--- a/server/Dungeonz.io translations.xlsx
+++ b/server/Dungeonz.io translations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="1539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="1543">
   <si>
     <t>Dungeonz.io translations</t>
   </si>
@@ -1166,6 +1166,12 @@
     <t>Savaşçı öldür</t>
   </si>
   <si>
+    <t>Task ID: KillGoblins</t>
+  </si>
+  <si>
+    <t>Kill goblins</t>
+  </si>
+  <si>
     <t>Task ID: KillGnarls</t>
   </si>
   <si>
@@ -1173,6 +1179,12 @@
   </si>
   <si>
     <t>Ağaç savaşçısı öldür</t>
+  </si>
+  <si>
+    <t>Task ID: KillAdumbrals</t>
+  </si>
+  <si>
+    <t>Kill adumbrals</t>
   </si>
   <si>
     <t>Task ID: GatherCotton</t>
@@ -8416,9 +8428,7 @@
       <c r="C94" s="22"/>
       <c r="D94" s="22"/>
       <c r="E94" s="26"/>
-      <c r="F94" s="22" t="s">
-        <v>383</v>
-      </c>
+      <c r="F94" s="22"/>
       <c r="G94" s="26"/>
       <c r="H94" s="31"/>
       <c r="I94" s="26"/>
@@ -8443,18 +8453,16 @@
     </row>
     <row r="95">
       <c r="A95" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="B95" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="B95" s="21" t="s">
-        <v>385</v>
-      </c>
       <c r="C95" s="22"/>
-      <c r="D95" s="22" t="s">
-        <v>386</v>
-      </c>
+      <c r="D95" s="22"/>
       <c r="E95" s="26"/>
       <c r="F95" s="22" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G95" s="26"/>
       <c r="H95" s="31"/>
@@ -8480,19 +8488,15 @@
     </row>
     <row r="96">
       <c r="A96" s="20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C96" s="22"/>
-      <c r="D96" s="22" t="s">
-        <v>390</v>
-      </c>
+      <c r="D96" s="22"/>
       <c r="E96" s="26"/>
-      <c r="F96" s="22" t="s">
-        <v>391</v>
-      </c>
+      <c r="F96" s="22"/>
       <c r="G96" s="26"/>
       <c r="H96" s="31"/>
       <c r="I96" s="26"/>
@@ -8517,18 +8521,18 @@
     </row>
     <row r="97">
       <c r="A97" s="20" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C97" s="22"/>
       <c r="D97" s="22" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E97" s="26"/>
       <c r="F97" s="22" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G97" s="26"/>
       <c r="H97" s="31"/>
@@ -8554,18 +8558,18 @@
     </row>
     <row r="98">
       <c r="A98" s="20" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C98" s="22"/>
       <c r="D98" s="22" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E98" s="26"/>
       <c r="F98" s="22" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G98" s="26"/>
       <c r="H98" s="31"/>
@@ -8591,18 +8595,18 @@
     </row>
     <row r="99">
       <c r="A99" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C99" s="22"/>
       <c r="D99" s="22" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E99" s="26"/>
       <c r="F99" s="22" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G99" s="26"/>
       <c r="H99" s="31"/>
@@ -8628,18 +8632,18 @@
     </row>
     <row r="100">
       <c r="A100" s="20" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C100" s="22"/>
       <c r="D100" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E100" s="26"/>
       <c r="F100" s="22" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G100" s="26"/>
       <c r="H100" s="31"/>
@@ -8665,18 +8669,18 @@
     </row>
     <row r="101">
       <c r="A101" s="20" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C101" s="22"/>
       <c r="D101" s="22" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E101" s="26"/>
       <c r="F101" s="22" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G101" s="26"/>
       <c r="H101" s="31"/>
@@ -8702,18 +8706,18 @@
     </row>
     <row r="102">
       <c r="A102" s="20" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C102" s="22"/>
       <c r="D102" s="22" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E102" s="26"/>
       <c r="F102" s="22" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G102" s="26"/>
       <c r="H102" s="31"/>
@@ -8739,18 +8743,18 @@
     </row>
     <row r="103">
       <c r="A103" s="20" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C103" s="22"/>
       <c r="D103" s="22" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E103" s="26"/>
       <c r="F103" s="22" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G103" s="26"/>
       <c r="H103" s="31"/>
@@ -8776,18 +8780,18 @@
     </row>
     <row r="104">
       <c r="A104" s="20" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C104" s="22"/>
       <c r="D104" s="22" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E104" s="26"/>
       <c r="F104" s="22" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G104" s="26"/>
       <c r="H104" s="31"/>
@@ -8813,18 +8817,18 @@
     </row>
     <row r="105">
       <c r="A105" s="20" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C105" s="22"/>
       <c r="D105" s="22" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E105" s="26"/>
       <c r="F105" s="22" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G105" s="26"/>
       <c r="H105" s="31"/>
@@ -8850,18 +8854,18 @@
     </row>
     <row r="106">
       <c r="A106" s="20" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C106" s="22"/>
       <c r="D106" s="22" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E106" s="26"/>
       <c r="F106" s="22" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G106" s="26"/>
       <c r="H106" s="31"/>
@@ -8887,18 +8891,18 @@
     </row>
     <row r="107">
       <c r="A107" s="20" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C107" s="22"/>
       <c r="D107" s="22" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E107" s="26"/>
       <c r="F107" s="22" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G107" s="26"/>
       <c r="H107" s="31"/>
@@ -8924,18 +8928,18 @@
     </row>
     <row r="108">
       <c r="A108" s="20" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C108" s="22"/>
       <c r="D108" s="22" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E108" s="26"/>
-      <c r="F108" s="33" t="s">
-        <v>439</v>
+      <c r="F108" s="22" t="s">
+        <v>435</v>
       </c>
       <c r="G108" s="26"/>
       <c r="H108" s="31"/>
@@ -8961,18 +8965,18 @@
     </row>
     <row r="109">
       <c r="A109" s="20" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C109" s="22"/>
       <c r="D109" s="22" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E109" s="26"/>
       <c r="F109" s="22" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G109" s="26"/>
       <c r="H109" s="31"/>
@@ -8998,18 +9002,18 @@
     </row>
     <row r="110">
       <c r="A110" s="20" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C110" s="22"/>
       <c r="D110" s="22" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E110" s="26"/>
-      <c r="F110" s="22" t="s">
-        <v>447</v>
+      <c r="F110" s="33" t="s">
+        <v>443</v>
       </c>
       <c r="G110" s="26"/>
       <c r="H110" s="31"/>
@@ -9035,18 +9039,18 @@
     </row>
     <row r="111">
       <c r="A111" s="20" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C111" s="22"/>
       <c r="D111" s="22" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E111" s="26"/>
       <c r="F111" s="22" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G111" s="26"/>
       <c r="H111" s="31"/>
@@ -9072,18 +9076,18 @@
     </row>
     <row r="112">
       <c r="A112" s="20" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C112" s="22"/>
       <c r="D112" s="22" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E112" s="26"/>
       <c r="F112" s="22" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G112" s="26"/>
       <c r="H112" s="31"/>
@@ -9109,18 +9113,18 @@
     </row>
     <row r="113">
       <c r="A113" s="20" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C113" s="22"/>
       <c r="D113" s="22" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E113" s="26"/>
       <c r="F113" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G113" s="26"/>
       <c r="H113" s="31"/>
@@ -9146,18 +9150,18 @@
     </row>
     <row r="114">
       <c r="A114" s="20" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C114" s="22"/>
       <c r="D114" s="22" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E114" s="26"/>
       <c r="F114" s="22" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G114" s="26"/>
       <c r="H114" s="31"/>
@@ -9183,18 +9187,18 @@
     </row>
     <row r="115">
       <c r="A115" s="20" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C115" s="22"/>
       <c r="D115" s="22" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E115" s="26"/>
       <c r="F115" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G115" s="26"/>
       <c r="H115" s="31"/>
@@ -9220,18 +9224,18 @@
     </row>
     <row r="116">
       <c r="A116" s="20" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C116" s="22"/>
       <c r="D116" s="22" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E116" s="26"/>
       <c r="F116" s="22" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G116" s="26"/>
       <c r="H116" s="31"/>
@@ -9257,18 +9261,18 @@
     </row>
     <row r="117">
       <c r="A117" s="20" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C117" s="22"/>
       <c r="D117" s="22" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E117" s="26"/>
       <c r="F117" s="22" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G117" s="26"/>
       <c r="H117" s="31"/>
@@ -9294,18 +9298,18 @@
     </row>
     <row r="118">
       <c r="A118" s="20" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C118" s="22"/>
       <c r="D118" s="22" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E118" s="26"/>
       <c r="F118" s="22" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G118" s="26"/>
       <c r="H118" s="31"/>
@@ -9331,18 +9335,18 @@
     </row>
     <row r="119">
       <c r="A119" s="20" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C119" s="22"/>
       <c r="D119" s="22" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E119" s="26"/>
       <c r="F119" s="22" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G119" s="26"/>
       <c r="H119" s="31"/>
@@ -9368,18 +9372,18 @@
     </row>
     <row r="120">
       <c r="A120" s="20" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C120" s="22"/>
       <c r="D120" s="22" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E120" s="26"/>
       <c r="F120" s="22" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G120" s="26"/>
       <c r="H120" s="31"/>
@@ -9405,18 +9409,18 @@
     </row>
     <row r="121">
       <c r="A121" s="20" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C121" s="22"/>
       <c r="D121" s="22" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E121" s="26"/>
       <c r="F121" s="22" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G121" s="26"/>
       <c r="H121" s="31"/>
@@ -9442,18 +9446,18 @@
     </row>
     <row r="122">
       <c r="A122" s="20" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C122" s="22"/>
       <c r="D122" s="22" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E122" s="26"/>
       <c r="F122" s="22" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G122" s="26"/>
       <c r="H122" s="31"/>
@@ -9479,18 +9483,18 @@
     </row>
     <row r="123">
       <c r="A123" s="20" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C123" s="22"/>
       <c r="D123" s="22" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E123" s="26"/>
       <c r="F123" s="22" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G123" s="26"/>
       <c r="H123" s="31"/>
@@ -9516,18 +9520,18 @@
     </row>
     <row r="124">
       <c r="A124" s="20" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C124" s="22"/>
       <c r="D124" s="22" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E124" s="26"/>
       <c r="F124" s="22" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G124" s="26"/>
       <c r="H124" s="31"/>
@@ -9553,18 +9557,18 @@
     </row>
     <row r="125">
       <c r="A125" s="20" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C125" s="22"/>
       <c r="D125" s="22" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E125" s="26"/>
       <c r="F125" s="22" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G125" s="26"/>
       <c r="H125" s="31"/>
@@ -9590,18 +9594,18 @@
     </row>
     <row r="126">
       <c r="A126" s="20" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C126" s="22"/>
       <c r="D126" s="22" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E126" s="26"/>
       <c r="F126" s="22" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G126" s="26"/>
       <c r="H126" s="31"/>
@@ -9627,18 +9631,18 @@
     </row>
     <row r="127">
       <c r="A127" s="20" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C127" s="22"/>
       <c r="D127" s="22" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E127" s="26"/>
       <c r="F127" s="22" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G127" s="26"/>
       <c r="H127" s="31"/>
@@ -9664,18 +9668,18 @@
     </row>
     <row r="128">
       <c r="A128" s="20" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B128" s="21" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C128" s="22"/>
       <c r="D128" s="22" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E128" s="26"/>
       <c r="F128" s="22" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G128" s="26"/>
       <c r="H128" s="31"/>
@@ -9701,18 +9705,18 @@
     </row>
     <row r="129">
       <c r="A129" s="20" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B129" s="21" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C129" s="22"/>
       <c r="D129" s="22" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E129" s="26"/>
       <c r="F129" s="22" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G129" s="26"/>
       <c r="H129" s="31"/>
@@ -9738,18 +9742,18 @@
     </row>
     <row r="130">
       <c r="A130" s="20" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B130" s="21" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C130" s="22"/>
       <c r="D130" s="22" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E130" s="26"/>
       <c r="F130" s="22" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G130" s="26"/>
       <c r="H130" s="31"/>
@@ -9775,18 +9779,18 @@
     </row>
     <row r="131">
       <c r="A131" s="20" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C131" s="22"/>
       <c r="D131" s="22" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E131" s="26"/>
       <c r="F131" s="22" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G131" s="26"/>
       <c r="H131" s="31"/>
@@ -9812,16 +9816,18 @@
     </row>
     <row r="132">
       <c r="A132" s="20" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C132" s="22"/>
-      <c r="D132" s="22"/>
+      <c r="D132" s="22" t="s">
+        <v>530</v>
+      </c>
       <c r="E132" s="26"/>
       <c r="F132" s="22" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G132" s="26"/>
       <c r="H132" s="31"/>
@@ -9847,16 +9853,18 @@
     </row>
     <row r="133">
       <c r="A133" s="20" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C133" s="22"/>
-      <c r="D133" s="22"/>
+      <c r="D133" s="22" t="s">
+        <v>534</v>
+      </c>
       <c r="E133" s="26"/>
       <c r="F133" s="22" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G133" s="26"/>
       <c r="H133" s="31"/>
@@ -9882,16 +9890,16 @@
     </row>
     <row r="134">
       <c r="A134" s="20" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B134" s="21" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C134" s="22"/>
       <c r="D134" s="22"/>
       <c r="E134" s="26"/>
       <c r="F134" s="22" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G134" s="26"/>
       <c r="H134" s="31"/>
@@ -9917,16 +9925,16 @@
     </row>
     <row r="135">
       <c r="A135" s="20" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B135" s="21" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C135" s="22"/>
       <c r="D135" s="22"/>
       <c r="E135" s="26"/>
       <c r="F135" s="22" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G135" s="26"/>
       <c r="H135" s="31"/>
@@ -9952,16 +9960,16 @@
     </row>
     <row r="136">
       <c r="A136" s="20" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C136" s="22"/>
       <c r="D136" s="22"/>
       <c r="E136" s="26"/>
       <c r="F136" s="22" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G136" s="26"/>
       <c r="H136" s="31"/>
@@ -9987,16 +9995,16 @@
     </row>
     <row r="137">
       <c r="A137" s="20" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C137" s="22"/>
       <c r="D137" s="22"/>
       <c r="E137" s="26"/>
       <c r="F137" s="22" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G137" s="26"/>
       <c r="H137" s="31"/>
@@ -10022,22 +10030,20 @@
     </row>
     <row r="138">
       <c r="A138" s="20" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C138" s="22"/>
       <c r="D138" s="22"/>
       <c r="E138" s="26"/>
       <c r="F138" s="22" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G138" s="26"/>
       <c r="H138" s="31"/>
-      <c r="I138" s="22" t="s">
-        <v>552</v>
-      </c>
+      <c r="I138" s="26"/>
       <c r="J138" s="27"/>
       <c r="K138" s="27"/>
       <c r="L138" s="25"/>
@@ -10059,18 +10065,16 @@
     </row>
     <row r="139">
       <c r="A139" s="20" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C139" s="22"/>
-      <c r="D139" s="22" t="s">
-        <v>555</v>
-      </c>
+      <c r="D139" s="22"/>
       <c r="E139" s="26"/>
       <c r="F139" s="22" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G139" s="26"/>
       <c r="H139" s="31"/>
@@ -10096,23 +10100,21 @@
     </row>
     <row r="140">
       <c r="A140" s="20" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C140" s="22"/>
-      <c r="D140" s="22" t="s">
-        <v>559</v>
-      </c>
+      <c r="D140" s="22"/>
       <c r="E140" s="26"/>
       <c r="F140" s="22" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G140" s="26"/>
       <c r="H140" s="31"/>
       <c r="I140" s="22" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="J140" s="27"/>
       <c r="K140" s="27"/>
@@ -10135,18 +10137,18 @@
     </row>
     <row r="141">
       <c r="A141" s="20" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C141" s="22"/>
       <c r="D141" s="22" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="E141" s="26"/>
       <c r="F141" s="22" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="G141" s="26"/>
       <c r="H141" s="31"/>
@@ -10172,22 +10174,24 @@
     </row>
     <row r="142">
       <c r="A142" s="20" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B142" s="21" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C142" s="22"/>
       <c r="D142" s="22" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E142" s="26"/>
       <c r="F142" s="22" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G142" s="26"/>
       <c r="H142" s="31"/>
-      <c r="I142" s="26"/>
+      <c r="I142" s="22" t="s">
+        <v>565</v>
+      </c>
       <c r="J142" s="27"/>
       <c r="K142" s="27"/>
       <c r="L142" s="25"/>
@@ -10209,18 +10213,18 @@
     </row>
     <row r="143">
       <c r="A143" s="20" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C143" s="22"/>
       <c r="D143" s="22" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E143" s="26"/>
       <c r="F143" s="22" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G143" s="26"/>
       <c r="H143" s="31"/>
@@ -10246,18 +10250,18 @@
     </row>
     <row r="144">
       <c r="A144" s="20" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B144" s="21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C144" s="22"/>
       <c r="D144" s="22" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E144" s="26"/>
       <c r="F144" s="22" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G144" s="26"/>
       <c r="H144" s="31"/>
@@ -10283,18 +10287,18 @@
     </row>
     <row r="145">
       <c r="A145" s="20" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C145" s="22"/>
       <c r="D145" s="22" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E145" s="26"/>
       <c r="F145" s="22" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G145" s="26"/>
       <c r="H145" s="31"/>
@@ -10320,18 +10324,18 @@
     </row>
     <row r="146">
       <c r="A146" s="20" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B146" s="21" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C146" s="22"/>
       <c r="D146" s="22" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E146" s="26"/>
       <c r="F146" s="22" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G146" s="26"/>
       <c r="H146" s="31"/>
@@ -10357,18 +10361,18 @@
     </row>
     <row r="147">
       <c r="A147" s="20" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B147" s="21" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C147" s="22"/>
       <c r="D147" s="22" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E147" s="26"/>
       <c r="F147" s="22" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G147" s="26"/>
       <c r="H147" s="31"/>
@@ -10394,18 +10398,18 @@
     </row>
     <row r="148">
       <c r="A148" s="20" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B148" s="21" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C148" s="22"/>
       <c r="D148" s="22" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E148" s="26"/>
       <c r="F148" s="22" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G148" s="26"/>
       <c r="H148" s="31"/>
@@ -10431,18 +10435,18 @@
     </row>
     <row r="149">
       <c r="A149" s="20" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C149" s="22"/>
       <c r="D149" s="22" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E149" s="26"/>
       <c r="F149" s="22" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G149" s="26"/>
       <c r="H149" s="31"/>
@@ -10468,18 +10472,18 @@
     </row>
     <row r="150">
       <c r="A150" s="20" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B150" s="21" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C150" s="22"/>
       <c r="D150" s="22" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E150" s="26"/>
       <c r="F150" s="22" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G150" s="26"/>
       <c r="H150" s="31"/>
@@ -10505,16 +10509,18 @@
     </row>
     <row r="151">
       <c r="A151" s="20" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B151" s="21" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="C151" s="22"/>
-      <c r="D151" s="22"/>
+      <c r="D151" s="22" t="s">
+        <v>592</v>
+      </c>
       <c r="E151" s="26"/>
       <c r="F151" s="22" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G151" s="26"/>
       <c r="H151" s="31"/>
@@ -10540,16 +10546,18 @@
     </row>
     <row r="152">
       <c r="A152" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="B152" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="C152" s="22"/>
+      <c r="D152" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="B152" s="21" t="s">
-        <v>596</v>
-      </c>
-      <c r="C152" s="22"/>
-      <c r="D152" s="22"/>
       <c r="E152" s="26"/>
       <c r="F152" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G152" s="26"/>
       <c r="H152" s="31"/>
@@ -10575,16 +10583,16 @@
     </row>
     <row r="153">
       <c r="A153" s="20" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B153" s="21" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="C153" s="22"/>
       <c r="D153" s="22"/>
       <c r="E153" s="26"/>
       <c r="F153" s="22" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G153" s="26"/>
       <c r="H153" s="31"/>
@@ -10610,16 +10618,16 @@
     </row>
     <row r="154">
       <c r="A154" s="20" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B154" s="21" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C154" s="22"/>
       <c r="D154" s="22"/>
       <c r="E154" s="26"/>
       <c r="F154" s="22" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G154" s="26"/>
       <c r="H154" s="31"/>
@@ -10645,16 +10653,16 @@
     </row>
     <row r="155">
       <c r="A155" s="20" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B155" s="21" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C155" s="22"/>
       <c r="D155" s="22"/>
       <c r="E155" s="26"/>
       <c r="F155" s="22" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G155" s="26"/>
       <c r="H155" s="31"/>
@@ -10680,16 +10688,16 @@
     </row>
     <row r="156">
       <c r="A156" s="20" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B156" s="21" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C156" s="22"/>
       <c r="D156" s="22"/>
       <c r="E156" s="26"/>
       <c r="F156" s="22" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G156" s="26"/>
       <c r="H156" s="31"/>
@@ -10715,16 +10723,16 @@
     </row>
     <row r="157">
       <c r="A157" s="20" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B157" s="21" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C157" s="22"/>
       <c r="D157" s="22"/>
       <c r="E157" s="26"/>
       <c r="F157" s="22" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G157" s="26"/>
       <c r="H157" s="31"/>
@@ -10750,16 +10758,16 @@
     </row>
     <row r="158">
       <c r="A158" s="20" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B158" s="21" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C158" s="22"/>
       <c r="D158" s="22"/>
       <c r="E158" s="26"/>
       <c r="F158" s="22" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G158" s="26"/>
       <c r="H158" s="31"/>
@@ -10785,16 +10793,16 @@
     </row>
     <row r="159">
       <c r="A159" s="20" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B159" s="21" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C159" s="22"/>
       <c r="D159" s="22"/>
       <c r="E159" s="26"/>
       <c r="F159" s="22" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G159" s="26"/>
       <c r="H159" s="31"/>
@@ -10820,16 +10828,16 @@
     </row>
     <row r="160">
       <c r="A160" s="20" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B160" s="21" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C160" s="22"/>
       <c r="D160" s="22"/>
       <c r="E160" s="26"/>
       <c r="F160" s="22" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G160" s="26"/>
       <c r="H160" s="31"/>
@@ -10855,16 +10863,16 @@
     </row>
     <row r="161">
       <c r="A161" s="20" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B161" s="21" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C161" s="22"/>
       <c r="D161" s="22"/>
       <c r="E161" s="26"/>
       <c r="F161" s="22" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G161" s="26"/>
       <c r="H161" s="31"/>
@@ -10890,18 +10898,16 @@
     </row>
     <row r="162">
       <c r="A162" s="20" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B162" s="21" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C162" s="22"/>
-      <c r="D162" s="22" t="s">
-        <v>627</v>
-      </c>
+      <c r="D162" s="22"/>
       <c r="E162" s="26"/>
       <c r="F162" s="22" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G162" s="26"/>
       <c r="H162" s="31"/>
@@ -10927,18 +10933,16 @@
     </row>
     <row r="163">
       <c r="A163" s="20" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C163" s="22"/>
-      <c r="D163" s="22" t="s">
-        <v>631</v>
-      </c>
+      <c r="D163" s="22"/>
       <c r="E163" s="26"/>
       <c r="F163" s="22" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G163" s="26"/>
       <c r="H163" s="31"/>
@@ -10964,18 +10968,18 @@
     </row>
     <row r="164">
       <c r="A164" s="20" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B164" s="21" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C164" s="22"/>
       <c r="D164" s="22" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E164" s="26"/>
       <c r="F164" s="22" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G164" s="26"/>
       <c r="H164" s="31"/>
@@ -11001,18 +11005,18 @@
     </row>
     <row r="165">
       <c r="A165" s="20" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C165" s="22"/>
       <c r="D165" s="22" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E165" s="26"/>
       <c r="F165" s="22" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G165" s="26"/>
       <c r="H165" s="31"/>
@@ -11038,18 +11042,18 @@
     </row>
     <row r="166">
       <c r="A166" s="20" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B166" s="21" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C166" s="22"/>
       <c r="D166" s="22" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E166" s="26"/>
       <c r="F166" s="22" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G166" s="26"/>
       <c r="H166" s="31"/>
@@ -11075,16 +11079,18 @@
     </row>
     <row r="167">
       <c r="A167" s="20" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B167" s="21" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C167" s="22"/>
-      <c r="D167" s="22"/>
+      <c r="D167" s="22" t="s">
+        <v>641</v>
+      </c>
       <c r="E167" s="26"/>
       <c r="F167" s="22" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="G167" s="26"/>
       <c r="H167" s="31"/>
@@ -11110,16 +11116,18 @@
     </row>
     <row r="168">
       <c r="A168" s="20" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B168" s="21" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C168" s="22"/>
-      <c r="D168" s="22"/>
+      <c r="D168" s="22" t="s">
+        <v>645</v>
+      </c>
       <c r="E168" s="26"/>
       <c r="F168" s="22" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G168" s="26"/>
       <c r="H168" s="31"/>
@@ -11145,16 +11153,16 @@
     </row>
     <row r="169">
       <c r="A169" s="20" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B169" s="21" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C169" s="22"/>
       <c r="D169" s="22"/>
       <c r="E169" s="26"/>
       <c r="F169" s="22" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G169" s="26"/>
       <c r="H169" s="31"/>
@@ -11180,16 +11188,16 @@
     </row>
     <row r="170">
       <c r="A170" s="20" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B170" s="21" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C170" s="22"/>
       <c r="D170" s="22"/>
       <c r="E170" s="26"/>
       <c r="F170" s="22" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G170" s="26"/>
       <c r="H170" s="31"/>
@@ -11215,18 +11223,16 @@
     </row>
     <row r="171">
       <c r="A171" s="20" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B171" s="21" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C171" s="22"/>
-      <c r="D171" s="22" t="s">
-        <v>657</v>
-      </c>
+      <c r="D171" s="22"/>
       <c r="E171" s="26"/>
       <c r="F171" s="22" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G171" s="26"/>
       <c r="H171" s="31"/>
@@ -11252,18 +11258,16 @@
     </row>
     <row r="172">
       <c r="A172" s="20" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B172" s="21" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C172" s="22"/>
-      <c r="D172" s="22" t="s">
-        <v>661</v>
-      </c>
+      <c r="D172" s="22"/>
       <c r="E172" s="26"/>
       <c r="F172" s="22" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G172" s="26"/>
       <c r="H172" s="31"/>
@@ -11289,16 +11293,18 @@
     </row>
     <row r="173">
       <c r="A173" s="20" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B173" s="21" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C173" s="22"/>
-      <c r="D173" s="22"/>
+      <c r="D173" s="22" t="s">
+        <v>661</v>
+      </c>
       <c r="E173" s="26"/>
       <c r="F173" s="22" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G173" s="26"/>
       <c r="H173" s="31"/>
@@ -11324,18 +11330,18 @@
     </row>
     <row r="174">
       <c r="A174" s="20" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B174" s="21" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C174" s="22"/>
       <c r="D174" s="22" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E174" s="26"/>
       <c r="F174" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G174" s="26"/>
       <c r="H174" s="31"/>
@@ -11361,18 +11367,16 @@
     </row>
     <row r="175">
       <c r="A175" s="20" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B175" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C175" s="22"/>
-      <c r="D175" s="22" t="s">
-        <v>669</v>
-      </c>
+      <c r="D175" s="22"/>
       <c r="E175" s="26"/>
       <c r="F175" s="22" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G175" s="26"/>
       <c r="H175" s="31"/>
@@ -11398,18 +11402,18 @@
     </row>
     <row r="176">
       <c r="A176" s="20" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C176" s="22"/>
       <c r="D176" s="22" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E176" s="26"/>
       <c r="F176" s="22" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G176" s="26"/>
       <c r="H176" s="31"/>
@@ -11435,18 +11439,18 @@
     </row>
     <row r="177">
       <c r="A177" s="20" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C177" s="22"/>
       <c r="D177" s="22" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E177" s="26"/>
       <c r="F177" s="22" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G177" s="26"/>
       <c r="H177" s="31"/>
@@ -11472,18 +11476,18 @@
     </row>
     <row r="178">
       <c r="A178" s="20" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B178" s="21" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C178" s="22"/>
       <c r="D178" s="22" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E178" s="26"/>
       <c r="F178" s="22" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G178" s="26"/>
       <c r="H178" s="31"/>
@@ -11509,18 +11513,18 @@
     </row>
     <row r="179">
       <c r="A179" s="20" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B179" s="21" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C179" s="22"/>
       <c r="D179" s="22" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E179" s="26"/>
       <c r="F179" s="22" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G179" s="26"/>
       <c r="H179" s="31"/>
@@ -11546,18 +11550,18 @@
     </row>
     <row r="180">
       <c r="A180" s="20" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B180" s="21" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C180" s="22"/>
       <c r="D180" s="22" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E180" s="26"/>
       <c r="F180" s="22" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G180" s="26"/>
       <c r="H180" s="31"/>
@@ -11583,18 +11587,18 @@
     </row>
     <row r="181">
       <c r="A181" s="20" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B181" s="21" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C181" s="22"/>
       <c r="D181" s="22" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E181" s="26"/>
       <c r="F181" s="22" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G181" s="26"/>
       <c r="H181" s="31"/>
@@ -11620,18 +11624,18 @@
     </row>
     <row r="182">
       <c r="A182" s="20" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B182" s="21" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C182" s="22"/>
       <c r="D182" s="22" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E182" s="26"/>
       <c r="F182" s="22" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G182" s="26"/>
       <c r="H182" s="31"/>
@@ -11657,16 +11661,18 @@
     </row>
     <row r="183">
       <c r="A183" s="20" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B183" s="21" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C183" s="22"/>
-      <c r="D183" s="22"/>
+      <c r="D183" s="22" t="s">
+        <v>695</v>
+      </c>
       <c r="E183" s="26"/>
       <c r="F183" s="22" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G183" s="26"/>
       <c r="H183" s="31"/>
@@ -11692,16 +11698,18 @@
     </row>
     <row r="184">
       <c r="A184" s="20" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B184" s="21" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C184" s="22"/>
-      <c r="D184" s="22"/>
+      <c r="D184" s="22" t="s">
+        <v>699</v>
+      </c>
       <c r="E184" s="26"/>
       <c r="F184" s="22" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G184" s="26"/>
       <c r="H184" s="31"/>
@@ -11727,16 +11735,16 @@
     </row>
     <row r="185">
       <c r="A185" s="20" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B185" s="21" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C185" s="22"/>
       <c r="D185" s="22"/>
       <c r="E185" s="26"/>
       <c r="F185" s="22" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G185" s="26"/>
       <c r="H185" s="31"/>
@@ -11762,16 +11770,16 @@
     </row>
     <row r="186">
       <c r="A186" s="20" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B186" s="21" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C186" s="22"/>
       <c r="D186" s="22"/>
       <c r="E186" s="26"/>
       <c r="F186" s="22" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G186" s="26"/>
       <c r="H186" s="31"/>
@@ -11797,16 +11805,16 @@
     </row>
     <row r="187">
       <c r="A187" s="20" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B187" s="21" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C187" s="22"/>
       <c r="D187" s="22"/>
       <c r="E187" s="26"/>
       <c r="F187" s="22" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G187" s="26"/>
       <c r="H187" s="31"/>
@@ -11832,16 +11840,16 @@
     </row>
     <row r="188">
       <c r="A188" s="20" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B188" s="21" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C188" s="22"/>
       <c r="D188" s="22"/>
       <c r="E188" s="26"/>
       <c r="F188" s="22" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G188" s="26"/>
       <c r="H188" s="31"/>
@@ -11867,16 +11875,16 @@
     </row>
     <row r="189">
       <c r="A189" s="20" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B189" s="21" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C189" s="22"/>
       <c r="D189" s="22"/>
       <c r="E189" s="26"/>
       <c r="F189" s="22" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G189" s="26"/>
       <c r="H189" s="31"/>
@@ -11902,16 +11910,16 @@
     </row>
     <row r="190">
       <c r="A190" s="20" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B190" s="21" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C190" s="22"/>
       <c r="D190" s="22"/>
       <c r="E190" s="26"/>
       <c r="F190" s="22" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G190" s="26"/>
       <c r="H190" s="31"/>
@@ -11937,16 +11945,16 @@
     </row>
     <row r="191">
       <c r="A191" s="20" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B191" s="21" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C191" s="22"/>
       <c r="D191" s="22"/>
       <c r="E191" s="26"/>
       <c r="F191" s="22" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G191" s="26"/>
       <c r="H191" s="31"/>
@@ -11972,16 +11980,16 @@
     </row>
     <row r="192">
       <c r="A192" s="20" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B192" s="21" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C192" s="22"/>
       <c r="D192" s="22"/>
       <c r="E192" s="26"/>
       <c r="F192" s="22" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G192" s="26"/>
       <c r="H192" s="31"/>
@@ -12007,16 +12015,16 @@
     </row>
     <row r="193">
       <c r="A193" s="20" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B193" s="21" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C193" s="22"/>
       <c r="D193" s="22"/>
       <c r="E193" s="26"/>
       <c r="F193" s="22" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="G193" s="26"/>
       <c r="H193" s="31"/>
@@ -12042,16 +12050,16 @@
     </row>
     <row r="194">
       <c r="A194" s="20" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B194" s="21" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C194" s="22"/>
       <c r="D194" s="22"/>
       <c r="E194" s="26"/>
       <c r="F194" s="22" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G194" s="26"/>
       <c r="H194" s="31"/>
@@ -12077,16 +12085,16 @@
     </row>
     <row r="195">
       <c r="A195" s="20" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B195" s="21" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C195" s="22"/>
       <c r="D195" s="22"/>
       <c r="E195" s="26"/>
       <c r="F195" s="22" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G195" s="26"/>
       <c r="H195" s="31"/>
@@ -12112,16 +12120,16 @@
     </row>
     <row r="196">
       <c r="A196" s="20" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B196" s="21" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C196" s="22"/>
       <c r="D196" s="22"/>
       <c r="E196" s="26"/>
       <c r="F196" s="22" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G196" s="26"/>
       <c r="H196" s="31"/>
@@ -12147,16 +12155,16 @@
     </row>
     <row r="197">
       <c r="A197" s="20" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B197" s="21" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C197" s="22"/>
       <c r="D197" s="22"/>
       <c r="E197" s="26"/>
       <c r="F197" s="22" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G197" s="26"/>
       <c r="H197" s="31"/>
@@ -12182,16 +12190,16 @@
     </row>
     <row r="198">
       <c r="A198" s="20" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B198" s="21" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C198" s="22"/>
       <c r="D198" s="22"/>
       <c r="E198" s="26"/>
       <c r="F198" s="22" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G198" s="26"/>
       <c r="H198" s="31"/>
@@ -12217,16 +12225,16 @@
     </row>
     <row r="199">
       <c r="A199" s="20" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B199" s="21" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C199" s="22"/>
       <c r="D199" s="22"/>
       <c r="E199" s="26"/>
       <c r="F199" s="22" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G199" s="26"/>
       <c r="H199" s="31"/>
@@ -12252,16 +12260,16 @@
     </row>
     <row r="200">
       <c r="A200" s="20" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C200" s="22"/>
       <c r="D200" s="22"/>
       <c r="E200" s="26"/>
       <c r="F200" s="22" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G200" s="26"/>
       <c r="H200" s="31"/>
@@ -12287,16 +12295,16 @@
     </row>
     <row r="201">
       <c r="A201" s="20" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B201" s="21" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C201" s="22"/>
       <c r="D201" s="22"/>
       <c r="E201" s="26"/>
       <c r="F201" s="22" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="G201" s="26"/>
       <c r="H201" s="31"/>
@@ -12322,16 +12330,16 @@
     </row>
     <row r="202">
       <c r="A202" s="20" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B202" s="21" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C202" s="22"/>
       <c r="D202" s="22"/>
       <c r="E202" s="26"/>
       <c r="F202" s="22" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G202" s="26"/>
       <c r="H202" s="31"/>
@@ -12357,16 +12365,16 @@
     </row>
     <row r="203">
       <c r="A203" s="20" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B203" s="21" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C203" s="22"/>
       <c r="D203" s="22"/>
       <c r="E203" s="26"/>
       <c r="F203" s="22" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="G203" s="26"/>
       <c r="H203" s="31"/>
@@ -12392,16 +12400,16 @@
     </row>
     <row r="204">
       <c r="A204" s="20" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B204" s="21" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C204" s="22"/>
       <c r="D204" s="22"/>
       <c r="E204" s="26"/>
       <c r="F204" s="22" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G204" s="26"/>
       <c r="H204" s="31"/>
@@ -12427,16 +12435,16 @@
     </row>
     <row r="205">
       <c r="A205" s="20" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B205" s="21" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C205" s="22"/>
       <c r="D205" s="22"/>
       <c r="E205" s="26"/>
       <c r="F205" s="22" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G205" s="26"/>
       <c r="H205" s="31"/>
@@ -12462,16 +12470,16 @@
     </row>
     <row r="206">
       <c r="A206" s="20" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B206" s="21" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C206" s="22"/>
       <c r="D206" s="22"/>
       <c r="E206" s="26"/>
       <c r="F206" s="22" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G206" s="26"/>
       <c r="H206" s="31"/>
@@ -12497,16 +12505,16 @@
     </row>
     <row r="207">
       <c r="A207" s="20" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B207" s="21" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C207" s="22"/>
       <c r="D207" s="22"/>
       <c r="E207" s="26"/>
       <c r="F207" s="22" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G207" s="26"/>
       <c r="H207" s="31"/>
@@ -12532,16 +12540,16 @@
     </row>
     <row r="208">
       <c r="A208" s="20" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C208" s="22"/>
       <c r="D208" s="22"/>
       <c r="E208" s="26"/>
       <c r="F208" s="22" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G208" s="26"/>
       <c r="H208" s="31"/>
@@ -12567,16 +12575,16 @@
     </row>
     <row r="209">
       <c r="A209" s="20" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B209" s="21" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C209" s="22"/>
       <c r="D209" s="22"/>
       <c r="E209" s="26"/>
       <c r="F209" s="22" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G209" s="26"/>
       <c r="H209" s="31"/>
@@ -12602,16 +12610,16 @@
     </row>
     <row r="210">
       <c r="A210" s="20" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B210" s="21" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C210" s="22"/>
       <c r="D210" s="22"/>
       <c r="E210" s="26"/>
       <c r="F210" s="22" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G210" s="26"/>
       <c r="H210" s="31"/>
@@ -12637,16 +12645,16 @@
     </row>
     <row r="211">
       <c r="A211" s="20" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B211" s="21" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C211" s="22"/>
       <c r="D211" s="22"/>
       <c r="E211" s="26"/>
       <c r="F211" s="22" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G211" s="26"/>
       <c r="H211" s="31"/>
@@ -12672,16 +12680,16 @@
     </row>
     <row r="212">
       <c r="A212" s="20" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C212" s="22"/>
       <c r="D212" s="22"/>
       <c r="E212" s="26"/>
       <c r="F212" s="22" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G212" s="26"/>
       <c r="H212" s="31"/>
@@ -12707,16 +12715,16 @@
     </row>
     <row r="213">
       <c r="A213" s="20" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C213" s="22"/>
       <c r="D213" s="22"/>
       <c r="E213" s="26"/>
       <c r="F213" s="22" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G213" s="26"/>
       <c r="H213" s="31"/>
@@ -12742,16 +12750,16 @@
     </row>
     <row r="214">
       <c r="A214" s="20" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C214" s="22"/>
       <c r="D214" s="22"/>
       <c r="E214" s="26"/>
       <c r="F214" s="22" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G214" s="26"/>
       <c r="H214" s="31"/>
@@ -12777,16 +12785,16 @@
     </row>
     <row r="215">
       <c r="A215" s="20" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C215" s="22"/>
       <c r="D215" s="22"/>
       <c r="E215" s="26"/>
       <c r="F215" s="22" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G215" s="26"/>
       <c r="H215" s="31"/>
@@ -12811,17 +12819,17 @@
       <c r="AA215" s="25"/>
     </row>
     <row r="216">
-      <c r="A216" s="34" t="s">
-        <v>796</v>
+      <c r="A216" s="20" t="s">
+        <v>794</v>
       </c>
       <c r="B216" s="21" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C216" s="22"/>
       <c r="D216" s="22"/>
       <c r="E216" s="26"/>
       <c r="F216" s="22" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G216" s="26"/>
       <c r="H216" s="31"/>
@@ -12846,17 +12854,17 @@
       <c r="AA216" s="25"/>
     </row>
     <row r="217">
-      <c r="A217" s="34" t="s">
-        <v>799</v>
+      <c r="A217" s="20" t="s">
+        <v>797</v>
       </c>
       <c r="B217" s="21" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C217" s="22"/>
       <c r="D217" s="22"/>
       <c r="E217" s="26"/>
       <c r="F217" s="22" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G217" s="26"/>
       <c r="H217" s="31"/>
@@ -12882,16 +12890,16 @@
     </row>
     <row r="218">
       <c r="A218" s="34" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B218" s="21" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C218" s="22"/>
       <c r="D218" s="22"/>
       <c r="E218" s="26"/>
       <c r="F218" s="22" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G218" s="26"/>
       <c r="H218" s="31"/>
@@ -12917,16 +12925,16 @@
     </row>
     <row r="219">
       <c r="A219" s="34" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C219" s="22"/>
       <c r="D219" s="22"/>
       <c r="E219" s="26"/>
       <c r="F219" s="22" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G219" s="26"/>
       <c r="H219" s="31"/>
@@ -12952,16 +12960,16 @@
     </row>
     <row r="220">
       <c r="A220" s="34" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B220" s="21" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C220" s="22"/>
       <c r="D220" s="22"/>
       <c r="E220" s="26"/>
       <c r="F220" s="22" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G220" s="26"/>
       <c r="H220" s="31"/>
@@ -12987,16 +12995,16 @@
     </row>
     <row r="221">
       <c r="A221" s="34" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B221" s="21" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C221" s="22"/>
       <c r="D221" s="22"/>
       <c r="E221" s="26"/>
       <c r="F221" s="22" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G221" s="26"/>
       <c r="H221" s="31"/>
@@ -13022,16 +13030,16 @@
     </row>
     <row r="222">
       <c r="A222" s="34" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B222" s="21" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C222" s="22"/>
       <c r="D222" s="22"/>
       <c r="E222" s="26"/>
       <c r="F222" s="22" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G222" s="26"/>
       <c r="H222" s="31"/>
@@ -13056,17 +13064,17 @@
       <c r="AA222" s="25"/>
     </row>
     <row r="223">
-      <c r="A223" s="20" t="s">
-        <v>817</v>
+      <c r="A223" s="34" t="s">
+        <v>815</v>
       </c>
       <c r="B223" s="21" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C223" s="22"/>
       <c r="D223" s="22"/>
       <c r="E223" s="26"/>
       <c r="F223" s="22" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G223" s="26"/>
       <c r="H223" s="31"/>
@@ -13092,16 +13100,16 @@
     </row>
     <row r="224">
       <c r="A224" s="34" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C224" s="22"/>
       <c r="D224" s="22"/>
       <c r="E224" s="26"/>
       <c r="F224" s="22" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G224" s="26"/>
       <c r="H224" s="31"/>
@@ -13126,17 +13134,17 @@
       <c r="AA224" s="25"/>
     </row>
     <row r="225">
-      <c r="A225" s="35" t="s">
-        <v>823</v>
+      <c r="A225" s="20" t="s">
+        <v>821</v>
       </c>
       <c r="B225" s="21" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C225" s="22"/>
       <c r="D225" s="22"/>
       <c r="E225" s="26"/>
       <c r="F225" s="22" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="G225" s="26"/>
       <c r="H225" s="31"/>
@@ -13162,16 +13170,16 @@
     </row>
     <row r="226">
       <c r="A226" s="34" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B226" s="21" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C226" s="22"/>
       <c r="D226" s="22"/>
       <c r="E226" s="26"/>
       <c r="F226" s="22" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G226" s="26"/>
       <c r="H226" s="31"/>
@@ -13196,17 +13204,17 @@
       <c r="AA226" s="25"/>
     </row>
     <row r="227">
-      <c r="A227" s="34" t="s">
-        <v>829</v>
+      <c r="A227" s="35" t="s">
+        <v>827</v>
       </c>
       <c r="B227" s="21" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C227" s="22"/>
       <c r="D227" s="22"/>
       <c r="E227" s="26"/>
       <c r="F227" s="22" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G227" s="26"/>
       <c r="H227" s="31"/>
@@ -13232,16 +13240,16 @@
     </row>
     <row r="228">
       <c r="A228" s="34" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B228" s="21" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C228" s="22"/>
       <c r="D228" s="22"/>
       <c r="E228" s="26"/>
       <c r="F228" s="22" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G228" s="26"/>
       <c r="H228" s="31"/>
@@ -13267,16 +13275,16 @@
     </row>
     <row r="229">
       <c r="A229" s="34" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B229" s="21" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C229" s="22"/>
       <c r="D229" s="22"/>
       <c r="E229" s="26"/>
       <c r="F229" s="22" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G229" s="26"/>
       <c r="H229" s="31"/>
@@ -13302,16 +13310,16 @@
     </row>
     <row r="230">
       <c r="A230" s="34" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B230" s="21" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C230" s="22"/>
       <c r="D230" s="22"/>
       <c r="E230" s="26"/>
       <c r="F230" s="22" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G230" s="26"/>
       <c r="H230" s="31"/>
@@ -13337,16 +13345,16 @@
     </row>
     <row r="231">
       <c r="A231" s="34" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B231" s="21" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C231" s="22"/>
       <c r="D231" s="22"/>
       <c r="E231" s="26"/>
       <c r="F231" s="22" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G231" s="26"/>
       <c r="H231" s="31"/>
@@ -13372,16 +13380,16 @@
     </row>
     <row r="232">
       <c r="A232" s="34" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B232" s="21" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C232" s="22"/>
       <c r="D232" s="22"/>
       <c r="E232" s="26"/>
       <c r="F232" s="22" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G232" s="26"/>
       <c r="H232" s="31"/>
@@ -13407,23 +13415,21 @@
     </row>
     <row r="233">
       <c r="A233" s="34" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B233" s="21" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C233" s="22"/>
       <c r="D233" s="22"/>
       <c r="E233" s="26"/>
       <c r="F233" s="22" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="G233" s="26"/>
       <c r="H233" s="31"/>
       <c r="I233" s="26"/>
-      <c r="J233" s="24" t="s">
-        <v>850</v>
-      </c>
+      <c r="J233" s="27"/>
       <c r="K233" s="27"/>
       <c r="L233" s="25"/>
       <c r="M233" s="25"/>
@@ -13444,23 +13450,21 @@
     </row>
     <row r="234">
       <c r="A234" s="34" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="B234" s="21" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C234" s="22"/>
       <c r="D234" s="22"/>
       <c r="E234" s="26"/>
       <c r="F234" s="22" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="G234" s="26"/>
       <c r="H234" s="31"/>
       <c r="I234" s="26"/>
-      <c r="J234" s="24" t="s">
-        <v>854</v>
-      </c>
+      <c r="J234" s="27"/>
       <c r="K234" s="27"/>
       <c r="L234" s="25"/>
       <c r="M234" s="25"/>
@@ -13481,22 +13485,22 @@
     </row>
     <row r="235">
       <c r="A235" s="34" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="B235" s="21" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C235" s="22"/>
       <c r="D235" s="22"/>
       <c r="E235" s="26"/>
       <c r="F235" s="22" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="G235" s="26"/>
       <c r="H235" s="31"/>
       <c r="I235" s="26"/>
       <c r="J235" s="24" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="K235" s="27"/>
       <c r="L235" s="25"/>
@@ -13518,22 +13522,22 @@
     </row>
     <row r="236">
       <c r="A236" s="34" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B236" s="21" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C236" s="22"/>
       <c r="D236" s="22"/>
       <c r="E236" s="26"/>
       <c r="F236" s="22" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="G236" s="26"/>
       <c r="H236" s="31"/>
       <c r="I236" s="26"/>
       <c r="J236" s="24" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="K236" s="27"/>
       <c r="L236" s="25"/>
@@ -13555,22 +13559,22 @@
     </row>
     <row r="237">
       <c r="A237" s="34" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B237" s="21" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C237" s="22"/>
       <c r="D237" s="22"/>
       <c r="E237" s="26"/>
       <c r="F237" s="22" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="G237" s="26"/>
       <c r="H237" s="31"/>
       <c r="I237" s="26"/>
       <c r="J237" s="24" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="K237" s="27"/>
       <c r="L237" s="25"/>
@@ -13592,22 +13596,22 @@
     </row>
     <row r="238">
       <c r="A238" s="34" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B238" s="21" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C238" s="22"/>
       <c r="D238" s="22"/>
       <c r="E238" s="26"/>
       <c r="F238" s="22" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="G238" s="26"/>
       <c r="H238" s="31"/>
       <c r="I238" s="26"/>
       <c r="J238" s="24" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="K238" s="27"/>
       <c r="L238" s="25"/>
@@ -13629,24 +13633,22 @@
     </row>
     <row r="239">
       <c r="A239" s="34" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="B239" s="21" t="s">
-        <v>872</v>
-      </c>
-      <c r="C239" s="26"/>
-      <c r="D239" s="22" t="s">
-        <v>873</v>
-      </c>
+        <v>868</v>
+      </c>
+      <c r="C239" s="22"/>
+      <c r="D239" s="22"/>
       <c r="E239" s="26"/>
       <c r="F239" s="22" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="G239" s="26"/>
       <c r="H239" s="31"/>
       <c r="I239" s="26"/>
       <c r="J239" s="24" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="K239" s="27"/>
       <c r="L239" s="25"/>
@@ -13668,24 +13670,22 @@
     </row>
     <row r="240">
       <c r="A240" s="34" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="B240" s="21" t="s">
-        <v>877</v>
-      </c>
-      <c r="C240" s="26"/>
-      <c r="D240" s="22" t="s">
-        <v>878</v>
-      </c>
+        <v>872</v>
+      </c>
+      <c r="C240" s="22"/>
+      <c r="D240" s="22"/>
       <c r="E240" s="26"/>
       <c r="F240" s="22" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="G240" s="26"/>
       <c r="H240" s="31"/>
       <c r="I240" s="26"/>
       <c r="J240" s="24" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="K240" s="27"/>
       <c r="L240" s="25"/>
@@ -13707,22 +13707,24 @@
     </row>
     <row r="241">
       <c r="A241" s="34" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="B241" s="21" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="C241" s="26"/>
-      <c r="D241" s="22"/>
+      <c r="D241" s="22" t="s">
+        <v>877</v>
+      </c>
       <c r="E241" s="26"/>
       <c r="F241" s="22" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="G241" s="26"/>
       <c r="H241" s="31"/>
       <c r="I241" s="26"/>
       <c r="J241" s="24" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="K241" s="27"/>
       <c r="L241" s="25"/>
@@ -13744,22 +13746,24 @@
     </row>
     <row r="242">
       <c r="A242" s="34" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="B242" s="21" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="C242" s="26"/>
-      <c r="D242" s="22"/>
+      <c r="D242" s="22" t="s">
+        <v>882</v>
+      </c>
       <c r="E242" s="26"/>
       <c r="F242" s="22" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="G242" s="26"/>
       <c r="H242" s="31"/>
       <c r="I242" s="26"/>
       <c r="J242" s="24" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="K242" s="27"/>
       <c r="L242" s="25"/>
@@ -13781,24 +13785,22 @@
     </row>
     <row r="243">
       <c r="A243" s="34" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="B243" s="21" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C243" s="26"/>
-      <c r="D243" s="22" t="s">
-        <v>891</v>
-      </c>
+      <c r="D243" s="22"/>
       <c r="E243" s="26"/>
       <c r="F243" s="22" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="G243" s="26"/>
       <c r="H243" s="31"/>
       <c r="I243" s="26"/>
       <c r="J243" s="24" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="K243" s="27"/>
       <c r="L243" s="25"/>
@@ -13820,24 +13822,22 @@
     </row>
     <row r="244">
       <c r="A244" s="34" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="B244" s="21" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="C244" s="26"/>
-      <c r="D244" s="22" t="s">
-        <v>896</v>
-      </c>
+      <c r="D244" s="22"/>
       <c r="E244" s="26"/>
       <c r="F244" s="22" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="G244" s="26"/>
       <c r="H244" s="31"/>
       <c r="I244" s="26"/>
       <c r="J244" s="24" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="K244" s="27"/>
       <c r="L244" s="25"/>
@@ -13859,24 +13859,24 @@
     </row>
     <row r="245">
       <c r="A245" s="34" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="B245" s="21" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="C245" s="26"/>
       <c r="D245" s="22" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="E245" s="26"/>
       <c r="F245" s="22" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="G245" s="26"/>
       <c r="H245" s="31"/>
       <c r="I245" s="26"/>
       <c r="J245" s="24" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="K245" s="27"/>
       <c r="L245" s="25"/>
@@ -13898,22 +13898,24 @@
     </row>
     <row r="246">
       <c r="A246" s="34" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="B246" s="21" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="C246" s="26"/>
-      <c r="D246" s="22"/>
+      <c r="D246" s="22" t="s">
+        <v>900</v>
+      </c>
       <c r="E246" s="26"/>
       <c r="F246" s="22" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="G246" s="26"/>
       <c r="H246" s="31"/>
       <c r="I246" s="26"/>
       <c r="J246" s="24" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="K246" s="27"/>
       <c r="L246" s="25"/>
@@ -13935,22 +13937,24 @@
     </row>
     <row r="247">
       <c r="A247" s="34" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="B247" s="21" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="C247" s="26"/>
-      <c r="D247" s="22"/>
+      <c r="D247" s="22" t="s">
+        <v>905</v>
+      </c>
       <c r="E247" s="26"/>
       <c r="F247" s="22" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="G247" s="26"/>
       <c r="H247" s="31"/>
       <c r="I247" s="26"/>
       <c r="J247" s="24" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="K247" s="27"/>
       <c r="L247" s="25"/>
@@ -13972,22 +13976,22 @@
     </row>
     <row r="248">
       <c r="A248" s="34" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="B248" s="21" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C248" s="26"/>
       <c r="D248" s="22"/>
       <c r="E248" s="26"/>
       <c r="F248" s="22" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="G248" s="26"/>
       <c r="H248" s="31"/>
       <c r="I248" s="26"/>
       <c r="J248" s="24" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="K248" s="27"/>
       <c r="L248" s="25"/>
@@ -14009,22 +14013,22 @@
     </row>
     <row r="249">
       <c r="A249" s="34" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="B249" s="21" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C249" s="26"/>
       <c r="D249" s="22"/>
       <c r="E249" s="26"/>
       <c r="F249" s="22" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="G249" s="26"/>
       <c r="H249" s="31"/>
       <c r="I249" s="26"/>
       <c r="J249" s="24" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="K249" s="27"/>
       <c r="L249" s="25"/>
@@ -14046,22 +14050,22 @@
     </row>
     <row r="250">
       <c r="A250" s="34" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="B250" s="21" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C250" s="26"/>
       <c r="D250" s="22"/>
       <c r="E250" s="26"/>
       <c r="F250" s="22" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="G250" s="26"/>
       <c r="H250" s="31"/>
       <c r="I250" s="26"/>
       <c r="J250" s="24" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="K250" s="27"/>
       <c r="L250" s="25"/>
@@ -14082,23 +14086,23 @@
       <c r="AA250" s="25"/>
     </row>
     <row r="251">
-      <c r="A251" s="35" t="s">
-        <v>924</v>
+      <c r="A251" s="34" t="s">
+        <v>920</v>
       </c>
       <c r="B251" s="21" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="C251" s="26"/>
       <c r="D251" s="22"/>
       <c r="E251" s="26"/>
       <c r="F251" s="22" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="G251" s="26"/>
       <c r="H251" s="31"/>
       <c r="I251" s="26"/>
       <c r="J251" s="24" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="K251" s="27"/>
       <c r="L251" s="25"/>
@@ -14119,23 +14123,23 @@
       <c r="AA251" s="25"/>
     </row>
     <row r="252">
-      <c r="A252" s="35" t="s">
-        <v>928</v>
+      <c r="A252" s="34" t="s">
+        <v>924</v>
       </c>
       <c r="B252" s="21" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C252" s="26"/>
       <c r="D252" s="22"/>
       <c r="E252" s="26"/>
       <c r="F252" s="22" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="G252" s="26"/>
       <c r="H252" s="31"/>
       <c r="I252" s="26"/>
       <c r="J252" s="24" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="K252" s="27"/>
       <c r="L252" s="25"/>
@@ -14157,22 +14161,22 @@
     </row>
     <row r="253">
       <c r="A253" s="35" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B253" s="21" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C253" s="26"/>
       <c r="D253" s="22"/>
       <c r="E253" s="26"/>
       <c r="F253" s="22" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="G253" s="26"/>
       <c r="H253" s="31"/>
       <c r="I253" s="26"/>
       <c r="J253" s="24" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="K253" s="27"/>
       <c r="L253" s="25"/>
@@ -14194,22 +14198,22 @@
     </row>
     <row r="254">
       <c r="A254" s="35" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B254" s="21" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="C254" s="26"/>
       <c r="D254" s="22"/>
       <c r="E254" s="26"/>
       <c r="F254" s="22" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="G254" s="26"/>
       <c r="H254" s="31"/>
       <c r="I254" s="26"/>
       <c r="J254" s="24" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="K254" s="27"/>
       <c r="L254" s="25"/>
@@ -14231,22 +14235,22 @@
     </row>
     <row r="255">
       <c r="A255" s="35" t="s">
+        <v>936</v>
+      </c>
+      <c r="B255" s="21" t="s">
         <v>937</v>
-      </c>
-      <c r="B255" s="21" t="s">
-        <v>938</v>
       </c>
       <c r="C255" s="26"/>
       <c r="D255" s="22"/>
       <c r="E255" s="26"/>
       <c r="F255" s="22" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G255" s="26"/>
       <c r="H255" s="31"/>
       <c r="I255" s="26"/>
       <c r="J255" s="24" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K255" s="27"/>
       <c r="L255" s="25"/>
@@ -14268,22 +14272,22 @@
     </row>
     <row r="256">
       <c r="A256" s="35" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B256" s="21" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="C256" s="26"/>
       <c r="D256" s="22"/>
       <c r="E256" s="26"/>
       <c r="F256" s="22" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="G256" s="26"/>
       <c r="H256" s="31"/>
       <c r="I256" s="26"/>
       <c r="J256" s="24" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="K256" s="27"/>
       <c r="L256" s="25"/>
@@ -14304,23 +14308,23 @@
       <c r="AA256" s="25"/>
     </row>
     <row r="257">
-      <c r="A257" s="34" t="s">
+      <c r="A257" s="35" t="s">
+        <v>941</v>
+      </c>
+      <c r="B257" s="21" t="s">
         <v>942</v>
-      </c>
-      <c r="B257" s="21" t="s">
-        <v>943</v>
       </c>
       <c r="C257" s="26"/>
       <c r="D257" s="22"/>
       <c r="E257" s="26"/>
       <c r="F257" s="22" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G257" s="26"/>
       <c r="H257" s="31"/>
       <c r="I257" s="26"/>
       <c r="J257" s="24" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K257" s="27"/>
       <c r="L257" s="25"/>
@@ -14341,22 +14345,24 @@
       <c r="AA257" s="25"/>
     </row>
     <row r="258">
-      <c r="A258" s="34" t="s">
-        <v>946</v>
+      <c r="A258" s="35" t="s">
+        <v>945</v>
       </c>
       <c r="B258" s="21" t="s">
-        <v>947</v>
+        <v>933</v>
       </c>
       <c r="C258" s="26"/>
       <c r="D258" s="22"/>
       <c r="E258" s="26"/>
       <c r="F258" s="22" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
       <c r="G258" s="26"/>
       <c r="H258" s="31"/>
       <c r="I258" s="26"/>
-      <c r="J258" s="27"/>
+      <c r="J258" s="24" t="s">
+        <v>935</v>
+      </c>
       <c r="K258" s="27"/>
       <c r="L258" s="25"/>
       <c r="M258" s="25"/>
@@ -14377,22 +14383,22 @@
     </row>
     <row r="259">
       <c r="A259" s="34" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B259" s="21" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C259" s="26"/>
       <c r="D259" s="22"/>
       <c r="E259" s="26"/>
       <c r="F259" s="22" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="G259" s="26"/>
       <c r="H259" s="31"/>
       <c r="I259" s="26"/>
       <c r="J259" s="24" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="K259" s="27"/>
       <c r="L259" s="25"/>
@@ -14414,16 +14420,16 @@
     </row>
     <row r="260">
       <c r="A260" s="34" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B260" s="21" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C260" s="26"/>
       <c r="D260" s="22"/>
       <c r="E260" s="26"/>
       <c r="F260" s="22" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="G260" s="26"/>
       <c r="H260" s="31"/>
@@ -14449,22 +14455,22 @@
     </row>
     <row r="261">
       <c r="A261" s="34" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B261" s="21" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C261" s="26"/>
       <c r="D261" s="22"/>
       <c r="E261" s="26"/>
       <c r="F261" s="22" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="G261" s="26"/>
       <c r="H261" s="31"/>
       <c r="I261" s="26"/>
       <c r="J261" s="24" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="K261" s="27"/>
       <c r="L261" s="25"/>
@@ -14486,16 +14492,16 @@
     </row>
     <row r="262">
       <c r="A262" s="34" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B262" s="21" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C262" s="26"/>
       <c r="D262" s="22"/>
       <c r="E262" s="26"/>
       <c r="F262" s="22" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="G262" s="26"/>
       <c r="H262" s="31"/>
@@ -14520,25 +14526,23 @@
       <c r="AA262" s="25"/>
     </row>
     <row r="263">
-      <c r="A263" s="20" t="s">
-        <v>963</v>
+      <c r="A263" s="34" t="s">
+        <v>960</v>
       </c>
       <c r="B263" s="21" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C263" s="26"/>
-      <c r="D263" s="22" t="s">
-        <v>965</v>
-      </c>
+      <c r="D263" s="22"/>
       <c r="E263" s="26"/>
       <c r="F263" s="22" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="G263" s="26"/>
       <c r="H263" s="31"/>
       <c r="I263" s="26"/>
       <c r="J263" s="24" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="K263" s="27"/>
       <c r="L263" s="25"/>
@@ -14559,19 +14563,17 @@
       <c r="AA263" s="25"/>
     </row>
     <row r="264">
-      <c r="A264" s="20" t="s">
-        <v>968</v>
+      <c r="A264" s="34" t="s">
+        <v>964</v>
       </c>
       <c r="B264" s="21" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="C264" s="26"/>
-      <c r="D264" s="22" t="s">
-        <v>970</v>
-      </c>
+      <c r="D264" s="22"/>
       <c r="E264" s="26"/>
       <c r="F264" s="22" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="G264" s="26"/>
       <c r="H264" s="31"/>
@@ -14597,24 +14599,24 @@
     </row>
     <row r="265">
       <c r="A265" s="20" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="B265" s="21" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C265" s="26"/>
       <c r="D265" s="22" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="E265" s="26"/>
       <c r="F265" s="22" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="G265" s="26"/>
       <c r="H265" s="31"/>
       <c r="I265" s="26"/>
       <c r="J265" s="24" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="K265" s="27"/>
       <c r="L265" s="25"/>
@@ -14636,18 +14638,18 @@
     </row>
     <row r="266">
       <c r="A266" s="20" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="B266" s="21" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C266" s="26"/>
       <c r="D266" s="22" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="E266" s="26"/>
       <c r="F266" s="22" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="G266" s="26"/>
       <c r="H266" s="31"/>
@@ -14673,22 +14675,24 @@
     </row>
     <row r="267">
       <c r="A267" s="20" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="B267" s="21" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="C267" s="26"/>
-      <c r="D267" s="22"/>
+      <c r="D267" s="22" t="s">
+        <v>978</v>
+      </c>
       <c r="E267" s="26"/>
       <c r="F267" s="22" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="G267" s="26"/>
       <c r="H267" s="31"/>
       <c r="I267" s="26"/>
       <c r="J267" s="24" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="K267" s="27"/>
       <c r="L267" s="25"/>
@@ -14710,16 +14714,18 @@
     </row>
     <row r="268">
       <c r="A268" s="20" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="B268" s="21" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C268" s="26"/>
-      <c r="D268" s="22"/>
+      <c r="D268" s="22" t="s">
+        <v>983</v>
+      </c>
       <c r="E268" s="26"/>
       <c r="F268" s="22" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="G268" s="26"/>
       <c r="H268" s="31"/>
@@ -14745,22 +14751,22 @@
     </row>
     <row r="269">
       <c r="A269" s="20" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B269" s="21" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C269" s="26"/>
       <c r="D269" s="22"/>
       <c r="E269" s="26"/>
       <c r="F269" s="22" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="G269" s="26"/>
       <c r="H269" s="31"/>
       <c r="I269" s="26"/>
       <c r="J269" s="24" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="K269" s="27"/>
       <c r="L269" s="25"/>
@@ -14782,16 +14788,16 @@
     </row>
     <row r="270">
       <c r="A270" s="20" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B270" s="21" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C270" s="26"/>
       <c r="D270" s="22"/>
       <c r="E270" s="26"/>
       <c r="F270" s="22" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="G270" s="26"/>
       <c r="H270" s="31"/>
@@ -14817,22 +14823,22 @@
     </row>
     <row r="271">
       <c r="A271" s="20" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B271" s="21" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C271" s="26"/>
       <c r="D271" s="22"/>
       <c r="E271" s="26"/>
       <c r="F271" s="22" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="G271" s="26"/>
       <c r="H271" s="31"/>
       <c r="I271" s="26"/>
       <c r="J271" s="24" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="K271" s="27"/>
       <c r="L271" s="25"/>
@@ -14854,16 +14860,16 @@
     </row>
     <row r="272">
       <c r="A272" s="20" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B272" s="21" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C272" s="26"/>
       <c r="D272" s="22"/>
       <c r="E272" s="26"/>
       <c r="F272" s="22" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="G272" s="26"/>
       <c r="H272" s="31"/>
@@ -14889,22 +14895,22 @@
     </row>
     <row r="273">
       <c r="A273" s="20" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B273" s="21" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C273" s="26"/>
       <c r="D273" s="22"/>
       <c r="E273" s="26"/>
       <c r="F273" s="22" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="G273" s="26"/>
       <c r="H273" s="31"/>
       <c r="I273" s="26"/>
       <c r="J273" s="24" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="K273" s="27"/>
       <c r="L273" s="25"/>
@@ -14926,16 +14932,16 @@
     </row>
     <row r="274">
       <c r="A274" s="20" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B274" s="21" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C274" s="26"/>
       <c r="D274" s="22"/>
       <c r="E274" s="26"/>
       <c r="F274" s="22" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="G274" s="26"/>
       <c r="H274" s="31"/>
@@ -14961,22 +14967,22 @@
     </row>
     <row r="275">
       <c r="A275" s="20" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B275" s="21" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C275" s="26"/>
       <c r="D275" s="22"/>
       <c r="E275" s="26"/>
       <c r="F275" s="22" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="G275" s="26"/>
       <c r="H275" s="31"/>
       <c r="I275" s="26"/>
       <c r="J275" s="24" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="K275" s="27"/>
       <c r="L275" s="25"/>
@@ -14998,16 +15004,16 @@
     </row>
     <row r="276">
       <c r="A276" s="20" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B276" s="21" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C276" s="26"/>
       <c r="D276" s="22"/>
       <c r="E276" s="26"/>
       <c r="F276" s="22" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G276" s="26"/>
       <c r="H276" s="31"/>
@@ -15033,22 +15039,22 @@
     </row>
     <row r="277">
       <c r="A277" s="20" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B277" s="21" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C277" s="26"/>
       <c r="D277" s="22"/>
       <c r="E277" s="26"/>
       <c r="F277" s="22" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="G277" s="26"/>
       <c r="H277" s="31"/>
       <c r="I277" s="26"/>
       <c r="J277" s="24" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="K277" s="27"/>
       <c r="L277" s="25"/>
@@ -15070,16 +15076,16 @@
     </row>
     <row r="278">
       <c r="A278" s="20" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B278" s="21" t="s">
-        <v>969</v>
+        <v>1018</v>
       </c>
       <c r="C278" s="26"/>
       <c r="D278" s="22"/>
       <c r="E278" s="26"/>
       <c r="F278" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="G278" s="26"/>
       <c r="H278" s="31"/>
@@ -15105,22 +15111,22 @@
     </row>
     <row r="279">
       <c r="A279" s="20" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B279" s="21" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C279" s="26"/>
       <c r="D279" s="22"/>
       <c r="E279" s="26"/>
       <c r="F279" s="22" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="G279" s="26"/>
       <c r="H279" s="31"/>
       <c r="I279" s="26"/>
       <c r="J279" s="24" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="K279" s="27"/>
       <c r="L279" s="25"/>
@@ -15142,16 +15148,16 @@
     </row>
     <row r="280">
       <c r="A280" s="20" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B280" s="21" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C280" s="26"/>
       <c r="D280" s="22"/>
       <c r="E280" s="26"/>
       <c r="F280" s="22" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="G280" s="26"/>
       <c r="H280" s="31"/>
@@ -15177,22 +15183,22 @@
     </row>
     <row r="281">
       <c r="A281" s="20" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B281" s="21" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C281" s="26"/>
       <c r="D281" s="22"/>
       <c r="E281" s="26"/>
       <c r="F281" s="22" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="G281" s="26"/>
       <c r="H281" s="31"/>
       <c r="I281" s="26"/>
       <c r="J281" s="24" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="K281" s="27"/>
       <c r="L281" s="25"/>
@@ -15214,16 +15220,16 @@
     </row>
     <row r="282">
       <c r="A282" s="20" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B282" s="21" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C282" s="26"/>
       <c r="D282" s="22"/>
       <c r="E282" s="26"/>
       <c r="F282" s="22" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="G282" s="26"/>
       <c r="H282" s="31"/>
@@ -15249,22 +15255,22 @@
     </row>
     <row r="283">
       <c r="A283" s="20" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B283" s="21" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C283" s="26"/>
       <c r="D283" s="22"/>
       <c r="E283" s="26"/>
       <c r="F283" s="22" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="G283" s="26"/>
       <c r="H283" s="31"/>
       <c r="I283" s="26"/>
       <c r="J283" s="24" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="K283" s="27"/>
       <c r="L283" s="25"/>
@@ -15286,16 +15292,16 @@
     </row>
     <row r="284">
       <c r="A284" s="20" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B284" s="21" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C284" s="26"/>
       <c r="D284" s="22"/>
       <c r="E284" s="26"/>
       <c r="F284" s="22" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="G284" s="26"/>
       <c r="H284" s="31"/>
@@ -15321,22 +15327,22 @@
     </row>
     <row r="285">
       <c r="A285" s="20" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B285" s="21" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C285" s="26"/>
       <c r="D285" s="22"/>
       <c r="E285" s="26"/>
       <c r="F285" s="22" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="G285" s="26"/>
       <c r="H285" s="31"/>
       <c r="I285" s="26"/>
       <c r="J285" s="24" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="K285" s="27"/>
       <c r="L285" s="25"/>
@@ -15358,16 +15364,16 @@
     </row>
     <row r="286">
       <c r="A286" s="20" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B286" s="21" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C286" s="26"/>
       <c r="D286" s="22"/>
       <c r="E286" s="26"/>
       <c r="F286" s="22" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="G286" s="26"/>
       <c r="H286" s="31"/>
@@ -15393,22 +15399,22 @@
     </row>
     <row r="287">
       <c r="A287" s="20" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B287" s="21" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C287" s="26"/>
       <c r="D287" s="22"/>
       <c r="E287" s="26"/>
       <c r="F287" s="22" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G287" s="26"/>
       <c r="H287" s="31"/>
       <c r="I287" s="26"/>
       <c r="J287" s="24" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="K287" s="27"/>
       <c r="L287" s="25"/>
@@ -15430,16 +15436,16 @@
     </row>
     <row r="288">
       <c r="A288" s="20" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B288" s="21" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C288" s="26"/>
       <c r="D288" s="22"/>
       <c r="E288" s="26"/>
       <c r="F288" s="22" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="G288" s="26"/>
       <c r="H288" s="31"/>
@@ -15465,22 +15471,22 @@
     </row>
     <row r="289">
       <c r="A289" s="20" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B289" s="21" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C289" s="26"/>
       <c r="D289" s="22"/>
       <c r="E289" s="26"/>
       <c r="F289" s="22" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="G289" s="26"/>
       <c r="H289" s="31"/>
       <c r="I289" s="26"/>
       <c r="J289" s="24" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="K289" s="27"/>
       <c r="L289" s="25"/>
@@ -15502,16 +15508,16 @@
     </row>
     <row r="290">
       <c r="A290" s="20" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B290" s="21" t="s">
-        <v>1057</v>
+        <v>1011</v>
       </c>
       <c r="C290" s="26"/>
       <c r="D290" s="22"/>
       <c r="E290" s="26"/>
       <c r="F290" s="22" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="G290" s="26"/>
       <c r="H290" s="31"/>
@@ -15537,22 +15543,22 @@
     </row>
     <row r="291">
       <c r="A291" s="20" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B291" s="21" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="C291" s="26"/>
       <c r="D291" s="22"/>
       <c r="E291" s="26"/>
       <c r="F291" s="22" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="G291" s="26"/>
       <c r="H291" s="31"/>
       <c r="I291" s="26"/>
       <c r="J291" s="24" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="K291" s="27"/>
       <c r="L291" s="25"/>
@@ -15574,16 +15580,16 @@
     </row>
     <row r="292">
       <c r="A292" s="20" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B292" s="21" t="s">
-        <v>969</v>
+        <v>1061</v>
       </c>
       <c r="C292" s="26"/>
       <c r="D292" s="22"/>
       <c r="E292" s="26"/>
       <c r="F292" s="22" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="G292" s="26"/>
       <c r="H292" s="31"/>
@@ -15609,22 +15615,22 @@
     </row>
     <row r="293">
       <c r="A293" s="20" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B293" s="21" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C293" s="26"/>
       <c r="D293" s="22"/>
       <c r="E293" s="26"/>
       <c r="F293" s="22" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="G293" s="26"/>
       <c r="H293" s="31"/>
       <c r="I293" s="26"/>
       <c r="J293" s="24" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="K293" s="27"/>
       <c r="L293" s="25"/>
@@ -15646,16 +15652,16 @@
     </row>
     <row r="294">
       <c r="A294" s="20" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B294" s="21" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C294" s="26"/>
       <c r="D294" s="22"/>
       <c r="E294" s="26"/>
       <c r="F294" s="22" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="G294" s="26"/>
       <c r="H294" s="31"/>
@@ -15681,22 +15687,22 @@
     </row>
     <row r="295">
       <c r="A295" s="20" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B295" s="21" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C295" s="26"/>
       <c r="D295" s="22"/>
       <c r="E295" s="26"/>
       <c r="F295" s="22" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="G295" s="26"/>
       <c r="H295" s="31"/>
       <c r="I295" s="26"/>
       <c r="J295" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="K295" s="27"/>
       <c r="L295" s="25"/>
@@ -15718,16 +15724,16 @@
     </row>
     <row r="296">
       <c r="A296" s="20" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B296" s="21" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C296" s="26"/>
       <c r="D296" s="22"/>
       <c r="E296" s="26"/>
       <c r="F296" s="22" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="G296" s="26"/>
       <c r="H296" s="31"/>
@@ -15753,22 +15759,22 @@
     </row>
     <row r="297">
       <c r="A297" s="20" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B297" s="21" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C297" s="26"/>
       <c r="D297" s="22"/>
       <c r="E297" s="26"/>
       <c r="F297" s="22" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="G297" s="26"/>
       <c r="H297" s="31"/>
       <c r="I297" s="26"/>
       <c r="J297" s="24" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K297" s="27"/>
       <c r="L297" s="25"/>
@@ -15790,16 +15796,16 @@
     </row>
     <row r="298">
       <c r="A298" s="20" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B298" s="21" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C298" s="26"/>
       <c r="D298" s="22"/>
       <c r="E298" s="26"/>
       <c r="F298" s="22" t="s">
-        <v>1039</v>
+        <v>1080</v>
       </c>
       <c r="G298" s="26"/>
       <c r="H298" s="31"/>
@@ -15825,22 +15831,22 @@
     </row>
     <row r="299">
       <c r="A299" s="20" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B299" s="21" t="s">
         <v>1082</v>
-      </c>
-      <c r="B299" s="21" t="s">
-        <v>1083</v>
       </c>
       <c r="C299" s="26"/>
       <c r="D299" s="22"/>
       <c r="E299" s="26"/>
       <c r="F299" s="22" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G299" s="26"/>
       <c r="H299" s="31"/>
       <c r="I299" s="26"/>
       <c r="J299" s="24" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="K299" s="27"/>
       <c r="L299" s="25"/>
@@ -15862,16 +15868,16 @@
     </row>
     <row r="300">
       <c r="A300" s="20" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B300" s="21" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C300" s="26"/>
       <c r="D300" s="22"/>
       <c r="E300" s="26"/>
       <c r="F300" s="22" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="G300" s="26"/>
       <c r="H300" s="31"/>
@@ -15897,22 +15903,22 @@
     </row>
     <row r="301">
       <c r="A301" s="20" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B301" s="21" t="s">
         <v>1087</v>
-      </c>
-      <c r="B301" s="21" t="s">
-        <v>1088</v>
       </c>
       <c r="C301" s="26"/>
       <c r="D301" s="22"/>
       <c r="E301" s="26"/>
       <c r="F301" s="22" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="G301" s="26"/>
       <c r="H301" s="31"/>
       <c r="I301" s="26"/>
       <c r="J301" s="24" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="K301" s="27"/>
       <c r="L301" s="25"/>
@@ -15934,16 +15940,16 @@
     </row>
     <row r="302">
       <c r="A302" s="20" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B302" s="21" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C302" s="26"/>
       <c r="D302" s="22"/>
       <c r="E302" s="26"/>
       <c r="F302" s="22" t="s">
-        <v>1092</v>
+        <v>1049</v>
       </c>
       <c r="G302" s="26"/>
       <c r="H302" s="31"/>
@@ -15969,22 +15975,22 @@
     </row>
     <row r="303">
       <c r="A303" s="20" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B303" s="21" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C303" s="26"/>
       <c r="D303" s="22"/>
       <c r="E303" s="26"/>
       <c r="F303" s="22" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G303" s="26"/>
       <c r="H303" s="31"/>
       <c r="I303" s="26"/>
       <c r="J303" s="24" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="K303" s="27"/>
       <c r="L303" s="25"/>
@@ -16006,18 +16012,16 @@
     </row>
     <row r="304">
       <c r="A304" s="20" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B304" s="21" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C304" s="22" t="s">
-        <v>1099</v>
-      </c>
+        <v>1011</v>
+      </c>
+      <c r="C304" s="26"/>
       <c r="D304" s="22"/>
       <c r="E304" s="26"/>
       <c r="F304" s="22" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="G304" s="26"/>
       <c r="H304" s="31"/>
@@ -16043,22 +16047,22 @@
     </row>
     <row r="305">
       <c r="A305" s="20" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="B305" s="21" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="C305" s="26"/>
       <c r="D305" s="22"/>
       <c r="E305" s="26"/>
       <c r="F305" s="22" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="G305" s="26"/>
       <c r="H305" s="31"/>
       <c r="I305" s="26"/>
       <c r="J305" s="24" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="K305" s="27"/>
       <c r="L305" s="25"/>
@@ -16080,23 +16084,23 @@
     </row>
     <row r="306">
       <c r="A306" s="20" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="B306" s="21" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C306" s="26"/>
+        <v>1102</v>
+      </c>
+      <c r="C306" s="22" t="s">
+        <v>1103</v>
+      </c>
       <c r="D306" s="22"/>
       <c r="E306" s="26"/>
       <c r="F306" s="22" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="G306" s="26"/>
       <c r="H306" s="31"/>
       <c r="I306" s="26"/>
-      <c r="J306" s="24" t="s">
-        <v>1108</v>
-      </c>
+      <c r="J306" s="27"/>
       <c r="K306" s="27"/>
       <c r="L306" s="25"/>
       <c r="M306" s="25"/>
@@ -16117,22 +16121,22 @@
     </row>
     <row r="307">
       <c r="A307" s="20" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="B307" s="21" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C307" s="26"/>
       <c r="D307" s="22"/>
       <c r="E307" s="26"/>
       <c r="F307" s="22" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="G307" s="26"/>
       <c r="H307" s="31"/>
       <c r="I307" s="26"/>
       <c r="J307" s="24" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="K307" s="27"/>
       <c r="L307" s="25"/>
@@ -16154,22 +16158,22 @@
     </row>
     <row r="308">
       <c r="A308" s="20" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="B308" s="21" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="C308" s="26"/>
       <c r="D308" s="22"/>
       <c r="E308" s="26"/>
       <c r="F308" s="22" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="G308" s="26"/>
       <c r="H308" s="31"/>
       <c r="I308" s="26"/>
       <c r="J308" s="24" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="K308" s="27"/>
       <c r="L308" s="25"/>
@@ -16191,22 +16195,22 @@
     </row>
     <row r="309">
       <c r="A309" s="20" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="B309" s="21" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="C309" s="26"/>
       <c r="D309" s="22"/>
       <c r="E309" s="26"/>
       <c r="F309" s="22" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="G309" s="26"/>
       <c r="H309" s="31"/>
       <c r="I309" s="26"/>
       <c r="J309" s="24" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="K309" s="27"/>
       <c r="L309" s="25"/>
@@ -16228,22 +16232,22 @@
     </row>
     <row r="310">
       <c r="A310" s="20" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="B310" s="21" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="C310" s="26"/>
       <c r="D310" s="22"/>
       <c r="E310" s="26"/>
       <c r="F310" s="22" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="G310" s="26"/>
       <c r="H310" s="31"/>
       <c r="I310" s="26"/>
       <c r="J310" s="24" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="K310" s="27"/>
       <c r="L310" s="25"/>
@@ -16265,22 +16269,22 @@
     </row>
     <row r="311">
       <c r="A311" s="20" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="B311" s="21" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="C311" s="26"/>
       <c r="D311" s="22"/>
       <c r="E311" s="26"/>
       <c r="F311" s="22" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="G311" s="26"/>
       <c r="H311" s="31"/>
       <c r="I311" s="26"/>
       <c r="J311" s="24" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="K311" s="27"/>
       <c r="L311" s="25"/>
@@ -16302,22 +16306,22 @@
     </row>
     <row r="312">
       <c r="A312" s="20" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="B312" s="21" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C312" s="26"/>
       <c r="D312" s="22"/>
       <c r="E312" s="26"/>
       <c r="F312" s="22" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="G312" s="26"/>
       <c r="H312" s="31"/>
       <c r="I312" s="26"/>
       <c r="J312" s="24" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="K312" s="27"/>
       <c r="L312" s="25"/>
@@ -16339,22 +16343,22 @@
     </row>
     <row r="313">
       <c r="A313" s="20" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B313" s="21" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C313" s="26"/>
       <c r="D313" s="22"/>
       <c r="E313" s="26"/>
       <c r="F313" s="22" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="G313" s="26"/>
       <c r="H313" s="31"/>
       <c r="I313" s="26"/>
       <c r="J313" s="24" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="K313" s="27"/>
       <c r="L313" s="25"/>
@@ -16376,22 +16380,22 @@
     </row>
     <row r="314">
       <c r="A314" s="20" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="B314" s="21" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C314" s="26"/>
       <c r="D314" s="22"/>
       <c r="E314" s="26"/>
       <c r="F314" s="22" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="G314" s="26"/>
       <c r="H314" s="31"/>
       <c r="I314" s="26"/>
       <c r="J314" s="24" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="K314" s="27"/>
       <c r="L314" s="25"/>
@@ -16413,22 +16417,22 @@
     </row>
     <row r="315">
       <c r="A315" s="20" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="B315" s="21" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C315" s="26"/>
       <c r="D315" s="22"/>
       <c r="E315" s="26"/>
       <c r="F315" s="22" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="G315" s="26"/>
       <c r="H315" s="31"/>
       <c r="I315" s="26"/>
       <c r="J315" s="24" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="K315" s="27"/>
       <c r="L315" s="25"/>
@@ -16450,22 +16454,22 @@
     </row>
     <row r="316">
       <c r="A316" s="20" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="B316" s="21" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="C316" s="26"/>
       <c r="D316" s="22"/>
       <c r="E316" s="26"/>
       <c r="F316" s="22" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="G316" s="26"/>
       <c r="H316" s="31"/>
       <c r="I316" s="26"/>
       <c r="J316" s="24" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="K316" s="27"/>
       <c r="L316" s="25"/>
@@ -16487,22 +16491,22 @@
     </row>
     <row r="317">
       <c r="A317" s="20" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="B317" s="21" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="C317" s="26"/>
       <c r="D317" s="22"/>
       <c r="E317" s="26"/>
       <c r="F317" s="22" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="G317" s="26"/>
       <c r="H317" s="31"/>
       <c r="I317" s="26"/>
       <c r="J317" s="24" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="K317" s="27"/>
       <c r="L317" s="25"/>
@@ -16524,22 +16528,22 @@
     </row>
     <row r="318">
       <c r="A318" s="20" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="B318" s="21" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="C318" s="26"/>
       <c r="D318" s="22"/>
       <c r="E318" s="26"/>
       <c r="F318" s="22" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="G318" s="26"/>
       <c r="H318" s="31"/>
       <c r="I318" s="26"/>
       <c r="J318" s="24" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="K318" s="27"/>
       <c r="L318" s="25"/>
@@ -16561,22 +16565,22 @@
     </row>
     <row r="319">
       <c r="A319" s="20" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="B319" s="21" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="C319" s="26"/>
       <c r="D319" s="22"/>
       <c r="E319" s="26"/>
       <c r="F319" s="22" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="G319" s="26"/>
       <c r="H319" s="31"/>
       <c r="I319" s="26"/>
       <c r="J319" s="24" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="K319" s="27"/>
       <c r="L319" s="25"/>
@@ -16598,22 +16602,22 @@
     </row>
     <row r="320">
       <c r="A320" s="20" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="B320" s="21" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="C320" s="26"/>
       <c r="D320" s="22"/>
       <c r="E320" s="26"/>
       <c r="F320" s="22" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="G320" s="26"/>
       <c r="H320" s="31"/>
       <c r="I320" s="26"/>
       <c r="J320" s="24" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="K320" s="27"/>
       <c r="L320" s="25"/>
@@ -16635,22 +16639,22 @@
     </row>
     <row r="321">
       <c r="A321" s="20" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="B321" s="21" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="C321" s="26"/>
       <c r="D321" s="22"/>
       <c r="E321" s="26"/>
       <c r="F321" s="22" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="G321" s="26"/>
       <c r="H321" s="31"/>
       <c r="I321" s="26"/>
       <c r="J321" s="24" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="K321" s="27"/>
       <c r="L321" s="25"/>
@@ -16672,22 +16676,22 @@
     </row>
     <row r="322">
       <c r="A322" s="20" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B322" s="21" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="C322" s="26"/>
       <c r="D322" s="22"/>
       <c r="E322" s="26"/>
       <c r="F322" s="22" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="G322" s="26"/>
       <c r="H322" s="31"/>
       <c r="I322" s="26"/>
       <c r="J322" s="24" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="K322" s="27"/>
       <c r="L322" s="25"/>
@@ -16709,22 +16713,22 @@
     </row>
     <row r="323">
       <c r="A323" s="20" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="B323" s="21" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="C323" s="26"/>
       <c r="D323" s="22"/>
       <c r="E323" s="26"/>
       <c r="F323" s="22" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="G323" s="26"/>
       <c r="H323" s="31"/>
       <c r="I323" s="26"/>
       <c r="J323" s="24" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="K323" s="27"/>
       <c r="L323" s="25"/>
@@ -16746,22 +16750,22 @@
     </row>
     <row r="324">
       <c r="A324" s="20" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="B324" s="21" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="C324" s="26"/>
       <c r="D324" s="22"/>
       <c r="E324" s="26"/>
       <c r="F324" s="22" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="G324" s="26"/>
       <c r="H324" s="31"/>
       <c r="I324" s="26"/>
       <c r="J324" s="24" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="K324" s="27"/>
       <c r="L324" s="25"/>
@@ -16783,22 +16787,22 @@
     </row>
     <row r="325">
       <c r="A325" s="20" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="B325" s="21" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="C325" s="26"/>
       <c r="D325" s="22"/>
       <c r="E325" s="26"/>
       <c r="F325" s="22" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="G325" s="26"/>
       <c r="H325" s="31"/>
       <c r="I325" s="26"/>
       <c r="J325" s="24" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="K325" s="27"/>
       <c r="L325" s="25"/>
@@ -16820,22 +16824,22 @@
     </row>
     <row r="326">
       <c r="A326" s="20" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="B326" s="21" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="C326" s="26"/>
       <c r="D326" s="22"/>
       <c r="E326" s="26"/>
       <c r="F326" s="22" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="G326" s="26"/>
       <c r="H326" s="31"/>
       <c r="I326" s="26"/>
       <c r="J326" s="24" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="K326" s="27"/>
       <c r="L326" s="25"/>
@@ -16857,22 +16861,22 @@
     </row>
     <row r="327">
       <c r="A327" s="20" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="B327" s="21" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="C327" s="26"/>
       <c r="D327" s="22"/>
       <c r="E327" s="26"/>
       <c r="F327" s="22" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="G327" s="26"/>
       <c r="H327" s="31"/>
       <c r="I327" s="26"/>
       <c r="J327" s="24" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="K327" s="27"/>
       <c r="L327" s="25"/>
@@ -16894,22 +16898,22 @@
     </row>
     <row r="328">
       <c r="A328" s="20" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="B328" s="21" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="C328" s="26"/>
       <c r="D328" s="22"/>
       <c r="E328" s="26"/>
       <c r="F328" s="22" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="G328" s="26"/>
       <c r="H328" s="31"/>
       <c r="I328" s="26"/>
       <c r="J328" s="24" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="K328" s="27"/>
       <c r="L328" s="25"/>
@@ -16931,22 +16935,22 @@
     </row>
     <row r="329">
       <c r="A329" s="20" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="B329" s="21" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="C329" s="26"/>
       <c r="D329" s="22"/>
       <c r="E329" s="26"/>
       <c r="F329" s="22" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="G329" s="26"/>
       <c r="H329" s="31"/>
       <c r="I329" s="26"/>
       <c r="J329" s="24" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="K329" s="27"/>
       <c r="L329" s="25"/>
@@ -16968,22 +16972,22 @@
     </row>
     <row r="330">
       <c r="A330" s="20" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="B330" s="21" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="C330" s="26"/>
       <c r="D330" s="22"/>
       <c r="E330" s="26"/>
       <c r="F330" s="22" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="G330" s="26"/>
       <c r="H330" s="31"/>
       <c r="I330" s="26"/>
       <c r="J330" s="24" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="K330" s="27"/>
       <c r="L330" s="25"/>
@@ -17005,22 +17009,22 @@
     </row>
     <row r="331">
       <c r="A331" s="20" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="B331" s="21" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="C331" s="26"/>
       <c r="D331" s="22"/>
       <c r="E331" s="26"/>
       <c r="F331" s="22" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="G331" s="26"/>
       <c r="H331" s="31"/>
       <c r="I331" s="26"/>
       <c r="J331" s="24" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="K331" s="27"/>
       <c r="L331" s="25"/>
@@ -17042,22 +17046,22 @@
     </row>
     <row r="332">
       <c r="A332" s="20" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="B332" s="21" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="C332" s="26"/>
       <c r="D332" s="22"/>
       <c r="E332" s="26"/>
       <c r="F332" s="22" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="G332" s="26"/>
       <c r="H332" s="31"/>
       <c r="I332" s="26"/>
       <c r="J332" s="24" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="K332" s="27"/>
       <c r="L332" s="25"/>
@@ -17079,22 +17083,22 @@
     </row>
     <row r="333">
       <c r="A333" s="20" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="B333" s="21" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="C333" s="26"/>
       <c r="D333" s="22"/>
       <c r="E333" s="26"/>
       <c r="F333" s="22" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="G333" s="26"/>
       <c r="H333" s="31"/>
       <c r="I333" s="26"/>
       <c r="J333" s="24" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="K333" s="27"/>
       <c r="L333" s="25"/>
@@ -17116,22 +17120,22 @@
     </row>
     <row r="334">
       <c r="A334" s="20" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="B334" s="21" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="C334" s="26"/>
       <c r="D334" s="22"/>
       <c r="E334" s="26"/>
       <c r="F334" s="22" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="G334" s="26"/>
       <c r="H334" s="31"/>
       <c r="I334" s="26"/>
       <c r="J334" s="24" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="K334" s="27"/>
       <c r="L334" s="25"/>
@@ -17153,24 +17157,22 @@
     </row>
     <row r="335">
       <c r="A335" s="20" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="B335" s="21" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="C335" s="26"/>
-      <c r="D335" s="22" t="s">
-        <v>1223</v>
-      </c>
+      <c r="D335" s="22"/>
       <c r="E335" s="26"/>
       <c r="F335" s="22" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="G335" s="26"/>
       <c r="H335" s="31"/>
       <c r="I335" s="26"/>
       <c r="J335" s="24" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="K335" s="27"/>
       <c r="L335" s="25"/>
@@ -17192,24 +17194,22 @@
     </row>
     <row r="336">
       <c r="A336" s="20" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="B336" s="21" t="s">
-        <v>986</v>
+        <v>1222</v>
       </c>
       <c r="C336" s="26"/>
-      <c r="D336" s="22" t="s">
-        <v>1227</v>
-      </c>
+      <c r="D336" s="22"/>
       <c r="E336" s="26"/>
       <c r="F336" s="22" t="s">
-        <v>1033</v>
+        <v>1223</v>
       </c>
       <c r="G336" s="26"/>
       <c r="H336" s="31"/>
       <c r="I336" s="26"/>
       <c r="J336" s="24" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="K336" s="27"/>
       <c r="L336" s="25"/>
@@ -17231,22 +17231,24 @@
     </row>
     <row r="337">
       <c r="A337" s="20" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="B337" s="21" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="C337" s="26"/>
-      <c r="D337" s="22"/>
+      <c r="D337" s="22" t="s">
+        <v>1227</v>
+      </c>
       <c r="E337" s="26"/>
       <c r="F337" s="22" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="G337" s="26"/>
       <c r="H337" s="31"/>
       <c r="I337" s="26"/>
       <c r="J337" s="24" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="K337" s="27"/>
       <c r="L337" s="25"/>
@@ -17268,22 +17270,24 @@
     </row>
     <row r="338">
       <c r="A338" s="20" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="B338" s="21" t="s">
-        <v>1234</v>
+        <v>990</v>
       </c>
       <c r="C338" s="26"/>
-      <c r="D338" s="22"/>
+      <c r="D338" s="22" t="s">
+        <v>1231</v>
+      </c>
       <c r="E338" s="26"/>
       <c r="F338" s="22" t="s">
-        <v>1235</v>
+        <v>1037</v>
       </c>
       <c r="G338" s="26"/>
       <c r="H338" s="31"/>
       <c r="I338" s="26"/>
       <c r="J338" s="24" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="K338" s="27"/>
       <c r="L338" s="25"/>
@@ -17305,22 +17309,22 @@
     </row>
     <row r="339">
       <c r="A339" s="20" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="B339" s="21" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="C339" s="26"/>
       <c r="D339" s="22"/>
       <c r="E339" s="26"/>
       <c r="F339" s="22" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="G339" s="26"/>
       <c r="H339" s="31"/>
       <c r="I339" s="26"/>
       <c r="J339" s="24" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="K339" s="27"/>
       <c r="L339" s="25"/>
@@ -17342,22 +17346,22 @@
     </row>
     <row r="340">
       <c r="A340" s="20" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="B340" s="21" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="C340" s="26"/>
       <c r="D340" s="22"/>
       <c r="E340" s="26"/>
       <c r="F340" s="22" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="G340" s="26"/>
       <c r="H340" s="31"/>
       <c r="I340" s="26"/>
       <c r="J340" s="24" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="K340" s="27"/>
       <c r="L340" s="25"/>
@@ -17379,22 +17383,22 @@
     </row>
     <row r="341">
       <c r="A341" s="20" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="B341" s="21" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="C341" s="26"/>
       <c r="D341" s="22"/>
       <c r="E341" s="26"/>
       <c r="F341" s="22" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="G341" s="26"/>
       <c r="H341" s="31"/>
       <c r="I341" s="26"/>
       <c r="J341" s="24" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="K341" s="27"/>
       <c r="L341" s="25"/>
@@ -17416,22 +17420,22 @@
     </row>
     <row r="342">
       <c r="A342" s="20" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="B342" s="21" t="s">
-        <v>1242</v>
+        <v>1246</v>
       </c>
       <c r="C342" s="26"/>
       <c r="D342" s="22"/>
       <c r="E342" s="26"/>
       <c r="F342" s="22" t="s">
-        <v>1243</v>
+        <v>1247</v>
       </c>
       <c r="G342" s="26"/>
       <c r="H342" s="31"/>
       <c r="I342" s="26"/>
       <c r="J342" s="24" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="K342" s="27"/>
       <c r="L342" s="25"/>
@@ -17453,22 +17457,22 @@
     </row>
     <row r="343">
       <c r="A343" s="20" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B343" s="21" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C343" s="26"/>
       <c r="D343" s="22"/>
       <c r="E343" s="26"/>
       <c r="F343" s="22" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="G343" s="26"/>
       <c r="H343" s="31"/>
       <c r="I343" s="26"/>
       <c r="J343" s="24" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="K343" s="27"/>
       <c r="L343" s="25"/>
@@ -17490,22 +17494,22 @@
     </row>
     <row r="344">
       <c r="A344" s="20" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B344" s="21" t="s">
-        <v>1256</v>
+        <v>1246</v>
       </c>
       <c r="C344" s="26"/>
       <c r="D344" s="22"/>
       <c r="E344" s="26"/>
       <c r="F344" s="22" t="s">
-        <v>1257</v>
+        <v>1247</v>
       </c>
       <c r="G344" s="26"/>
       <c r="H344" s="31"/>
       <c r="I344" s="26"/>
       <c r="J344" s="24" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="K344" s="27"/>
       <c r="L344" s="25"/>
@@ -17527,22 +17531,22 @@
     </row>
     <row r="345">
       <c r="A345" s="20" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="B345" s="21" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="C345" s="26"/>
       <c r="D345" s="22"/>
       <c r="E345" s="26"/>
       <c r="F345" s="22" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="G345" s="26"/>
       <c r="H345" s="31"/>
       <c r="I345" s="26"/>
       <c r="J345" s="24" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="K345" s="27"/>
       <c r="L345" s="25"/>
@@ -17564,22 +17568,22 @@
     </row>
     <row r="346">
       <c r="A346" s="20" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="B346" s="21" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="C346" s="26"/>
       <c r="D346" s="22"/>
       <c r="E346" s="26"/>
       <c r="F346" s="22" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="G346" s="26"/>
       <c r="H346" s="31"/>
       <c r="I346" s="26"/>
       <c r="J346" s="24" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="K346" s="27"/>
       <c r="L346" s="25"/>
@@ -17601,22 +17605,22 @@
     </row>
     <row r="347">
       <c r="A347" s="20" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="B347" s="21" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="C347" s="26"/>
       <c r="D347" s="22"/>
       <c r="E347" s="26"/>
       <c r="F347" s="22" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="G347" s="26"/>
       <c r="H347" s="31"/>
       <c r="I347" s="26"/>
       <c r="J347" s="24" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="K347" s="27"/>
       <c r="L347" s="25"/>
@@ -17638,22 +17642,22 @@
     </row>
     <row r="348">
       <c r="A348" s="20" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="B348" s="21" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="C348" s="26"/>
       <c r="D348" s="22"/>
       <c r="E348" s="26"/>
       <c r="F348" s="22" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="G348" s="26"/>
       <c r="H348" s="31"/>
       <c r="I348" s="26"/>
       <c r="J348" s="24" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="K348" s="27"/>
       <c r="L348" s="25"/>
@@ -17675,22 +17679,22 @@
     </row>
     <row r="349">
       <c r="A349" s="20" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="B349" s="21" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="C349" s="26"/>
       <c r="D349" s="22"/>
       <c r="E349" s="26"/>
       <c r="F349" s="22" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="G349" s="26"/>
       <c r="H349" s="31"/>
       <c r="I349" s="26"/>
       <c r="J349" s="24" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="K349" s="27"/>
       <c r="L349" s="25"/>
@@ -17712,22 +17716,22 @@
     </row>
     <row r="350">
       <c r="A350" s="20" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="B350" s="21" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="C350" s="26"/>
       <c r="D350" s="22"/>
       <c r="E350" s="26"/>
       <c r="F350" s="22" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="G350" s="26"/>
       <c r="H350" s="31"/>
       <c r="I350" s="26"/>
       <c r="J350" s="24" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="K350" s="27"/>
       <c r="L350" s="25"/>
@@ -17749,22 +17753,22 @@
     </row>
     <row r="351">
       <c r="A351" s="20" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="B351" s="21" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="C351" s="26"/>
       <c r="D351" s="22"/>
       <c r="E351" s="26"/>
       <c r="F351" s="22" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="G351" s="26"/>
       <c r="H351" s="31"/>
       <c r="I351" s="26"/>
       <c r="J351" s="24" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="K351" s="27"/>
       <c r="L351" s="25"/>
@@ -17786,22 +17790,22 @@
     </row>
     <row r="352">
       <c r="A352" s="20" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="B352" s="21" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="C352" s="26"/>
       <c r="D352" s="22"/>
       <c r="E352" s="26"/>
       <c r="F352" s="22" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="G352" s="26"/>
       <c r="H352" s="31"/>
       <c r="I352" s="26"/>
       <c r="J352" s="24" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="K352" s="27"/>
       <c r="L352" s="25"/>
@@ -17822,23 +17826,23 @@
       <c r="AA352" s="25"/>
     </row>
     <row r="353">
-      <c r="A353" s="36" t="s">
-        <v>1291</v>
+      <c r="A353" s="20" t="s">
+        <v>1287</v>
       </c>
       <c r="B353" s="21" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="C353" s="26"/>
       <c r="D353" s="22"/>
       <c r="E353" s="26"/>
       <c r="F353" s="22" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="G353" s="26"/>
       <c r="H353" s="31"/>
       <c r="I353" s="26"/>
       <c r="J353" s="24" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="K353" s="27"/>
       <c r="L353" s="25"/>
@@ -17859,23 +17863,23 @@
       <c r="AA353" s="25"/>
     </row>
     <row r="354">
-      <c r="A354" s="36" t="s">
-        <v>1295</v>
+      <c r="A354" s="20" t="s">
+        <v>1291</v>
       </c>
       <c r="B354" s="21" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="C354" s="26"/>
       <c r="D354" s="22"/>
       <c r="E354" s="26"/>
       <c r="F354" s="22" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="G354" s="26"/>
       <c r="H354" s="31"/>
       <c r="I354" s="26"/>
       <c r="J354" s="24" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="K354" s="27"/>
       <c r="L354" s="25"/>
@@ -17897,22 +17901,22 @@
     </row>
     <row r="355">
       <c r="A355" s="36" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="B355" s="21" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="C355" s="26"/>
       <c r="D355" s="22"/>
       <c r="E355" s="26"/>
       <c r="F355" s="22" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="G355" s="26"/>
       <c r="H355" s="31"/>
       <c r="I355" s="26"/>
       <c r="J355" s="24" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="K355" s="27"/>
       <c r="L355" s="25"/>
@@ -17934,22 +17938,22 @@
     </row>
     <row r="356">
       <c r="A356" s="36" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="B356" s="21" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="C356" s="26"/>
       <c r="D356" s="22"/>
       <c r="E356" s="26"/>
       <c r="F356" s="22" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="G356" s="26"/>
       <c r="H356" s="31"/>
       <c r="I356" s="26"/>
       <c r="J356" s="24" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="K356" s="27"/>
       <c r="L356" s="25"/>
@@ -17971,22 +17975,22 @@
     </row>
     <row r="357">
       <c r="A357" s="36" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="B357" s="21" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="C357" s="26"/>
       <c r="D357" s="22"/>
       <c r="E357" s="26"/>
       <c r="F357" s="22" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="G357" s="26"/>
       <c r="H357" s="31"/>
       <c r="I357" s="26"/>
       <c r="J357" s="24" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="K357" s="27"/>
       <c r="L357" s="25"/>
@@ -18008,22 +18012,22 @@
     </row>
     <row r="358">
       <c r="A358" s="36" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="B358" s="21" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C358" s="26"/>
       <c r="D358" s="22"/>
       <c r="E358" s="26"/>
       <c r="F358" s="22" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="G358" s="26"/>
       <c r="H358" s="31"/>
       <c r="I358" s="26"/>
       <c r="J358" s="24" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="K358" s="27"/>
       <c r="L358" s="25"/>
@@ -18045,22 +18049,22 @@
     </row>
     <row r="359">
       <c r="A359" s="36" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="B359" s="21" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="C359" s="26"/>
       <c r="D359" s="22"/>
       <c r="E359" s="26"/>
       <c r="F359" s="22" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="G359" s="26"/>
       <c r="H359" s="31"/>
       <c r="I359" s="26"/>
       <c r="J359" s="24" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="K359" s="27"/>
       <c r="L359" s="25"/>
@@ -18082,22 +18086,22 @@
     </row>
     <row r="360">
       <c r="A360" s="36" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="B360" s="21" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="C360" s="26"/>
       <c r="D360" s="22"/>
       <c r="E360" s="26"/>
       <c r="F360" s="22" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="G360" s="26"/>
       <c r="H360" s="31"/>
       <c r="I360" s="26"/>
       <c r="J360" s="24" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="K360" s="27"/>
       <c r="L360" s="25"/>
@@ -18118,23 +18122,23 @@
       <c r="AA360" s="25"/>
     </row>
     <row r="361">
-      <c r="A361" s="20" t="s">
-        <v>1323</v>
+      <c r="A361" s="36" t="s">
+        <v>1319</v>
       </c>
       <c r="B361" s="21" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="C361" s="26"/>
       <c r="D361" s="22"/>
       <c r="E361" s="26"/>
       <c r="F361" s="22" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="G361" s="26"/>
       <c r="H361" s="31"/>
       <c r="I361" s="26"/>
       <c r="J361" s="24" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="K361" s="27"/>
       <c r="L361" s="25"/>
@@ -18155,23 +18159,23 @@
       <c r="AA361" s="25"/>
     </row>
     <row r="362">
-      <c r="A362" s="20" t="s">
-        <v>1327</v>
+      <c r="A362" s="36" t="s">
+        <v>1323</v>
       </c>
       <c r="B362" s="21" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="C362" s="26"/>
       <c r="D362" s="22"/>
       <c r="E362" s="26"/>
       <c r="F362" s="22" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="G362" s="26"/>
       <c r="H362" s="31"/>
       <c r="I362" s="26"/>
       <c r="J362" s="24" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="K362" s="27"/>
       <c r="L362" s="25"/>
@@ -18193,22 +18197,22 @@
     </row>
     <row r="363">
       <c r="A363" s="20" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="B363" s="21" t="s">
-        <v>674</v>
+        <v>1328</v>
       </c>
       <c r="C363" s="26"/>
       <c r="D363" s="22"/>
       <c r="E363" s="26"/>
       <c r="F363" s="22" t="s">
-        <v>676</v>
+        <v>1329</v>
       </c>
       <c r="G363" s="26"/>
       <c r="H363" s="31"/>
       <c r="I363" s="26"/>
       <c r="J363" s="24" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="K363" s="27"/>
       <c r="L363" s="25"/>
@@ -18230,22 +18234,22 @@
     </row>
     <row r="364">
       <c r="A364" s="20" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B364" s="21" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C364" s="26"/>
       <c r="D364" s="22"/>
       <c r="E364" s="26"/>
       <c r="F364" s="22" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="G364" s="26"/>
       <c r="H364" s="31"/>
       <c r="I364" s="26"/>
       <c r="J364" s="24" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="K364" s="27"/>
       <c r="L364" s="25"/>
@@ -18267,22 +18271,22 @@
     </row>
     <row r="365">
       <c r="A365" s="20" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="B365" s="21" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="C365" s="26"/>
       <c r="D365" s="22"/>
       <c r="E365" s="26"/>
       <c r="F365" s="22" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="G365" s="26"/>
       <c r="H365" s="31"/>
       <c r="I365" s="26"/>
       <c r="J365" s="24" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="K365" s="27"/>
       <c r="L365" s="25"/>
@@ -18304,22 +18308,22 @@
     </row>
     <row r="366">
       <c r="A366" s="20" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="B366" s="21" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="C366" s="26"/>
       <c r="D366" s="22"/>
       <c r="E366" s="26"/>
       <c r="F366" s="22" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="G366" s="26"/>
       <c r="H366" s="31"/>
       <c r="I366" s="26"/>
       <c r="J366" s="24" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="K366" s="27"/>
       <c r="L366" s="25"/>
@@ -18341,22 +18345,22 @@
     </row>
     <row r="367">
       <c r="A367" s="20" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B367" s="21" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="C367" s="26"/>
       <c r="D367" s="22"/>
       <c r="E367" s="26"/>
       <c r="F367" s="22" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="G367" s="26"/>
       <c r="H367" s="31"/>
       <c r="I367" s="26"/>
       <c r="J367" s="24" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="K367" s="27"/>
       <c r="L367" s="25"/>
@@ -18378,22 +18382,22 @@
     </row>
     <row r="368">
       <c r="A368" s="20" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="B368" s="21" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="C368" s="26"/>
       <c r="D368" s="22"/>
       <c r="E368" s="26"/>
       <c r="F368" s="22" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G368" s="26"/>
       <c r="H368" s="31"/>
       <c r="I368" s="26"/>
       <c r="J368" s="24" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="K368" s="27"/>
       <c r="L368" s="25"/>
@@ -18414,23 +18418,23 @@
       <c r="AA368" s="25"/>
     </row>
     <row r="369">
-      <c r="A369" s="36" t="s">
-        <v>1349</v>
+      <c r="A369" s="20" t="s">
+        <v>1347</v>
       </c>
       <c r="B369" s="21" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C369" s="26"/>
       <c r="D369" s="22"/>
       <c r="E369" s="26"/>
       <c r="F369" s="22" t="s">
-        <v>1350</v>
+        <v>671</v>
       </c>
       <c r="G369" s="26"/>
       <c r="H369" s="31"/>
       <c r="I369" s="26"/>
       <c r="J369" s="24" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="K369" s="27"/>
       <c r="L369" s="25"/>
@@ -18451,23 +18455,23 @@
       <c r="AA369" s="25"/>
     </row>
     <row r="370">
-      <c r="A370" s="36" t="s">
-        <v>1352</v>
+      <c r="A370" s="20" t="s">
+        <v>1349</v>
       </c>
       <c r="B370" s="21" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="C370" s="26"/>
       <c r="D370" s="22"/>
       <c r="E370" s="26"/>
       <c r="F370" s="22" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="G370" s="26"/>
       <c r="H370" s="31"/>
       <c r="I370" s="26"/>
       <c r="J370" s="24" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="K370" s="27"/>
       <c r="L370" s="25"/>
@@ -18489,22 +18493,22 @@
     </row>
     <row r="371">
       <c r="A371" s="36" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="B371" s="21" t="s">
-        <v>1357</v>
+        <v>675</v>
       </c>
       <c r="C371" s="26"/>
       <c r="D371" s="22"/>
       <c r="E371" s="26"/>
       <c r="F371" s="22" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="G371" s="26"/>
       <c r="H371" s="31"/>
       <c r="I371" s="26"/>
       <c r="J371" s="24" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="K371" s="27"/>
       <c r="L371" s="25"/>
@@ -18526,22 +18530,22 @@
     </row>
     <row r="372">
       <c r="A372" s="36" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="B372" s="21" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="C372" s="26"/>
       <c r="D372" s="22"/>
       <c r="E372" s="26"/>
       <c r="F372" s="22" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="G372" s="26"/>
       <c r="H372" s="31"/>
       <c r="I372" s="26"/>
       <c r="J372" s="24" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="K372" s="27"/>
       <c r="L372" s="25"/>
@@ -18563,21 +18567,23 @@
     </row>
     <row r="373">
       <c r="A373" s="36" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="B373" s="21" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="C373" s="26"/>
       <c r="D373" s="22"/>
       <c r="E373" s="26"/>
       <c r="F373" s="22" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="G373" s="26"/>
       <c r="H373" s="31"/>
       <c r="I373" s="26"/>
-      <c r="J373" s="24"/>
+      <c r="J373" s="24" t="s">
+        <v>1363</v>
+      </c>
       <c r="K373" s="27"/>
       <c r="L373" s="25"/>
       <c r="M373" s="25"/>
@@ -18598,21 +18604,23 @@
     </row>
     <row r="374">
       <c r="A374" s="36" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="B374" s="21" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="C374" s="26"/>
       <c r="D374" s="22"/>
       <c r="E374" s="26"/>
       <c r="F374" s="22" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="G374" s="26"/>
       <c r="H374" s="31"/>
       <c r="I374" s="26"/>
-      <c r="J374" s="24"/>
+      <c r="J374" s="24" t="s">
+        <v>1367</v>
+      </c>
       <c r="K374" s="27"/>
       <c r="L374" s="25"/>
       <c r="M374" s="25"/>
@@ -18633,16 +18641,16 @@
     </row>
     <row r="375">
       <c r="A375" s="36" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B375" s="21" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C375" s="26"/>
       <c r="D375" s="22"/>
       <c r="E375" s="26"/>
       <c r="F375" s="22" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="G375" s="26"/>
       <c r="H375" s="31"/>
@@ -18668,16 +18676,16 @@
     </row>
     <row r="376">
       <c r="A376" s="36" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="B376" s="21" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C376" s="26"/>
       <c r="D376" s="22"/>
       <c r="E376" s="26"/>
       <c r="F376" s="22" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="G376" s="26"/>
       <c r="H376" s="31"/>
@@ -18702,26 +18710,22 @@
       <c r="AA376" s="25"/>
     </row>
     <row r="377">
-      <c r="A377" s="20" t="s">
-        <v>1376</v>
+      <c r="A377" s="36" t="s">
+        <v>1374</v>
       </c>
       <c r="B377" s="21" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C377" s="26"/>
-      <c r="D377" s="26"/>
+      <c r="D377" s="22"/>
       <c r="E377" s="26"/>
       <c r="F377" s="22" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="G377" s="26"/>
       <c r="H377" s="31"/>
-      <c r="I377" s="22" t="s">
-        <v>1379</v>
-      </c>
-      <c r="J377" s="24" t="s">
-        <v>1380</v>
-      </c>
+      <c r="I377" s="26"/>
+      <c r="J377" s="24"/>
       <c r="K377" s="27"/>
       <c r="L377" s="25"/>
       <c r="M377" s="25"/>
@@ -18741,24 +18745,22 @@
       <c r="AA377" s="25"/>
     </row>
     <row r="378">
-      <c r="A378" s="20" t="s">
-        <v>1381</v>
+      <c r="A378" s="36" t="s">
+        <v>1377</v>
       </c>
       <c r="B378" s="21" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C378" s="26"/>
-      <c r="D378" s="26"/>
+      <c r="D378" s="22"/>
       <c r="E378" s="26"/>
       <c r="F378" s="22" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="G378" s="26"/>
       <c r="H378" s="31"/>
       <c r="I378" s="26"/>
-      <c r="J378" s="24" t="s">
-        <v>1384</v>
-      </c>
+      <c r="J378" s="24"/>
       <c r="K378" s="27"/>
       <c r="L378" s="25"/>
       <c r="M378" s="25"/>
@@ -18779,22 +18781,24 @@
     </row>
     <row r="379">
       <c r="A379" s="20" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="B379" s="21" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="C379" s="26"/>
       <c r="D379" s="26"/>
       <c r="E379" s="26"/>
       <c r="F379" s="22" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="G379" s="26"/>
       <c r="H379" s="31"/>
-      <c r="I379" s="26"/>
+      <c r="I379" s="22" t="s">
+        <v>1383</v>
+      </c>
       <c r="J379" s="24" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="K379" s="27"/>
       <c r="L379" s="25"/>
@@ -18816,21 +18820,23 @@
     </row>
     <row r="380">
       <c r="A380" s="20" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="B380" s="21" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C380" s="26"/>
       <c r="D380" s="26"/>
       <c r="E380" s="26"/>
       <c r="F380" s="22" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="G380" s="26"/>
       <c r="H380" s="31"/>
       <c r="I380" s="26"/>
-      <c r="J380" s="24"/>
+      <c r="J380" s="24" t="s">
+        <v>1388</v>
+      </c>
       <c r="K380" s="27"/>
       <c r="L380" s="25"/>
       <c r="M380" s="25"/>
@@ -18851,24 +18857,22 @@
     </row>
     <row r="381">
       <c r="A381" s="20" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="B381" s="21" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="C381" s="26"/>
       <c r="D381" s="26"/>
       <c r="E381" s="26"/>
       <c r="F381" s="22" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="G381" s="26"/>
       <c r="H381" s="31"/>
-      <c r="I381" s="22" t="s">
-        <v>1395</v>
-      </c>
+      <c r="I381" s="26"/>
       <c r="J381" s="24" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="K381" s="27"/>
       <c r="L381" s="25"/>
@@ -18890,23 +18894,21 @@
     </row>
     <row r="382">
       <c r="A382" s="20" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="B382" s="21" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C382" s="26"/>
       <c r="D382" s="26"/>
       <c r="E382" s="26"/>
       <c r="F382" s="22" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="G382" s="26"/>
       <c r="H382" s="31"/>
       <c r="I382" s="26"/>
-      <c r="J382" s="24" t="s">
-        <v>1400</v>
-      </c>
+      <c r="J382" s="24"/>
       <c r="K382" s="27"/>
       <c r="L382" s="25"/>
       <c r="M382" s="25"/>
@@ -18927,22 +18929,24 @@
     </row>
     <row r="383">
       <c r="A383" s="20" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="B383" s="21" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="C383" s="26"/>
       <c r="D383" s="26"/>
       <c r="E383" s="26"/>
       <c r="F383" s="22" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="G383" s="26"/>
       <c r="H383" s="31"/>
-      <c r="I383" s="26"/>
+      <c r="I383" s="22" t="s">
+        <v>1399</v>
+      </c>
       <c r="J383" s="24" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="K383" s="27"/>
       <c r="L383" s="25"/>
@@ -18964,21 +18968,23 @@
     </row>
     <row r="384">
       <c r="A384" s="20" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="B384" s="21" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="C384" s="26"/>
       <c r="D384" s="26"/>
       <c r="E384" s="26"/>
       <c r="F384" s="22" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="G384" s="26"/>
       <c r="H384" s="31"/>
       <c r="I384" s="26"/>
-      <c r="J384" s="24"/>
+      <c r="J384" s="24" t="s">
+        <v>1404</v>
+      </c>
       <c r="K384" s="27"/>
       <c r="L384" s="25"/>
       <c r="M384" s="25"/>
@@ -18999,24 +19005,22 @@
     </row>
     <row r="385">
       <c r="A385" s="20" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="B385" s="21" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="C385" s="26"/>
       <c r="D385" s="26"/>
       <c r="E385" s="26"/>
       <c r="F385" s="22" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="G385" s="26"/>
       <c r="H385" s="31"/>
-      <c r="I385" s="22" t="s">
-        <v>1411</v>
-      </c>
+      <c r="I385" s="26"/>
       <c r="J385" s="24" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="K385" s="27"/>
       <c r="L385" s="25"/>
@@ -19038,23 +19042,21 @@
     </row>
     <row r="386">
       <c r="A386" s="20" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="B386" s="21" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="C386" s="26"/>
       <c r="D386" s="26"/>
       <c r="E386" s="26"/>
       <c r="F386" s="22" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="G386" s="26"/>
       <c r="H386" s="31"/>
       <c r="I386" s="26"/>
-      <c r="J386" s="24" t="s">
-        <v>1416</v>
-      </c>
+      <c r="J386" s="24"/>
       <c r="K386" s="27"/>
       <c r="L386" s="25"/>
       <c r="M386" s="25"/>
@@ -19075,22 +19077,24 @@
     </row>
     <row r="387">
       <c r="A387" s="20" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="B387" s="21" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="C387" s="26"/>
       <c r="D387" s="26"/>
       <c r="E387" s="26"/>
       <c r="F387" s="22" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="G387" s="26"/>
       <c r="H387" s="31"/>
-      <c r="I387" s="26"/>
+      <c r="I387" s="22" t="s">
+        <v>1415</v>
+      </c>
       <c r="J387" s="24" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="K387" s="27"/>
       <c r="L387" s="25"/>
@@ -19112,22 +19116,22 @@
     </row>
     <row r="388">
       <c r="A388" s="20" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="B388" s="21" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C388" s="26"/>
       <c r="D388" s="26"/>
       <c r="E388" s="26"/>
       <c r="F388" s="22" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="G388" s="26"/>
       <c r="H388" s="31"/>
       <c r="I388" s="26"/>
       <c r="J388" s="24" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="K388" s="27"/>
       <c r="L388" s="25"/>
@@ -19149,22 +19153,22 @@
     </row>
     <row r="389">
       <c r="A389" s="20" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="B389" s="21" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="C389" s="26"/>
       <c r="D389" s="26"/>
       <c r="E389" s="26"/>
       <c r="F389" s="22" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="G389" s="26"/>
       <c r="H389" s="31"/>
       <c r="I389" s="26"/>
       <c r="J389" s="24" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="K389" s="27"/>
       <c r="L389" s="25"/>
@@ -19186,21 +19190,23 @@
     </row>
     <row r="390">
       <c r="A390" s="20" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="B390" s="21" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="C390" s="26"/>
       <c r="D390" s="26"/>
       <c r="E390" s="26"/>
       <c r="F390" s="22" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="G390" s="26"/>
       <c r="H390" s="31"/>
       <c r="I390" s="26"/>
-      <c r="J390" s="24"/>
+      <c r="J390" s="24" t="s">
+        <v>1428</v>
+      </c>
       <c r="K390" s="27"/>
       <c r="L390" s="25"/>
       <c r="M390" s="25"/>
@@ -19221,21 +19227,23 @@
     </row>
     <row r="391">
       <c r="A391" s="20" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="B391" s="21" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="C391" s="26"/>
       <c r="D391" s="26"/>
       <c r="E391" s="26"/>
       <c r="F391" s="22" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="G391" s="26"/>
       <c r="H391" s="31"/>
       <c r="I391" s="26"/>
-      <c r="J391" s="24"/>
+      <c r="J391" s="24" t="s">
+        <v>1432</v>
+      </c>
       <c r="K391" s="27"/>
       <c r="L391" s="25"/>
       <c r="M391" s="25"/>
@@ -19256,23 +19264,21 @@
     </row>
     <row r="392">
       <c r="A392" s="20" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B392" s="21" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="C392" s="26"/>
       <c r="D392" s="26"/>
       <c r="E392" s="26"/>
       <c r="F392" s="22" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="G392" s="26"/>
       <c r="H392" s="31"/>
       <c r="I392" s="26"/>
-      <c r="J392" s="24" t="s">
-        <v>1438</v>
-      </c>
+      <c r="J392" s="24"/>
       <c r="K392" s="27"/>
       <c r="L392" s="25"/>
       <c r="M392" s="25"/>
@@ -19293,23 +19299,21 @@
     </row>
     <row r="393">
       <c r="A393" s="20" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="B393" s="21" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="C393" s="26"/>
       <c r="D393" s="26"/>
       <c r="E393" s="26"/>
       <c r="F393" s="22" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="G393" s="26"/>
       <c r="H393" s="31"/>
       <c r="I393" s="26"/>
-      <c r="J393" s="24" t="s">
-        <v>1442</v>
-      </c>
+      <c r="J393" s="24"/>
       <c r="K393" s="27"/>
       <c r="L393" s="25"/>
       <c r="M393" s="25"/>
@@ -19330,19 +19334,23 @@
     </row>
     <row r="394">
       <c r="A394" s="20" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="B394" s="21" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="C394" s="26"/>
       <c r="D394" s="26"/>
       <c r="E394" s="26"/>
-      <c r="F394" s="22"/>
+      <c r="F394" s="22" t="s">
+        <v>1441</v>
+      </c>
       <c r="G394" s="26"/>
       <c r="H394" s="31"/>
       <c r="I394" s="26"/>
-      <c r="J394" s="24"/>
+      <c r="J394" s="24" t="s">
+        <v>1442</v>
+      </c>
       <c r="K394" s="27"/>
       <c r="L394" s="25"/>
       <c r="M394" s="25"/>
@@ -19363,19 +19371,23 @@
     </row>
     <row r="395">
       <c r="A395" s="20" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B395" s="21" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C395" s="26"/>
       <c r="D395" s="26"/>
       <c r="E395" s="26"/>
-      <c r="F395" s="22"/>
+      <c r="F395" s="22" t="s">
+        <v>1445</v>
+      </c>
       <c r="G395" s="26"/>
       <c r="H395" s="31"/>
       <c r="I395" s="26"/>
-      <c r="J395" s="24"/>
+      <c r="J395" s="24" t="s">
+        <v>1446</v>
+      </c>
       <c r="K395" s="27"/>
       <c r="L395" s="25"/>
       <c r="M395" s="25"/>
@@ -19404,17 +19416,11 @@
       <c r="C396" s="26"/>
       <c r="D396" s="26"/>
       <c r="E396" s="26"/>
-      <c r="F396" s="22" t="s">
-        <v>1449</v>
-      </c>
+      <c r="F396" s="22"/>
       <c r="G396" s="26"/>
       <c r="H396" s="31"/>
-      <c r="I396" s="22" t="s">
-        <v>1450</v>
-      </c>
-      <c r="J396" s="24" t="s">
-        <v>1451</v>
-      </c>
+      <c r="I396" s="26"/>
+      <c r="J396" s="24"/>
       <c r="K396" s="27"/>
       <c r="L396" s="25"/>
       <c r="M396" s="25"/>
@@ -19435,25 +19441,19 @@
     </row>
     <row r="397">
       <c r="A397" s="20" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="B397" s="21" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="C397" s="26"/>
       <c r="D397" s="26"/>
       <c r="E397" s="26"/>
-      <c r="F397" s="22" t="s">
-        <v>1454</v>
-      </c>
+      <c r="F397" s="22"/>
       <c r="G397" s="26"/>
       <c r="H397" s="31"/>
-      <c r="I397" s="22" t="s">
-        <v>1455</v>
-      </c>
-      <c r="J397" s="24" t="s">
-        <v>1456</v>
-      </c>
+      <c r="I397" s="26"/>
+      <c r="J397" s="24"/>
       <c r="K397" s="27"/>
       <c r="L397" s="25"/>
       <c r="M397" s="25"/>
@@ -19474,24 +19474,24 @@
     </row>
     <row r="398">
       <c r="A398" s="20" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="B398" s="21" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="C398" s="26"/>
       <c r="D398" s="26"/>
       <c r="E398" s="26"/>
       <c r="F398" s="22" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="G398" s="26"/>
       <c r="H398" s="31"/>
       <c r="I398" s="22" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="J398" s="24" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="K398" s="27"/>
       <c r="L398" s="25"/>
@@ -19513,24 +19513,24 @@
     </row>
     <row r="399">
       <c r="A399" s="20" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="B399" s="21" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="C399" s="26"/>
       <c r="D399" s="26"/>
       <c r="E399" s="26"/>
       <c r="F399" s="22" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="G399" s="26"/>
       <c r="H399" s="31"/>
       <c r="I399" s="22" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="J399" s="24" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="K399" s="27"/>
       <c r="L399" s="25"/>
@@ -19552,24 +19552,24 @@
     </row>
     <row r="400">
       <c r="A400" s="20" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="B400" s="21" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="C400" s="26"/>
       <c r="D400" s="26"/>
       <c r="E400" s="26"/>
       <c r="F400" s="22" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="G400" s="26"/>
       <c r="H400" s="31"/>
       <c r="I400" s="22" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="J400" s="24" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="K400" s="27"/>
       <c r="L400" s="25"/>
@@ -19591,22 +19591,24 @@
     </row>
     <row r="401">
       <c r="A401" s="20" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="B401" s="21" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="C401" s="26"/>
       <c r="D401" s="26"/>
       <c r="E401" s="26"/>
       <c r="F401" s="22" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="G401" s="26"/>
       <c r="H401" s="31"/>
-      <c r="I401" s="26"/>
+      <c r="I401" s="22" t="s">
+        <v>1469</v>
+      </c>
       <c r="J401" s="24" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="K401" s="27"/>
       <c r="L401" s="25"/>
@@ -19628,22 +19630,24 @@
     </row>
     <row r="402">
       <c r="A402" s="20" t="s">
-        <v>1476</v>
+        <v>1471</v>
       </c>
       <c r="B402" s="21" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="C402" s="26"/>
       <c r="D402" s="26"/>
       <c r="E402" s="26"/>
       <c r="F402" s="22" t="s">
-        <v>1478</v>
+        <v>1473</v>
       </c>
       <c r="G402" s="26"/>
       <c r="H402" s="31"/>
-      <c r="I402" s="26"/>
+      <c r="I402" s="22" t="s">
+        <v>1474</v>
+      </c>
       <c r="J402" s="24" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="K402" s="27"/>
       <c r="L402" s="25"/>
@@ -19665,21 +19669,23 @@
     </row>
     <row r="403">
       <c r="A403" s="20" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="B403" s="21" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="C403" s="26"/>
       <c r="D403" s="26"/>
       <c r="E403" s="26"/>
       <c r="F403" s="22" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="G403" s="26"/>
       <c r="H403" s="31"/>
       <c r="I403" s="26"/>
-      <c r="J403" s="24"/>
+      <c r="J403" s="24" t="s">
+        <v>1479</v>
+      </c>
       <c r="K403" s="27"/>
       <c r="L403" s="25"/>
       <c r="M403" s="25"/>
@@ -19700,24 +19706,22 @@
     </row>
     <row r="404">
       <c r="A404" s="20" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="B404" s="21" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="C404" s="26"/>
       <c r="D404" s="26"/>
       <c r="E404" s="26"/>
       <c r="F404" s="22" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="G404" s="26"/>
       <c r="H404" s="31"/>
-      <c r="I404" s="22" t="s">
-        <v>1484</v>
-      </c>
+      <c r="I404" s="26"/>
       <c r="J404" s="24" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="K404" s="27"/>
       <c r="L404" s="25"/>
@@ -19739,25 +19743,21 @@
     </row>
     <row r="405">
       <c r="A405" s="20" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B405" s="21" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="C405" s="26"/>
       <c r="D405" s="26"/>
       <c r="E405" s="26"/>
       <c r="F405" s="22" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="G405" s="26"/>
       <c r="H405" s="31"/>
-      <c r="I405" s="22" t="s">
-        <v>1487</v>
-      </c>
-      <c r="J405" s="24" t="s">
-        <v>1489</v>
-      </c>
+      <c r="I405" s="26"/>
+      <c r="J405" s="24"/>
       <c r="K405" s="27"/>
       <c r="L405" s="25"/>
       <c r="M405" s="25"/>
@@ -19778,22 +19778,24 @@
     </row>
     <row r="406">
       <c r="A406" s="20" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="B406" s="21" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="C406" s="26"/>
       <c r="D406" s="26"/>
       <c r="E406" s="26"/>
       <c r="F406" s="22" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="G406" s="26"/>
       <c r="H406" s="31"/>
-      <c r="I406" s="26"/>
+      <c r="I406" s="22" t="s">
+        <v>1488</v>
+      </c>
       <c r="J406" s="24" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="K406" s="27"/>
       <c r="L406" s="25"/>
@@ -19815,24 +19817,24 @@
     </row>
     <row r="407">
       <c r="A407" s="20" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="B407" s="21" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="C407" s="26"/>
       <c r="D407" s="26"/>
       <c r="E407" s="26"/>
       <c r="F407" s="22" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="G407" s="26"/>
       <c r="H407" s="31"/>
       <c r="I407" s="22" t="s">
-        <v>1496</v>
+        <v>1491</v>
       </c>
       <c r="J407" s="24" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="K407" s="27"/>
       <c r="L407" s="25"/>
@@ -19854,24 +19856,22 @@
     </row>
     <row r="408">
       <c r="A408" s="20" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="B408" s="21" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="C408" s="26"/>
       <c r="D408" s="26"/>
       <c r="E408" s="26"/>
       <c r="F408" s="22" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="G408" s="26"/>
       <c r="H408" s="31"/>
-      <c r="I408" s="22" t="s">
-        <v>1501</v>
-      </c>
+      <c r="I408" s="26"/>
       <c r="J408" s="24" t="s">
-        <v>1502</v>
+        <v>1497</v>
       </c>
       <c r="K408" s="27"/>
       <c r="L408" s="25"/>
@@ -19893,22 +19893,24 @@
     </row>
     <row r="409">
       <c r="A409" s="20" t="s">
-        <v>1503</v>
+        <v>1498</v>
       </c>
       <c r="B409" s="21" t="s">
-        <v>1504</v>
+        <v>1499</v>
       </c>
       <c r="C409" s="26"/>
       <c r="D409" s="26"/>
       <c r="E409" s="26"/>
       <c r="F409" s="22" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="G409" s="26"/>
       <c r="H409" s="31"/>
-      <c r="I409" s="26"/>
+      <c r="I409" s="22" t="s">
+        <v>1500</v>
+      </c>
       <c r="J409" s="24" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="K409" s="27"/>
       <c r="L409" s="25"/>
@@ -19930,24 +19932,24 @@
     </row>
     <row r="410">
       <c r="A410" s="20" t="s">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="B410" s="21" t="s">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="C410" s="26"/>
       <c r="D410" s="26"/>
       <c r="E410" s="26"/>
       <c r="F410" s="22" t="s">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="G410" s="26"/>
       <c r="H410" s="31"/>
       <c r="I410" s="22" t="s">
-        <v>1510</v>
+        <v>1505</v>
       </c>
       <c r="J410" s="24" t="s">
-        <v>1511</v>
+        <v>1506</v>
       </c>
       <c r="K410" s="27"/>
       <c r="L410" s="25"/>
@@ -19969,22 +19971,22 @@
     </row>
     <row r="411">
       <c r="A411" s="20" t="s">
-        <v>1512</v>
+        <v>1507</v>
       </c>
       <c r="B411" s="21" t="s">
-        <v>1513</v>
+        <v>1508</v>
       </c>
       <c r="C411" s="26"/>
       <c r="D411" s="26"/>
       <c r="E411" s="26"/>
       <c r="F411" s="22" t="s">
-        <v>1514</v>
+        <v>1509</v>
       </c>
       <c r="G411" s="26"/>
       <c r="H411" s="31"/>
       <c r="I411" s="26"/>
       <c r="J411" s="24" t="s">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="K411" s="27"/>
       <c r="L411" s="25"/>
@@ -20006,24 +20008,24 @@
     </row>
     <row r="412">
       <c r="A412" s="20" t="s">
-        <v>1516</v>
+        <v>1511</v>
       </c>
       <c r="B412" s="21" t="s">
-        <v>1517</v>
+        <v>1512</v>
       </c>
       <c r="C412" s="26"/>
       <c r="D412" s="26"/>
       <c r="E412" s="26"/>
       <c r="F412" s="22" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="G412" s="26"/>
       <c r="H412" s="31"/>
       <c r="I412" s="22" t="s">
-        <v>1519</v>
+        <v>1514</v>
       </c>
       <c r="J412" s="24" t="s">
-        <v>1520</v>
+        <v>1515</v>
       </c>
       <c r="K412" s="27"/>
       <c r="L412" s="25"/>
@@ -20045,22 +20047,22 @@
     </row>
     <row r="413">
       <c r="A413" s="20" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
       <c r="B413" s="21" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="C413" s="26"/>
       <c r="D413" s="26"/>
       <c r="E413" s="26"/>
       <c r="F413" s="22" t="s">
-        <v>1523</v>
+        <v>1518</v>
       </c>
       <c r="G413" s="26"/>
       <c r="H413" s="31"/>
       <c r="I413" s="26"/>
       <c r="J413" s="24" t="s">
-        <v>1524</v>
+        <v>1519</v>
       </c>
       <c r="K413" s="27"/>
       <c r="L413" s="25"/>
@@ -20082,21 +20084,25 @@
     </row>
     <row r="414">
       <c r="A414" s="20" t="s">
-        <v>1525</v>
+        <v>1520</v>
       </c>
       <c r="B414" s="21" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="C414" s="26"/>
       <c r="D414" s="26"/>
       <c r="E414" s="26"/>
       <c r="F414" s="22" t="s">
-        <v>1527</v>
+        <v>1522</v>
       </c>
       <c r="G414" s="26"/>
       <c r="H414" s="31"/>
-      <c r="I414" s="26"/>
-      <c r="J414" s="27"/>
+      <c r="I414" s="22" t="s">
+        <v>1523</v>
+      </c>
+      <c r="J414" s="24" t="s">
+        <v>1524</v>
+      </c>
       <c r="K414" s="27"/>
       <c r="L414" s="25"/>
       <c r="M414" s="25"/>
@@ -20117,21 +20123,23 @@
     </row>
     <row r="415">
       <c r="A415" s="20" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="B415" s="21" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C415" s="26"/>
       <c r="D415" s="26"/>
       <c r="E415" s="26"/>
       <c r="F415" s="22" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="G415" s="26"/>
       <c r="H415" s="31"/>
       <c r="I415" s="26"/>
-      <c r="J415" s="27"/>
+      <c r="J415" s="24" t="s">
+        <v>1528</v>
+      </c>
       <c r="K415" s="27"/>
       <c r="L415" s="25"/>
       <c r="M415" s="25"/>
@@ -20152,16 +20160,16 @@
     </row>
     <row r="416">
       <c r="A416" s="20" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="B416" s="21" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="C416" s="26"/>
       <c r="D416" s="26"/>
       <c r="E416" s="26"/>
       <c r="F416" s="22" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="G416" s="26"/>
       <c r="H416" s="31"/>
@@ -20187,16 +20195,16 @@
     </row>
     <row r="417">
       <c r="A417" s="20" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="B417" s="21" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="C417" s="26"/>
       <c r="D417" s="26"/>
       <c r="E417" s="26"/>
       <c r="F417" s="22" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="G417" s="26"/>
       <c r="H417" s="31"/>
@@ -20222,15 +20230,17 @@
     </row>
     <row r="418">
       <c r="A418" s="20" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="B418" s="21" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C418" s="26"/>
       <c r="D418" s="26"/>
       <c r="E418" s="26"/>
-      <c r="F418" s="26"/>
+      <c r="F418" s="22" t="s">
+        <v>1537</v>
+      </c>
       <c r="G418" s="26"/>
       <c r="H418" s="31"/>
       <c r="I418" s="26"/>
@@ -20254,12 +20264,18 @@
       <c r="AA418" s="25"/>
     </row>
     <row r="419">
-      <c r="A419" s="37"/>
-      <c r="B419" s="38"/>
+      <c r="A419" s="20" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B419" s="21" t="s">
+        <v>1539</v>
+      </c>
       <c r="C419" s="26"/>
       <c r="D419" s="26"/>
       <c r="E419" s="26"/>
-      <c r="F419" s="26"/>
+      <c r="F419" s="22" t="s">
+        <v>1540</v>
+      </c>
       <c r="G419" s="26"/>
       <c r="H419" s="31"/>
       <c r="I419" s="26"/>
@@ -20283,8 +20299,12 @@
       <c r="AA419" s="25"/>
     </row>
     <row r="420">
-      <c r="A420" s="37"/>
-      <c r="B420" s="38"/>
+      <c r="A420" s="20" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B420" s="21" t="s">
+        <v>1542</v>
+      </c>
       <c r="C420" s="26"/>
       <c r="D420" s="26"/>
       <c r="E420" s="26"/>
@@ -21965,62 +21985,62 @@
       <c r="AA477" s="25"/>
     </row>
     <row r="478">
-      <c r="A478" s="1"/>
-      <c r="B478" s="39"/>
-      <c r="C478" s="39"/>
-      <c r="D478" s="39"/>
-      <c r="E478" s="39"/>
-      <c r="F478" s="39"/>
-      <c r="G478" s="39"/>
-      <c r="H478" s="40"/>
-      <c r="I478" s="39"/>
-      <c r="J478" s="41"/>
-      <c r="K478" s="41"/>
-      <c r="L478" s="42"/>
-      <c r="M478" s="42"/>
-      <c r="N478" s="42"/>
-      <c r="O478" s="42"/>
-      <c r="P478" s="42"/>
-      <c r="Q478" s="42"/>
-      <c r="R478" s="42"/>
-      <c r="S478" s="42"/>
-      <c r="T478" s="42"/>
-      <c r="U478" s="42"/>
-      <c r="V478" s="42"/>
-      <c r="W478" s="42"/>
-      <c r="X478" s="42"/>
-      <c r="Y478" s="42"/>
-      <c r="Z478" s="42"/>
-      <c r="AA478" s="42"/>
+      <c r="A478" s="37"/>
+      <c r="B478" s="38"/>
+      <c r="C478" s="26"/>
+      <c r="D478" s="26"/>
+      <c r="E478" s="26"/>
+      <c r="F478" s="26"/>
+      <c r="G478" s="26"/>
+      <c r="H478" s="31"/>
+      <c r="I478" s="26"/>
+      <c r="J478" s="27"/>
+      <c r="K478" s="27"/>
+      <c r="L478" s="25"/>
+      <c r="M478" s="25"/>
+      <c r="N478" s="25"/>
+      <c r="O478" s="25"/>
+      <c r="P478" s="25"/>
+      <c r="Q478" s="25"/>
+      <c r="R478" s="25"/>
+      <c r="S478" s="25"/>
+      <c r="T478" s="25"/>
+      <c r="U478" s="25"/>
+      <c r="V478" s="25"/>
+      <c r="W478" s="25"/>
+      <c r="X478" s="25"/>
+      <c r="Y478" s="25"/>
+      <c r="Z478" s="25"/>
+      <c r="AA478" s="25"/>
     </row>
     <row r="479">
-      <c r="A479" s="1"/>
-      <c r="B479" s="39"/>
-      <c r="C479" s="39"/>
-      <c r="D479" s="39"/>
-      <c r="E479" s="39"/>
-      <c r="F479" s="39"/>
-      <c r="G479" s="39"/>
-      <c r="H479" s="40"/>
-      <c r="I479" s="39"/>
-      <c r="J479" s="41"/>
-      <c r="K479" s="41"/>
-      <c r="L479" s="42"/>
-      <c r="M479" s="42"/>
-      <c r="N479" s="42"/>
-      <c r="O479" s="42"/>
-      <c r="P479" s="42"/>
-      <c r="Q479" s="42"/>
-      <c r="R479" s="42"/>
-      <c r="S479" s="42"/>
-      <c r="T479" s="42"/>
-      <c r="U479" s="42"/>
-      <c r="V479" s="42"/>
-      <c r="W479" s="42"/>
-      <c r="X479" s="42"/>
-      <c r="Y479" s="42"/>
-      <c r="Z479" s="42"/>
-      <c r="AA479" s="42"/>
+      <c r="A479" s="37"/>
+      <c r="B479" s="38"/>
+      <c r="C479" s="26"/>
+      <c r="D479" s="26"/>
+      <c r="E479" s="26"/>
+      <c r="F479" s="26"/>
+      <c r="G479" s="26"/>
+      <c r="H479" s="31"/>
+      <c r="I479" s="26"/>
+      <c r="J479" s="27"/>
+      <c r="K479" s="27"/>
+      <c r="L479" s="25"/>
+      <c r="M479" s="25"/>
+      <c r="N479" s="25"/>
+      <c r="O479" s="25"/>
+      <c r="P479" s="25"/>
+      <c r="Q479" s="25"/>
+      <c r="R479" s="25"/>
+      <c r="S479" s="25"/>
+      <c r="T479" s="25"/>
+      <c r="U479" s="25"/>
+      <c r="V479" s="25"/>
+      <c r="W479" s="25"/>
+      <c r="X479" s="25"/>
+      <c r="Y479" s="25"/>
+      <c r="Z479" s="25"/>
+      <c r="AA479" s="25"/>
     </row>
     <row r="480">
       <c r="A480" s="1"/>
@@ -48325,6 +48345,64 @@
       <c r="Z1386" s="42"/>
       <c r="AA1386" s="42"/>
     </row>
+    <row r="1387">
+      <c r="A1387" s="1"/>
+      <c r="B1387" s="39"/>
+      <c r="C1387" s="39"/>
+      <c r="D1387" s="39"/>
+      <c r="E1387" s="39"/>
+      <c r="F1387" s="39"/>
+      <c r="G1387" s="39"/>
+      <c r="H1387" s="40"/>
+      <c r="I1387" s="39"/>
+      <c r="J1387" s="41"/>
+      <c r="K1387" s="41"/>
+      <c r="L1387" s="42"/>
+      <c r="M1387" s="42"/>
+      <c r="N1387" s="42"/>
+      <c r="O1387" s="42"/>
+      <c r="P1387" s="42"/>
+      <c r="Q1387" s="42"/>
+      <c r="R1387" s="42"/>
+      <c r="S1387" s="42"/>
+      <c r="T1387" s="42"/>
+      <c r="U1387" s="42"/>
+      <c r="V1387" s="42"/>
+      <c r="W1387" s="42"/>
+      <c r="X1387" s="42"/>
+      <c r="Y1387" s="42"/>
+      <c r="Z1387" s="42"/>
+      <c r="AA1387" s="42"/>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="1"/>
+      <c r="B1388" s="39"/>
+      <c r="C1388" s="39"/>
+      <c r="D1388" s="39"/>
+      <c r="E1388" s="39"/>
+      <c r="F1388" s="39"/>
+      <c r="G1388" s="39"/>
+      <c r="H1388" s="40"/>
+      <c r="I1388" s="39"/>
+      <c r="J1388" s="41"/>
+      <c r="K1388" s="41"/>
+      <c r="L1388" s="42"/>
+      <c r="M1388" s="42"/>
+      <c r="N1388" s="42"/>
+      <c r="O1388" s="42"/>
+      <c r="P1388" s="42"/>
+      <c r="Q1388" s="42"/>
+      <c r="R1388" s="42"/>
+      <c r="S1388" s="42"/>
+      <c r="T1388" s="42"/>
+      <c r="U1388" s="42"/>
+      <c r="V1388" s="42"/>
+      <c r="W1388" s="42"/>
+      <c r="X1388" s="42"/>
+      <c r="Y1388" s="42"/>
+      <c r="Z1388" s="42"/>
+      <c r="AA1388" s="42"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/server/Dungeonz.io translations.xlsx
+++ b/server/Dungeonz.io translations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="1554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="1560">
   <si>
     <t>Dungeonz.io translations</t>
   </si>
@@ -1709,13 +1709,31 @@
     <t>Ölüçağıran Kaftanı üret</t>
   </si>
   <si>
-    <t>You died</t>
+    <t>Respawn panel: name</t>
   </si>
   <si>
     <t>You died!</t>
   </si>
   <si>
     <t>Öldün!</t>
+  </si>
+  <si>
+    <t>Respawn panel: info 1</t>
+  </si>
+  <si>
+    <t>Be better prepared next time. Items will last longer when made with higher crafting stats.</t>
+  </si>
+  <si>
+    <t>Respawn panel: info 2</t>
+  </si>
+  <si>
+    <t>Try working with other players when doing something dangerous.</t>
+  </si>
+  <si>
+    <t>Respawn panel: info 3</t>
+  </si>
+  <si>
+    <t>Many dangerous creatures only appear at night.</t>
   </si>
   <si>
     <t>Respawn</t>
@@ -10400,19 +10418,15 @@
         <v>565</v>
       </c>
       <c r="B148" s="21" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C148" s="22"/>
       <c r="D148" s="22"/>
       <c r="E148" s="26"/>
-      <c r="F148" s="22" t="s">
-        <v>566</v>
-      </c>
+      <c r="F148" s="22"/>
       <c r="G148" s="26"/>
       <c r="H148" s="31"/>
-      <c r="I148" s="22" t="s">
-        <v>567</v>
-      </c>
+      <c r="I148" s="26"/>
       <c r="J148" s="27"/>
       <c r="K148" s="27"/>
       <c r="L148" s="25"/>
@@ -10434,19 +10448,15 @@
     </row>
     <row r="149">
       <c r="A149" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="B149" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="B149" s="21" t="s">
-        <v>569</v>
-      </c>
       <c r="C149" s="22"/>
-      <c r="D149" s="22" t="s">
-        <v>570</v>
-      </c>
+      <c r="D149" s="22"/>
       <c r="E149" s="26"/>
-      <c r="F149" s="22" t="s">
-        <v>571</v>
-      </c>
+      <c r="F149" s="22"/>
       <c r="G149" s="26"/>
       <c r="H149" s="31"/>
       <c r="I149" s="26"/>
@@ -10471,24 +10481,18 @@
     </row>
     <row r="150">
       <c r="A150" s="20" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B150" s="21" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C150" s="22"/>
-      <c r="D150" s="22" t="s">
-        <v>574</v>
-      </c>
+      <c r="D150" s="22"/>
       <c r="E150" s="26"/>
-      <c r="F150" s="22" t="s">
-        <v>575</v>
-      </c>
+      <c r="F150" s="22"/>
       <c r="G150" s="26"/>
       <c r="H150" s="31"/>
-      <c r="I150" s="22" t="s">
-        <v>576</v>
-      </c>
+      <c r="I150" s="26"/>
       <c r="J150" s="27"/>
       <c r="K150" s="27"/>
       <c r="L150" s="25"/>
@@ -10510,22 +10514,22 @@
     </row>
     <row r="151">
       <c r="A151" s="20" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B151" s="21" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="C151" s="22"/>
-      <c r="D151" s="22" t="s">
-        <v>579</v>
-      </c>
+      <c r="D151" s="22"/>
       <c r="E151" s="26"/>
       <c r="F151" s="22" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="G151" s="26"/>
       <c r="H151" s="31"/>
-      <c r="I151" s="26"/>
+      <c r="I151" s="22" t="s">
+        <v>573</v>
+      </c>
       <c r="J151" s="27"/>
       <c r="K151" s="27"/>
       <c r="L151" s="25"/>
@@ -10547,18 +10551,18 @@
     </row>
     <row r="152">
       <c r="A152" s="20" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B152" s="21" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C152" s="22"/>
       <c r="D152" s="22" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E152" s="26"/>
       <c r="F152" s="22" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="G152" s="26"/>
       <c r="H152" s="31"/>
@@ -10584,22 +10588,24 @@
     </row>
     <row r="153">
       <c r="A153" s="20" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B153" s="21" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C153" s="22"/>
       <c r="D153" s="22" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E153" s="26"/>
       <c r="F153" s="22" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G153" s="26"/>
       <c r="H153" s="31"/>
-      <c r="I153" s="26"/>
+      <c r="I153" s="22" t="s">
+        <v>582</v>
+      </c>
       <c r="J153" s="27"/>
       <c r="K153" s="27"/>
       <c r="L153" s="25"/>
@@ -10621,18 +10627,18 @@
     </row>
     <row r="154">
       <c r="A154" s="20" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B154" s="21" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C154" s="22"/>
       <c r="D154" s="22" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E154" s="26"/>
       <c r="F154" s="22" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G154" s="26"/>
       <c r="H154" s="31"/>
@@ -10658,18 +10664,18 @@
     </row>
     <row r="155">
       <c r="A155" s="20" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B155" s="21" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C155" s="22"/>
       <c r="D155" s="22" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E155" s="26"/>
       <c r="F155" s="22" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G155" s="26"/>
       <c r="H155" s="31"/>
@@ -10695,18 +10701,18 @@
     </row>
     <row r="156">
       <c r="A156" s="20" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B156" s="21" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C156" s="22"/>
       <c r="D156" s="22" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E156" s="26"/>
       <c r="F156" s="22" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="G156" s="26"/>
       <c r="H156" s="31"/>
@@ -10732,18 +10738,18 @@
     </row>
     <row r="157">
       <c r="A157" s="20" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B157" s="21" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C157" s="22"/>
       <c r="D157" s="22" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E157" s="26"/>
       <c r="F157" s="22" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G157" s="26"/>
       <c r="H157" s="31"/>
@@ -10769,18 +10775,18 @@
     </row>
     <row r="158">
       <c r="A158" s="20" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B158" s="21" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C158" s="22"/>
       <c r="D158" s="22" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E158" s="26"/>
       <c r="F158" s="22" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="G158" s="26"/>
       <c r="H158" s="31"/>
@@ -10806,18 +10812,18 @@
     </row>
     <row r="159">
       <c r="A159" s="20" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B159" s="21" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C159" s="22"/>
       <c r="D159" s="22" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E159" s="26"/>
       <c r="F159" s="22" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G159" s="26"/>
       <c r="H159" s="31"/>
@@ -10843,18 +10849,18 @@
     </row>
     <row r="160">
       <c r="A160" s="20" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B160" s="21" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C160" s="22"/>
       <c r="D160" s="22" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E160" s="26"/>
       <c r="F160" s="22" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G160" s="26"/>
       <c r="H160" s="31"/>
@@ -10880,16 +10886,18 @@
     </row>
     <row r="161">
       <c r="A161" s="20" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B161" s="21" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="C161" s="22"/>
-      <c r="D161" s="22"/>
+      <c r="D161" s="22" t="s">
+        <v>606</v>
+      </c>
       <c r="E161" s="26"/>
       <c r="F161" s="22" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G161" s="26"/>
       <c r="H161" s="31"/>
@@ -10915,16 +10923,18 @@
     </row>
     <row r="162">
       <c r="A162" s="20" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B162" s="21" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C162" s="22"/>
-      <c r="D162" s="22"/>
+      <c r="D162" s="22" t="s">
+        <v>609</v>
+      </c>
       <c r="E162" s="26"/>
       <c r="F162" s="22" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G162" s="26"/>
       <c r="H162" s="31"/>
@@ -10950,16 +10960,18 @@
     </row>
     <row r="163">
       <c r="A163" s="20" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C163" s="22"/>
-      <c r="D163" s="22"/>
+      <c r="D163" s="22" t="s">
+        <v>612</v>
+      </c>
       <c r="E163" s="26"/>
       <c r="F163" s="22" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G163" s="26"/>
       <c r="H163" s="31"/>
@@ -10985,16 +10997,16 @@
     </row>
     <row r="164">
       <c r="A164" s="20" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B164" s="21" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="C164" s="22"/>
       <c r="D164" s="22"/>
       <c r="E164" s="26"/>
       <c r="F164" s="22" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G164" s="26"/>
       <c r="H164" s="31"/>
@@ -11020,16 +11032,16 @@
     </row>
     <row r="165">
       <c r="A165" s="20" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C165" s="22"/>
       <c r="D165" s="22"/>
       <c r="E165" s="26"/>
       <c r="F165" s="22" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="G165" s="26"/>
       <c r="H165" s="31"/>
@@ -11055,16 +11067,16 @@
     </row>
     <row r="166">
       <c r="A166" s="20" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B166" s="21" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C166" s="22"/>
       <c r="D166" s="22"/>
       <c r="E166" s="26"/>
       <c r="F166" s="22" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G166" s="26"/>
       <c r="H166" s="31"/>
@@ -11090,16 +11102,16 @@
     </row>
     <row r="167">
       <c r="A167" s="20" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B167" s="21" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C167" s="22"/>
       <c r="D167" s="22"/>
       <c r="E167" s="26"/>
       <c r="F167" s="22" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G167" s="26"/>
       <c r="H167" s="31"/>
@@ -11125,16 +11137,16 @@
     </row>
     <row r="168">
       <c r="A168" s="20" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B168" s="21" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C168" s="22"/>
       <c r="D168" s="22"/>
       <c r="E168" s="26"/>
       <c r="F168" s="22" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G168" s="26"/>
       <c r="H168" s="31"/>
@@ -11160,16 +11172,16 @@
     </row>
     <row r="169">
       <c r="A169" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B169" s="21" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C169" s="22"/>
       <c r="D169" s="22"/>
       <c r="E169" s="26"/>
       <c r="F169" s="22" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G169" s="26"/>
       <c r="H169" s="31"/>
@@ -11195,16 +11207,16 @@
     </row>
     <row r="170">
       <c r="A170" s="20" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B170" s="21" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C170" s="22"/>
       <c r="D170" s="22"/>
       <c r="E170" s="26"/>
       <c r="F170" s="22" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G170" s="26"/>
       <c r="H170" s="31"/>
@@ -11230,16 +11242,16 @@
     </row>
     <row r="171">
       <c r="A171" s="20" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B171" s="21" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C171" s="22"/>
       <c r="D171" s="22"/>
       <c r="E171" s="26"/>
       <c r="F171" s="22" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="G171" s="26"/>
       <c r="H171" s="31"/>
@@ -11265,18 +11277,16 @@
     </row>
     <row r="172">
       <c r="A172" s="20" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B172" s="21" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C172" s="22"/>
-      <c r="D172" s="22" t="s">
-        <v>642</v>
-      </c>
+      <c r="D172" s="22"/>
       <c r="E172" s="26"/>
       <c r="F172" s="22" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="G172" s="26"/>
       <c r="H172" s="31"/>
@@ -11302,18 +11312,16 @@
     </row>
     <row r="173">
       <c r="A173" s="20" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B173" s="21" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C173" s="22"/>
-      <c r="D173" s="22" t="s">
-        <v>646</v>
-      </c>
+      <c r="D173" s="22"/>
       <c r="E173" s="26"/>
       <c r="F173" s="22" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="G173" s="26"/>
       <c r="H173" s="31"/>
@@ -11339,18 +11347,16 @@
     </row>
     <row r="174">
       <c r="A174" s="20" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B174" s="21" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C174" s="22"/>
-      <c r="D174" s="22" t="s">
-        <v>648</v>
-      </c>
+      <c r="D174" s="22"/>
       <c r="E174" s="26"/>
       <c r="F174" s="22" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G174" s="26"/>
       <c r="H174" s="31"/>
@@ -11376,18 +11382,18 @@
     </row>
     <row r="175">
       <c r="A175" s="20" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B175" s="21" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C175" s="22"/>
       <c r="D175" s="22" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E175" s="26"/>
       <c r="F175" s="22" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="G175" s="26"/>
       <c r="H175" s="31"/>
@@ -11413,18 +11419,18 @@
     </row>
     <row r="176">
       <c r="A176" s="20" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C176" s="22"/>
       <c r="D176" s="22" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E176" s="26"/>
       <c r="F176" s="22" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="G176" s="26"/>
       <c r="H176" s="31"/>
@@ -11450,16 +11456,18 @@
     </row>
     <row r="177">
       <c r="A177" s="20" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C177" s="22"/>
-      <c r="D177" s="22"/>
+      <c r="D177" s="22" t="s">
+        <v>654</v>
+      </c>
       <c r="E177" s="26"/>
       <c r="F177" s="22" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G177" s="26"/>
       <c r="H177" s="31"/>
@@ -11485,16 +11493,18 @@
     </row>
     <row r="178">
       <c r="A178" s="20" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B178" s="21" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C178" s="22"/>
-      <c r="D178" s="22"/>
+      <c r="D178" s="22" t="s">
+        <v>658</v>
+      </c>
       <c r="E178" s="26"/>
       <c r="F178" s="22" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="G178" s="26"/>
       <c r="H178" s="31"/>
@@ -11520,16 +11530,18 @@
     </row>
     <row r="179">
       <c r="A179" s="20" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B179" s="21" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C179" s="22"/>
-      <c r="D179" s="22"/>
+      <c r="D179" s="22" t="s">
+        <v>662</v>
+      </c>
       <c r="E179" s="26"/>
       <c r="F179" s="22" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G179" s="26"/>
       <c r="H179" s="31"/>
@@ -11555,16 +11567,16 @@
     </row>
     <row r="180">
       <c r="A180" s="20" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B180" s="21" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C180" s="22"/>
       <c r="D180" s="22"/>
       <c r="E180" s="26"/>
       <c r="F180" s="22" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="G180" s="26"/>
       <c r="H180" s="31"/>
@@ -11590,18 +11602,16 @@
     </row>
     <row r="181">
       <c r="A181" s="20" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B181" s="21" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C181" s="22"/>
-      <c r="D181" s="22" t="s">
-        <v>672</v>
-      </c>
+      <c r="D181" s="22"/>
       <c r="E181" s="26"/>
       <c r="F181" s="22" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="G181" s="26"/>
       <c r="H181" s="31"/>
@@ -11627,18 +11637,16 @@
     </row>
     <row r="182">
       <c r="A182" s="20" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B182" s="21" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C182" s="22"/>
-      <c r="D182" s="22" t="s">
-        <v>676</v>
-      </c>
+      <c r="D182" s="22"/>
       <c r="E182" s="26"/>
       <c r="F182" s="22" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="G182" s="26"/>
       <c r="H182" s="31"/>
@@ -11664,16 +11672,16 @@
     </row>
     <row r="183">
       <c r="A183" s="20" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B183" s="21" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C183" s="22"/>
       <c r="D183" s="22"/>
       <c r="E183" s="26"/>
       <c r="F183" s="22" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="G183" s="26"/>
       <c r="H183" s="31"/>
@@ -11699,18 +11707,18 @@
     </row>
     <row r="184">
       <c r="A184" s="20" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B184" s="21" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C184" s="22"/>
       <c r="D184" s="22" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E184" s="26"/>
       <c r="F184" s="22" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G184" s="26"/>
       <c r="H184" s="31"/>
@@ -11736,18 +11744,18 @@
     </row>
     <row r="185">
       <c r="A185" s="20" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B185" s="21" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C185" s="22"/>
       <c r="D185" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E185" s="26"/>
       <c r="F185" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G185" s="26"/>
       <c r="H185" s="31"/>
@@ -11773,18 +11781,16 @@
     </row>
     <row r="186">
       <c r="A186" s="20" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B186" s="21" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C186" s="22"/>
-      <c r="D186" s="22" t="s">
-        <v>687</v>
-      </c>
+      <c r="D186" s="22"/>
       <c r="E186" s="26"/>
       <c r="F186" s="22" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G186" s="26"/>
       <c r="H186" s="31"/>
@@ -11810,18 +11816,18 @@
     </row>
     <row r="187">
       <c r="A187" s="20" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B187" s="21" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C187" s="22"/>
       <c r="D187" s="22" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E187" s="26"/>
       <c r="F187" s="22" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="G187" s="26"/>
       <c r="H187" s="31"/>
@@ -11847,18 +11853,18 @@
     </row>
     <row r="188">
       <c r="A188" s="20" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B188" s="21" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C188" s="22"/>
       <c r="D188" s="22" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E188" s="26"/>
       <c r="F188" s="22" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G188" s="26"/>
       <c r="H188" s="31"/>
@@ -11884,18 +11890,18 @@
     </row>
     <row r="189">
       <c r="A189" s="20" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B189" s="21" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C189" s="22"/>
       <c r="D189" s="22" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="E189" s="26"/>
       <c r="F189" s="22" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="G189" s="26"/>
       <c r="H189" s="31"/>
@@ -11921,18 +11927,18 @@
     </row>
     <row r="190">
       <c r="A190" s="20" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B190" s="21" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="C190" s="22"/>
       <c r="D190" s="22" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="E190" s="26"/>
       <c r="F190" s="22" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="G190" s="26"/>
       <c r="H190" s="31"/>
@@ -11958,18 +11964,18 @@
     </row>
     <row r="191">
       <c r="A191" s="20" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="B191" s="21" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="C191" s="22"/>
       <c r="D191" s="22" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="E191" s="26"/>
       <c r="F191" s="22" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="G191" s="26"/>
       <c r="H191" s="31"/>
@@ -11995,18 +12001,18 @@
     </row>
     <row r="192">
       <c r="A192" s="20" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="B192" s="21" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="C192" s="22"/>
       <c r="D192" s="22" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="E192" s="26"/>
       <c r="F192" s="22" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="G192" s="26"/>
       <c r="H192" s="31"/>
@@ -12032,16 +12038,18 @@
     </row>
     <row r="193">
       <c r="A193" s="20" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="B193" s="21" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="C193" s="22"/>
-      <c r="D193" s="22"/>
+      <c r="D193" s="22" t="s">
+        <v>708</v>
+      </c>
       <c r="E193" s="26"/>
       <c r="F193" s="22" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G193" s="26"/>
       <c r="H193" s="31"/>
@@ -12067,16 +12075,18 @@
     </row>
     <row r="194">
       <c r="A194" s="20" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B194" s="21" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C194" s="22"/>
-      <c r="D194" s="22"/>
+      <c r="D194" s="22" t="s">
+        <v>712</v>
+      </c>
       <c r="E194" s="26"/>
       <c r="F194" s="22" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="G194" s="26"/>
       <c r="H194" s="31"/>
@@ -12102,16 +12112,18 @@
     </row>
     <row r="195">
       <c r="A195" s="20" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B195" s="21" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C195" s="22"/>
-      <c r="D195" s="22"/>
+      <c r="D195" s="22" t="s">
+        <v>716</v>
+      </c>
       <c r="E195" s="26"/>
       <c r="F195" s="22" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="G195" s="26"/>
       <c r="H195" s="31"/>
@@ -12137,16 +12149,16 @@
     </row>
     <row r="196">
       <c r="A196" s="20" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B196" s="21" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C196" s="22"/>
       <c r="D196" s="22"/>
       <c r="E196" s="26"/>
       <c r="F196" s="22" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G196" s="26"/>
       <c r="H196" s="31"/>
@@ -12172,16 +12184,16 @@
     </row>
     <row r="197">
       <c r="A197" s="20" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B197" s="21" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C197" s="22"/>
       <c r="D197" s="22"/>
       <c r="E197" s="26"/>
       <c r="F197" s="22" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G197" s="26"/>
       <c r="H197" s="31"/>
@@ -12207,16 +12219,16 @@
     </row>
     <row r="198">
       <c r="A198" s="20" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B198" s="21" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C198" s="22"/>
       <c r="D198" s="22"/>
       <c r="E198" s="26"/>
       <c r="F198" s="22" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G198" s="26"/>
       <c r="H198" s="31"/>
@@ -12242,16 +12254,16 @@
     </row>
     <row r="199">
       <c r="A199" s="20" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B199" s="21" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C199" s="22"/>
       <c r="D199" s="22"/>
       <c r="E199" s="26"/>
       <c r="F199" s="22" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G199" s="26"/>
       <c r="H199" s="31"/>
@@ -12277,16 +12289,16 @@
     </row>
     <row r="200">
       <c r="A200" s="20" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C200" s="22"/>
       <c r="D200" s="22"/>
       <c r="E200" s="26"/>
       <c r="F200" s="22" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="G200" s="26"/>
       <c r="H200" s="31"/>
@@ -12312,16 +12324,16 @@
     </row>
     <row r="201">
       <c r="A201" s="20" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B201" s="21" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C201" s="22"/>
       <c r="D201" s="22"/>
       <c r="E201" s="26"/>
       <c r="F201" s="22" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="G201" s="26"/>
       <c r="H201" s="31"/>
@@ -12347,16 +12359,16 @@
     </row>
     <row r="202">
       <c r="A202" s="20" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B202" s="21" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C202" s="22"/>
       <c r="D202" s="22"/>
       <c r="E202" s="26"/>
       <c r="F202" s="22" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="G202" s="26"/>
       <c r="H202" s="31"/>
@@ -12382,16 +12394,16 @@
     </row>
     <row r="203">
       <c r="A203" s="20" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B203" s="21" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C203" s="22"/>
       <c r="D203" s="22"/>
       <c r="E203" s="26"/>
       <c r="F203" s="22" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G203" s="26"/>
       <c r="H203" s="31"/>
@@ -12417,16 +12429,16 @@
     </row>
     <row r="204">
       <c r="A204" s="20" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="B204" s="21" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C204" s="22"/>
       <c r="D204" s="22"/>
       <c r="E204" s="26"/>
       <c r="F204" s="22" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G204" s="26"/>
       <c r="H204" s="31"/>
@@ -12452,16 +12464,16 @@
     </row>
     <row r="205">
       <c r="A205" s="20" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B205" s="21" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C205" s="22"/>
       <c r="D205" s="22"/>
       <c r="E205" s="26"/>
       <c r="F205" s="22" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="G205" s="26"/>
       <c r="H205" s="31"/>
@@ -12487,16 +12499,16 @@
     </row>
     <row r="206">
       <c r="A206" s="20" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B206" s="21" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C206" s="22"/>
       <c r="D206" s="22"/>
       <c r="E206" s="26"/>
       <c r="F206" s="22" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="G206" s="26"/>
       <c r="H206" s="31"/>
@@ -12522,16 +12534,16 @@
     </row>
     <row r="207">
       <c r="A207" s="20" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B207" s="21" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C207" s="22"/>
       <c r="D207" s="22"/>
       <c r="E207" s="26"/>
       <c r="F207" s="22" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="G207" s="26"/>
       <c r="H207" s="31"/>
@@ -12557,16 +12569,16 @@
     </row>
     <row r="208">
       <c r="A208" s="20" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C208" s="22"/>
       <c r="D208" s="22"/>
       <c r="E208" s="26"/>
       <c r="F208" s="22" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="G208" s="26"/>
       <c r="H208" s="31"/>
@@ -12592,16 +12604,16 @@
     </row>
     <row r="209">
       <c r="A209" s="20" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B209" s="21" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C209" s="22"/>
       <c r="D209" s="22"/>
       <c r="E209" s="26"/>
       <c r="F209" s="22" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="G209" s="26"/>
       <c r="H209" s="31"/>
@@ -12627,16 +12639,16 @@
     </row>
     <row r="210">
       <c r="A210" s="20" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B210" s="21" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C210" s="22"/>
       <c r="D210" s="22"/>
       <c r="E210" s="26"/>
       <c r="F210" s="22" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="G210" s="26"/>
       <c r="H210" s="31"/>
@@ -12662,16 +12674,16 @@
     </row>
     <row r="211">
       <c r="A211" s="20" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B211" s="21" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C211" s="22"/>
       <c r="D211" s="22"/>
       <c r="E211" s="26"/>
       <c r="F211" s="22" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G211" s="26"/>
       <c r="H211" s="31"/>
@@ -12697,16 +12709,16 @@
     </row>
     <row r="212">
       <c r="A212" s="20" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C212" s="22"/>
       <c r="D212" s="22"/>
       <c r="E212" s="26"/>
       <c r="F212" s="22" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="G212" s="26"/>
       <c r="H212" s="31"/>
@@ -12732,16 +12744,16 @@
     </row>
     <row r="213">
       <c r="A213" s="20" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C213" s="22"/>
       <c r="D213" s="22"/>
       <c r="E213" s="26"/>
       <c r="F213" s="22" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="G213" s="26"/>
       <c r="H213" s="31"/>
@@ -12767,16 +12779,16 @@
     </row>
     <row r="214">
       <c r="A214" s="20" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C214" s="22"/>
       <c r="D214" s="22"/>
       <c r="E214" s="26"/>
       <c r="F214" s="22" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="G214" s="26"/>
       <c r="H214" s="31"/>
@@ -12802,16 +12814,16 @@
     </row>
     <row r="215">
       <c r="A215" s="20" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C215" s="22"/>
       <c r="D215" s="22"/>
       <c r="E215" s="26"/>
       <c r="F215" s="22" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="G215" s="26"/>
       <c r="H215" s="31"/>
@@ -12837,16 +12849,16 @@
     </row>
     <row r="216">
       <c r="A216" s="20" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B216" s="21" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C216" s="22"/>
       <c r="D216" s="22"/>
       <c r="E216" s="26"/>
       <c r="F216" s="22" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="G216" s="26"/>
       <c r="H216" s="31"/>
@@ -12872,16 +12884,16 @@
     </row>
     <row r="217">
       <c r="A217" s="20" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B217" s="21" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C217" s="22"/>
       <c r="D217" s="22"/>
       <c r="E217" s="26"/>
       <c r="F217" s="22" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="G217" s="26"/>
       <c r="H217" s="31"/>
@@ -12907,16 +12919,16 @@
     </row>
     <row r="218">
       <c r="A218" s="20" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B218" s="21" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C218" s="22"/>
       <c r="D218" s="22"/>
       <c r="E218" s="26"/>
       <c r="F218" s="22" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G218" s="26"/>
       <c r="H218" s="31"/>
@@ -12942,16 +12954,16 @@
     </row>
     <row r="219">
       <c r="A219" s="20" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C219" s="22"/>
       <c r="D219" s="22"/>
       <c r="E219" s="26"/>
       <c r="F219" s="22" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G219" s="26"/>
       <c r="H219" s="31"/>
@@ -12977,16 +12989,16 @@
     </row>
     <row r="220">
       <c r="A220" s="20" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B220" s="21" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C220" s="22"/>
       <c r="D220" s="22"/>
       <c r="E220" s="26"/>
       <c r="F220" s="22" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="G220" s="26"/>
       <c r="H220" s="31"/>
@@ -13012,16 +13024,16 @@
     </row>
     <row r="221">
       <c r="A221" s="20" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B221" s="21" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C221" s="22"/>
       <c r="D221" s="22"/>
       <c r="E221" s="26"/>
       <c r="F221" s="22" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="G221" s="26"/>
       <c r="H221" s="31"/>
@@ -13047,16 +13059,16 @@
     </row>
     <row r="222">
       <c r="A222" s="20" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B222" s="21" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C222" s="22"/>
       <c r="D222" s="22"/>
       <c r="E222" s="26"/>
       <c r="F222" s="22" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="G222" s="26"/>
       <c r="H222" s="31"/>
@@ -13082,16 +13094,16 @@
     </row>
     <row r="223">
       <c r="A223" s="20" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B223" s="21" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C223" s="22"/>
       <c r="D223" s="22"/>
       <c r="E223" s="26"/>
       <c r="F223" s="22" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G223" s="26"/>
       <c r="H223" s="31"/>
@@ -13117,16 +13129,16 @@
     </row>
     <row r="224">
       <c r="A224" s="20" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C224" s="22"/>
       <c r="D224" s="22"/>
       <c r="E224" s="26"/>
       <c r="F224" s="22" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G224" s="26"/>
       <c r="H224" s="31"/>
@@ -13152,16 +13164,16 @@
     </row>
     <row r="225">
       <c r="A225" s="20" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B225" s="21" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C225" s="22"/>
       <c r="D225" s="22"/>
       <c r="E225" s="26"/>
       <c r="F225" s="22" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="G225" s="26"/>
       <c r="H225" s="31"/>
@@ -13186,17 +13198,17 @@
       <c r="AA225" s="25"/>
     </row>
     <row r="226">
-      <c r="A226" s="34" t="s">
-        <v>811</v>
+      <c r="A226" s="20" t="s">
+        <v>808</v>
       </c>
       <c r="B226" s="21" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C226" s="22"/>
       <c r="D226" s="22"/>
       <c r="E226" s="26"/>
       <c r="F226" s="22" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G226" s="26"/>
       <c r="H226" s="31"/>
@@ -13221,17 +13233,17 @@
       <c r="AA226" s="25"/>
     </row>
     <row r="227">
-      <c r="A227" s="34" t="s">
-        <v>814</v>
+      <c r="A227" s="20" t="s">
+        <v>811</v>
       </c>
       <c r="B227" s="21" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C227" s="22"/>
       <c r="D227" s="22"/>
       <c r="E227" s="26"/>
       <c r="F227" s="22" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="G227" s="26"/>
       <c r="H227" s="31"/>
@@ -13256,17 +13268,17 @@
       <c r="AA227" s="25"/>
     </row>
     <row r="228">
-      <c r="A228" s="34" t="s">
-        <v>817</v>
+      <c r="A228" s="20" t="s">
+        <v>814</v>
       </c>
       <c r="B228" s="21" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C228" s="22"/>
       <c r="D228" s="22"/>
       <c r="E228" s="26"/>
       <c r="F228" s="22" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="G228" s="26"/>
       <c r="H228" s="31"/>
@@ -13292,16 +13304,16 @@
     </row>
     <row r="229">
       <c r="A229" s="34" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B229" s="21" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C229" s="22"/>
       <c r="D229" s="22"/>
       <c r="E229" s="26"/>
       <c r="F229" s="22" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G229" s="26"/>
       <c r="H229" s="31"/>
@@ -13327,16 +13339,16 @@
     </row>
     <row r="230">
       <c r="A230" s="34" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B230" s="21" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C230" s="22"/>
       <c r="D230" s="22"/>
       <c r="E230" s="26"/>
       <c r="F230" s="22" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="G230" s="26"/>
       <c r="H230" s="31"/>
@@ -13362,16 +13374,16 @@
     </row>
     <row r="231">
       <c r="A231" s="34" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B231" s="21" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C231" s="22"/>
       <c r="D231" s="22"/>
       <c r="E231" s="26"/>
       <c r="F231" s="22" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="G231" s="26"/>
       <c r="H231" s="31"/>
@@ -13397,16 +13409,16 @@
     </row>
     <row r="232">
       <c r="A232" s="34" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B232" s="21" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C232" s="22"/>
       <c r="D232" s="22"/>
       <c r="E232" s="26"/>
       <c r="F232" s="22" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="G232" s="26"/>
       <c r="H232" s="31"/>
@@ -13431,17 +13443,17 @@
       <c r="AA232" s="25"/>
     </row>
     <row r="233">
-      <c r="A233" s="20" t="s">
-        <v>832</v>
+      <c r="A233" s="34" t="s">
+        <v>829</v>
       </c>
       <c r="B233" s="21" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C233" s="22"/>
       <c r="D233" s="22"/>
       <c r="E233" s="26"/>
       <c r="F233" s="22" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="G233" s="26"/>
       <c r="H233" s="31"/>
@@ -13467,16 +13479,16 @@
     </row>
     <row r="234">
       <c r="A234" s="34" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B234" s="21" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C234" s="22"/>
       <c r="D234" s="22"/>
       <c r="E234" s="26"/>
       <c r="F234" s="22" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="G234" s="26"/>
       <c r="H234" s="31"/>
@@ -13501,17 +13513,17 @@
       <c r="AA234" s="25"/>
     </row>
     <row r="235">
-      <c r="A235" s="35" t="s">
-        <v>838</v>
+      <c r="A235" s="34" t="s">
+        <v>835</v>
       </c>
       <c r="B235" s="21" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C235" s="22"/>
       <c r="D235" s="22"/>
       <c r="E235" s="26"/>
       <c r="F235" s="22" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="G235" s="26"/>
       <c r="H235" s="31"/>
@@ -13536,17 +13548,17 @@
       <c r="AA235" s="25"/>
     </row>
     <row r="236">
-      <c r="A236" s="34" t="s">
-        <v>841</v>
+      <c r="A236" s="20" t="s">
+        <v>838</v>
       </c>
       <c r="B236" s="21" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C236" s="22"/>
       <c r="D236" s="22"/>
       <c r="E236" s="26"/>
       <c r="F236" s="22" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="G236" s="26"/>
       <c r="H236" s="31"/>
@@ -13572,16 +13584,16 @@
     </row>
     <row r="237">
       <c r="A237" s="34" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B237" s="21" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C237" s="22"/>
       <c r="D237" s="22"/>
       <c r="E237" s="26"/>
       <c r="F237" s="22" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="G237" s="26"/>
       <c r="H237" s="31"/>
@@ -13606,17 +13618,17 @@
       <c r="AA237" s="25"/>
     </row>
     <row r="238">
-      <c r="A238" s="34" t="s">
-        <v>847</v>
+      <c r="A238" s="35" t="s">
+        <v>844</v>
       </c>
       <c r="B238" s="21" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C238" s="22"/>
       <c r="D238" s="22"/>
       <c r="E238" s="26"/>
       <c r="F238" s="22" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="G238" s="26"/>
       <c r="H238" s="31"/>
@@ -13642,16 +13654,16 @@
     </row>
     <row r="239">
       <c r="A239" s="34" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B239" s="21" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C239" s="22"/>
       <c r="D239" s="22"/>
       <c r="E239" s="26"/>
       <c r="F239" s="22" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="G239" s="26"/>
       <c r="H239" s="31"/>
@@ -13677,16 +13689,16 @@
     </row>
     <row r="240">
       <c r="A240" s="34" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B240" s="21" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C240" s="22"/>
       <c r="D240" s="22"/>
       <c r="E240" s="26"/>
       <c r="F240" s="22" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G240" s="26"/>
       <c r="H240" s="31"/>
@@ -13712,16 +13724,16 @@
     </row>
     <row r="241">
       <c r="A241" s="34" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B241" s="21" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C241" s="22"/>
       <c r="D241" s="22"/>
       <c r="E241" s="26"/>
       <c r="F241" s="22" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="G241" s="26"/>
       <c r="H241" s="31"/>
@@ -13747,16 +13759,16 @@
     </row>
     <row r="242">
       <c r="A242" s="34" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B242" s="21" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C242" s="22"/>
       <c r="D242" s="22"/>
       <c r="E242" s="26"/>
       <c r="F242" s="22" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="G242" s="26"/>
       <c r="H242" s="31"/>
@@ -13782,23 +13794,21 @@
     </row>
     <row r="243">
       <c r="A243" s="34" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B243" s="21" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C243" s="22"/>
       <c r="D243" s="22"/>
       <c r="E243" s="26"/>
       <c r="F243" s="22" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G243" s="26"/>
       <c r="H243" s="31"/>
       <c r="I243" s="26"/>
-      <c r="J243" s="24" t="s">
-        <v>865</v>
-      </c>
+      <c r="J243" s="27"/>
       <c r="K243" s="27"/>
       <c r="L243" s="25"/>
       <c r="M243" s="25"/>
@@ -13819,23 +13829,21 @@
     </row>
     <row r="244">
       <c r="A244" s="34" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B244" s="21" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="C244" s="22"/>
       <c r="D244" s="22"/>
       <c r="E244" s="26"/>
       <c r="F244" s="22" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="G244" s="26"/>
       <c r="H244" s="31"/>
       <c r="I244" s="26"/>
-      <c r="J244" s="24" t="s">
-        <v>869</v>
-      </c>
+      <c r="J244" s="27"/>
       <c r="K244" s="27"/>
       <c r="L244" s="25"/>
       <c r="M244" s="25"/>
@@ -13856,23 +13864,21 @@
     </row>
     <row r="245">
       <c r="A245" s="34" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="B245" s="21" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="C245" s="22"/>
       <c r="D245" s="22"/>
       <c r="E245" s="26"/>
       <c r="F245" s="22" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="G245" s="26"/>
       <c r="H245" s="31"/>
       <c r="I245" s="26"/>
-      <c r="J245" s="24" t="s">
-        <v>873</v>
-      </c>
+      <c r="J245" s="27"/>
       <c r="K245" s="27"/>
       <c r="L245" s="25"/>
       <c r="M245" s="25"/>
@@ -13893,22 +13899,22 @@
     </row>
     <row r="246">
       <c r="A246" s="34" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="B246" s="21" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="C246" s="22"/>
       <c r="D246" s="22"/>
       <c r="E246" s="26"/>
       <c r="F246" s="22" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="G246" s="26"/>
       <c r="H246" s="31"/>
       <c r="I246" s="26"/>
       <c r="J246" s="24" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="K246" s="27"/>
       <c r="L246" s="25"/>
@@ -13930,22 +13936,22 @@
     </row>
     <row r="247">
       <c r="A247" s="34" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="B247" s="21" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="C247" s="22"/>
       <c r="D247" s="22"/>
       <c r="E247" s="26"/>
       <c r="F247" s="22" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="G247" s="26"/>
       <c r="H247" s="31"/>
       <c r="I247" s="26"/>
       <c r="J247" s="24" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="K247" s="27"/>
       <c r="L247" s="25"/>
@@ -13967,22 +13973,22 @@
     </row>
     <row r="248">
       <c r="A248" s="34" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="B248" s="21" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="C248" s="22"/>
       <c r="D248" s="22"/>
       <c r="E248" s="26"/>
       <c r="F248" s="22" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="G248" s="26"/>
       <c r="H248" s="31"/>
       <c r="I248" s="26"/>
       <c r="J248" s="24" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="K248" s="27"/>
       <c r="L248" s="25"/>
@@ -14004,24 +14010,22 @@
     </row>
     <row r="249">
       <c r="A249" s="34" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="B249" s="21" t="s">
-        <v>887</v>
-      </c>
-      <c r="C249" s="26"/>
-      <c r="D249" s="22" t="s">
-        <v>888</v>
-      </c>
+        <v>881</v>
+      </c>
+      <c r="C249" s="22"/>
+      <c r="D249" s="22"/>
       <c r="E249" s="26"/>
       <c r="F249" s="22" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="G249" s="26"/>
       <c r="H249" s="31"/>
       <c r="I249" s="26"/>
       <c r="J249" s="24" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="K249" s="27"/>
       <c r="L249" s="25"/>
@@ -14043,24 +14047,22 @@
     </row>
     <row r="250">
       <c r="A250" s="34" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="B250" s="21" t="s">
-        <v>892</v>
-      </c>
-      <c r="C250" s="26"/>
-      <c r="D250" s="22" t="s">
-        <v>893</v>
-      </c>
+        <v>885</v>
+      </c>
+      <c r="C250" s="22"/>
+      <c r="D250" s="22"/>
       <c r="E250" s="26"/>
       <c r="F250" s="22" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="G250" s="26"/>
       <c r="H250" s="31"/>
       <c r="I250" s="26"/>
       <c r="J250" s="24" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="K250" s="27"/>
       <c r="L250" s="25"/>
@@ -14082,22 +14084,22 @@
     </row>
     <row r="251">
       <c r="A251" s="34" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="B251" s="21" t="s">
-        <v>897</v>
-      </c>
-      <c r="C251" s="26"/>
+        <v>889</v>
+      </c>
+      <c r="C251" s="22"/>
       <c r="D251" s="22"/>
       <c r="E251" s="26"/>
       <c r="F251" s="22" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="G251" s="26"/>
       <c r="H251" s="31"/>
       <c r="I251" s="26"/>
       <c r="J251" s="24" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="K251" s="27"/>
       <c r="L251" s="25"/>
@@ -14119,22 +14121,24 @@
     </row>
     <row r="252">
       <c r="A252" s="34" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="B252" s="21" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="C252" s="26"/>
-      <c r="D252" s="22"/>
+      <c r="D252" s="22" t="s">
+        <v>894</v>
+      </c>
       <c r="E252" s="26"/>
       <c r="F252" s="22" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G252" s="26"/>
       <c r="H252" s="31"/>
       <c r="I252" s="26"/>
       <c r="J252" s="24" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="K252" s="27"/>
       <c r="L252" s="25"/>
@@ -14156,24 +14160,24 @@
     </row>
     <row r="253">
       <c r="A253" s="34" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="B253" s="21" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="C253" s="26"/>
       <c r="D253" s="22" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="E253" s="26"/>
       <c r="F253" s="22" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="G253" s="26"/>
       <c r="H253" s="31"/>
       <c r="I253" s="26"/>
       <c r="J253" s="24" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="K253" s="27"/>
       <c r="L253" s="25"/>
@@ -14195,24 +14199,22 @@
     </row>
     <row r="254">
       <c r="A254" s="34" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="B254" s="21" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="C254" s="26"/>
-      <c r="D254" s="22" t="s">
-        <v>911</v>
-      </c>
+      <c r="D254" s="22"/>
       <c r="E254" s="26"/>
       <c r="F254" s="22" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="G254" s="26"/>
       <c r="H254" s="31"/>
       <c r="I254" s="26"/>
       <c r="J254" s="24" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="K254" s="27"/>
       <c r="L254" s="25"/>
@@ -14234,24 +14236,22 @@
     </row>
     <row r="255">
       <c r="A255" s="34" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="B255" s="21" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="C255" s="26"/>
-      <c r="D255" s="22" t="s">
-        <v>916</v>
-      </c>
+      <c r="D255" s="22"/>
       <c r="E255" s="26"/>
       <c r="F255" s="22" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="G255" s="26"/>
       <c r="H255" s="31"/>
       <c r="I255" s="26"/>
       <c r="J255" s="24" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="K255" s="27"/>
       <c r="L255" s="25"/>
@@ -14273,22 +14273,24 @@
     </row>
     <row r="256">
       <c r="A256" s="34" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="B256" s="21" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="C256" s="26"/>
-      <c r="D256" s="22"/>
+      <c r="D256" s="22" t="s">
+        <v>912</v>
+      </c>
       <c r="E256" s="26"/>
       <c r="F256" s="22" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="G256" s="26"/>
       <c r="H256" s="31"/>
       <c r="I256" s="26"/>
       <c r="J256" s="24" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="K256" s="27"/>
       <c r="L256" s="25"/>
@@ -14310,22 +14312,24 @@
     </row>
     <row r="257">
       <c r="A257" s="34" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="B257" s="21" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="C257" s="26"/>
-      <c r="D257" s="22"/>
+      <c r="D257" s="22" t="s">
+        <v>917</v>
+      </c>
       <c r="E257" s="26"/>
       <c r="F257" s="22" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="G257" s="26"/>
       <c r="H257" s="31"/>
       <c r="I257" s="26"/>
       <c r="J257" s="24" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="K257" s="27"/>
       <c r="L257" s="25"/>
@@ -14347,22 +14351,24 @@
     </row>
     <row r="258">
       <c r="A258" s="34" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="B258" s="21" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="C258" s="26"/>
-      <c r="D258" s="22"/>
+      <c r="D258" s="22" t="s">
+        <v>922</v>
+      </c>
       <c r="E258" s="26"/>
       <c r="F258" s="22" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="G258" s="26"/>
       <c r="H258" s="31"/>
       <c r="I258" s="26"/>
       <c r="J258" s="24" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="K258" s="27"/>
       <c r="L258" s="25"/>
@@ -14384,22 +14390,22 @@
     </row>
     <row r="259">
       <c r="A259" s="34" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="B259" s="21" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="C259" s="26"/>
       <c r="D259" s="22"/>
       <c r="E259" s="26"/>
       <c r="F259" s="22" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="G259" s="26"/>
       <c r="H259" s="31"/>
       <c r="I259" s="26"/>
       <c r="J259" s="24" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="K259" s="27"/>
       <c r="L259" s="25"/>
@@ -14421,22 +14427,22 @@
     </row>
     <row r="260">
       <c r="A260" s="34" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="B260" s="21" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="C260" s="26"/>
       <c r="D260" s="22"/>
       <c r="E260" s="26"/>
       <c r="F260" s="22" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="G260" s="26"/>
       <c r="H260" s="31"/>
       <c r="I260" s="26"/>
       <c r="J260" s="24" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="K260" s="27"/>
       <c r="L260" s="25"/>
@@ -14457,23 +14463,23 @@
       <c r="AA260" s="25"/>
     </row>
     <row r="261">
-      <c r="A261" s="35" t="s">
-        <v>939</v>
+      <c r="A261" s="34" t="s">
+        <v>933</v>
       </c>
       <c r="B261" s="21" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="C261" s="26"/>
       <c r="D261" s="22"/>
       <c r="E261" s="26"/>
       <c r="F261" s="22" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="G261" s="26"/>
       <c r="H261" s="31"/>
       <c r="I261" s="26"/>
       <c r="J261" s="24" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="K261" s="27"/>
       <c r="L261" s="25"/>
@@ -14494,23 +14500,23 @@
       <c r="AA261" s="25"/>
     </row>
     <row r="262">
-      <c r="A262" s="35" t="s">
-        <v>943</v>
+      <c r="A262" s="34" t="s">
+        <v>937</v>
       </c>
       <c r="B262" s="21" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="C262" s="26"/>
       <c r="D262" s="22"/>
       <c r="E262" s="26"/>
       <c r="F262" s="22" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="G262" s="26"/>
       <c r="H262" s="31"/>
       <c r="I262" s="26"/>
       <c r="J262" s="24" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="K262" s="27"/>
       <c r="L262" s="25"/>
@@ -14531,23 +14537,23 @@
       <c r="AA262" s="25"/>
     </row>
     <row r="263">
-      <c r="A263" s="35" t="s">
-        <v>947</v>
+      <c r="A263" s="34" t="s">
+        <v>941</v>
       </c>
       <c r="B263" s="21" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="C263" s="26"/>
       <c r="D263" s="22"/>
       <c r="E263" s="26"/>
       <c r="F263" s="22" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="G263" s="26"/>
       <c r="H263" s="31"/>
       <c r="I263" s="26"/>
       <c r="J263" s="24" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="K263" s="27"/>
       <c r="L263" s="25"/>
@@ -14569,22 +14575,22 @@
     </row>
     <row r="264">
       <c r="A264" s="35" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B264" s="21" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="C264" s="26"/>
       <c r="D264" s="22"/>
       <c r="E264" s="26"/>
       <c r="F264" s="22" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="G264" s="26"/>
       <c r="H264" s="31"/>
       <c r="I264" s="26"/>
       <c r="J264" s="24" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="K264" s="27"/>
       <c r="L264" s="25"/>
@@ -14606,22 +14612,22 @@
     </row>
     <row r="265">
       <c r="A265" s="35" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B265" s="21" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C265" s="26"/>
       <c r="D265" s="22"/>
       <c r="E265" s="26"/>
       <c r="F265" s="22" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="G265" s="26"/>
       <c r="H265" s="31"/>
       <c r="I265" s="26"/>
       <c r="J265" s="24" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="K265" s="27"/>
       <c r="L265" s="25"/>
@@ -14643,22 +14649,22 @@
     </row>
     <row r="266">
       <c r="A266" s="35" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B266" s="21" t="s">
-        <v>944</v>
+        <v>954</v>
       </c>
       <c r="C266" s="26"/>
       <c r="D266" s="22"/>
       <c r="E266" s="26"/>
       <c r="F266" s="22" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
       <c r="G266" s="26"/>
       <c r="H266" s="31"/>
       <c r="I266" s="26"/>
       <c r="J266" s="24" t="s">
-        <v>946</v>
+        <v>956</v>
       </c>
       <c r="K266" s="27"/>
       <c r="L266" s="25"/>
@@ -14679,23 +14685,23 @@
       <c r="AA266" s="25"/>
     </row>
     <row r="267">
-      <c r="A267" s="34" t="s">
+      <c r="A267" s="35" t="s">
         <v>957</v>
       </c>
       <c r="B267" s="21" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="C267" s="26"/>
       <c r="D267" s="22"/>
       <c r="E267" s="26"/>
       <c r="F267" s="22" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="G267" s="26"/>
       <c r="H267" s="31"/>
       <c r="I267" s="26"/>
       <c r="J267" s="24" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="K267" s="27"/>
       <c r="L267" s="25"/>
@@ -14716,22 +14722,24 @@
       <c r="AA267" s="25"/>
     </row>
     <row r="268">
-      <c r="A268" s="34" t="s">
-        <v>961</v>
+      <c r="A268" s="35" t="s">
+        <v>958</v>
       </c>
       <c r="B268" s="21" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C268" s="26"/>
       <c r="D268" s="22"/>
       <c r="E268" s="26"/>
       <c r="F268" s="22" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="G268" s="26"/>
       <c r="H268" s="31"/>
       <c r="I268" s="26"/>
-      <c r="J268" s="27"/>
+      <c r="J268" s="24" t="s">
+        <v>961</v>
+      </c>
       <c r="K268" s="27"/>
       <c r="L268" s="25"/>
       <c r="M268" s="25"/>
@@ -14751,23 +14759,23 @@
       <c r="AA268" s="25"/>
     </row>
     <row r="269">
-      <c r="A269" s="34" t="s">
-        <v>964</v>
+      <c r="A269" s="35" t="s">
+        <v>962</v>
       </c>
       <c r="B269" s="21" t="s">
-        <v>965</v>
+        <v>950</v>
       </c>
       <c r="C269" s="26"/>
       <c r="D269" s="22"/>
       <c r="E269" s="26"/>
       <c r="F269" s="22" t="s">
-        <v>966</v>
+        <v>951</v>
       </c>
       <c r="G269" s="26"/>
       <c r="H269" s="31"/>
       <c r="I269" s="26"/>
       <c r="J269" s="24" t="s">
-        <v>967</v>
+        <v>952</v>
       </c>
       <c r="K269" s="27"/>
       <c r="L269" s="25"/>
@@ -14789,21 +14797,23 @@
     </row>
     <row r="270">
       <c r="A270" s="34" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="B270" s="21" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="C270" s="26"/>
       <c r="D270" s="22"/>
       <c r="E270" s="26"/>
       <c r="F270" s="22" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="G270" s="26"/>
       <c r="H270" s="31"/>
       <c r="I270" s="26"/>
-      <c r="J270" s="27"/>
+      <c r="J270" s="24" t="s">
+        <v>966</v>
+      </c>
       <c r="K270" s="27"/>
       <c r="L270" s="25"/>
       <c r="M270" s="25"/>
@@ -14824,23 +14834,21 @@
     </row>
     <row r="271">
       <c r="A271" s="34" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="B271" s="21" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C271" s="26"/>
       <c r="D271" s="22"/>
       <c r="E271" s="26"/>
       <c r="F271" s="22" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="G271" s="26"/>
       <c r="H271" s="31"/>
       <c r="I271" s="26"/>
-      <c r="J271" s="24" t="s">
-        <v>974</v>
-      </c>
+      <c r="J271" s="27"/>
       <c r="K271" s="27"/>
       <c r="L271" s="25"/>
       <c r="M271" s="25"/>
@@ -14861,21 +14869,23 @@
     </row>
     <row r="272">
       <c r="A272" s="34" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="B272" s="21" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="C272" s="26"/>
       <c r="D272" s="22"/>
       <c r="E272" s="26"/>
       <c r="F272" s="22" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="G272" s="26"/>
       <c r="H272" s="31"/>
       <c r="I272" s="26"/>
-      <c r="J272" s="27"/>
+      <c r="J272" s="24" t="s">
+        <v>973</v>
+      </c>
       <c r="K272" s="27"/>
       <c r="L272" s="25"/>
       <c r="M272" s="25"/>
@@ -14895,26 +14905,22 @@
       <c r="AA272" s="25"/>
     </row>
     <row r="273">
-      <c r="A273" s="20" t="s">
-        <v>978</v>
+      <c r="A273" s="34" t="s">
+        <v>974</v>
       </c>
       <c r="B273" s="21" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C273" s="26"/>
-      <c r="D273" s="22" t="s">
-        <v>980</v>
-      </c>
+      <c r="D273" s="22"/>
       <c r="E273" s="26"/>
       <c r="F273" s="22" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="G273" s="26"/>
       <c r="H273" s="31"/>
       <c r="I273" s="26"/>
-      <c r="J273" s="24" t="s">
-        <v>982</v>
-      </c>
+      <c r="J273" s="27"/>
       <c r="K273" s="27"/>
       <c r="L273" s="25"/>
       <c r="M273" s="25"/>
@@ -14934,24 +14940,24 @@
       <c r="AA273" s="25"/>
     </row>
     <row r="274">
-      <c r="A274" s="20" t="s">
-        <v>983</v>
+      <c r="A274" s="34" t="s">
+        <v>977</v>
       </c>
       <c r="B274" s="21" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="C274" s="26"/>
-      <c r="D274" s="22" t="s">
-        <v>985</v>
-      </c>
+      <c r="D274" s="22"/>
       <c r="E274" s="26"/>
       <c r="F274" s="22" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="G274" s="26"/>
       <c r="H274" s="31"/>
       <c r="I274" s="26"/>
-      <c r="J274" s="27"/>
+      <c r="J274" s="24" t="s">
+        <v>980</v>
+      </c>
       <c r="K274" s="27"/>
       <c r="L274" s="25"/>
       <c r="M274" s="25"/>
@@ -14971,26 +14977,22 @@
       <c r="AA274" s="25"/>
     </row>
     <row r="275">
-      <c r="A275" s="20" t="s">
-        <v>987</v>
+      <c r="A275" s="34" t="s">
+        <v>981</v>
       </c>
       <c r="B275" s="21" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="C275" s="26"/>
-      <c r="D275" s="22" t="s">
-        <v>989</v>
-      </c>
+      <c r="D275" s="22"/>
       <c r="E275" s="26"/>
       <c r="F275" s="22" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="G275" s="26"/>
       <c r="H275" s="31"/>
       <c r="I275" s="26"/>
-      <c r="J275" s="24" t="s">
-        <v>991</v>
-      </c>
+      <c r="J275" s="27"/>
       <c r="K275" s="27"/>
       <c r="L275" s="25"/>
       <c r="M275" s="25"/>
@@ -15011,23 +15013,25 @@
     </row>
     <row r="276">
       <c r="A276" s="20" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="B276" s="21" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="C276" s="26"/>
       <c r="D276" s="22" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="E276" s="26"/>
       <c r="F276" s="22" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="G276" s="26"/>
       <c r="H276" s="31"/>
       <c r="I276" s="26"/>
-      <c r="J276" s="27"/>
+      <c r="J276" s="24" t="s">
+        <v>988</v>
+      </c>
       <c r="K276" s="27"/>
       <c r="L276" s="25"/>
       <c r="M276" s="25"/>
@@ -15048,23 +15052,23 @@
     </row>
     <row r="277">
       <c r="A277" s="20" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="B277" s="21" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="C277" s="26"/>
-      <c r="D277" s="22"/>
+      <c r="D277" s="22" t="s">
+        <v>991</v>
+      </c>
       <c r="E277" s="26"/>
       <c r="F277" s="22" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="G277" s="26"/>
       <c r="H277" s="31"/>
       <c r="I277" s="26"/>
-      <c r="J277" s="24" t="s">
-        <v>999</v>
-      </c>
+      <c r="J277" s="27"/>
       <c r="K277" s="27"/>
       <c r="L277" s="25"/>
       <c r="M277" s="25"/>
@@ -15085,21 +15089,25 @@
     </row>
     <row r="278">
       <c r="A278" s="20" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="B278" s="21" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="C278" s="26"/>
-      <c r="D278" s="22"/>
+      <c r="D278" s="22" t="s">
+        <v>995</v>
+      </c>
       <c r="E278" s="26"/>
       <c r="F278" s="22" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="G278" s="26"/>
       <c r="H278" s="31"/>
       <c r="I278" s="26"/>
-      <c r="J278" s="27"/>
+      <c r="J278" s="24" t="s">
+        <v>997</v>
+      </c>
       <c r="K278" s="27"/>
       <c r="L278" s="25"/>
       <c r="M278" s="25"/>
@@ -15120,23 +15128,23 @@
     </row>
     <row r="279">
       <c r="A279" s="20" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="B279" s="21" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="C279" s="26"/>
-      <c r="D279" s="22"/>
+      <c r="D279" s="22" t="s">
+        <v>1000</v>
+      </c>
       <c r="E279" s="26"/>
       <c r="F279" s="22" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="G279" s="26"/>
       <c r="H279" s="31"/>
       <c r="I279" s="26"/>
-      <c r="J279" s="24" t="s">
-        <v>1006</v>
-      </c>
+      <c r="J279" s="27"/>
       <c r="K279" s="27"/>
       <c r="L279" s="25"/>
       <c r="M279" s="25"/>
@@ -15157,21 +15165,23 @@
     </row>
     <row r="280">
       <c r="A280" s="20" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B280" s="21" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="C280" s="26"/>
       <c r="D280" s="22"/>
       <c r="E280" s="26"/>
       <c r="F280" s="22" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="G280" s="26"/>
       <c r="H280" s="31"/>
       <c r="I280" s="26"/>
-      <c r="J280" s="27"/>
+      <c r="J280" s="24" t="s">
+        <v>1005</v>
+      </c>
       <c r="K280" s="27"/>
       <c r="L280" s="25"/>
       <c r="M280" s="25"/>
@@ -15192,23 +15202,21 @@
     </row>
     <row r="281">
       <c r="A281" s="20" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B281" s="21" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C281" s="26"/>
       <c r="D281" s="22"/>
       <c r="E281" s="26"/>
       <c r="F281" s="22" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="G281" s="26"/>
       <c r="H281" s="31"/>
       <c r="I281" s="26"/>
-      <c r="J281" s="24" t="s">
-        <v>1013</v>
-      </c>
+      <c r="J281" s="27"/>
       <c r="K281" s="27"/>
       <c r="L281" s="25"/>
       <c r="M281" s="25"/>
@@ -15229,21 +15237,23 @@
     </row>
     <row r="282">
       <c r="A282" s="20" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="B282" s="21" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="C282" s="26"/>
       <c r="D282" s="22"/>
       <c r="E282" s="26"/>
       <c r="F282" s="22" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="G282" s="26"/>
       <c r="H282" s="31"/>
       <c r="I282" s="26"/>
-      <c r="J282" s="27"/>
+      <c r="J282" s="24" t="s">
+        <v>1012</v>
+      </c>
       <c r="K282" s="27"/>
       <c r="L282" s="25"/>
       <c r="M282" s="25"/>
@@ -15264,23 +15274,21 @@
     </row>
     <row r="283">
       <c r="A283" s="20" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="B283" s="21" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="C283" s="26"/>
       <c r="D283" s="22"/>
       <c r="E283" s="26"/>
       <c r="F283" s="22" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="G283" s="26"/>
       <c r="H283" s="31"/>
       <c r="I283" s="26"/>
-      <c r="J283" s="24" t="s">
-        <v>1020</v>
-      </c>
+      <c r="J283" s="27"/>
       <c r="K283" s="27"/>
       <c r="L283" s="25"/>
       <c r="M283" s="25"/>
@@ -15301,21 +15309,23 @@
     </row>
     <row r="284">
       <c r="A284" s="20" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B284" s="21" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="C284" s="26"/>
       <c r="D284" s="22"/>
       <c r="E284" s="26"/>
       <c r="F284" s="22" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="G284" s="26"/>
       <c r="H284" s="31"/>
       <c r="I284" s="26"/>
-      <c r="J284" s="27"/>
+      <c r="J284" s="24" t="s">
+        <v>1019</v>
+      </c>
       <c r="K284" s="27"/>
       <c r="L284" s="25"/>
       <c r="M284" s="25"/>
@@ -15336,23 +15346,21 @@
     </row>
     <row r="285">
       <c r="A285" s="20" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="B285" s="21" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="C285" s="26"/>
       <c r="D285" s="22"/>
       <c r="E285" s="26"/>
       <c r="F285" s="22" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="G285" s="26"/>
       <c r="H285" s="31"/>
       <c r="I285" s="26"/>
-      <c r="J285" s="24" t="s">
-        <v>1027</v>
-      </c>
+      <c r="J285" s="27"/>
       <c r="K285" s="27"/>
       <c r="L285" s="25"/>
       <c r="M285" s="25"/>
@@ -15373,21 +15381,23 @@
     </row>
     <row r="286">
       <c r="A286" s="20" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="B286" s="21" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="C286" s="26"/>
       <c r="D286" s="22"/>
       <c r="E286" s="26"/>
       <c r="F286" s="22" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="G286" s="26"/>
       <c r="H286" s="31"/>
       <c r="I286" s="26"/>
-      <c r="J286" s="27"/>
+      <c r="J286" s="24" t="s">
+        <v>1026</v>
+      </c>
       <c r="K286" s="27"/>
       <c r="L286" s="25"/>
       <c r="M286" s="25"/>
@@ -15408,23 +15418,21 @@
     </row>
     <row r="287">
       <c r="A287" s="20" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="B287" s="21" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="C287" s="26"/>
       <c r="D287" s="22"/>
       <c r="E287" s="26"/>
       <c r="F287" s="22" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="G287" s="26"/>
       <c r="H287" s="31"/>
       <c r="I287" s="26"/>
-      <c r="J287" s="24" t="s">
-        <v>1034</v>
-      </c>
+      <c r="J287" s="27"/>
       <c r="K287" s="27"/>
       <c r="L287" s="25"/>
       <c r="M287" s="25"/>
@@ -15445,21 +15453,23 @@
     </row>
     <row r="288">
       <c r="A288" s="20" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="B288" s="21" t="s">
-        <v>984</v>
+        <v>1031</v>
       </c>
       <c r="C288" s="26"/>
       <c r="D288" s="22"/>
       <c r="E288" s="26"/>
       <c r="F288" s="22" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="G288" s="26"/>
       <c r="H288" s="31"/>
       <c r="I288" s="26"/>
-      <c r="J288" s="27"/>
+      <c r="J288" s="24" t="s">
+        <v>1033</v>
+      </c>
       <c r="K288" s="27"/>
       <c r="L288" s="25"/>
       <c r="M288" s="25"/>
@@ -15480,23 +15490,21 @@
     </row>
     <row r="289">
       <c r="A289" s="20" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B289" s="21" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C289" s="26"/>
       <c r="D289" s="22"/>
       <c r="E289" s="26"/>
       <c r="F289" s="22" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="G289" s="26"/>
       <c r="H289" s="31"/>
       <c r="I289" s="26"/>
-      <c r="J289" s="24" t="s">
-        <v>1040</v>
-      </c>
+      <c r="J289" s="27"/>
       <c r="K289" s="27"/>
       <c r="L289" s="25"/>
       <c r="M289" s="25"/>
@@ -15517,21 +15525,23 @@
     </row>
     <row r="290">
       <c r="A290" s="20" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B290" s="21" t="s">
-        <v>993</v>
+        <v>1038</v>
       </c>
       <c r="C290" s="26"/>
       <c r="D290" s="22"/>
       <c r="E290" s="26"/>
       <c r="F290" s="22" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="G290" s="26"/>
       <c r="H290" s="31"/>
       <c r="I290" s="26"/>
-      <c r="J290" s="27"/>
+      <c r="J290" s="24" t="s">
+        <v>1040</v>
+      </c>
       <c r="K290" s="27"/>
       <c r="L290" s="25"/>
       <c r="M290" s="25"/>
@@ -15552,23 +15562,21 @@
     </row>
     <row r="291">
       <c r="A291" s="20" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B291" s="21" t="s">
-        <v>1044</v>
+        <v>990</v>
       </c>
       <c r="C291" s="26"/>
       <c r="D291" s="22"/>
       <c r="E291" s="26"/>
       <c r="F291" s="22" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="G291" s="26"/>
       <c r="H291" s="31"/>
       <c r="I291" s="26"/>
-      <c r="J291" s="24" t="s">
-        <v>1046</v>
-      </c>
+      <c r="J291" s="27"/>
       <c r="K291" s="27"/>
       <c r="L291" s="25"/>
       <c r="M291" s="25"/>
@@ -15589,21 +15597,23 @@
     </row>
     <row r="292">
       <c r="A292" s="20" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="B292" s="21" t="s">
-        <v>1001</v>
+        <v>1044</v>
       </c>
       <c r="C292" s="26"/>
       <c r="D292" s="22"/>
       <c r="E292" s="26"/>
       <c r="F292" s="22" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="G292" s="26"/>
       <c r="H292" s="31"/>
       <c r="I292" s="26"/>
-      <c r="J292" s="27"/>
+      <c r="J292" s="24" t="s">
+        <v>1046</v>
+      </c>
       <c r="K292" s="27"/>
       <c r="L292" s="25"/>
       <c r="M292" s="25"/>
@@ -15624,23 +15634,21 @@
     </row>
     <row r="293">
       <c r="A293" s="20" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B293" s="21" t="s">
-        <v>1050</v>
+        <v>999</v>
       </c>
       <c r="C293" s="26"/>
       <c r="D293" s="22"/>
       <c r="E293" s="26"/>
       <c r="F293" s="22" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="G293" s="26"/>
       <c r="H293" s="31"/>
       <c r="I293" s="26"/>
-      <c r="J293" s="24" t="s">
-        <v>1052</v>
-      </c>
+      <c r="J293" s="27"/>
       <c r="K293" s="27"/>
       <c r="L293" s="25"/>
       <c r="M293" s="25"/>
@@ -15661,21 +15669,23 @@
     </row>
     <row r="294">
       <c r="A294" s="20" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="B294" s="21" t="s">
-        <v>1008</v>
+        <v>1050</v>
       </c>
       <c r="C294" s="26"/>
       <c r="D294" s="22"/>
       <c r="E294" s="26"/>
       <c r="F294" s="22" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G294" s="26"/>
       <c r="H294" s="31"/>
       <c r="I294" s="26"/>
-      <c r="J294" s="27"/>
+      <c r="J294" s="24" t="s">
+        <v>1052</v>
+      </c>
       <c r="K294" s="27"/>
       <c r="L294" s="25"/>
       <c r="M294" s="25"/>
@@ -15696,23 +15706,21 @@
     </row>
     <row r="295">
       <c r="A295" s="20" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B295" s="21" t="s">
-        <v>1056</v>
+        <v>1007</v>
       </c>
       <c r="C295" s="26"/>
       <c r="D295" s="22"/>
       <c r="E295" s="26"/>
       <c r="F295" s="22" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="G295" s="26"/>
       <c r="H295" s="31"/>
       <c r="I295" s="26"/>
-      <c r="J295" s="24" t="s">
-        <v>1058</v>
-      </c>
+      <c r="J295" s="27"/>
       <c r="K295" s="27"/>
       <c r="L295" s="25"/>
       <c r="M295" s="25"/>
@@ -15733,21 +15741,23 @@
     </row>
     <row r="296">
       <c r="A296" s="20" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="B296" s="21" t="s">
-        <v>1015</v>
+        <v>1056</v>
       </c>
       <c r="C296" s="26"/>
       <c r="D296" s="22"/>
       <c r="E296" s="26"/>
       <c r="F296" s="22" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="G296" s="26"/>
       <c r="H296" s="31"/>
       <c r="I296" s="26"/>
-      <c r="J296" s="27"/>
+      <c r="J296" s="24" t="s">
+        <v>1058</v>
+      </c>
       <c r="K296" s="27"/>
       <c r="L296" s="25"/>
       <c r="M296" s="25"/>
@@ -15768,23 +15778,21 @@
     </row>
     <row r="297">
       <c r="A297" s="20" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B297" s="21" t="s">
-        <v>1062</v>
+        <v>1014</v>
       </c>
       <c r="C297" s="26"/>
       <c r="D297" s="22"/>
       <c r="E297" s="26"/>
       <c r="F297" s="22" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="G297" s="26"/>
       <c r="H297" s="31"/>
       <c r="I297" s="26"/>
-      <c r="J297" s="24" t="s">
-        <v>1064</v>
-      </c>
+      <c r="J297" s="27"/>
       <c r="K297" s="27"/>
       <c r="L297" s="25"/>
       <c r="M297" s="25"/>
@@ -15805,21 +15813,23 @@
     </row>
     <row r="298">
       <c r="A298" s="20" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="B298" s="21" t="s">
-        <v>1022</v>
+        <v>1062</v>
       </c>
       <c r="C298" s="26"/>
       <c r="D298" s="22"/>
       <c r="E298" s="26"/>
       <c r="F298" s="22" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="G298" s="26"/>
       <c r="H298" s="31"/>
       <c r="I298" s="26"/>
-      <c r="J298" s="27"/>
+      <c r="J298" s="24" t="s">
+        <v>1064</v>
+      </c>
       <c r="K298" s="27"/>
       <c r="L298" s="25"/>
       <c r="M298" s="25"/>
@@ -15840,23 +15850,21 @@
     </row>
     <row r="299">
       <c r="A299" s="20" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B299" s="21" t="s">
-        <v>1068</v>
+        <v>1021</v>
       </c>
       <c r="C299" s="26"/>
       <c r="D299" s="22"/>
       <c r="E299" s="26"/>
       <c r="F299" s="22" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="G299" s="26"/>
       <c r="H299" s="31"/>
       <c r="I299" s="26"/>
-      <c r="J299" s="24" t="s">
-        <v>1070</v>
-      </c>
+      <c r="J299" s="27"/>
       <c r="K299" s="27"/>
       <c r="L299" s="25"/>
       <c r="M299" s="25"/>
@@ -15877,21 +15885,23 @@
     </row>
     <row r="300">
       <c r="A300" s="20" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B300" s="21" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="C300" s="26"/>
       <c r="D300" s="22"/>
       <c r="E300" s="26"/>
       <c r="F300" s="22" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="G300" s="26"/>
       <c r="H300" s="31"/>
       <c r="I300" s="26"/>
-      <c r="J300" s="27"/>
+      <c r="J300" s="24" t="s">
+        <v>1070</v>
+      </c>
       <c r="K300" s="27"/>
       <c r="L300" s="25"/>
       <c r="M300" s="25"/>
@@ -15912,23 +15922,21 @@
     </row>
     <row r="301">
       <c r="A301" s="20" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B301" s="21" t="s">
-        <v>1075</v>
+        <v>1028</v>
       </c>
       <c r="C301" s="26"/>
       <c r="D301" s="22"/>
       <c r="E301" s="26"/>
       <c r="F301" s="22" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="G301" s="26"/>
       <c r="H301" s="31"/>
       <c r="I301" s="26"/>
-      <c r="J301" s="24" t="s">
-        <v>1077</v>
-      </c>
+      <c r="J301" s="27"/>
       <c r="K301" s="27"/>
       <c r="L301" s="25"/>
       <c r="M301" s="25"/>
@@ -15949,21 +15957,23 @@
     </row>
     <row r="302">
       <c r="A302" s="20" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="B302" s="21" t="s">
-        <v>984</v>
+        <v>1074</v>
       </c>
       <c r="C302" s="26"/>
       <c r="D302" s="22"/>
       <c r="E302" s="26"/>
       <c r="F302" s="22" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="G302" s="26"/>
       <c r="H302" s="31"/>
       <c r="I302" s="26"/>
-      <c r="J302" s="27"/>
+      <c r="J302" s="24" t="s">
+        <v>1076</v>
+      </c>
       <c r="K302" s="27"/>
       <c r="L302" s="25"/>
       <c r="M302" s="25"/>
@@ -15984,23 +15994,21 @@
     </row>
     <row r="303">
       <c r="A303" s="20" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="B303" s="21" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C303" s="26"/>
       <c r="D303" s="22"/>
       <c r="E303" s="26"/>
       <c r="F303" s="22" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="G303" s="26"/>
       <c r="H303" s="31"/>
       <c r="I303" s="26"/>
-      <c r="J303" s="24" t="s">
-        <v>1083</v>
-      </c>
+      <c r="J303" s="27"/>
       <c r="K303" s="27"/>
       <c r="L303" s="25"/>
       <c r="M303" s="25"/>
@@ -16021,21 +16029,23 @@
     </row>
     <row r="304">
       <c r="A304" s="20" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="B304" s="21" t="s">
-        <v>993</v>
+        <v>1081</v>
       </c>
       <c r="C304" s="26"/>
       <c r="D304" s="22"/>
       <c r="E304" s="26"/>
       <c r="F304" s="22" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="G304" s="26"/>
       <c r="H304" s="31"/>
       <c r="I304" s="26"/>
-      <c r="J304" s="27"/>
+      <c r="J304" s="24" t="s">
+        <v>1083</v>
+      </c>
       <c r="K304" s="27"/>
       <c r="L304" s="25"/>
       <c r="M304" s="25"/>
@@ -16056,23 +16066,21 @@
     </row>
     <row r="305">
       <c r="A305" s="20" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B305" s="21" t="s">
-        <v>1087</v>
+        <v>990</v>
       </c>
       <c r="C305" s="26"/>
       <c r="D305" s="22"/>
       <c r="E305" s="26"/>
       <c r="F305" s="22" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="G305" s="26"/>
       <c r="H305" s="31"/>
       <c r="I305" s="26"/>
-      <c r="J305" s="24" t="s">
-        <v>1089</v>
-      </c>
+      <c r="J305" s="27"/>
       <c r="K305" s="27"/>
       <c r="L305" s="25"/>
       <c r="M305" s="25"/>
@@ -16093,21 +16101,23 @@
     </row>
     <row r="306">
       <c r="A306" s="20" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="B306" s="21" t="s">
-        <v>1001</v>
+        <v>1087</v>
       </c>
       <c r="C306" s="26"/>
       <c r="D306" s="22"/>
       <c r="E306" s="26"/>
       <c r="F306" s="22" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="G306" s="26"/>
       <c r="H306" s="31"/>
       <c r="I306" s="26"/>
-      <c r="J306" s="27"/>
+      <c r="J306" s="24" t="s">
+        <v>1089</v>
+      </c>
       <c r="K306" s="27"/>
       <c r="L306" s="25"/>
       <c r="M306" s="25"/>
@@ -16128,23 +16138,21 @@
     </row>
     <row r="307">
       <c r="A307" s="20" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B307" s="21" t="s">
-        <v>1093</v>
+        <v>999</v>
       </c>
       <c r="C307" s="26"/>
       <c r="D307" s="22"/>
       <c r="E307" s="26"/>
       <c r="F307" s="22" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="G307" s="26"/>
       <c r="H307" s="31"/>
       <c r="I307" s="26"/>
-      <c r="J307" s="24" t="s">
-        <v>1095</v>
-      </c>
+      <c r="J307" s="27"/>
       <c r="K307" s="27"/>
       <c r="L307" s="25"/>
       <c r="M307" s="25"/>
@@ -16165,21 +16173,23 @@
     </row>
     <row r="308">
       <c r="A308" s="20" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B308" s="21" t="s">
-        <v>1008</v>
+        <v>1093</v>
       </c>
       <c r="C308" s="26"/>
       <c r="D308" s="22"/>
       <c r="E308" s="26"/>
       <c r="F308" s="22" t="s">
-        <v>1054</v>
+        <v>1094</v>
       </c>
       <c r="G308" s="26"/>
       <c r="H308" s="31"/>
       <c r="I308" s="26"/>
-      <c r="J308" s="27"/>
+      <c r="J308" s="24" t="s">
+        <v>1095</v>
+      </c>
       <c r="K308" s="27"/>
       <c r="L308" s="25"/>
       <c r="M308" s="25"/>
@@ -16200,23 +16210,21 @@
     </row>
     <row r="309">
       <c r="A309" s="20" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B309" s="21" t="s">
-        <v>1098</v>
+        <v>1007</v>
       </c>
       <c r="C309" s="26"/>
       <c r="D309" s="22"/>
       <c r="E309" s="26"/>
       <c r="F309" s="22" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="G309" s="26"/>
       <c r="H309" s="31"/>
       <c r="I309" s="26"/>
-      <c r="J309" s="24" t="s">
-        <v>1100</v>
-      </c>
+      <c r="J309" s="27"/>
       <c r="K309" s="27"/>
       <c r="L309" s="25"/>
       <c r="M309" s="25"/>
@@ -16237,21 +16245,23 @@
     </row>
     <row r="310">
       <c r="A310" s="20" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B310" s="21" t="s">
-        <v>1015</v>
+        <v>1099</v>
       </c>
       <c r="C310" s="26"/>
       <c r="D310" s="22"/>
       <c r="E310" s="26"/>
       <c r="F310" s="22" t="s">
-        <v>1060</v>
+        <v>1100</v>
       </c>
       <c r="G310" s="26"/>
       <c r="H310" s="31"/>
       <c r="I310" s="26"/>
-      <c r="J310" s="27"/>
+      <c r="J310" s="24" t="s">
+        <v>1101</v>
+      </c>
       <c r="K310" s="27"/>
       <c r="L310" s="25"/>
       <c r="M310" s="25"/>
@@ -16275,20 +16285,18 @@
         <v>1102</v>
       </c>
       <c r="B311" s="21" t="s">
-        <v>1103</v>
+        <v>1014</v>
       </c>
       <c r="C311" s="26"/>
       <c r="D311" s="22"/>
       <c r="E311" s="26"/>
       <c r="F311" s="22" t="s">
-        <v>1104</v>
+        <v>1060</v>
       </c>
       <c r="G311" s="26"/>
       <c r="H311" s="31"/>
       <c r="I311" s="26"/>
-      <c r="J311" s="24" t="s">
-        <v>1105</v>
-      </c>
+      <c r="J311" s="27"/>
       <c r="K311" s="27"/>
       <c r="L311" s="25"/>
       <c r="M311" s="25"/>
@@ -16309,21 +16317,23 @@
     </row>
     <row r="312">
       <c r="A312" s="20" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B312" s="21" t="s">
-        <v>1022</v>
+        <v>1104</v>
       </c>
       <c r="C312" s="26"/>
       <c r="D312" s="22"/>
       <c r="E312" s="26"/>
       <c r="F312" s="22" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="G312" s="26"/>
       <c r="H312" s="31"/>
       <c r="I312" s="26"/>
-      <c r="J312" s="27"/>
+      <c r="J312" s="24" t="s">
+        <v>1106</v>
+      </c>
       <c r="K312" s="27"/>
       <c r="L312" s="25"/>
       <c r="M312" s="25"/>
@@ -16344,23 +16354,21 @@
     </row>
     <row r="313">
       <c r="A313" s="20" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B313" s="21" t="s">
-        <v>1109</v>
+        <v>1021</v>
       </c>
       <c r="C313" s="26"/>
       <c r="D313" s="22"/>
       <c r="E313" s="26"/>
       <c r="F313" s="22" t="s">
-        <v>1110</v>
+        <v>1066</v>
       </c>
       <c r="G313" s="26"/>
       <c r="H313" s="31"/>
       <c r="I313" s="26"/>
-      <c r="J313" s="24" t="s">
-        <v>1111</v>
-      </c>
+      <c r="J313" s="27"/>
       <c r="K313" s="27"/>
       <c r="L313" s="25"/>
       <c r="M313" s="25"/>
@@ -16381,23 +16389,23 @@
     </row>
     <row r="314">
       <c r="A314" s="20" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="B314" s="21" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C314" s="22" t="s">
-        <v>1114</v>
-      </c>
+        <v>1109</v>
+      </c>
+      <c r="C314" s="26"/>
       <c r="D314" s="22"/>
       <c r="E314" s="26"/>
       <c r="F314" s="22" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="G314" s="26"/>
       <c r="H314" s="31"/>
       <c r="I314" s="26"/>
-      <c r="J314" s="27"/>
+      <c r="J314" s="24" t="s">
+        <v>1111</v>
+      </c>
       <c r="K314" s="27"/>
       <c r="L314" s="25"/>
       <c r="M314" s="25"/>
@@ -16418,23 +16426,21 @@
     </row>
     <row r="315">
       <c r="A315" s="20" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="B315" s="21" t="s">
-        <v>1117</v>
+        <v>1028</v>
       </c>
       <c r="C315" s="26"/>
       <c r="D315" s="22"/>
       <c r="E315" s="26"/>
       <c r="F315" s="22" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="G315" s="26"/>
       <c r="H315" s="31"/>
       <c r="I315" s="26"/>
-      <c r="J315" s="24" t="s">
-        <v>1119</v>
-      </c>
+      <c r="J315" s="27"/>
       <c r="K315" s="27"/>
       <c r="L315" s="25"/>
       <c r="M315" s="25"/>
@@ -16455,22 +16461,22 @@
     </row>
     <row r="316">
       <c r="A316" s="20" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="B316" s="21" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="C316" s="26"/>
       <c r="D316" s="22"/>
       <c r="E316" s="26"/>
       <c r="F316" s="22" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="G316" s="26"/>
       <c r="H316" s="31"/>
       <c r="I316" s="26"/>
       <c r="J316" s="24" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="K316" s="27"/>
       <c r="L316" s="25"/>
@@ -16492,23 +16498,23 @@
     </row>
     <row r="317">
       <c r="A317" s="20" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="B317" s="21" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C317" s="26"/>
+        <v>1119</v>
+      </c>
+      <c r="C317" s="22" t="s">
+        <v>1120</v>
+      </c>
       <c r="D317" s="22"/>
       <c r="E317" s="26"/>
       <c r="F317" s="22" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="G317" s="26"/>
       <c r="H317" s="31"/>
       <c r="I317" s="26"/>
-      <c r="J317" s="24" t="s">
-        <v>1127</v>
-      </c>
+      <c r="J317" s="27"/>
       <c r="K317" s="27"/>
       <c r="L317" s="25"/>
       <c r="M317" s="25"/>
@@ -16529,22 +16535,22 @@
     </row>
     <row r="318">
       <c r="A318" s="20" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="B318" s="21" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="C318" s="26"/>
       <c r="D318" s="22"/>
       <c r="E318" s="26"/>
       <c r="F318" s="22" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="G318" s="26"/>
       <c r="H318" s="31"/>
       <c r="I318" s="26"/>
       <c r="J318" s="24" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="K318" s="27"/>
       <c r="L318" s="25"/>
@@ -16566,22 +16572,22 @@
     </row>
     <row r="319">
       <c r="A319" s="20" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="B319" s="21" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="C319" s="26"/>
       <c r="D319" s="22"/>
       <c r="E319" s="26"/>
       <c r="F319" s="22" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="G319" s="26"/>
       <c r="H319" s="31"/>
       <c r="I319" s="26"/>
       <c r="J319" s="24" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="K319" s="27"/>
       <c r="L319" s="25"/>
@@ -16603,22 +16609,22 @@
     </row>
     <row r="320">
       <c r="A320" s="20" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="B320" s="21" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="C320" s="26"/>
       <c r="D320" s="22"/>
       <c r="E320" s="26"/>
       <c r="F320" s="22" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="G320" s="26"/>
       <c r="H320" s="31"/>
       <c r="I320" s="26"/>
       <c r="J320" s="24" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="K320" s="27"/>
       <c r="L320" s="25"/>
@@ -16640,22 +16646,22 @@
     </row>
     <row r="321">
       <c r="A321" s="20" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="B321" s="21" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="C321" s="26"/>
       <c r="D321" s="22"/>
       <c r="E321" s="26"/>
       <c r="F321" s="22" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="G321" s="26"/>
       <c r="H321" s="31"/>
       <c r="I321" s="26"/>
       <c r="J321" s="24" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="K321" s="27"/>
       <c r="L321" s="25"/>
@@ -16677,22 +16683,22 @@
     </row>
     <row r="322">
       <c r="A322" s="20" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="B322" s="21" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="C322" s="26"/>
       <c r="D322" s="22"/>
       <c r="E322" s="26"/>
       <c r="F322" s="22" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="G322" s="26"/>
       <c r="H322" s="31"/>
       <c r="I322" s="26"/>
       <c r="J322" s="24" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="K322" s="27"/>
       <c r="L322" s="25"/>
@@ -16714,22 +16720,22 @@
     </row>
     <row r="323">
       <c r="A323" s="20" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="B323" s="21" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="C323" s="26"/>
       <c r="D323" s="22"/>
       <c r="E323" s="26"/>
       <c r="F323" s="22" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="G323" s="26"/>
       <c r="H323" s="31"/>
       <c r="I323" s="26"/>
       <c r="J323" s="24" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="K323" s="27"/>
       <c r="L323" s="25"/>
@@ -16751,22 +16757,22 @@
     </row>
     <row r="324">
       <c r="A324" s="20" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="B324" s="21" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="C324" s="26"/>
       <c r="D324" s="22"/>
       <c r="E324" s="26"/>
       <c r="F324" s="22" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="G324" s="26"/>
       <c r="H324" s="31"/>
       <c r="I324" s="26"/>
       <c r="J324" s="24" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="K324" s="27"/>
       <c r="L324" s="25"/>
@@ -16788,22 +16794,22 @@
     </row>
     <row r="325">
       <c r="A325" s="20" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="B325" s="21" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="C325" s="26"/>
       <c r="D325" s="22"/>
       <c r="E325" s="26"/>
       <c r="F325" s="22" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="G325" s="26"/>
       <c r="H325" s="31"/>
       <c r="I325" s="26"/>
       <c r="J325" s="24" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="K325" s="27"/>
       <c r="L325" s="25"/>
@@ -16825,22 +16831,22 @@
     </row>
     <row r="326">
       <c r="A326" s="20" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="B326" s="21" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="C326" s="26"/>
       <c r="D326" s="22"/>
       <c r="E326" s="26"/>
       <c r="F326" s="22" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="G326" s="26"/>
       <c r="H326" s="31"/>
       <c r="I326" s="26"/>
       <c r="J326" s="24" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="K326" s="27"/>
       <c r="L326" s="25"/>
@@ -16862,22 +16868,22 @@
     </row>
     <row r="327">
       <c r="A327" s="20" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="B327" s="21" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="C327" s="26"/>
       <c r="D327" s="22"/>
       <c r="E327" s="26"/>
       <c r="F327" s="22" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="G327" s="26"/>
       <c r="H327" s="31"/>
       <c r="I327" s="26"/>
       <c r="J327" s="24" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="K327" s="27"/>
       <c r="L327" s="25"/>
@@ -16899,22 +16905,22 @@
     </row>
     <row r="328">
       <c r="A328" s="20" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="B328" s="21" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="C328" s="26"/>
       <c r="D328" s="22"/>
       <c r="E328" s="26"/>
       <c r="F328" s="22" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="G328" s="26"/>
       <c r="H328" s="31"/>
       <c r="I328" s="26"/>
       <c r="J328" s="24" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="K328" s="27"/>
       <c r="L328" s="25"/>
@@ -16936,22 +16942,22 @@
     </row>
     <row r="329">
       <c r="A329" s="20" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="B329" s="21" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="C329" s="26"/>
       <c r="D329" s="22"/>
       <c r="E329" s="26"/>
       <c r="F329" s="22" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="G329" s="26"/>
       <c r="H329" s="31"/>
       <c r="I329" s="26"/>
       <c r="J329" s="24" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="K329" s="27"/>
       <c r="L329" s="25"/>
@@ -16973,22 +16979,22 @@
     </row>
     <row r="330">
       <c r="A330" s="20" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="B330" s="21" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="C330" s="26"/>
       <c r="D330" s="22"/>
       <c r="E330" s="26"/>
       <c r="F330" s="22" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="G330" s="26"/>
       <c r="H330" s="31"/>
       <c r="I330" s="26"/>
       <c r="J330" s="24" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="K330" s="27"/>
       <c r="L330" s="25"/>
@@ -17010,22 +17016,22 @@
     </row>
     <row r="331">
       <c r="A331" s="20" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B331" s="21" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="C331" s="26"/>
       <c r="D331" s="22"/>
       <c r="E331" s="26"/>
       <c r="F331" s="22" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="G331" s="26"/>
       <c r="H331" s="31"/>
       <c r="I331" s="26"/>
       <c r="J331" s="24" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="K331" s="27"/>
       <c r="L331" s="25"/>
@@ -17047,22 +17053,22 @@
     </row>
     <row r="332">
       <c r="A332" s="20" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="B332" s="21" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="C332" s="26"/>
       <c r="D332" s="22"/>
       <c r="E332" s="26"/>
       <c r="F332" s="22" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="G332" s="26"/>
       <c r="H332" s="31"/>
       <c r="I332" s="26"/>
       <c r="J332" s="24" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="K332" s="27"/>
       <c r="L332" s="25"/>
@@ -17084,22 +17090,22 @@
     </row>
     <row r="333">
       <c r="A333" s="20" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="B333" s="21" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="C333" s="26"/>
       <c r="D333" s="22"/>
       <c r="E333" s="26"/>
       <c r="F333" s="22" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="G333" s="26"/>
       <c r="H333" s="31"/>
       <c r="I333" s="26"/>
       <c r="J333" s="24" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="K333" s="27"/>
       <c r="L333" s="25"/>
@@ -17121,22 +17127,22 @@
     </row>
     <row r="334">
       <c r="A334" s="20" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="B334" s="21" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="C334" s="26"/>
       <c r="D334" s="22"/>
       <c r="E334" s="26"/>
       <c r="F334" s="22" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="G334" s="26"/>
       <c r="H334" s="31"/>
       <c r="I334" s="26"/>
       <c r="J334" s="24" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="K334" s="27"/>
       <c r="L334" s="25"/>
@@ -17158,22 +17164,22 @@
     </row>
     <row r="335">
       <c r="A335" s="20" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="B335" s="21" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="C335" s="26"/>
       <c r="D335" s="22"/>
       <c r="E335" s="26"/>
       <c r="F335" s="22" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="G335" s="26"/>
       <c r="H335" s="31"/>
       <c r="I335" s="26"/>
       <c r="J335" s="24" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="K335" s="27"/>
       <c r="L335" s="25"/>
@@ -17195,22 +17201,22 @@
     </row>
     <row r="336">
       <c r="A336" s="20" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="B336" s="21" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="C336" s="26"/>
       <c r="D336" s="22"/>
       <c r="E336" s="26"/>
       <c r="F336" s="22" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="G336" s="26"/>
       <c r="H336" s="31"/>
       <c r="I336" s="26"/>
       <c r="J336" s="24" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="K336" s="27"/>
       <c r="L336" s="25"/>
@@ -17232,22 +17238,22 @@
     </row>
     <row r="337">
       <c r="A337" s="20" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="B337" s="21" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="C337" s="26"/>
       <c r="D337" s="22"/>
       <c r="E337" s="26"/>
       <c r="F337" s="22" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="G337" s="26"/>
       <c r="H337" s="31"/>
       <c r="I337" s="26"/>
       <c r="J337" s="24" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="K337" s="27"/>
       <c r="L337" s="25"/>
@@ -17269,22 +17275,22 @@
     </row>
     <row r="338">
       <c r="A338" s="20" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="B338" s="21" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="C338" s="26"/>
       <c r="D338" s="22"/>
       <c r="E338" s="26"/>
       <c r="F338" s="22" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="G338" s="26"/>
       <c r="H338" s="31"/>
       <c r="I338" s="26"/>
       <c r="J338" s="24" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="K338" s="27"/>
       <c r="L338" s="25"/>
@@ -17306,22 +17312,22 @@
     </row>
     <row r="339">
       <c r="A339" s="20" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B339" s="21" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="C339" s="26"/>
       <c r="D339" s="22"/>
       <c r="E339" s="26"/>
       <c r="F339" s="22" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="G339" s="26"/>
       <c r="H339" s="31"/>
       <c r="I339" s="26"/>
       <c r="J339" s="24" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="K339" s="27"/>
       <c r="L339" s="25"/>
@@ -17343,22 +17349,22 @@
     </row>
     <row r="340">
       <c r="A340" s="20" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="B340" s="21" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="C340" s="26"/>
       <c r="D340" s="22"/>
       <c r="E340" s="26"/>
       <c r="F340" s="22" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="G340" s="26"/>
       <c r="H340" s="31"/>
       <c r="I340" s="26"/>
       <c r="J340" s="24" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="K340" s="27"/>
       <c r="L340" s="25"/>
@@ -17380,22 +17386,22 @@
     </row>
     <row r="341">
       <c r="A341" s="20" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="B341" s="21" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="C341" s="26"/>
       <c r="D341" s="22"/>
       <c r="E341" s="26"/>
       <c r="F341" s="22" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="G341" s="26"/>
       <c r="H341" s="31"/>
       <c r="I341" s="26"/>
       <c r="J341" s="24" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="K341" s="27"/>
       <c r="L341" s="25"/>
@@ -17417,22 +17423,22 @@
     </row>
     <row r="342">
       <c r="A342" s="20" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B342" s="21" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="C342" s="26"/>
       <c r="D342" s="22"/>
       <c r="E342" s="26"/>
       <c r="F342" s="22" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="G342" s="26"/>
       <c r="H342" s="31"/>
       <c r="I342" s="26"/>
       <c r="J342" s="24" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="K342" s="27"/>
       <c r="L342" s="25"/>
@@ -17454,22 +17460,22 @@
     </row>
     <row r="343">
       <c r="A343" s="20" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="B343" s="21" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="C343" s="26"/>
       <c r="D343" s="22"/>
       <c r="E343" s="26"/>
       <c r="F343" s="22" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="G343" s="26"/>
       <c r="H343" s="31"/>
       <c r="I343" s="26"/>
       <c r="J343" s="24" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="K343" s="27"/>
       <c r="L343" s="25"/>
@@ -17491,22 +17497,22 @@
     </row>
     <row r="344">
       <c r="A344" s="20" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="B344" s="21" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="C344" s="26"/>
       <c r="D344" s="22"/>
       <c r="E344" s="26"/>
       <c r="F344" s="22" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="G344" s="26"/>
       <c r="H344" s="31"/>
       <c r="I344" s="26"/>
       <c r="J344" s="24" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="K344" s="27"/>
       <c r="L344" s="25"/>
@@ -17528,24 +17534,22 @@
     </row>
     <row r="345">
       <c r="A345" s="20" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="B345" s="21" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="C345" s="26"/>
-      <c r="D345" s="22" t="s">
-        <v>1238</v>
-      </c>
+      <c r="D345" s="22"/>
       <c r="E345" s="26"/>
       <c r="F345" s="22" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="G345" s="26"/>
       <c r="H345" s="31"/>
       <c r="I345" s="26"/>
       <c r="J345" s="24" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="K345" s="27"/>
       <c r="L345" s="25"/>
@@ -17567,24 +17571,22 @@
     </row>
     <row r="346">
       <c r="A346" s="20" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="B346" s="21" t="s">
-        <v>1001</v>
+        <v>1235</v>
       </c>
       <c r="C346" s="26"/>
-      <c r="D346" s="22" t="s">
-        <v>1242</v>
-      </c>
+      <c r="D346" s="22"/>
       <c r="E346" s="26"/>
       <c r="F346" s="22" t="s">
-        <v>1048</v>
+        <v>1236</v>
       </c>
       <c r="G346" s="26"/>
       <c r="H346" s="31"/>
       <c r="I346" s="26"/>
       <c r="J346" s="24" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="K346" s="27"/>
       <c r="L346" s="25"/>
@@ -17606,22 +17608,22 @@
     </row>
     <row r="347">
       <c r="A347" s="20" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="B347" s="21" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="C347" s="26"/>
       <c r="D347" s="22"/>
       <c r="E347" s="26"/>
       <c r="F347" s="22" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="G347" s="26"/>
       <c r="H347" s="31"/>
       <c r="I347" s="26"/>
       <c r="J347" s="24" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="K347" s="27"/>
       <c r="L347" s="25"/>
@@ -17643,22 +17645,24 @@
     </row>
     <row r="348">
       <c r="A348" s="20" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="B348" s="21" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="C348" s="26"/>
-      <c r="D348" s="22"/>
+      <c r="D348" s="22" t="s">
+        <v>1244</v>
+      </c>
       <c r="E348" s="26"/>
       <c r="F348" s="22" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="G348" s="26"/>
       <c r="H348" s="31"/>
       <c r="I348" s="26"/>
       <c r="J348" s="24" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="K348" s="27"/>
       <c r="L348" s="25"/>
@@ -17680,22 +17684,24 @@
     </row>
     <row r="349">
       <c r="A349" s="20" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="B349" s="21" t="s">
-        <v>1253</v>
+        <v>1007</v>
       </c>
       <c r="C349" s="26"/>
-      <c r="D349" s="22"/>
+      <c r="D349" s="22" t="s">
+        <v>1248</v>
+      </c>
       <c r="E349" s="26"/>
       <c r="F349" s="22" t="s">
-        <v>1254</v>
+        <v>1054</v>
       </c>
       <c r="G349" s="26"/>
       <c r="H349" s="31"/>
       <c r="I349" s="26"/>
       <c r="J349" s="24" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="K349" s="27"/>
       <c r="L349" s="25"/>
@@ -17717,22 +17723,22 @@
     </row>
     <row r="350">
       <c r="A350" s="20" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="B350" s="21" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="C350" s="26"/>
       <c r="D350" s="22"/>
       <c r="E350" s="26"/>
       <c r="F350" s="22" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="G350" s="26"/>
       <c r="H350" s="31"/>
       <c r="I350" s="26"/>
       <c r="J350" s="24" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="K350" s="27"/>
       <c r="L350" s="25"/>
@@ -17754,22 +17760,22 @@
     </row>
     <row r="351">
       <c r="A351" s="20" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="B351" s="21" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="C351" s="26"/>
       <c r="D351" s="22"/>
       <c r="E351" s="26"/>
       <c r="F351" s="22" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="G351" s="26"/>
       <c r="H351" s="31"/>
       <c r="I351" s="26"/>
       <c r="J351" s="24" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="K351" s="27"/>
       <c r="L351" s="25"/>
@@ -17791,22 +17797,22 @@
     </row>
     <row r="352">
       <c r="A352" s="20" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="B352" s="21" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="C352" s="26"/>
       <c r="D352" s="22"/>
       <c r="E352" s="26"/>
       <c r="F352" s="22" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="G352" s="26"/>
       <c r="H352" s="31"/>
       <c r="I352" s="26"/>
       <c r="J352" s="24" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="K352" s="27"/>
       <c r="L352" s="25"/>
@@ -17828,22 +17834,22 @@
     </row>
     <row r="353">
       <c r="A353" s="20" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="B353" s="21" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="C353" s="26"/>
       <c r="D353" s="22"/>
       <c r="E353" s="26"/>
       <c r="F353" s="22" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="G353" s="26"/>
       <c r="H353" s="31"/>
       <c r="I353" s="26"/>
       <c r="J353" s="24" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="K353" s="27"/>
       <c r="L353" s="25"/>
@@ -17865,22 +17871,22 @@
     </row>
     <row r="354">
       <c r="A354" s="20" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="B354" s="21" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="C354" s="26"/>
       <c r="D354" s="22"/>
       <c r="E354" s="26"/>
       <c r="F354" s="22" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="G354" s="26"/>
       <c r="H354" s="31"/>
       <c r="I354" s="26"/>
       <c r="J354" s="24" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="K354" s="27"/>
       <c r="L354" s="25"/>
@@ -17902,22 +17908,22 @@
     </row>
     <row r="355">
       <c r="A355" s="20" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="B355" s="21" t="s">
-        <v>1275</v>
+        <v>1263</v>
       </c>
       <c r="C355" s="26"/>
       <c r="D355" s="22"/>
       <c r="E355" s="26"/>
       <c r="F355" s="22" t="s">
-        <v>1276</v>
+        <v>1264</v>
       </c>
       <c r="G355" s="26"/>
       <c r="H355" s="31"/>
       <c r="I355" s="26"/>
       <c r="J355" s="24" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="K355" s="27"/>
       <c r="L355" s="25"/>
@@ -17939,22 +17945,22 @@
     </row>
     <row r="356">
       <c r="A356" s="20" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="B356" s="21" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="C356" s="26"/>
       <c r="D356" s="22"/>
       <c r="E356" s="26"/>
       <c r="F356" s="22" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="G356" s="26"/>
       <c r="H356" s="31"/>
       <c r="I356" s="26"/>
       <c r="J356" s="24" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="K356" s="27"/>
       <c r="L356" s="25"/>
@@ -17976,22 +17982,22 @@
     </row>
     <row r="357">
       <c r="A357" s="20" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="B357" s="21" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="C357" s="26"/>
       <c r="D357" s="22"/>
       <c r="E357" s="26"/>
       <c r="F357" s="22" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="G357" s="26"/>
       <c r="H357" s="31"/>
       <c r="I357" s="26"/>
       <c r="J357" s="24" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="K357" s="27"/>
       <c r="L357" s="25"/>
@@ -18013,22 +18019,22 @@
     </row>
     <row r="358">
       <c r="A358" s="20" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="B358" s="21" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="C358" s="26"/>
       <c r="D358" s="22"/>
       <c r="E358" s="26"/>
       <c r="F358" s="22" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="G358" s="26"/>
       <c r="H358" s="31"/>
       <c r="I358" s="26"/>
       <c r="J358" s="24" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="K358" s="27"/>
       <c r="L358" s="25"/>
@@ -18050,22 +18056,22 @@
     </row>
     <row r="359">
       <c r="A359" s="20" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="B359" s="21" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="C359" s="26"/>
       <c r="D359" s="22"/>
       <c r="E359" s="26"/>
       <c r="F359" s="22" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="G359" s="26"/>
       <c r="H359" s="31"/>
       <c r="I359" s="26"/>
       <c r="J359" s="24" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="K359" s="27"/>
       <c r="L359" s="25"/>
@@ -18087,22 +18093,22 @@
     </row>
     <row r="360">
       <c r="A360" s="20" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="B360" s="21" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="C360" s="26"/>
       <c r="D360" s="22"/>
       <c r="E360" s="26"/>
       <c r="F360" s="22" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="G360" s="26"/>
       <c r="H360" s="31"/>
       <c r="I360" s="26"/>
       <c r="J360" s="24" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="K360" s="27"/>
       <c r="L360" s="25"/>
@@ -18124,22 +18130,22 @@
     </row>
     <row r="361">
       <c r="A361" s="20" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="B361" s="21" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="C361" s="26"/>
       <c r="D361" s="22"/>
       <c r="E361" s="26"/>
       <c r="F361" s="22" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="G361" s="26"/>
       <c r="H361" s="31"/>
       <c r="I361" s="26"/>
       <c r="J361" s="24" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="K361" s="27"/>
       <c r="L361" s="25"/>
@@ -18161,22 +18167,22 @@
     </row>
     <row r="362">
       <c r="A362" s="20" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="B362" s="21" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="C362" s="26"/>
       <c r="D362" s="22"/>
       <c r="E362" s="26"/>
       <c r="F362" s="22" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="G362" s="26"/>
       <c r="H362" s="31"/>
       <c r="I362" s="26"/>
       <c r="J362" s="24" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="K362" s="27"/>
       <c r="L362" s="25"/>
@@ -18197,23 +18203,23 @@
       <c r="AA362" s="25"/>
     </row>
     <row r="363">
-      <c r="A363" s="36" t="s">
-        <v>1306</v>
+      <c r="A363" s="20" t="s">
+        <v>1300</v>
       </c>
       <c r="B363" s="21" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="C363" s="26"/>
       <c r="D363" s="22"/>
       <c r="E363" s="26"/>
       <c r="F363" s="22" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="G363" s="26"/>
       <c r="H363" s="31"/>
       <c r="I363" s="26"/>
       <c r="J363" s="24" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="K363" s="27"/>
       <c r="L363" s="25"/>
@@ -18234,23 +18240,23 @@
       <c r="AA363" s="25"/>
     </row>
     <row r="364">
-      <c r="A364" s="36" t="s">
-        <v>1310</v>
+      <c r="A364" s="20" t="s">
+        <v>1304</v>
       </c>
       <c r="B364" s="21" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="C364" s="26"/>
       <c r="D364" s="22"/>
       <c r="E364" s="26"/>
       <c r="F364" s="22" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="G364" s="26"/>
       <c r="H364" s="31"/>
       <c r="I364" s="26"/>
       <c r="J364" s="24" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="K364" s="27"/>
       <c r="L364" s="25"/>
@@ -18271,23 +18277,23 @@
       <c r="AA364" s="25"/>
     </row>
     <row r="365">
-      <c r="A365" s="36" t="s">
-        <v>1314</v>
+      <c r="A365" s="20" t="s">
+        <v>1308</v>
       </c>
       <c r="B365" s="21" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="C365" s="26"/>
       <c r="D365" s="22"/>
       <c r="E365" s="26"/>
       <c r="F365" s="22" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="G365" s="26"/>
       <c r="H365" s="31"/>
       <c r="I365" s="26"/>
       <c r="J365" s="24" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="K365" s="27"/>
       <c r="L365" s="25"/>
@@ -18309,22 +18315,22 @@
     </row>
     <row r="366">
       <c r="A366" s="36" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="B366" s="21" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="C366" s="26"/>
       <c r="D366" s="22"/>
       <c r="E366" s="26"/>
       <c r="F366" s="22" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="G366" s="26"/>
       <c r="H366" s="31"/>
       <c r="I366" s="26"/>
       <c r="J366" s="24" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="K366" s="27"/>
       <c r="L366" s="25"/>
@@ -18346,22 +18352,22 @@
     </row>
     <row r="367">
       <c r="A367" s="36" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="B367" s="21" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="C367" s="26"/>
       <c r="D367" s="22"/>
       <c r="E367" s="26"/>
       <c r="F367" s="22" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="G367" s="26"/>
       <c r="H367" s="31"/>
       <c r="I367" s="26"/>
       <c r="J367" s="24" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="K367" s="27"/>
       <c r="L367" s="25"/>
@@ -18383,22 +18389,22 @@
     </row>
     <row r="368">
       <c r="A368" s="36" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="B368" s="21" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="C368" s="26"/>
       <c r="D368" s="22"/>
       <c r="E368" s="26"/>
       <c r="F368" s="22" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="G368" s="26"/>
       <c r="H368" s="31"/>
       <c r="I368" s="26"/>
       <c r="J368" s="24" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="K368" s="27"/>
       <c r="L368" s="25"/>
@@ -18420,22 +18426,22 @@
     </row>
     <row r="369">
       <c r="A369" s="36" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="B369" s="21" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="C369" s="26"/>
       <c r="D369" s="22"/>
       <c r="E369" s="26"/>
       <c r="F369" s="22" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="G369" s="26"/>
       <c r="H369" s="31"/>
       <c r="I369" s="26"/>
       <c r="J369" s="24" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="K369" s="27"/>
       <c r="L369" s="25"/>
@@ -18457,22 +18463,22 @@
     </row>
     <row r="370">
       <c r="A370" s="36" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="B370" s="21" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="C370" s="26"/>
       <c r="D370" s="22"/>
       <c r="E370" s="26"/>
       <c r="F370" s="22" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="G370" s="26"/>
       <c r="H370" s="31"/>
       <c r="I370" s="26"/>
       <c r="J370" s="24" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="K370" s="27"/>
       <c r="L370" s="25"/>
@@ -18493,23 +18499,23 @@
       <c r="AA370" s="25"/>
     </row>
     <row r="371">
-      <c r="A371" s="20" t="s">
-        <v>1338</v>
+      <c r="A371" s="36" t="s">
+        <v>1332</v>
       </c>
       <c r="B371" s="21" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="C371" s="26"/>
       <c r="D371" s="22"/>
       <c r="E371" s="26"/>
       <c r="F371" s="22" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="G371" s="26"/>
       <c r="H371" s="31"/>
       <c r="I371" s="26"/>
       <c r="J371" s="24" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="K371" s="27"/>
       <c r="L371" s="25"/>
@@ -18530,23 +18536,23 @@
       <c r="AA371" s="25"/>
     </row>
     <row r="372">
-      <c r="A372" s="20" t="s">
-        <v>1342</v>
+      <c r="A372" s="36" t="s">
+        <v>1336</v>
       </c>
       <c r="B372" s="21" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C372" s="26"/>
       <c r="D372" s="22"/>
       <c r="E372" s="26"/>
       <c r="F372" s="22" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="G372" s="26"/>
       <c r="H372" s="31"/>
       <c r="I372" s="26"/>
       <c r="J372" s="24" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="K372" s="27"/>
       <c r="L372" s="25"/>
@@ -18567,23 +18573,23 @@
       <c r="AA372" s="25"/>
     </row>
     <row r="373">
-      <c r="A373" s="20" t="s">
-        <v>1346</v>
+      <c r="A373" s="36" t="s">
+        <v>1340</v>
       </c>
       <c r="B373" s="21" t="s">
-        <v>689</v>
+        <v>1341</v>
       </c>
       <c r="C373" s="26"/>
       <c r="D373" s="22"/>
       <c r="E373" s="26"/>
       <c r="F373" s="22" t="s">
-        <v>691</v>
+        <v>1342</v>
       </c>
       <c r="G373" s="26"/>
       <c r="H373" s="31"/>
       <c r="I373" s="26"/>
       <c r="J373" s="24" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="K373" s="27"/>
       <c r="L373" s="25"/>
@@ -18605,22 +18611,22 @@
     </row>
     <row r="374">
       <c r="A374" s="20" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="B374" s="21" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="C374" s="26"/>
       <c r="D374" s="22"/>
       <c r="E374" s="26"/>
       <c r="F374" s="22" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="G374" s="26"/>
       <c r="H374" s="31"/>
       <c r="I374" s="26"/>
       <c r="J374" s="24" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="K374" s="27"/>
       <c r="L374" s="25"/>
@@ -18642,22 +18648,22 @@
     </row>
     <row r="375">
       <c r="A375" s="20" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="B375" s="21" t="s">
-        <v>683</v>
+        <v>1349</v>
       </c>
       <c r="C375" s="26"/>
       <c r="D375" s="22"/>
       <c r="E375" s="26"/>
       <c r="F375" s="22" t="s">
-        <v>685</v>
+        <v>1350</v>
       </c>
       <c r="G375" s="26"/>
       <c r="H375" s="31"/>
       <c r="I375" s="26"/>
       <c r="J375" s="24" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="K375" s="27"/>
       <c r="L375" s="25"/>
@@ -18679,22 +18685,22 @@
     </row>
     <row r="376">
       <c r="A376" s="20" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B376" s="21" t="s">
-        <v>1355</v>
+        <v>695</v>
       </c>
       <c r="C376" s="26"/>
       <c r="D376" s="22"/>
       <c r="E376" s="26"/>
       <c r="F376" s="22" t="s">
-        <v>1356</v>
+        <v>697</v>
       </c>
       <c r="G376" s="26"/>
       <c r="H376" s="31"/>
       <c r="I376" s="26"/>
       <c r="J376" s="24" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="K376" s="27"/>
       <c r="L376" s="25"/>
@@ -18716,22 +18722,22 @@
     </row>
     <row r="377">
       <c r="A377" s="20" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="B377" s="21" t="s">
-        <v>680</v>
+        <v>1355</v>
       </c>
       <c r="C377" s="26"/>
       <c r="D377" s="22"/>
       <c r="E377" s="26"/>
       <c r="F377" s="22" t="s">
-        <v>682</v>
+        <v>1356</v>
       </c>
       <c r="G377" s="26"/>
       <c r="H377" s="31"/>
       <c r="I377" s="26"/>
       <c r="J377" s="24" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="K377" s="27"/>
       <c r="L377" s="25"/>
@@ -18753,22 +18759,22 @@
     </row>
     <row r="378">
       <c r="A378" s="20" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="B378" s="21" t="s">
-        <v>1361</v>
+        <v>689</v>
       </c>
       <c r="C378" s="26"/>
       <c r="D378" s="22"/>
       <c r="E378" s="26"/>
       <c r="F378" s="22" t="s">
-        <v>1362</v>
+        <v>691</v>
       </c>
       <c r="G378" s="26"/>
       <c r="H378" s="31"/>
       <c r="I378" s="26"/>
       <c r="J378" s="24" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="K378" s="27"/>
       <c r="L378" s="25"/>
@@ -18789,23 +18795,23 @@
       <c r="AA378" s="25"/>
     </row>
     <row r="379">
-      <c r="A379" s="36" t="s">
-        <v>1364</v>
+      <c r="A379" s="20" t="s">
+        <v>1360</v>
       </c>
       <c r="B379" s="21" t="s">
-        <v>686</v>
+        <v>1361</v>
       </c>
       <c r="C379" s="26"/>
       <c r="D379" s="22"/>
       <c r="E379" s="26"/>
       <c r="F379" s="22" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="G379" s="26"/>
       <c r="H379" s="31"/>
       <c r="I379" s="26"/>
       <c r="J379" s="24" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="K379" s="27"/>
       <c r="L379" s="25"/>
@@ -18826,23 +18832,23 @@
       <c r="AA379" s="25"/>
     </row>
     <row r="380">
-      <c r="A380" s="36" t="s">
-        <v>1367</v>
+      <c r="A380" s="20" t="s">
+        <v>1364</v>
       </c>
       <c r="B380" s="21" t="s">
-        <v>1368</v>
+        <v>686</v>
       </c>
       <c r="C380" s="26"/>
       <c r="D380" s="22"/>
       <c r="E380" s="26"/>
       <c r="F380" s="22" t="s">
-        <v>1369</v>
+        <v>688</v>
       </c>
       <c r="G380" s="26"/>
       <c r="H380" s="31"/>
       <c r="I380" s="26"/>
       <c r="J380" s="24" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="K380" s="27"/>
       <c r="L380" s="25"/>
@@ -18863,23 +18869,23 @@
       <c r="AA380" s="25"/>
     </row>
     <row r="381">
-      <c r="A381" s="36" t="s">
-        <v>1371</v>
+      <c r="A381" s="20" t="s">
+        <v>1366</v>
       </c>
       <c r="B381" s="21" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="C381" s="26"/>
       <c r="D381" s="22"/>
       <c r="E381" s="26"/>
       <c r="F381" s="22" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="G381" s="26"/>
       <c r="H381" s="31"/>
       <c r="I381" s="26"/>
       <c r="J381" s="24" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="K381" s="27"/>
       <c r="L381" s="25"/>
@@ -18901,22 +18907,22 @@
     </row>
     <row r="382">
       <c r="A382" s="36" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="B382" s="21" t="s">
-        <v>1376</v>
+        <v>692</v>
       </c>
       <c r="C382" s="26"/>
       <c r="D382" s="22"/>
       <c r="E382" s="26"/>
       <c r="F382" s="22" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="G382" s="26"/>
       <c r="H382" s="31"/>
       <c r="I382" s="26"/>
       <c r="J382" s="24" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="K382" s="27"/>
       <c r="L382" s="25"/>
@@ -18938,21 +18944,23 @@
     </row>
     <row r="383">
       <c r="A383" s="36" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="B383" s="21" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="C383" s="26"/>
       <c r="D383" s="22"/>
       <c r="E383" s="26"/>
       <c r="F383" s="22" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="G383" s="26"/>
       <c r="H383" s="31"/>
       <c r="I383" s="26"/>
-      <c r="J383" s="24"/>
+      <c r="J383" s="24" t="s">
+        <v>1376</v>
+      </c>
       <c r="K383" s="27"/>
       <c r="L383" s="25"/>
       <c r="M383" s="25"/>
@@ -18973,21 +18981,23 @@
     </row>
     <row r="384">
       <c r="A384" s="36" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="B384" s="21" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="C384" s="26"/>
       <c r="D384" s="22"/>
       <c r="E384" s="26"/>
       <c r="F384" s="22" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="G384" s="26"/>
       <c r="H384" s="31"/>
       <c r="I384" s="26"/>
-      <c r="J384" s="24"/>
+      <c r="J384" s="24" t="s">
+        <v>1380</v>
+      </c>
       <c r="K384" s="27"/>
       <c r="L384" s="25"/>
       <c r="M384" s="25"/>
@@ -19008,21 +19018,23 @@
     </row>
     <row r="385">
       <c r="A385" s="36" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="B385" s="21" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C385" s="26"/>
       <c r="D385" s="22"/>
       <c r="E385" s="26"/>
       <c r="F385" s="22" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="G385" s="26"/>
       <c r="H385" s="31"/>
       <c r="I385" s="26"/>
-      <c r="J385" s="24"/>
+      <c r="J385" s="24" t="s">
+        <v>1384</v>
+      </c>
       <c r="K385" s="27"/>
       <c r="L385" s="25"/>
       <c r="M385" s="25"/>
@@ -19043,16 +19055,16 @@
     </row>
     <row r="386">
       <c r="A386" s="36" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="B386" s="21" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="C386" s="26"/>
       <c r="D386" s="22"/>
       <c r="E386" s="26"/>
       <c r="F386" s="22" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="G386" s="26"/>
       <c r="H386" s="31"/>
@@ -19077,26 +19089,22 @@
       <c r="AA386" s="25"/>
     </row>
     <row r="387">
-      <c r="A387" s="20" t="s">
-        <v>1391</v>
+      <c r="A387" s="36" t="s">
+        <v>1388</v>
       </c>
       <c r="B387" s="21" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="C387" s="26"/>
-      <c r="D387" s="26"/>
+      <c r="D387" s="22"/>
       <c r="E387" s="26"/>
       <c r="F387" s="22" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="G387" s="26"/>
       <c r="H387" s="31"/>
-      <c r="I387" s="22" t="s">
-        <v>1394</v>
-      </c>
-      <c r="J387" s="24" t="s">
-        <v>1395</v>
-      </c>
+      <c r="I387" s="26"/>
+      <c r="J387" s="24"/>
       <c r="K387" s="27"/>
       <c r="L387" s="25"/>
       <c r="M387" s="25"/>
@@ -19116,24 +19124,22 @@
       <c r="AA387" s="25"/>
     </row>
     <row r="388">
-      <c r="A388" s="20" t="s">
-        <v>1396</v>
+      <c r="A388" s="36" t="s">
+        <v>1391</v>
       </c>
       <c r="B388" s="21" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="C388" s="26"/>
-      <c r="D388" s="26"/>
+      <c r="D388" s="22"/>
       <c r="E388" s="26"/>
       <c r="F388" s="22" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="G388" s="26"/>
       <c r="H388" s="31"/>
       <c r="I388" s="26"/>
-      <c r="J388" s="24" t="s">
-        <v>1399</v>
-      </c>
+      <c r="J388" s="24"/>
       <c r="K388" s="27"/>
       <c r="L388" s="25"/>
       <c r="M388" s="25"/>
@@ -19153,24 +19159,22 @@
       <c r="AA388" s="25"/>
     </row>
     <row r="389">
-      <c r="A389" s="20" t="s">
-        <v>1400</v>
+      <c r="A389" s="36" t="s">
+        <v>1394</v>
       </c>
       <c r="B389" s="21" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="C389" s="26"/>
-      <c r="D389" s="26"/>
+      <c r="D389" s="22"/>
       <c r="E389" s="26"/>
       <c r="F389" s="22" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="G389" s="26"/>
       <c r="H389" s="31"/>
       <c r="I389" s="26"/>
-      <c r="J389" s="24" t="s">
-        <v>1403</v>
-      </c>
+      <c r="J389" s="24"/>
       <c r="K389" s="27"/>
       <c r="L389" s="25"/>
       <c r="M389" s="25"/>
@@ -19191,21 +19195,25 @@
     </row>
     <row r="390">
       <c r="A390" s="20" t="s">
-        <v>1404</v>
+        <v>1397</v>
       </c>
       <c r="B390" s="21" t="s">
-        <v>1405</v>
+        <v>1398</v>
       </c>
       <c r="C390" s="26"/>
       <c r="D390" s="26"/>
       <c r="E390" s="26"/>
       <c r="F390" s="22" t="s">
-        <v>1406</v>
+        <v>1399</v>
       </c>
       <c r="G390" s="26"/>
       <c r="H390" s="31"/>
-      <c r="I390" s="26"/>
-      <c r="J390" s="24"/>
+      <c r="I390" s="22" t="s">
+        <v>1400</v>
+      </c>
+      <c r="J390" s="24" t="s">
+        <v>1401</v>
+      </c>
       <c r="K390" s="27"/>
       <c r="L390" s="25"/>
       <c r="M390" s="25"/>
@@ -19226,24 +19234,22 @@
     </row>
     <row r="391">
       <c r="A391" s="20" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="B391" s="21" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="C391" s="26"/>
       <c r="D391" s="26"/>
       <c r="E391" s="26"/>
       <c r="F391" s="22" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="G391" s="26"/>
       <c r="H391" s="31"/>
-      <c r="I391" s="22" t="s">
-        <v>1410</v>
-      </c>
+      <c r="I391" s="26"/>
       <c r="J391" s="24" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="K391" s="27"/>
       <c r="L391" s="25"/>
@@ -19265,22 +19271,22 @@
     </row>
     <row r="392">
       <c r="A392" s="20" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="B392" s="21" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="C392" s="26"/>
       <c r="D392" s="26"/>
       <c r="E392" s="26"/>
       <c r="F392" s="22" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="G392" s="26"/>
       <c r="H392" s="31"/>
       <c r="I392" s="26"/>
       <c r="J392" s="24" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="K392" s="27"/>
       <c r="L392" s="25"/>
@@ -19302,23 +19308,21 @@
     </row>
     <row r="393">
       <c r="A393" s="20" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="B393" s="21" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="C393" s="26"/>
       <c r="D393" s="26"/>
       <c r="E393" s="26"/>
       <c r="F393" s="22" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="G393" s="26"/>
       <c r="H393" s="31"/>
       <c r="I393" s="26"/>
-      <c r="J393" s="24" t="s">
-        <v>1419</v>
-      </c>
+      <c r="J393" s="24"/>
       <c r="K393" s="27"/>
       <c r="L393" s="25"/>
       <c r="M393" s="25"/>
@@ -19339,21 +19343,25 @@
     </row>
     <row r="394">
       <c r="A394" s="20" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
       <c r="B394" s="21" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
       <c r="C394" s="26"/>
       <c r="D394" s="26"/>
       <c r="E394" s="26"/>
       <c r="F394" s="22" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
       <c r="G394" s="26"/>
       <c r="H394" s="31"/>
-      <c r="I394" s="26"/>
-      <c r="J394" s="24"/>
+      <c r="I394" s="22" t="s">
+        <v>1416</v>
+      </c>
+      <c r="J394" s="24" t="s">
+        <v>1417</v>
+      </c>
       <c r="K394" s="27"/>
       <c r="L394" s="25"/>
       <c r="M394" s="25"/>
@@ -19374,24 +19382,22 @@
     </row>
     <row r="395">
       <c r="A395" s="20" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="B395" s="21" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="C395" s="26"/>
       <c r="D395" s="26"/>
       <c r="E395" s="26"/>
       <c r="F395" s="22" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="G395" s="26"/>
       <c r="H395" s="31"/>
-      <c r="I395" s="22" t="s">
-        <v>1426</v>
-      </c>
+      <c r="I395" s="26"/>
       <c r="J395" s="24" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="K395" s="27"/>
       <c r="L395" s="25"/>
@@ -19413,22 +19419,22 @@
     </row>
     <row r="396">
       <c r="A396" s="20" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="B396" s="21" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="C396" s="26"/>
       <c r="D396" s="26"/>
       <c r="E396" s="26"/>
       <c r="F396" s="22" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="G396" s="26"/>
       <c r="H396" s="31"/>
       <c r="I396" s="26"/>
       <c r="J396" s="24" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="K396" s="27"/>
       <c r="L396" s="25"/>
@@ -19450,23 +19456,21 @@
     </row>
     <row r="397">
       <c r="A397" s="20" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="B397" s="21" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="C397" s="26"/>
       <c r="D397" s="26"/>
       <c r="E397" s="26"/>
       <c r="F397" s="22" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="G397" s="26"/>
       <c r="H397" s="31"/>
       <c r="I397" s="26"/>
-      <c r="J397" s="24" t="s">
-        <v>1435</v>
-      </c>
+      <c r="J397" s="24"/>
       <c r="K397" s="27"/>
       <c r="L397" s="25"/>
       <c r="M397" s="25"/>
@@ -19487,22 +19491,24 @@
     </row>
     <row r="398">
       <c r="A398" s="20" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="B398" s="21" t="s">
-        <v>1437</v>
+        <v>1430</v>
       </c>
       <c r="C398" s="26"/>
       <c r="D398" s="26"/>
       <c r="E398" s="26"/>
       <c r="F398" s="22" t="s">
-        <v>1438</v>
+        <v>1431</v>
       </c>
       <c r="G398" s="26"/>
       <c r="H398" s="31"/>
-      <c r="I398" s="26"/>
+      <c r="I398" s="22" t="s">
+        <v>1432</v>
+      </c>
       <c r="J398" s="24" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="K398" s="27"/>
       <c r="L398" s="25"/>
@@ -19524,22 +19530,22 @@
     </row>
     <row r="399">
       <c r="A399" s="20" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="B399" s="21" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="C399" s="26"/>
       <c r="D399" s="26"/>
       <c r="E399" s="26"/>
       <c r="F399" s="22" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="G399" s="26"/>
       <c r="H399" s="31"/>
       <c r="I399" s="26"/>
       <c r="J399" s="24" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="K399" s="27"/>
       <c r="L399" s="25"/>
@@ -19561,21 +19567,23 @@
     </row>
     <row r="400">
       <c r="A400" s="20" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="B400" s="21" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="C400" s="26"/>
       <c r="D400" s="26"/>
       <c r="E400" s="26"/>
       <c r="F400" s="22" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="G400" s="26"/>
       <c r="H400" s="31"/>
       <c r="I400" s="26"/>
-      <c r="J400" s="24"/>
+      <c r="J400" s="24" t="s">
+        <v>1441</v>
+      </c>
       <c r="K400" s="27"/>
       <c r="L400" s="25"/>
       <c r="M400" s="25"/>
@@ -19596,21 +19604,23 @@
     </row>
     <row r="401">
       <c r="A401" s="20" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
       <c r="B401" s="21" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="C401" s="26"/>
       <c r="D401" s="26"/>
       <c r="E401" s="26"/>
       <c r="F401" s="22" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="G401" s="26"/>
       <c r="H401" s="31"/>
       <c r="I401" s="26"/>
-      <c r="J401" s="24"/>
+      <c r="J401" s="24" t="s">
+        <v>1445</v>
+      </c>
       <c r="K401" s="27"/>
       <c r="L401" s="25"/>
       <c r="M401" s="25"/>
@@ -19631,22 +19641,22 @@
     </row>
     <row r="402">
       <c r="A402" s="20" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="B402" s="21" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="C402" s="26"/>
       <c r="D402" s="26"/>
       <c r="E402" s="26"/>
       <c r="F402" s="22" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="G402" s="26"/>
       <c r="H402" s="31"/>
       <c r="I402" s="26"/>
       <c r="J402" s="24" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="K402" s="27"/>
       <c r="L402" s="25"/>
@@ -19668,23 +19678,21 @@
     </row>
     <row r="403">
       <c r="A403" s="20" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="B403" s="21" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="C403" s="26"/>
       <c r="D403" s="26"/>
       <c r="E403" s="26"/>
       <c r="F403" s="22" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="G403" s="26"/>
       <c r="H403" s="31"/>
       <c r="I403" s="26"/>
-      <c r="J403" s="24" t="s">
-        <v>1457</v>
-      </c>
+      <c r="J403" s="24"/>
       <c r="K403" s="27"/>
       <c r="L403" s="25"/>
       <c r="M403" s="25"/>
@@ -19705,15 +19713,17 @@
     </row>
     <row r="404">
       <c r="A404" s="20" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
       <c r="B404" s="21" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="C404" s="26"/>
       <c r="D404" s="26"/>
       <c r="E404" s="26"/>
-      <c r="F404" s="22"/>
+      <c r="F404" s="22" t="s">
+        <v>1455</v>
+      </c>
       <c r="G404" s="26"/>
       <c r="H404" s="31"/>
       <c r="I404" s="26"/>
@@ -19738,19 +19748,23 @@
     </row>
     <row r="405">
       <c r="A405" s="20" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B405" s="21" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="C405" s="26"/>
       <c r="D405" s="26"/>
       <c r="E405" s="26"/>
-      <c r="F405" s="22"/>
+      <c r="F405" s="22" t="s">
+        <v>1458</v>
+      </c>
       <c r="G405" s="26"/>
       <c r="H405" s="31"/>
       <c r="I405" s="26"/>
-      <c r="J405" s="24"/>
+      <c r="J405" s="24" t="s">
+        <v>1459</v>
+      </c>
       <c r="K405" s="27"/>
       <c r="L405" s="25"/>
       <c r="M405" s="25"/>
@@ -19771,24 +19785,22 @@
     </row>
     <row r="406">
       <c r="A406" s="20" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B406" s="21" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="C406" s="26"/>
       <c r="D406" s="26"/>
       <c r="E406" s="26"/>
       <c r="F406" s="22" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="G406" s="26"/>
       <c r="H406" s="31"/>
-      <c r="I406" s="22" t="s">
-        <v>1465</v>
-      </c>
+      <c r="I406" s="26"/>
       <c r="J406" s="24" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="K406" s="27"/>
       <c r="L406" s="25"/>
@@ -19810,25 +19822,19 @@
     </row>
     <row r="407">
       <c r="A407" s="20" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B407" s="21" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="C407" s="26"/>
       <c r="D407" s="26"/>
       <c r="E407" s="26"/>
-      <c r="F407" s="22" t="s">
-        <v>1469</v>
-      </c>
+      <c r="F407" s="22"/>
       <c r="G407" s="26"/>
       <c r="H407" s="31"/>
-      <c r="I407" s="22" t="s">
-        <v>1470</v>
-      </c>
-      <c r="J407" s="24" t="s">
-        <v>1471</v>
-      </c>
+      <c r="I407" s="26"/>
+      <c r="J407" s="24"/>
       <c r="K407" s="27"/>
       <c r="L407" s="25"/>
       <c r="M407" s="25"/>
@@ -19849,25 +19855,19 @@
     </row>
     <row r="408">
       <c r="A408" s="20" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="B408" s="21" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="C408" s="26"/>
       <c r="D408" s="26"/>
       <c r="E408" s="26"/>
-      <c r="F408" s="22" t="s">
-        <v>1474</v>
-      </c>
+      <c r="F408" s="22"/>
       <c r="G408" s="26"/>
       <c r="H408" s="31"/>
-      <c r="I408" s="22" t="s">
-        <v>1475</v>
-      </c>
-      <c r="J408" s="24" t="s">
-        <v>1476</v>
-      </c>
+      <c r="I408" s="26"/>
+      <c r="J408" s="24"/>
       <c r="K408" s="27"/>
       <c r="L408" s="25"/>
       <c r="M408" s="25"/>
@@ -19888,24 +19888,24 @@
     </row>
     <row r="409">
       <c r="A409" s="20" t="s">
-        <v>1477</v>
+        <v>1468</v>
       </c>
       <c r="B409" s="21" t="s">
-        <v>1478</v>
+        <v>1469</v>
       </c>
       <c r="C409" s="26"/>
       <c r="D409" s="26"/>
       <c r="E409" s="26"/>
       <c r="F409" s="22" t="s">
-        <v>1479</v>
+        <v>1470</v>
       </c>
       <c r="G409" s="26"/>
       <c r="H409" s="31"/>
       <c r="I409" s="22" t="s">
-        <v>1480</v>
+        <v>1471</v>
       </c>
       <c r="J409" s="24" t="s">
-        <v>1481</v>
+        <v>1472</v>
       </c>
       <c r="K409" s="27"/>
       <c r="L409" s="25"/>
@@ -19927,24 +19927,24 @@
     </row>
     <row r="410">
       <c r="A410" s="20" t="s">
-        <v>1482</v>
+        <v>1473</v>
       </c>
       <c r="B410" s="21" t="s">
-        <v>1483</v>
+        <v>1474</v>
       </c>
       <c r="C410" s="26"/>
       <c r="D410" s="26"/>
       <c r="E410" s="26"/>
       <c r="F410" s="22" t="s">
-        <v>1484</v>
+        <v>1475</v>
       </c>
       <c r="G410" s="26"/>
       <c r="H410" s="31"/>
       <c r="I410" s="22" t="s">
-        <v>1485</v>
+        <v>1476</v>
       </c>
       <c r="J410" s="24" t="s">
-        <v>1486</v>
+        <v>1477</v>
       </c>
       <c r="K410" s="27"/>
       <c r="L410" s="25"/>
@@ -19966,22 +19966,24 @@
     </row>
     <row r="411">
       <c r="A411" s="20" t="s">
-        <v>1487</v>
+        <v>1478</v>
       </c>
       <c r="B411" s="21" t="s">
-        <v>1488</v>
+        <v>1479</v>
       </c>
       <c r="C411" s="26"/>
       <c r="D411" s="26"/>
       <c r="E411" s="26"/>
       <c r="F411" s="22" t="s">
-        <v>1489</v>
+        <v>1480</v>
       </c>
       <c r="G411" s="26"/>
       <c r="H411" s="31"/>
-      <c r="I411" s="26"/>
+      <c r="I411" s="22" t="s">
+        <v>1481</v>
+      </c>
       <c r="J411" s="24" t="s">
-        <v>1490</v>
+        <v>1482</v>
       </c>
       <c r="K411" s="27"/>
       <c r="L411" s="25"/>
@@ -20003,22 +20005,24 @@
     </row>
     <row r="412">
       <c r="A412" s="20" t="s">
-        <v>1491</v>
+        <v>1483</v>
       </c>
       <c r="B412" s="21" t="s">
-        <v>1492</v>
+        <v>1484</v>
       </c>
       <c r="C412" s="26"/>
       <c r="D412" s="26"/>
       <c r="E412" s="26"/>
       <c r="F412" s="22" t="s">
-        <v>1493</v>
+        <v>1485</v>
       </c>
       <c r="G412" s="26"/>
       <c r="H412" s="31"/>
-      <c r="I412" s="26"/>
+      <c r="I412" s="22" t="s">
+        <v>1486</v>
+      </c>
       <c r="J412" s="24" t="s">
-        <v>1494</v>
+        <v>1487</v>
       </c>
       <c r="K412" s="27"/>
       <c r="L412" s="25"/>
@@ -20040,21 +20044,25 @@
     </row>
     <row r="413">
       <c r="A413" s="20" t="s">
-        <v>1495</v>
+        <v>1488</v>
       </c>
       <c r="B413" s="21" t="s">
-        <v>1496</v>
+        <v>1489</v>
       </c>
       <c r="C413" s="26"/>
       <c r="D413" s="26"/>
       <c r="E413" s="26"/>
       <c r="F413" s="22" t="s">
-        <v>1497</v>
+        <v>1490</v>
       </c>
       <c r="G413" s="26"/>
       <c r="H413" s="31"/>
-      <c r="I413" s="26"/>
-      <c r="J413" s="24"/>
+      <c r="I413" s="22" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J413" s="24" t="s">
+        <v>1492</v>
+      </c>
       <c r="K413" s="27"/>
       <c r="L413" s="25"/>
       <c r="M413" s="25"/>
@@ -20075,24 +20083,22 @@
     </row>
     <row r="414">
       <c r="A414" s="20" t="s">
-        <v>1498</v>
+        <v>1493</v>
       </c>
       <c r="B414" s="21" t="s">
-        <v>1499</v>
+        <v>1494</v>
       </c>
       <c r="C414" s="26"/>
       <c r="D414" s="26"/>
       <c r="E414" s="26"/>
       <c r="F414" s="22" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="G414" s="26"/>
       <c r="H414" s="31"/>
-      <c r="I414" s="22" t="s">
-        <v>1499</v>
-      </c>
+      <c r="I414" s="26"/>
       <c r="J414" s="24" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="K414" s="27"/>
       <c r="L414" s="25"/>
@@ -20114,24 +20120,22 @@
     </row>
     <row r="415">
       <c r="A415" s="20" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="B415" s="21" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="C415" s="26"/>
       <c r="D415" s="26"/>
       <c r="E415" s="26"/>
       <c r="F415" s="22" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="G415" s="26"/>
       <c r="H415" s="31"/>
-      <c r="I415" s="22" t="s">
-        <v>1502</v>
-      </c>
+      <c r="I415" s="26"/>
       <c r="J415" s="24" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="K415" s="27"/>
       <c r="L415" s="25"/>
@@ -20153,23 +20157,21 @@
     </row>
     <row r="416">
       <c r="A416" s="20" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="B416" s="21" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="C416" s="26"/>
       <c r="D416" s="26"/>
       <c r="E416" s="26"/>
       <c r="F416" s="22" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="G416" s="26"/>
       <c r="H416" s="31"/>
       <c r="I416" s="26"/>
-      <c r="J416" s="24" t="s">
-        <v>1508</v>
-      </c>
+      <c r="J416" s="24"/>
       <c r="K416" s="27"/>
       <c r="L416" s="25"/>
       <c r="M416" s="25"/>
@@ -20190,24 +20192,24 @@
     </row>
     <row r="417">
       <c r="A417" s="20" t="s">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="B417" s="21" t="s">
-        <v>1510</v>
+        <v>1505</v>
       </c>
       <c r="C417" s="26"/>
       <c r="D417" s="26"/>
       <c r="E417" s="26"/>
       <c r="F417" s="22" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="G417" s="26"/>
       <c r="H417" s="31"/>
       <c r="I417" s="22" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="J417" s="24" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="K417" s="27"/>
       <c r="L417" s="25"/>
@@ -20229,24 +20231,24 @@
     </row>
     <row r="418">
       <c r="A418" s="20" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="B418" s="21" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="C418" s="26"/>
       <c r="D418" s="26"/>
       <c r="E418" s="26"/>
       <c r="F418" s="22" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="G418" s="26"/>
       <c r="H418" s="31"/>
       <c r="I418" s="22" t="s">
-        <v>1516</v>
+        <v>1508</v>
       </c>
       <c r="J418" s="24" t="s">
-        <v>1517</v>
+        <v>1510</v>
       </c>
       <c r="K418" s="27"/>
       <c r="L418" s="25"/>
@@ -20268,22 +20270,22 @@
     </row>
     <row r="419">
       <c r="A419" s="20" t="s">
-        <v>1518</v>
+        <v>1511</v>
       </c>
       <c r="B419" s="21" t="s">
-        <v>1519</v>
+        <v>1512</v>
       </c>
       <c r="C419" s="26"/>
       <c r="D419" s="26"/>
       <c r="E419" s="26"/>
       <c r="F419" s="22" t="s">
-        <v>1520</v>
+        <v>1513</v>
       </c>
       <c r="G419" s="26"/>
       <c r="H419" s="31"/>
       <c r="I419" s="26"/>
       <c r="J419" s="24" t="s">
-        <v>1521</v>
+        <v>1514</v>
       </c>
       <c r="K419" s="27"/>
       <c r="L419" s="25"/>
@@ -20305,24 +20307,24 @@
     </row>
     <row r="420">
       <c r="A420" s="20" t="s">
-        <v>1522</v>
+        <v>1515</v>
       </c>
       <c r="B420" s="21" t="s">
-        <v>1523</v>
+        <v>1516</v>
       </c>
       <c r="C420" s="26"/>
       <c r="D420" s="26"/>
       <c r="E420" s="26"/>
       <c r="F420" s="22" t="s">
-        <v>1524</v>
+        <v>1517</v>
       </c>
       <c r="G420" s="26"/>
       <c r="H420" s="31"/>
       <c r="I420" s="22" t="s">
-        <v>1525</v>
+        <v>1517</v>
       </c>
       <c r="J420" s="24" t="s">
-        <v>1526</v>
+        <v>1518</v>
       </c>
       <c r="K420" s="27"/>
       <c r="L420" s="25"/>
@@ -20344,22 +20346,24 @@
     </row>
     <row r="421">
       <c r="A421" s="20" t="s">
-        <v>1527</v>
+        <v>1519</v>
       </c>
       <c r="B421" s="21" t="s">
-        <v>1528</v>
+        <v>1520</v>
       </c>
       <c r="C421" s="26"/>
       <c r="D421" s="26"/>
       <c r="E421" s="26"/>
       <c r="F421" s="22" t="s">
-        <v>1529</v>
+        <v>1521</v>
       </c>
       <c r="G421" s="26"/>
       <c r="H421" s="31"/>
-      <c r="I421" s="26"/>
+      <c r="I421" s="22" t="s">
+        <v>1522</v>
+      </c>
       <c r="J421" s="24" t="s">
-        <v>1530</v>
+        <v>1523</v>
       </c>
       <c r="K421" s="27"/>
       <c r="L421" s="25"/>
@@ -20381,24 +20385,22 @@
     </row>
     <row r="422">
       <c r="A422" s="20" t="s">
-        <v>1531</v>
+        <v>1524</v>
       </c>
       <c r="B422" s="21" t="s">
-        <v>1532</v>
+        <v>1525</v>
       </c>
       <c r="C422" s="26"/>
       <c r="D422" s="26"/>
       <c r="E422" s="26"/>
       <c r="F422" s="22" t="s">
-        <v>1533</v>
+        <v>1526</v>
       </c>
       <c r="G422" s="26"/>
       <c r="H422" s="31"/>
-      <c r="I422" s="22" t="s">
-        <v>1534</v>
-      </c>
+      <c r="I422" s="26"/>
       <c r="J422" s="24" t="s">
-        <v>1535</v>
+        <v>1527</v>
       </c>
       <c r="K422" s="27"/>
       <c r="L422" s="25"/>
@@ -20420,22 +20422,24 @@
     </row>
     <row r="423">
       <c r="A423" s="20" t="s">
-        <v>1536</v>
+        <v>1528</v>
       </c>
       <c r="B423" s="21" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
       <c r="C423" s="26"/>
       <c r="D423" s="26"/>
       <c r="E423" s="26"/>
       <c r="F423" s="22" t="s">
-        <v>1538</v>
+        <v>1530</v>
       </c>
       <c r="G423" s="26"/>
       <c r="H423" s="31"/>
-      <c r="I423" s="26"/>
+      <c r="I423" s="22" t="s">
+        <v>1531</v>
+      </c>
       <c r="J423" s="24" t="s">
-        <v>1539</v>
+        <v>1532</v>
       </c>
       <c r="K423" s="27"/>
       <c r="L423" s="25"/>
@@ -20457,21 +20461,23 @@
     </row>
     <row r="424">
       <c r="A424" s="20" t="s">
-        <v>1540</v>
+        <v>1533</v>
       </c>
       <c r="B424" s="21" t="s">
-        <v>1541</v>
+        <v>1534</v>
       </c>
       <c r="C424" s="26"/>
       <c r="D424" s="26"/>
       <c r="E424" s="26"/>
       <c r="F424" s="22" t="s">
-        <v>1542</v>
+        <v>1535</v>
       </c>
       <c r="G424" s="26"/>
       <c r="H424" s="31"/>
       <c r="I424" s="26"/>
-      <c r="J424" s="27"/>
+      <c r="J424" s="24" t="s">
+        <v>1536</v>
+      </c>
       <c r="K424" s="27"/>
       <c r="L424" s="25"/>
       <c r="M424" s="25"/>
@@ -20492,21 +20498,25 @@
     </row>
     <row r="425">
       <c r="A425" s="20" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="B425" s="21" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="C425" s="26"/>
       <c r="D425" s="26"/>
       <c r="E425" s="26"/>
       <c r="F425" s="22" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="G425" s="26"/>
       <c r="H425" s="31"/>
-      <c r="I425" s="26"/>
-      <c r="J425" s="27"/>
+      <c r="I425" s="22" t="s">
+        <v>1540</v>
+      </c>
+      <c r="J425" s="24" t="s">
+        <v>1541</v>
+      </c>
       <c r="K425" s="27"/>
       <c r="L425" s="25"/>
       <c r="M425" s="25"/>
@@ -20527,21 +20537,23 @@
     </row>
     <row r="426">
       <c r="A426" s="20" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="B426" s="21" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="C426" s="26"/>
       <c r="D426" s="26"/>
       <c r="E426" s="26"/>
       <c r="F426" s="22" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="G426" s="26"/>
       <c r="H426" s="31"/>
       <c r="I426" s="26"/>
-      <c r="J426" s="27"/>
+      <c r="J426" s="24" t="s">
+        <v>1545</v>
+      </c>
       <c r="K426" s="27"/>
       <c r="L426" s="25"/>
       <c r="M426" s="25"/>
@@ -20562,16 +20574,16 @@
     </row>
     <row r="427">
       <c r="A427" s="20" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="B427" s="21" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="C427" s="26"/>
       <c r="D427" s="26"/>
       <c r="E427" s="26"/>
       <c r="F427" s="22" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="G427" s="26"/>
       <c r="H427" s="31"/>
@@ -20597,15 +20609,17 @@
     </row>
     <row r="428">
       <c r="A428" s="20" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="B428" s="21" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="C428" s="26"/>
       <c r="D428" s="26"/>
       <c r="E428" s="26"/>
-      <c r="F428" s="26"/>
+      <c r="F428" s="22" t="s">
+        <v>1551</v>
+      </c>
       <c r="G428" s="26"/>
       <c r="H428" s="31"/>
       <c r="I428" s="26"/>
@@ -20629,12 +20643,18 @@
       <c r="AA428" s="25"/>
     </row>
     <row r="429">
-      <c r="A429" s="37"/>
-      <c r="B429" s="38"/>
+      <c r="A429" s="20" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B429" s="21" t="s">
+        <v>1553</v>
+      </c>
       <c r="C429" s="26"/>
       <c r="D429" s="26"/>
       <c r="E429" s="26"/>
-      <c r="F429" s="26"/>
+      <c r="F429" s="22" t="s">
+        <v>1554</v>
+      </c>
       <c r="G429" s="26"/>
       <c r="H429" s="31"/>
       <c r="I429" s="26"/>
@@ -20658,12 +20678,18 @@
       <c r="AA429" s="25"/>
     </row>
     <row r="430">
-      <c r="A430" s="37"/>
-      <c r="B430" s="38"/>
+      <c r="A430" s="20" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B430" s="21" t="s">
+        <v>1556</v>
+      </c>
       <c r="C430" s="26"/>
       <c r="D430" s="26"/>
       <c r="E430" s="26"/>
-      <c r="F430" s="26"/>
+      <c r="F430" s="22" t="s">
+        <v>1557</v>
+      </c>
       <c r="G430" s="26"/>
       <c r="H430" s="31"/>
       <c r="I430" s="26"/>
@@ -20687,8 +20713,12 @@
       <c r="AA430" s="25"/>
     </row>
     <row r="431">
-      <c r="A431" s="37"/>
-      <c r="B431" s="38"/>
+      <c r="A431" s="20" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B431" s="21" t="s">
+        <v>1559</v>
+      </c>
       <c r="C431" s="26"/>
       <c r="D431" s="26"/>
       <c r="E431" s="26"/>
@@ -22340,91 +22370,91 @@
       <c r="AA487" s="25"/>
     </row>
     <row r="488">
-      <c r="A488" s="1"/>
-      <c r="B488" s="39"/>
-      <c r="C488" s="39"/>
-      <c r="D488" s="39"/>
-      <c r="E488" s="39"/>
-      <c r="F488" s="39"/>
-      <c r="G488" s="39"/>
-      <c r="H488" s="40"/>
-      <c r="I488" s="39"/>
-      <c r="J488" s="41"/>
-      <c r="K488" s="41"/>
-      <c r="L488" s="42"/>
-      <c r="M488" s="42"/>
-      <c r="N488" s="42"/>
-      <c r="O488" s="42"/>
-      <c r="P488" s="42"/>
-      <c r="Q488" s="42"/>
-      <c r="R488" s="42"/>
-      <c r="S488" s="42"/>
-      <c r="T488" s="42"/>
-      <c r="U488" s="42"/>
-      <c r="V488" s="42"/>
-      <c r="W488" s="42"/>
-      <c r="X488" s="42"/>
-      <c r="Y488" s="42"/>
-      <c r="Z488" s="42"/>
-      <c r="AA488" s="42"/>
+      <c r="A488" s="37"/>
+      <c r="B488" s="38"/>
+      <c r="C488" s="26"/>
+      <c r="D488" s="26"/>
+      <c r="E488" s="26"/>
+      <c r="F488" s="26"/>
+      <c r="G488" s="26"/>
+      <c r="H488" s="31"/>
+      <c r="I488" s="26"/>
+      <c r="J488" s="27"/>
+      <c r="K488" s="27"/>
+      <c r="L488" s="25"/>
+      <c r="M488" s="25"/>
+      <c r="N488" s="25"/>
+      <c r="O488" s="25"/>
+      <c r="P488" s="25"/>
+      <c r="Q488" s="25"/>
+      <c r="R488" s="25"/>
+      <c r="S488" s="25"/>
+      <c r="T488" s="25"/>
+      <c r="U488" s="25"/>
+      <c r="V488" s="25"/>
+      <c r="W488" s="25"/>
+      <c r="X488" s="25"/>
+      <c r="Y488" s="25"/>
+      <c r="Z488" s="25"/>
+      <c r="AA488" s="25"/>
     </row>
     <row r="489">
-      <c r="A489" s="1"/>
-      <c r="B489" s="39"/>
-      <c r="C489" s="39"/>
-      <c r="D489" s="39"/>
-      <c r="E489" s="39"/>
-      <c r="F489" s="39"/>
-      <c r="G489" s="39"/>
-      <c r="H489" s="40"/>
-      <c r="I489" s="39"/>
-      <c r="J489" s="41"/>
-      <c r="K489" s="41"/>
-      <c r="L489" s="42"/>
-      <c r="M489" s="42"/>
-      <c r="N489" s="42"/>
-      <c r="O489" s="42"/>
-      <c r="P489" s="42"/>
-      <c r="Q489" s="42"/>
-      <c r="R489" s="42"/>
-      <c r="S489" s="42"/>
-      <c r="T489" s="42"/>
-      <c r="U489" s="42"/>
-      <c r="V489" s="42"/>
-      <c r="W489" s="42"/>
-      <c r="X489" s="42"/>
-      <c r="Y489" s="42"/>
-      <c r="Z489" s="42"/>
-      <c r="AA489" s="42"/>
+      <c r="A489" s="37"/>
+      <c r="B489" s="38"/>
+      <c r="C489" s="26"/>
+      <c r="D489" s="26"/>
+      <c r="E489" s="26"/>
+      <c r="F489" s="26"/>
+      <c r="G489" s="26"/>
+      <c r="H489" s="31"/>
+      <c r="I489" s="26"/>
+      <c r="J489" s="27"/>
+      <c r="K489" s="27"/>
+      <c r="L489" s="25"/>
+      <c r="M489" s="25"/>
+      <c r="N489" s="25"/>
+      <c r="O489" s="25"/>
+      <c r="P489" s="25"/>
+      <c r="Q489" s="25"/>
+      <c r="R489" s="25"/>
+      <c r="S489" s="25"/>
+      <c r="T489" s="25"/>
+      <c r="U489" s="25"/>
+      <c r="V489" s="25"/>
+      <c r="W489" s="25"/>
+      <c r="X489" s="25"/>
+      <c r="Y489" s="25"/>
+      <c r="Z489" s="25"/>
+      <c r="AA489" s="25"/>
     </row>
     <row r="490">
-      <c r="A490" s="1"/>
-      <c r="B490" s="39"/>
-      <c r="C490" s="39"/>
-      <c r="D490" s="39"/>
-      <c r="E490" s="39"/>
-      <c r="F490" s="39"/>
-      <c r="G490" s="39"/>
-      <c r="H490" s="40"/>
-      <c r="I490" s="39"/>
-      <c r="J490" s="41"/>
-      <c r="K490" s="41"/>
-      <c r="L490" s="42"/>
-      <c r="M490" s="42"/>
-      <c r="N490" s="42"/>
-      <c r="O490" s="42"/>
-      <c r="P490" s="42"/>
-      <c r="Q490" s="42"/>
-      <c r="R490" s="42"/>
-      <c r="S490" s="42"/>
-      <c r="T490" s="42"/>
-      <c r="U490" s="42"/>
-      <c r="V490" s="42"/>
-      <c r="W490" s="42"/>
-      <c r="X490" s="42"/>
-      <c r="Y490" s="42"/>
-      <c r="Z490" s="42"/>
-      <c r="AA490" s="42"/>
+      <c r="A490" s="37"/>
+      <c r="B490" s="38"/>
+      <c r="C490" s="26"/>
+      <c r="D490" s="26"/>
+      <c r="E490" s="26"/>
+      <c r="F490" s="26"/>
+      <c r="G490" s="26"/>
+      <c r="H490" s="31"/>
+      <c r="I490" s="26"/>
+      <c r="J490" s="27"/>
+      <c r="K490" s="27"/>
+      <c r="L490" s="25"/>
+      <c r="M490" s="25"/>
+      <c r="N490" s="25"/>
+      <c r="O490" s="25"/>
+      <c r="P490" s="25"/>
+      <c r="Q490" s="25"/>
+      <c r="R490" s="25"/>
+      <c r="S490" s="25"/>
+      <c r="T490" s="25"/>
+      <c r="U490" s="25"/>
+      <c r="V490" s="25"/>
+      <c r="W490" s="25"/>
+      <c r="X490" s="25"/>
+      <c r="Y490" s="25"/>
+      <c r="Z490" s="25"/>
+      <c r="AA490" s="25"/>
     </row>
     <row r="491">
       <c r="A491" s="1"/>
@@ -48700,6 +48730,93 @@
       <c r="Z1396" s="42"/>
       <c r="AA1396" s="42"/>
     </row>
+    <row r="1397">
+      <c r="A1397" s="1"/>
+      <c r="B1397" s="39"/>
+      <c r="C1397" s="39"/>
+      <c r="D1397" s="39"/>
+      <c r="E1397" s="39"/>
+      <c r="F1397" s="39"/>
+      <c r="G1397" s="39"/>
+      <c r="H1397" s="40"/>
+      <c r="I1397" s="39"/>
+      <c r="J1397" s="41"/>
+      <c r="K1397" s="41"/>
+      <c r="L1397" s="42"/>
+      <c r="M1397" s="42"/>
+      <c r="N1397" s="42"/>
+      <c r="O1397" s="42"/>
+      <c r="P1397" s="42"/>
+      <c r="Q1397" s="42"/>
+      <c r="R1397" s="42"/>
+      <c r="S1397" s="42"/>
+      <c r="T1397" s="42"/>
+      <c r="U1397" s="42"/>
+      <c r="V1397" s="42"/>
+      <c r="W1397" s="42"/>
+      <c r="X1397" s="42"/>
+      <c r="Y1397" s="42"/>
+      <c r="Z1397" s="42"/>
+      <c r="AA1397" s="42"/>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="1"/>
+      <c r="B1398" s="39"/>
+      <c r="C1398" s="39"/>
+      <c r="D1398" s="39"/>
+      <c r="E1398" s="39"/>
+      <c r="F1398" s="39"/>
+      <c r="G1398" s="39"/>
+      <c r="H1398" s="40"/>
+      <c r="I1398" s="39"/>
+      <c r="J1398" s="41"/>
+      <c r="K1398" s="41"/>
+      <c r="L1398" s="42"/>
+      <c r="M1398" s="42"/>
+      <c r="N1398" s="42"/>
+      <c r="O1398" s="42"/>
+      <c r="P1398" s="42"/>
+      <c r="Q1398" s="42"/>
+      <c r="R1398" s="42"/>
+      <c r="S1398" s="42"/>
+      <c r="T1398" s="42"/>
+      <c r="U1398" s="42"/>
+      <c r="V1398" s="42"/>
+      <c r="W1398" s="42"/>
+      <c r="X1398" s="42"/>
+      <c r="Y1398" s="42"/>
+      <c r="Z1398" s="42"/>
+      <c r="AA1398" s="42"/>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="1"/>
+      <c r="B1399" s="39"/>
+      <c r="C1399" s="39"/>
+      <c r="D1399" s="39"/>
+      <c r="E1399" s="39"/>
+      <c r="F1399" s="39"/>
+      <c r="G1399" s="39"/>
+      <c r="H1399" s="40"/>
+      <c r="I1399" s="39"/>
+      <c r="J1399" s="41"/>
+      <c r="K1399" s="41"/>
+      <c r="L1399" s="42"/>
+      <c r="M1399" s="42"/>
+      <c r="N1399" s="42"/>
+      <c r="O1399" s="42"/>
+      <c r="P1399" s="42"/>
+      <c r="Q1399" s="42"/>
+      <c r="R1399" s="42"/>
+      <c r="S1399" s="42"/>
+      <c r="T1399" s="42"/>
+      <c r="U1399" s="42"/>
+      <c r="V1399" s="42"/>
+      <c r="W1399" s="42"/>
+      <c r="X1399" s="42"/>
+      <c r="Y1399" s="42"/>
+      <c r="Z1399" s="42"/>
+      <c r="AA1399" s="42"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/server/Dungeonz.io translations.xlsx
+++ b/server/Dungeonz.io translations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="1652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="1670">
   <si>
     <t>Dungeonz.io translations</t>
   </si>
@@ -2744,6 +2744,54 @@
     <t>Kullanıldığında iksir yapımı deneyimi verir.</t>
   </si>
   <si>
+    <t>Item name: Glory orb</t>
+  </si>
+  <si>
+    <t>Glory orb</t>
+  </si>
+  <si>
+    <t>Item description: Glory orb</t>
+  </si>
+  <si>
+    <t>Gives a lot of glory when used.</t>
+  </si>
+  <si>
+    <t>Item name: Tiny loot box</t>
+  </si>
+  <si>
+    <t>Tiny loot box</t>
+  </si>
+  <si>
+    <t>Item description: Tiny loot box</t>
+  </si>
+  <si>
+    <t>Gives 1 random item when used.</t>
+  </si>
+  <si>
+    <t>Item name: Small loot box</t>
+  </si>
+  <si>
+    <t>Small loot box</t>
+  </si>
+  <si>
+    <t>Item description: Small loot box</t>
+  </si>
+  <si>
+    <t>Gives 2 random items when used.</t>
+  </si>
+  <si>
+    <t>Item name: Medium loot box</t>
+  </si>
+  <si>
+    <t>Medium loot box</t>
+  </si>
+  <si>
+    <t>Item description: Medium loot box</t>
+  </si>
+  <si>
+    <t>Gives 3 random items when used.</t>
+  </si>
+  <si>
     <t>Item name: Iron ore</t>
   </si>
   <si>
@@ -4665,6 +4713,12 @@
   </si>
   <si>
     <t>Kütüphaneci</t>
+  </si>
+  <si>
+    <t>Mob name: Omni merchant</t>
+  </si>
+  <si>
+    <t>Omni merchant</t>
   </si>
   <si>
     <t>Mob name: Priest</t>
@@ -5795,8 +5849,8 @@
         <v>65</v>
       </c>
       <c r="C14" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""fr"")"),"Continuez")</f>
-        <v>Continuez</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B14, ""en"", ""fr"")"),"Continuer")</f>
+        <v>Continuer</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>66</v>
@@ -5900,7 +5954,10 @@
       <c r="B16" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="23" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B16, ""en"", ""fr"")"),"Nom d'utilisateur")</f>
+        <v>Nom d'utilisateur</v>
+      </c>
       <c r="D16" s="23"/>
       <c r="E16" s="29"/>
       <c r="F16" s="23"/>
@@ -5934,7 +5991,10 @@
       <c r="B17" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="23" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B17, ""en"", ""fr"")"),"Mot de passe")</f>
+        <v>Mot de passe</v>
+      </c>
       <c r="D17" s="23"/>
       <c r="E17" s="29"/>
       <c r="F17" s="23"/>
@@ -5970,9 +6030,9 @@
       </c>
       <c r="C18" s="23" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B18, ""en"", ""fr"")"),"Quelque chose a mal tourné.
-Gênant... :/")</f>
+Maladroit... :/")</f>
         <v>Quelque chose a mal tourné.
-Gênant... :/</v>
+Maladroit... :/</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="29"/>
@@ -6011,7 +6071,12 @@
       <c r="B19" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="23"/>
+      <c r="C19" s="23" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B19, ""en"", ""fr"")"),"Le jeu est plein.
+Wow ...: o")</f>
+        <v>Le jeu est plein.
+Wow ...: o</v>
+      </c>
       <c r="D19" s="23"/>
       <c r="E19" s="29"/>
       <c r="F19" s="23"/>
@@ -6094,7 +6159,10 @@
       <c r="B21" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="23"/>
+      <c r="C21" s="23" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B21, ""en"", ""fr"")"),"Nom d'utilisateur (requis.")</f>
+        <v>Nom d'utilisateur (requis.</v>
+      </c>
       <c r="D21" s="23"/>
       <c r="E21" s="29"/>
       <c r="F21" s="23"/>
@@ -6128,7 +6196,10 @@
       <c r="B22" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="23" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B22, ""en"", ""fr"")"),"Mot de passe requis.")</f>
+        <v>Mot de passe requis.</v>
+      </c>
       <c r="D22" s="23"/>
       <c r="E22" s="29"/>
       <c r="F22" s="23"/>
@@ -6254,7 +6325,10 @@
       <c r="B25" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="23"/>
+      <c r="C25" s="23" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B25, ""en"", ""fr"")"),"Les partenaires")</f>
+        <v>Les partenaires</v>
+      </c>
       <c r="D25" s="23"/>
       <c r="E25" s="29"/>
       <c r="F25" s="23"/>
@@ -6288,7 +6362,10 @@
       <c r="B26" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="23"/>
+      <c r="C26" s="23" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B26, ""en"", ""fr"")"),"Crédits")</f>
+        <v>Crédits</v>
+      </c>
       <c r="D26" s="23"/>
       <c r="E26" s="29"/>
       <c r="F26" s="23"/>
@@ -6375,7 +6452,10 @@
       <c r="B28" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="23"/>
+      <c r="C28" s="23" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B28, ""en"", ""fr"")"),"Reconnect")</f>
+        <v>Reconnect</v>
+      </c>
       <c r="D28" s="23"/>
       <c r="E28" s="29"/>
       <c r="F28" s="23"/>
@@ -6409,7 +6489,10 @@
       <c r="B29" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="23"/>
+      <c r="C29" s="23" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B29, ""en"", ""fr"")"),"Connexion au serveur de jeu ...")</f>
+        <v>Connexion au serveur de jeu ...</v>
+      </c>
       <c r="D29" s="23"/>
       <c r="E29" s="29"/>
       <c r="F29" s="23"/>
@@ -6443,7 +6526,10 @@
       <c r="B30" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="23" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B30, ""en"", ""fr"")"),"Rejoindre monde du jeu ...")</f>
+        <v>Rejoindre monde du jeu ...</v>
+      </c>
       <c r="D30" s="23"/>
       <c r="E30" s="29"/>
       <c r="F30" s="23"/>
@@ -8003,8 +8089,8 @@
         <v>303</v>
       </c>
       <c r="C66" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""fr"")"),"Rassemblement")</f>
-        <v>Rassemblement</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B66, ""en"", ""fr"")"),"La cueillette")</f>
+        <v>La cueillette</v>
       </c>
       <c r="D66" s="23"/>
       <c r="E66" s="29"/>
@@ -8241,8 +8327,8 @@
         <v>323</v>
       </c>
       <c r="C72" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B72, ""en"", ""fr"")"),"Quitter le jeu")</f>
-        <v>Quitter le jeu</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B72, ""en"", ""fr"")"),"Sortir du jeu")</f>
+        <v>Sortir du jeu</v>
       </c>
       <c r="D72" s="23"/>
       <c r="E72" s="29"/>
@@ -8477,8 +8563,8 @@
         <v>337</v>
       </c>
       <c r="C78" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B78, ""en"", ""fr"")"),"Espace de rangement")</f>
-        <v>Espace de rangement</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B78, ""en"", ""fr"")"),"Stockage")</f>
+        <v>Stockage</v>
       </c>
       <c r="D78" s="23"/>
       <c r="E78" s="29"/>
@@ -8588,8 +8674,8 @@
         <v>342</v>
       </c>
       <c r="C81" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B81, ""en"", ""fr"")"),"Dépôt")</f>
-        <v>Dépôt</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B81, ""en"", ""fr"")"),"Verser")</f>
+        <v>Verser</v>
       </c>
       <c r="D81" s="23"/>
       <c r="E81" s="29"/>
@@ -8625,8 +8711,8 @@
         <v>343</v>
       </c>
       <c r="C82" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B82, ""en"", ""fr"")"),"Se désister")</f>
-        <v>Se désister</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B82, ""en"", ""fr"")"),"Retirer")</f>
+        <v>Retirer</v>
       </c>
       <c r="D82" s="23"/>
       <c r="E82" s="29"/>
@@ -9032,8 +9118,8 @@
         <v>357</v>
       </c>
       <c r="C93" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B93, ""en"", ""fr"")"),"Laissez tomber")</f>
-        <v>Laissez tomber</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B93, ""en"", ""fr"")"),"Tomber")</f>
+        <v>Tomber</v>
       </c>
       <c r="D93" s="23"/>
       <c r="E93" s="29"/>
@@ -9463,8 +9549,8 @@
         <v>303</v>
       </c>
       <c r="C104" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B104, ""en"", ""fr"")"),"Rassemblement")</f>
-        <v>Rassemblement</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B104, ""en"", ""fr"")"),"La cueillette")</f>
+        <v>La cueillette</v>
       </c>
       <c r="D104" s="23"/>
       <c r="E104" s="29"/>
@@ -10226,8 +10312,8 @@
         <v>444</v>
       </c>
       <c r="C123" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B123, ""en"", ""fr"")"),"Prétendre")</f>
-        <v>Prétendre</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B123, ""en"", ""fr"")"),"Réclamer")</f>
+        <v>Réclamer</v>
       </c>
       <c r="D123" s="23" t="s">
         <v>445</v>
@@ -13758,8 +13844,8 @@
         <v>740</v>
       </c>
       <c r="C211" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B211, ""en"", ""fr"")"),"Coup")</f>
-        <v>Coup</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B211, ""en"", ""fr"")"),"Donner un coup")</f>
+        <v>Donner un coup</v>
       </c>
       <c r="D211" s="23"/>
       <c r="E211" s="29"/>
@@ -15898,14 +15984,12 @@
         <v>908</v>
       </c>
       <c r="C265" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B265, ""en"", ""fr"")"),"Minerai de fer")</f>
-        <v>Minerai de fer</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B265, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D265" s="23"/>
       <c r="E265" s="29"/>
-      <c r="F265" s="23" t="s">
-        <v>909</v>
-      </c>
+      <c r="F265" s="23"/>
       <c r="G265" s="29"/>
       <c r="H265" s="36"/>
       <c r="I265" s="29"/>
@@ -15930,21 +16014,19 @@
       <c r="AB265" s="28"/>
     </row>
     <row r="266">
-      <c r="A266" s="39" t="s">
+      <c r="A266" s="21" t="s">
+        <v>909</v>
+      </c>
+      <c r="B266" s="22" t="s">
         <v>910</v>
       </c>
-      <c r="B266" s="22" t="s">
-        <v>911</v>
-      </c>
       <c r="C266" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B266, ""en"", ""fr"")"),"Peut être conçu dans une barre de fer à un four.")</f>
-        <v>Peut être conçu dans une barre de fer à un four.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B266, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D266" s="23"/>
       <c r="E266" s="29"/>
-      <c r="F266" s="23" t="s">
-        <v>912</v>
-      </c>
+      <c r="F266" s="23"/>
       <c r="G266" s="29"/>
       <c r="H266" s="36"/>
       <c r="I266" s="29"/>
@@ -15969,21 +16051,19 @@
       <c r="AB266" s="28"/>
     </row>
     <row r="267">
-      <c r="A267" s="39" t="s">
-        <v>913</v>
+      <c r="A267" s="21" t="s">
+        <v>911</v>
       </c>
       <c r="B267" s="22" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C267" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B267, ""en"", ""fr"")"),"Barre de fer")</f>
-        <v>Barre de fer</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B267, ""en"", ""fr"")"),"boîte de butin minuscule")</f>
+        <v>boîte de butin minuscule</v>
       </c>
       <c r="D267" s="23"/>
       <c r="E267" s="29"/>
-      <c r="F267" s="23" t="s">
-        <v>915</v>
-      </c>
+      <c r="F267" s="23"/>
       <c r="G267" s="29"/>
       <c r="H267" s="36"/>
       <c r="I267" s="29"/>
@@ -16008,21 +16088,19 @@
       <c r="AB267" s="28"/>
     </row>
     <row r="268">
-      <c r="A268" s="39" t="s">
-        <v>916</v>
+      <c r="A268" s="21" t="s">
+        <v>913</v>
       </c>
       <c r="B268" s="22" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C268" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B268, ""en"", ""fr"")"),"Peut être conçu dans l'équipement de fer.")</f>
-        <v>Peut être conçu dans l'équipement de fer.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B268, ""en"", ""fr"")"),"Donne 1 objet aléatoire lorsqu'elle est utilisée.")</f>
+        <v>Donne 1 objet aléatoire lorsqu'elle est utilisée.</v>
       </c>
       <c r="D268" s="23"/>
       <c r="E268" s="29"/>
-      <c r="F268" s="23" t="s">
-        <v>918</v>
-      </c>
+      <c r="F268" s="23"/>
       <c r="G268" s="29"/>
       <c r="H268" s="36"/>
       <c r="I268" s="29"/>
@@ -16047,21 +16125,19 @@
       <c r="AB268" s="28"/>
     </row>
     <row r="269">
-      <c r="A269" s="39" t="s">
-        <v>919</v>
+      <c r="A269" s="21" t="s">
+        <v>915</v>
       </c>
       <c r="B269" s="22" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C269" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B269, ""en"", ""fr"")"),"Barre de fer")</f>
-        <v>Barre de fer</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B269, ""en"", ""fr"")"),"Petite boîte de butin")</f>
+        <v>Petite boîte de butin</v>
       </c>
       <c r="D269" s="23"/>
       <c r="E269" s="29"/>
-      <c r="F269" s="23" t="s">
-        <v>921</v>
-      </c>
+      <c r="F269" s="23"/>
       <c r="G269" s="29"/>
       <c r="H269" s="36"/>
       <c r="I269" s="29"/>
@@ -16086,21 +16162,19 @@
       <c r="AB269" s="28"/>
     </row>
     <row r="270">
-      <c r="A270" s="39" t="s">
-        <v>922</v>
+      <c r="A270" s="21" t="s">
+        <v>917</v>
       </c>
       <c r="B270" s="22" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C270" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B270, ""en"", ""fr"")"),"Un bâton de fer.")</f>
-        <v>Un bâton de fer.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B270, ""en"", ""fr"")"),"Donne 2 articles au hasard quand il est utilisé.")</f>
+        <v>Donne 2 articles au hasard quand il est utilisé.</v>
       </c>
       <c r="D270" s="23"/>
       <c r="E270" s="29"/>
-      <c r="F270" s="23" t="s">
-        <v>924</v>
-      </c>
+      <c r="F270" s="23"/>
       <c r="G270" s="29"/>
       <c r="H270" s="36"/>
       <c r="I270" s="29"/>
@@ -16125,21 +16199,19 @@
       <c r="AB270" s="28"/>
     </row>
     <row r="271">
-      <c r="A271" s="39" t="s">
-        <v>925</v>
+      <c r="A271" s="21" t="s">
+        <v>919</v>
       </c>
       <c r="B271" s="22" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="C271" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B271, ""en"", ""fr"")"),"Feuille de fer")</f>
-        <v>Feuille de fer</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B271, ""en"", ""fr"")"),"boîte de butin moyen")</f>
+        <v>boîte de butin moyen</v>
       </c>
       <c r="D271" s="23"/>
       <c r="E271" s="29"/>
-      <c r="F271" s="23" t="s">
-        <v>927</v>
-      </c>
+      <c r="F271" s="23"/>
       <c r="G271" s="29"/>
       <c r="H271" s="36"/>
       <c r="I271" s="29"/>
@@ -16164,21 +16236,19 @@
       <c r="AB271" s="28"/>
     </row>
     <row r="272">
-      <c r="A272" s="39" t="s">
-        <v>928</v>
+      <c r="A272" s="21" t="s">
+        <v>921</v>
       </c>
       <c r="B272" s="22" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="C272" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B272, ""en"", ""fr"")"),"Une plaque plate de fer.")</f>
-        <v>Une plaque plate de fer.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B272, ""en"", ""fr"")"),"Donne 3 articles au hasard quand il est utilisé.")</f>
+        <v>Donne 3 articles au hasard quand il est utilisé.</v>
       </c>
       <c r="D272" s="23"/>
       <c r="E272" s="29"/>
-      <c r="F272" s="23" t="s">
-        <v>930</v>
-      </c>
+      <c r="F272" s="23"/>
       <c r="G272" s="29"/>
       <c r="H272" s="36"/>
       <c r="I272" s="29"/>
@@ -16204,19 +16274,19 @@
     </row>
     <row r="273">
       <c r="A273" s="21" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="B273" s="22" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="C273" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B273, ""en"", ""fr"")"),"minerai Dungium")</f>
-        <v>minerai Dungium</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B273, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D273" s="23"/>
       <c r="E273" s="29"/>
       <c r="F273" s="23" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="G273" s="29"/>
       <c r="H273" s="36"/>
@@ -16243,19 +16313,19 @@
     </row>
     <row r="274">
       <c r="A274" s="39" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="B274" s="22" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="C274" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B274, ""en"", ""fr"")"),"Peut être conçu dans une barre de dungium à un four.")</f>
-        <v>Peut être conçu dans une barre de dungium à un four.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B274, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D274" s="23"/>
       <c r="E274" s="29"/>
       <c r="F274" s="23" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="G274" s="29"/>
       <c r="H274" s="36"/>
@@ -16281,20 +16351,20 @@
       <c r="AB274" s="28"/>
     </row>
     <row r="275">
-      <c r="A275" s="40" t="s">
-        <v>937</v>
+      <c r="A275" s="39" t="s">
+        <v>929</v>
       </c>
       <c r="B275" s="22" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="C275" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B275, ""en"", ""fr"")"),"bar Dungium")</f>
-        <v>bar Dungium</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B275, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D275" s="23"/>
       <c r="E275" s="29"/>
       <c r="F275" s="23" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="G275" s="29"/>
       <c r="H275" s="36"/>
@@ -16321,19 +16391,19 @@
     </row>
     <row r="276">
       <c r="A276" s="39" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="B276" s="22" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="C276" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B276, ""en"", ""fr"")"),"Peut être conçu dans l'équipement dungium.")</f>
-        <v>Peut être conçu dans l'équipement dungium.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B276, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D276" s="23"/>
       <c r="E276" s="29"/>
       <c r="F276" s="23" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="G276" s="29"/>
       <c r="H276" s="36"/>
@@ -16360,19 +16430,19 @@
     </row>
     <row r="277">
       <c r="A277" s="39" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="B277" s="22" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="C277" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B277, ""en"", ""fr"")"),"tige Dungium")</f>
-        <v>tige Dungium</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B277, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D277" s="23"/>
       <c r="E277" s="29"/>
       <c r="F277" s="23" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="G277" s="29"/>
       <c r="H277" s="36"/>
@@ -16399,19 +16469,19 @@
     </row>
     <row r="278">
       <c r="A278" s="39" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="B278" s="22" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="C278" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B278, ""en"", ""fr"")"),"Un bâton de dungium.")</f>
-        <v>Un bâton de dungium.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B278, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D278" s="23"/>
       <c r="E278" s="29"/>
       <c r="F278" s="23" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="G278" s="29"/>
       <c r="H278" s="36"/>
@@ -16438,19 +16508,19 @@
     </row>
     <row r="279">
       <c r="A279" s="39" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="B279" s="22" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="C279" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B279, ""en"", ""fr"")"),"fiche Dungium")</f>
-        <v>fiche Dungium</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B279, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D279" s="23"/>
       <c r="E279" s="29"/>
       <c r="F279" s="23" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="G279" s="29"/>
       <c r="H279" s="36"/>
@@ -16477,19 +16547,19 @@
     </row>
     <row r="280">
       <c r="A280" s="39" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="B280" s="22" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="C280" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B280, ""en"", ""fr"")"),"Une plaque plate de dungium.")</f>
-        <v>Une plaque plate de dungium.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B280, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D280" s="23"/>
       <c r="E280" s="29"/>
       <c r="F280" s="23" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="G280" s="29"/>
       <c r="H280" s="36"/>
@@ -16515,20 +16585,20 @@
       <c r="AB280" s="28"/>
     </row>
     <row r="281">
-      <c r="A281" s="39" t="s">
-        <v>955</v>
+      <c r="A281" s="21" t="s">
+        <v>947</v>
       </c>
       <c r="B281" s="22" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="C281" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B281, ""en"", ""fr"")"),"minerai Noctis")</f>
-        <v>minerai Noctis</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B281, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D281" s="23"/>
       <c r="E281" s="29"/>
       <c r="F281" s="23" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="G281" s="29"/>
       <c r="H281" s="36"/>
@@ -16555,19 +16625,19 @@
     </row>
     <row r="282">
       <c r="A282" s="39" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="B282" s="22" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="C282" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B282, ""en"", ""fr"")"),"Peut être conçu dans une barre de noctis à un four.")</f>
-        <v>Peut être conçu dans une barre de noctis à un four.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B282, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D282" s="23"/>
       <c r="E282" s="29"/>
       <c r="F282" s="23" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="G282" s="29"/>
       <c r="H282" s="36"/>
@@ -16593,27 +16663,25 @@
       <c r="AB282" s="28"/>
     </row>
     <row r="283">
-      <c r="A283" s="39" t="s">
-        <v>961</v>
+      <c r="A283" s="40" t="s">
+        <v>953</v>
       </c>
       <c r="B283" s="22" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="C283" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B283, ""en"", ""fr"")"),"bar Noctis")</f>
-        <v>bar Noctis</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B283, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D283" s="23"/>
       <c r="E283" s="29"/>
       <c r="F283" s="23" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="G283" s="29"/>
       <c r="H283" s="36"/>
       <c r="I283" s="29"/>
-      <c r="J283" s="25" t="s">
-        <v>964</v>
-      </c>
+      <c r="J283" s="30"/>
       <c r="K283" s="30"/>
       <c r="L283" s="35"/>
       <c r="M283" s="28"/>
@@ -16635,26 +16703,24 @@
     </row>
     <row r="284">
       <c r="A284" s="39" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="B284" s="22" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="C284" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B284, ""en"", ""fr"")"),"Peut être conçu dans l'équipement noctis.")</f>
-        <v>Peut être conçu dans l'équipement noctis.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B284, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D284" s="23"/>
       <c r="E284" s="29"/>
       <c r="F284" s="23" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="G284" s="29"/>
       <c r="H284" s="36"/>
       <c r="I284" s="29"/>
-      <c r="J284" s="25" t="s">
-        <v>968</v>
-      </c>
+      <c r="J284" s="30"/>
       <c r="K284" s="30"/>
       <c r="L284" s="35"/>
       <c r="M284" s="28"/>
@@ -16676,26 +16742,24 @@
     </row>
     <row r="285">
       <c r="A285" s="39" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="B285" s="22" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="C285" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B285, ""en"", ""fr"")"),"tige Noctis")</f>
-        <v>tige Noctis</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B285, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D285" s="23"/>
       <c r="E285" s="29"/>
       <c r="F285" s="23" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="G285" s="29"/>
       <c r="H285" s="36"/>
       <c r="I285" s="29"/>
-      <c r="J285" s="25" t="s">
-        <v>972</v>
-      </c>
+      <c r="J285" s="30"/>
       <c r="K285" s="30"/>
       <c r="L285" s="35"/>
       <c r="M285" s="28"/>
@@ -16717,26 +16781,24 @@
     </row>
     <row r="286">
       <c r="A286" s="39" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="B286" s="22" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="C286" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B286, ""en"", ""fr"")"),"Un bâton de Noctis.")</f>
-        <v>Un bâton de Noctis.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B286, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D286" s="23"/>
       <c r="E286" s="29"/>
       <c r="F286" s="23" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
       <c r="G286" s="29"/>
       <c r="H286" s="36"/>
       <c r="I286" s="29"/>
-      <c r="J286" s="25" t="s">
-        <v>976</v>
-      </c>
+      <c r="J286" s="30"/>
       <c r="K286" s="30"/>
       <c r="L286" s="35"/>
       <c r="M286" s="28"/>
@@ -16758,26 +16820,24 @@
     </row>
     <row r="287">
       <c r="A287" s="39" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="B287" s="22" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
       <c r="C287" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B287, ""en"", ""fr"")"),"fiche Noctis")</f>
-        <v>fiche Noctis</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B287, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D287" s="23"/>
       <c r="E287" s="29"/>
       <c r="F287" s="23" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="G287" s="29"/>
       <c r="H287" s="36"/>
       <c r="I287" s="29"/>
-      <c r="J287" s="25" t="s">
-        <v>980</v>
-      </c>
+      <c r="J287" s="30"/>
       <c r="K287" s="30"/>
       <c r="L287" s="35"/>
       <c r="M287" s="28"/>
@@ -16799,26 +16859,24 @@
     </row>
     <row r="288">
       <c r="A288" s="39" t="s">
-        <v>981</v>
+        <v>968</v>
       </c>
       <c r="B288" s="22" t="s">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="C288" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B288, ""en"", ""fr"")"),"Une plaque plate de noctis.")</f>
-        <v>Une plaque plate de noctis.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B288, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D288" s="23"/>
       <c r="E288" s="29"/>
       <c r="F288" s="23" t="s">
-        <v>983</v>
+        <v>970</v>
       </c>
       <c r="G288" s="29"/>
       <c r="H288" s="36"/>
       <c r="I288" s="29"/>
-      <c r="J288" s="25" t="s">
-        <v>984</v>
-      </c>
+      <c r="J288" s="30"/>
       <c r="K288" s="30"/>
       <c r="L288" s="35"/>
       <c r="M288" s="28"/>
@@ -16840,28 +16898,24 @@
     </row>
     <row r="289">
       <c r="A289" s="39" t="s">
-        <v>985</v>
+        <v>971</v>
       </c>
       <c r="B289" s="22" t="s">
-        <v>986</v>
+        <v>972</v>
       </c>
       <c r="C289" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B289, ""en"", ""fr"")"),"journaux")</f>
-        <v>journaux</v>
-      </c>
-      <c r="D289" s="23" t="s">
-        <v>987</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B289, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D289" s="23"/>
       <c r="E289" s="29"/>
       <c r="F289" s="23" t="s">
-        <v>988</v>
+        <v>973</v>
       </c>
       <c r="G289" s="29"/>
       <c r="H289" s="36"/>
       <c r="I289" s="29"/>
-      <c r="J289" s="25" t="s">
-        <v>989</v>
-      </c>
+      <c r="J289" s="30"/>
       <c r="K289" s="30"/>
       <c r="L289" s="35"/>
       <c r="M289" s="28"/>
@@ -16883,28 +16937,24 @@
     </row>
     <row r="290">
       <c r="A290" s="39" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
       <c r="B290" s="22" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
       <c r="C290" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B290, ""en"", ""fr"")"),"Un matériau d'artisanat de base.")</f>
-        <v>Un matériau d'artisanat de base.</v>
-      </c>
-      <c r="D290" s="23" t="s">
-        <v>992</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B290, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D290" s="23"/>
       <c r="E290" s="29"/>
       <c r="F290" s="23" t="s">
-        <v>993</v>
+        <v>976</v>
       </c>
       <c r="G290" s="29"/>
       <c r="H290" s="36"/>
       <c r="I290" s="29"/>
-      <c r="J290" s="25" t="s">
-        <v>994</v>
-      </c>
+      <c r="J290" s="30"/>
       <c r="K290" s="30"/>
       <c r="L290" s="35"/>
       <c r="M290" s="28"/>
@@ -16926,25 +16976,25 @@
     </row>
     <row r="291">
       <c r="A291" s="39" t="s">
-        <v>995</v>
+        <v>977</v>
       </c>
       <c r="B291" s="22" t="s">
-        <v>996</v>
+        <v>978</v>
       </c>
       <c r="C291" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B291, ""en"", ""fr"")"),"Planche de bois")</f>
-        <v>Planche de bois</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B291, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D291" s="23"/>
       <c r="E291" s="29"/>
       <c r="F291" s="23" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="G291" s="29"/>
       <c r="H291" s="36"/>
       <c r="I291" s="29"/>
       <c r="J291" s="25" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="K291" s="30"/>
       <c r="L291" s="35"/>
@@ -16967,25 +17017,25 @@
     </row>
     <row r="292">
       <c r="A292" s="39" t="s">
-        <v>999</v>
+        <v>981</v>
       </c>
       <c r="B292" s="22" t="s">
-        <v>1000</v>
+        <v>982</v>
       </c>
       <c r="C292" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B292, ""en"", ""fr"")"),"Peut être conçu dans des arcs et des bâtons.")</f>
-        <v>Peut être conçu dans des arcs et des bâtons.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B292, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D292" s="23"/>
       <c r="E292" s="29"/>
       <c r="F292" s="23" t="s">
-        <v>1001</v>
+        <v>983</v>
       </c>
       <c r="G292" s="29"/>
       <c r="H292" s="36"/>
       <c r="I292" s="29"/>
       <c r="J292" s="25" t="s">
-        <v>1002</v>
+        <v>984</v>
       </c>
       <c r="K292" s="30"/>
       <c r="L292" s="35"/>
@@ -17008,27 +17058,25 @@
     </row>
     <row r="293">
       <c r="A293" s="39" t="s">
-        <v>1003</v>
+        <v>985</v>
       </c>
       <c r="B293" s="22" t="s">
-        <v>1004</v>
+        <v>986</v>
       </c>
       <c r="C293" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B293, ""en"", ""fr"")"),"Coton")</f>
-        <v>Coton</v>
-      </c>
-      <c r="D293" s="23" t="s">
-        <v>1005</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B293, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D293" s="23"/>
       <c r="E293" s="29"/>
       <c r="F293" s="23" t="s">
-        <v>1006</v>
+        <v>987</v>
       </c>
       <c r="G293" s="29"/>
       <c r="H293" s="36"/>
       <c r="I293" s="29"/>
       <c r="J293" s="25" t="s">
-        <v>1007</v>
+        <v>988</v>
       </c>
       <c r="K293" s="30"/>
       <c r="L293" s="35"/>
@@ -17051,27 +17099,25 @@
     </row>
     <row r="294">
       <c r="A294" s="39" t="s">
-        <v>1008</v>
+        <v>989</v>
       </c>
       <c r="B294" s="22" t="s">
-        <v>1009</v>
+        <v>990</v>
       </c>
       <c r="C294" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B294, ""en"", ""fr"")"),"Peut être conçu en différents tissus.")</f>
-        <v>Peut être conçu en différents tissus.</v>
-      </c>
-      <c r="D294" s="23" t="s">
-        <v>1010</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B294, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D294" s="23"/>
       <c r="E294" s="29"/>
       <c r="F294" s="23" t="s">
-        <v>1011</v>
+        <v>991</v>
       </c>
       <c r="G294" s="29"/>
       <c r="H294" s="36"/>
       <c r="I294" s="29"/>
       <c r="J294" s="25" t="s">
-        <v>1012</v>
+        <v>992</v>
       </c>
       <c r="K294" s="30"/>
       <c r="L294" s="35"/>
@@ -17094,27 +17140,25 @@
     </row>
     <row r="295">
       <c r="A295" s="39" t="s">
-        <v>1013</v>
+        <v>993</v>
       </c>
       <c r="B295" s="22" t="s">
-        <v>1014</v>
+        <v>994</v>
       </c>
       <c r="C295" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B295, ""en"", ""fr"")"),"Chaîne de caractères")</f>
-        <v>Chaîne de caractères</v>
-      </c>
-      <c r="D295" s="23" t="s">
-        <v>1015</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B295, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D295" s="23"/>
       <c r="E295" s="29"/>
       <c r="F295" s="23" t="s">
-        <v>1016</v>
+        <v>995</v>
       </c>
       <c r="G295" s="29"/>
       <c r="H295" s="36"/>
       <c r="I295" s="29"/>
       <c r="J295" s="25" t="s">
-        <v>1017</v>
+        <v>996</v>
       </c>
       <c r="K295" s="30"/>
       <c r="L295" s="35"/>
@@ -17137,25 +17181,25 @@
     </row>
     <row r="296">
       <c r="A296" s="39" t="s">
-        <v>1018</v>
+        <v>997</v>
       </c>
       <c r="B296" s="22" t="s">
-        <v>1019</v>
+        <v>998</v>
       </c>
       <c r="C296" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B296, ""en"", ""fr"")"),"Utilisé pour les arcs d'artisanat et des pièges.")</f>
-        <v>Utilisé pour les arcs d'artisanat et des pièges.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B296, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D296" s="23"/>
       <c r="E296" s="29"/>
       <c r="F296" s="23" t="s">
-        <v>1020</v>
+        <v>999</v>
       </c>
       <c r="G296" s="29"/>
       <c r="H296" s="36"/>
       <c r="I296" s="29"/>
       <c r="J296" s="25" t="s">
-        <v>1021</v>
+        <v>1000</v>
       </c>
       <c r="K296" s="30"/>
       <c r="L296" s="35"/>
@@ -17178,25 +17222,27 @@
     </row>
     <row r="297">
       <c r="A297" s="39" t="s">
-        <v>1022</v>
+        <v>1001</v>
       </c>
       <c r="B297" s="22" t="s">
-        <v>1023</v>
+        <v>1002</v>
       </c>
       <c r="C297" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B297, ""en"", ""fr"")"),"en tissu")</f>
-        <v>en tissu</v>
-      </c>
-      <c r="D297" s="23"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B297, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D297" s="23" t="s">
+        <v>1003</v>
+      </c>
       <c r="E297" s="29"/>
       <c r="F297" s="23" t="s">
-        <v>1024</v>
+        <v>1004</v>
       </c>
       <c r="G297" s="29"/>
       <c r="H297" s="36"/>
       <c r="I297" s="29"/>
       <c r="J297" s="25" t="s">
-        <v>1025</v>
+        <v>1005</v>
       </c>
       <c r="K297" s="30"/>
       <c r="L297" s="35"/>
@@ -17219,25 +17265,27 @@
     </row>
     <row r="298">
       <c r="A298" s="39" t="s">
-        <v>1026</v>
+        <v>1006</v>
       </c>
       <c r="B298" s="22" t="s">
-        <v>1027</v>
+        <v>1007</v>
       </c>
       <c r="C298" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B298, ""en"", ""fr"")"),"Peut être conçu dans les vêtements.")</f>
-        <v>Peut être conçu dans les vêtements.</v>
-      </c>
-      <c r="D298" s="23"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B298, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D298" s="23" t="s">
+        <v>1008</v>
+      </c>
       <c r="E298" s="29"/>
       <c r="F298" s="23" t="s">
-        <v>1028</v>
+        <v>1009</v>
       </c>
       <c r="G298" s="29"/>
       <c r="H298" s="36"/>
       <c r="I298" s="29"/>
       <c r="J298" s="25" t="s">
-        <v>1029</v>
+        <v>1010</v>
       </c>
       <c r="K298" s="30"/>
       <c r="L298" s="35"/>
@@ -17260,25 +17308,25 @@
     </row>
     <row r="299">
       <c r="A299" s="39" t="s">
-        <v>1030</v>
+        <v>1011</v>
       </c>
       <c r="B299" s="22" t="s">
-        <v>1031</v>
+        <v>1012</v>
       </c>
       <c r="C299" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B299, ""en"", ""fr"")"),"Plumes")</f>
-        <v>Plumes</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B299, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D299" s="23"/>
       <c r="E299" s="29"/>
       <c r="F299" s="23" t="s">
-        <v>1032</v>
+        <v>1013</v>
       </c>
       <c r="G299" s="29"/>
       <c r="H299" s="36"/>
       <c r="I299" s="29"/>
       <c r="J299" s="25" t="s">
-        <v>1033</v>
+        <v>1014</v>
       </c>
       <c r="K299" s="30"/>
       <c r="L299" s="35"/>
@@ -17301,25 +17349,25 @@
     </row>
     <row r="300">
       <c r="A300" s="39" t="s">
-        <v>1034</v>
+        <v>1015</v>
       </c>
       <c r="B300" s="22" t="s">
-        <v>1035</v>
+        <v>1016</v>
       </c>
       <c r="C300" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B300, ""en"", ""fr"")"),"Peut être conçu en flèches.")</f>
-        <v>Peut être conçu en flèches.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B300, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D300" s="23"/>
       <c r="E300" s="29"/>
       <c r="F300" s="23" t="s">
-        <v>1036</v>
+        <v>1017</v>
       </c>
       <c r="G300" s="29"/>
       <c r="H300" s="36"/>
       <c r="I300" s="29"/>
       <c r="J300" s="25" t="s">
-        <v>1037</v>
+        <v>1018</v>
       </c>
       <c r="K300" s="30"/>
       <c r="L300" s="35"/>
@@ -17341,26 +17389,28 @@
       <c r="AB300" s="28"/>
     </row>
     <row r="301">
-      <c r="A301" s="40" t="s">
-        <v>1038</v>
+      <c r="A301" s="39" t="s">
+        <v>1019</v>
       </c>
       <c r="B301" s="22" t="s">
-        <v>1039</v>
+        <v>1020</v>
       </c>
       <c r="C301" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B301, ""en"", ""fr"")"),"Une casquette rouge")</f>
-        <v>Une casquette rouge</v>
-      </c>
-      <c r="D301" s="23"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B301, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D301" s="23" t="s">
+        <v>1021</v>
+      </c>
       <c r="E301" s="29"/>
       <c r="F301" s="23" t="s">
-        <v>1040</v>
+        <v>1022</v>
       </c>
       <c r="G301" s="29"/>
       <c r="H301" s="36"/>
       <c r="I301" s="29"/>
       <c r="J301" s="25" t="s">
-        <v>1041</v>
+        <v>1023</v>
       </c>
       <c r="K301" s="30"/>
       <c r="L301" s="35"/>
@@ -17382,26 +17432,28 @@
       <c r="AB301" s="28"/>
     </row>
     <row r="302">
-      <c r="A302" s="40" t="s">
-        <v>1042</v>
+      <c r="A302" s="39" t="s">
+        <v>1024</v>
       </c>
       <c r="B302" s="22" t="s">
-        <v>1043</v>
+        <v>1025</v>
       </c>
       <c r="C302" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B302, ""en"", ""fr"")"),"Peut être mangé ou fabriqué dans une potion pour un effet plus fort.")</f>
-        <v>Peut être mangé ou fabriqué dans une potion pour un effet plus fort.</v>
-      </c>
-      <c r="D302" s="23"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B302, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D302" s="23" t="s">
+        <v>1026</v>
+      </c>
       <c r="E302" s="29"/>
       <c r="F302" s="23" t="s">
-        <v>1044</v>
+        <v>1027</v>
       </c>
       <c r="G302" s="29"/>
       <c r="H302" s="36"/>
       <c r="I302" s="29"/>
       <c r="J302" s="25" t="s">
-        <v>1045</v>
+        <v>1028</v>
       </c>
       <c r="K302" s="30"/>
       <c r="L302" s="35"/>
@@ -17423,26 +17475,28 @@
       <c r="AB302" s="28"/>
     </row>
     <row r="303">
-      <c r="A303" s="40" t="s">
-        <v>1046</v>
+      <c r="A303" s="39" t="s">
+        <v>1029</v>
       </c>
       <c r="B303" s="22" t="s">
-        <v>1047</v>
+        <v>1030</v>
       </c>
       <c r="C303" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B303, ""en"", ""fr"")"),"Greencap")</f>
-        <v>Greencap</v>
-      </c>
-      <c r="D303" s="23"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B303, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D303" s="23" t="s">
+        <v>1031</v>
+      </c>
       <c r="E303" s="29"/>
       <c r="F303" s="23" t="s">
-        <v>1048</v>
+        <v>1032</v>
       </c>
       <c r="G303" s="29"/>
       <c r="H303" s="36"/>
       <c r="I303" s="29"/>
       <c r="J303" s="25" t="s">
-        <v>1049</v>
+        <v>1033</v>
       </c>
       <c r="K303" s="30"/>
       <c r="L303" s="35"/>
@@ -17464,26 +17518,26 @@
       <c r="AB303" s="28"/>
     </row>
     <row r="304">
-      <c r="A304" s="40" t="s">
-        <v>1050</v>
+      <c r="A304" s="39" t="s">
+        <v>1034</v>
       </c>
       <c r="B304" s="22" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="C304" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B304, ""en"", ""fr"")"),"Peut être mangé ou fabriqué dans une potion pour un effet plus fort.")</f>
-        <v>Peut être mangé ou fabriqué dans une potion pour un effet plus fort.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B304, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D304" s="23"/>
       <c r="E304" s="29"/>
       <c r="F304" s="23" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="G304" s="29"/>
       <c r="H304" s="36"/>
       <c r="I304" s="29"/>
       <c r="J304" s="25" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="K304" s="30"/>
       <c r="L304" s="35"/>
@@ -17505,26 +17559,26 @@
       <c r="AB304" s="28"/>
     </row>
     <row r="305">
-      <c r="A305" s="40" t="s">
-        <v>1051</v>
+      <c r="A305" s="39" t="s">
+        <v>1038</v>
       </c>
       <c r="B305" s="22" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
       <c r="C305" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B305, ""en"", ""fr"")"),"Casquette bleue")</f>
-        <v>Casquette bleue</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B305, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D305" s="23"/>
       <c r="E305" s="29"/>
       <c r="F305" s="23" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="G305" s="29"/>
       <c r="H305" s="36"/>
       <c r="I305" s="29"/>
       <c r="J305" s="25" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="K305" s="30"/>
       <c r="L305" s="35"/>
@@ -17546,15 +17600,15 @@
       <c r="AB305" s="28"/>
     </row>
     <row r="306">
-      <c r="A306" s="40" t="s">
-        <v>1055</v>
+      <c r="A306" s="39" t="s">
+        <v>1042</v>
       </c>
       <c r="B306" s="22" t="s">
         <v>1043</v>
       </c>
       <c r="C306" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B306, ""en"", ""fr"")"),"Peut être mangé ou fabriqué dans une potion pour un effet plus fort.")</f>
-        <v>Peut être mangé ou fabriqué dans une potion pour un effet plus fort.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B306, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D306" s="23"/>
       <c r="E306" s="29"/>
@@ -17588,25 +17642,25 @@
     </row>
     <row r="307">
       <c r="A307" s="39" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="B307" s="22" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="C307" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B307, ""en"", ""fr"")"),"Potion de vie")</f>
-        <v>Potion de vie</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B307, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D307" s="23"/>
       <c r="E307" s="29"/>
       <c r="F307" s="23" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="G307" s="29"/>
       <c r="H307" s="36"/>
       <c r="I307" s="29"/>
       <c r="J307" s="25" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="K307" s="30"/>
       <c r="L307" s="35"/>
@@ -17629,24 +17683,26 @@
     </row>
     <row r="308">
       <c r="A308" s="39" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="B308" s="22" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="C308" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B308, ""en"", ""fr"")"),"Restaure quelques points de vie au fil du temps quand il est utilisé.")</f>
-        <v>Restaure quelques points de vie au fil du temps quand il est utilisé.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B308, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D308" s="23"/>
       <c r="E308" s="29"/>
       <c r="F308" s="23" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="G308" s="29"/>
       <c r="H308" s="36"/>
       <c r="I308" s="29"/>
-      <c r="J308" s="30"/>
+      <c r="J308" s="25" t="s">
+        <v>1053</v>
+      </c>
       <c r="K308" s="30"/>
       <c r="L308" s="35"/>
       <c r="M308" s="28"/>
@@ -17667,26 +17723,26 @@
       <c r="AB308" s="28"/>
     </row>
     <row r="309">
-      <c r="A309" s="39" t="s">
-        <v>1063</v>
+      <c r="A309" s="40" t="s">
+        <v>1054</v>
       </c>
       <c r="B309" s="22" t="s">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="C309" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B309, ""en"", ""fr"")"),"potion d'énergie")</f>
-        <v>potion d'énergie</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B309, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D309" s="23"/>
       <c r="E309" s="29"/>
       <c r="F309" s="23" t="s">
-        <v>1065</v>
+        <v>1056</v>
       </c>
       <c r="G309" s="29"/>
       <c r="H309" s="36"/>
       <c r="I309" s="29"/>
       <c r="J309" s="25" t="s">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="K309" s="30"/>
       <c r="L309" s="35"/>
@@ -17708,25 +17764,27 @@
       <c r="AB309" s="28"/>
     </row>
     <row r="310">
-      <c r="A310" s="39" t="s">
-        <v>1067</v>
+      <c r="A310" s="40" t="s">
+        <v>1058</v>
       </c>
       <c r="B310" s="22" t="s">
-        <v>1068</v>
+        <v>1059</v>
       </c>
       <c r="C310" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B310, ""en"", ""fr"")"),"Restaure un peu d'énergie au fil du temps en cas d'utilisation.")</f>
-        <v>Restaure un peu d'énergie au fil du temps en cas d'utilisation.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B310, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D310" s="23"/>
       <c r="E310" s="29"/>
       <c r="F310" s="23" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="G310" s="29"/>
       <c r="H310" s="36"/>
       <c r="I310" s="29"/>
-      <c r="J310" s="30"/>
+      <c r="J310" s="25" t="s">
+        <v>1061</v>
+      </c>
       <c r="K310" s="30"/>
       <c r="L310" s="35"/>
       <c r="M310" s="28"/>
@@ -17747,26 +17805,26 @@
       <c r="AB310" s="28"/>
     </row>
     <row r="311">
-      <c r="A311" s="39" t="s">
-        <v>1070</v>
+      <c r="A311" s="40" t="s">
+        <v>1062</v>
       </c>
       <c r="B311" s="22" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="C311" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B311, ""en"", ""fr"")"),"potion Cure")</f>
-        <v>potion Cure</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B311, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D311" s="23"/>
       <c r="E311" s="29"/>
       <c r="F311" s="23" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="G311" s="29"/>
       <c r="H311" s="36"/>
       <c r="I311" s="29"/>
       <c r="J311" s="25" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="K311" s="30"/>
       <c r="L311" s="35"/>
@@ -17788,25 +17846,27 @@
       <c r="AB311" s="28"/>
     </row>
     <row r="312">
-      <c r="A312" s="39" t="s">
-        <v>1074</v>
+      <c r="A312" s="40" t="s">
+        <v>1066</v>
       </c>
       <c r="B312" s="22" t="s">
-        <v>1075</v>
+        <v>1059</v>
       </c>
       <c r="C312" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B312, ""en"", ""fr"")"),"Enlève le poison et la maladie et les vous immunise pendant un moment.")</f>
-        <v>Enlève le poison et la maladie et les vous immunise pendant un moment.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B312, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D312" s="23"/>
       <c r="E312" s="29"/>
       <c r="F312" s="23" t="s">
-        <v>1076</v>
+        <v>1060</v>
       </c>
       <c r="G312" s="29"/>
       <c r="H312" s="36"/>
       <c r="I312" s="29"/>
-      <c r="J312" s="30"/>
+      <c r="J312" s="25" t="s">
+        <v>1061</v>
+      </c>
       <c r="K312" s="30"/>
       <c r="L312" s="35"/>
       <c r="M312" s="28"/>
@@ -17827,28 +17887,26 @@
       <c r="AB312" s="28"/>
     </row>
     <row r="313">
-      <c r="A313" s="21" t="s">
-        <v>1077</v>
+      <c r="A313" s="40" t="s">
+        <v>1067</v>
       </c>
       <c r="B313" s="22" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="C313" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B313, ""en"", ""fr"")"),"fer hache de guerre")</f>
-        <v>fer hache de guerre</v>
-      </c>
-      <c r="D313" s="23" t="s">
-        <v>1079</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B313, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D313" s="23"/>
       <c r="E313" s="29"/>
       <c r="F313" s="23" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
       <c r="G313" s="29"/>
       <c r="H313" s="36"/>
       <c r="I313" s="29"/>
       <c r="J313" s="25" t="s">
-        <v>1081</v>
+        <v>1070</v>
       </c>
       <c r="K313" s="30"/>
       <c r="L313" s="35"/>
@@ -17870,27 +17928,27 @@
       <c r="AB313" s="28"/>
     </row>
     <row r="314">
-      <c r="A314" s="21" t="s">
-        <v>1082</v>
+      <c r="A314" s="40" t="s">
+        <v>1071</v>
       </c>
       <c r="B314" s="22" t="s">
-        <v>1083</v>
+        <v>1059</v>
       </c>
       <c r="C314" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B314, ""en"", ""fr"")"),"Utilisé pour abattre des arbres pour le bois.")</f>
-        <v>Utilisé pour abattre des arbres pour le bois.</v>
-      </c>
-      <c r="D314" s="23" t="s">
-        <v>1084</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B314, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D314" s="23"/>
       <c r="E314" s="29"/>
       <c r="F314" s="23" t="s">
-        <v>1085</v>
+        <v>1060</v>
       </c>
       <c r="G314" s="29"/>
       <c r="H314" s="36"/>
       <c r="I314" s="29"/>
-      <c r="J314" s="30"/>
+      <c r="J314" s="25" t="s">
+        <v>1061</v>
+      </c>
       <c r="K314" s="30"/>
       <c r="L314" s="35"/>
       <c r="M314" s="28"/>
@@ -17911,28 +17969,26 @@
       <c r="AB314" s="28"/>
     </row>
     <row r="315">
-      <c r="A315" s="21" t="s">
-        <v>1086</v>
+      <c r="A315" s="39" t="s">
+        <v>1072</v>
       </c>
       <c r="B315" s="22" t="s">
-        <v>1087</v>
+        <v>1073</v>
       </c>
       <c r="C315" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B315, ""en"", ""fr"")"),"fer pickaxe")</f>
-        <v>fer pickaxe</v>
-      </c>
-      <c r="D315" s="23" t="s">
-        <v>1088</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B315, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D315" s="23"/>
       <c r="E315" s="29"/>
       <c r="F315" s="23" t="s">
-        <v>1089</v>
+        <v>1074</v>
       </c>
       <c r="G315" s="29"/>
       <c r="H315" s="36"/>
       <c r="I315" s="29"/>
       <c r="J315" s="25" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="K315" s="30"/>
       <c r="L315" s="35"/>
@@ -17954,22 +18010,20 @@
       <c r="AB315" s="28"/>
     </row>
     <row r="316">
-      <c r="A316" s="21" t="s">
-        <v>1091</v>
+      <c r="A316" s="39" t="s">
+        <v>1076</v>
       </c>
       <c r="B316" s="22" t="s">
-        <v>1092</v>
+        <v>1077</v>
       </c>
       <c r="C316" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B316, ""en"", ""fr"")"),"Utilisé pour les roches de la mine pour le minerai.")</f>
-        <v>Utilisé pour les roches de la mine pour le minerai.</v>
-      </c>
-      <c r="D316" s="23" t="s">
-        <v>1093</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B316, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D316" s="23"/>
       <c r="E316" s="29"/>
       <c r="F316" s="23" t="s">
-        <v>1094</v>
+        <v>1078</v>
       </c>
       <c r="G316" s="29"/>
       <c r="H316" s="36"/>
@@ -17995,26 +18049,26 @@
       <c r="AB316" s="28"/>
     </row>
     <row r="317">
-      <c r="A317" s="21" t="s">
-        <v>1095</v>
+      <c r="A317" s="39" t="s">
+        <v>1079</v>
       </c>
       <c r="B317" s="22" t="s">
-        <v>1096</v>
+        <v>1080</v>
       </c>
       <c r="C317" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B317, ""en"", ""fr"")"),"flèches fer")</f>
-        <v>flèches fer</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B317, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D317" s="23"/>
       <c r="E317" s="29"/>
       <c r="F317" s="23" t="s">
-        <v>1097</v>
+        <v>1081</v>
       </c>
       <c r="G317" s="29"/>
       <c r="H317" s="36"/>
       <c r="I317" s="29"/>
       <c r="J317" s="25" t="s">
-        <v>1098</v>
+        <v>1082</v>
       </c>
       <c r="K317" s="30"/>
       <c r="L317" s="35"/>
@@ -18036,20 +18090,20 @@
       <c r="AB317" s="28"/>
     </row>
     <row r="318">
-      <c r="A318" s="21" t="s">
-        <v>1099</v>
+      <c r="A318" s="39" t="s">
+        <v>1083</v>
       </c>
       <c r="B318" s="22" t="s">
-        <v>1100</v>
+        <v>1084</v>
       </c>
       <c r="C318" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B318, ""en"", ""fr"")"),"Utilisé comme munitions pour un arc.")</f>
-        <v>Utilisé comme munitions pour un arc.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B318, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D318" s="23"/>
       <c r="E318" s="29"/>
       <c r="F318" s="23" t="s">
-        <v>1101</v>
+        <v>1085</v>
       </c>
       <c r="G318" s="29"/>
       <c r="H318" s="36"/>
@@ -18075,26 +18129,26 @@
       <c r="AB318" s="28"/>
     </row>
     <row r="319">
-      <c r="A319" s="21" t="s">
-        <v>1102</v>
+      <c r="A319" s="39" t="s">
+        <v>1086</v>
       </c>
       <c r="B319" s="22" t="s">
-        <v>1103</v>
+        <v>1087</v>
       </c>
       <c r="C319" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B319, ""en"", ""fr"")"),"poignard de fer")</f>
-        <v>poignard de fer</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B319, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D319" s="23"/>
       <c r="E319" s="29"/>
       <c r="F319" s="23" t="s">
-        <v>1104</v>
+        <v>1088</v>
       </c>
       <c r="G319" s="29"/>
       <c r="H319" s="36"/>
       <c r="I319" s="29"/>
       <c r="J319" s="25" t="s">
-        <v>1105</v>
+        <v>1089</v>
       </c>
       <c r="K319" s="30"/>
       <c r="L319" s="35"/>
@@ -18116,20 +18170,20 @@
       <c r="AB319" s="28"/>
     </row>
     <row r="320">
-      <c r="A320" s="21" t="s">
-        <v>1106</v>
+      <c r="A320" s="39" t="s">
+        <v>1090</v>
       </c>
       <c r="B320" s="22" t="s">
-        <v>1107</v>
+        <v>1091</v>
       </c>
       <c r="C320" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B320, ""en"", ""fr"")"),"Arme de mêlée. Utilisé pour attaquer un espace loin dans la direction que vous faites face. Inflige des dégâts de bonus quand il frappe par derrière.")</f>
-        <v>Arme de mêlée. Utilisé pour attaquer un espace loin dans la direction que vous faites face. Inflige des dégâts de bonus quand il frappe par derrière.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B320, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D320" s="23"/>
       <c r="E320" s="29"/>
       <c r="F320" s="23" t="s">
-        <v>1108</v>
+        <v>1092</v>
       </c>
       <c r="G320" s="29"/>
       <c r="H320" s="36"/>
@@ -18156,25 +18210,27 @@
     </row>
     <row r="321">
       <c r="A321" s="21" t="s">
-        <v>1109</v>
+        <v>1093</v>
       </c>
       <c r="B321" s="22" t="s">
-        <v>1110</v>
+        <v>1094</v>
       </c>
       <c r="C321" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B321, ""en"", ""fr"")"),"Épée de fer")</f>
-        <v>Épée de fer</v>
-      </c>
-      <c r="D321" s="23"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B321, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D321" s="23" t="s">
+        <v>1095</v>
+      </c>
       <c r="E321" s="29"/>
       <c r="F321" s="23" t="s">
-        <v>1111</v>
+        <v>1096</v>
       </c>
       <c r="G321" s="29"/>
       <c r="H321" s="36"/>
       <c r="I321" s="29"/>
       <c r="J321" s="25" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="K321" s="30"/>
       <c r="L321" s="35"/>
@@ -18197,19 +18253,21 @@
     </row>
     <row r="322">
       <c r="A322" s="21" t="s">
-        <v>1113</v>
+        <v>1098</v>
       </c>
       <c r="B322" s="22" t="s">
-        <v>1114</v>
+        <v>1099</v>
       </c>
       <c r="C322" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B322, ""en"", ""fr"")"),"Arme de mêlée. Utilisé pour attaquer une courte distance dans la direction que vous faites face.")</f>
-        <v>Arme de mêlée. Utilisé pour attaquer une courte distance dans la direction que vous faites face.</v>
-      </c>
-      <c r="D322" s="23"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B322, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D322" s="23" t="s">
+        <v>1100</v>
+      </c>
       <c r="E322" s="29"/>
       <c r="F322" s="23" t="s">
-        <v>1115</v>
+        <v>1101</v>
       </c>
       <c r="G322" s="29"/>
       <c r="H322" s="36"/>
@@ -18236,25 +18294,27 @@
     </row>
     <row r="323">
       <c r="A323" s="21" t="s">
-        <v>1116</v>
+        <v>1102</v>
       </c>
       <c r="B323" s="22" t="s">
-        <v>1117</v>
+        <v>1103</v>
       </c>
       <c r="C323" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B323, ""en"", ""fr"")"),"marteau de fer")</f>
-        <v>marteau de fer</v>
-      </c>
-      <c r="D323" s="23"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B323, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D323" s="23" t="s">
+        <v>1104</v>
+      </c>
       <c r="E323" s="29"/>
       <c r="F323" s="23" t="s">
-        <v>1118</v>
+        <v>1105</v>
       </c>
       <c r="G323" s="29"/>
       <c r="H323" s="36"/>
       <c r="I323" s="29"/>
       <c r="J323" s="25" t="s">
-        <v>1119</v>
+        <v>1106</v>
       </c>
       <c r="K323" s="30"/>
       <c r="L323" s="35"/>
@@ -18277,19 +18337,21 @@
     </row>
     <row r="324">
       <c r="A324" s="21" t="s">
-        <v>1120</v>
+        <v>1107</v>
       </c>
       <c r="B324" s="22" t="s">
-        <v>1121</v>
+        <v>1108</v>
       </c>
       <c r="C324" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B324, ""en"", ""fr"")"),"Arme de mêlée. Pousse les choses un espace quand il frappe.")</f>
-        <v>Arme de mêlée. Pousse les choses un espace quand il frappe.</v>
-      </c>
-      <c r="D324" s="23"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B324, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D324" s="23" t="s">
+        <v>1109</v>
+      </c>
       <c r="E324" s="29"/>
       <c r="F324" s="23" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="G324" s="29"/>
       <c r="H324" s="36"/>
@@ -18316,25 +18378,25 @@
     </row>
     <row r="325">
       <c r="A325" s="21" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="B325" s="22" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
       <c r="C325" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B325, ""en"", ""fr"")"),"armure d'Iron")</f>
-        <v>armure d'Iron</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B325, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D325" s="23"/>
       <c r="E325" s="29"/>
       <c r="F325" s="23" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="G325" s="29"/>
       <c r="H325" s="36"/>
       <c r="I325" s="29"/>
       <c r="J325" s="25" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="K325" s="30"/>
       <c r="L325" s="35"/>
@@ -18357,19 +18419,19 @@
     </row>
     <row r="326">
       <c r="A326" s="21" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
       <c r="B326" s="22" t="s">
-        <v>1128</v>
+        <v>1116</v>
       </c>
       <c r="C326" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B326, ""en"", ""fr"")"),"armure de base pour réduire les dégâts subis. Augmente votre stat Melee tout porté.")</f>
-        <v>armure de base pour réduire les dégâts subis. Augmente votre stat Melee tout porté.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B326, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D326" s="23"/>
       <c r="E326" s="29"/>
       <c r="F326" s="23" t="s">
-        <v>1129</v>
+        <v>1117</v>
       </c>
       <c r="G326" s="29"/>
       <c r="H326" s="36"/>
@@ -18396,25 +18458,25 @@
     </row>
     <row r="327">
       <c r="A327" s="21" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="B327" s="22" t="s">
-        <v>1131</v>
+        <v>1119</v>
       </c>
       <c r="C327" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B327, ""en"", ""fr"")"),"Dungium hache de guerre")</f>
-        <v>Dungium hache de guerre</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B327, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D327" s="23"/>
       <c r="E327" s="29"/>
       <c r="F327" s="23" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="G327" s="29"/>
       <c r="H327" s="36"/>
       <c r="I327" s="29"/>
       <c r="J327" s="25" t="s">
-        <v>1133</v>
+        <v>1121</v>
       </c>
       <c r="K327" s="30"/>
       <c r="L327" s="35"/>
@@ -18437,19 +18499,19 @@
     </row>
     <row r="328">
       <c r="A328" s="21" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
       <c r="B328" s="22" t="s">
-        <v>1083</v>
+        <v>1123</v>
       </c>
       <c r="C328" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B328, ""en"", ""fr"")"),"Utilisé pour abattre des arbres pour le bois.")</f>
-        <v>Utilisé pour abattre des arbres pour le bois.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B328, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D328" s="23"/>
       <c r="E328" s="29"/>
       <c r="F328" s="23" t="s">
-        <v>1135</v>
+        <v>1124</v>
       </c>
       <c r="G328" s="29"/>
       <c r="H328" s="36"/>
@@ -18476,25 +18538,25 @@
     </row>
     <row r="329">
       <c r="A329" s="21" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
       <c r="B329" s="22" t="s">
-        <v>1137</v>
+        <v>1126</v>
       </c>
       <c r="C329" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B329, ""en"", ""fr"")"),"Dungium pickaxe")</f>
-        <v>Dungium pickaxe</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B329, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D329" s="23"/>
       <c r="E329" s="29"/>
       <c r="F329" s="23" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
       <c r="G329" s="29"/>
       <c r="H329" s="36"/>
       <c r="I329" s="29"/>
       <c r="J329" s="25" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
       <c r="K329" s="30"/>
       <c r="L329" s="35"/>
@@ -18517,19 +18579,19 @@
     </row>
     <row r="330">
       <c r="A330" s="21" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
       <c r="B330" s="22" t="s">
-        <v>1092</v>
+        <v>1130</v>
       </c>
       <c r="C330" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B330, ""en"", ""fr"")"),"Utilisé pour les roches de la mine pour le minerai.")</f>
-        <v>Utilisé pour les roches de la mine pour le minerai.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B330, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D330" s="23"/>
       <c r="E330" s="29"/>
       <c r="F330" s="23" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="G330" s="29"/>
       <c r="H330" s="36"/>
@@ -18556,25 +18618,25 @@
     </row>
     <row r="331">
       <c r="A331" s="21" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="B331" s="22" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="C331" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B331, ""en"", ""fr"")"),"flèches Dungium")</f>
-        <v>flèches Dungium</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B331, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D331" s="23"/>
       <c r="E331" s="29"/>
       <c r="F331" s="23" t="s">
-        <v>1144</v>
+        <v>1134</v>
       </c>
       <c r="G331" s="29"/>
       <c r="H331" s="36"/>
       <c r="I331" s="29"/>
       <c r="J331" s="25" t="s">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="K331" s="30"/>
       <c r="L331" s="35"/>
@@ -18597,19 +18659,19 @@
     </row>
     <row r="332">
       <c r="A332" s="21" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="B332" s="22" t="s">
-        <v>1100</v>
+        <v>1137</v>
       </c>
       <c r="C332" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B332, ""en"", ""fr"")"),"Utilisé comme munitions pour un arc.")</f>
-        <v>Utilisé comme munitions pour un arc.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B332, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D332" s="23"/>
       <c r="E332" s="29"/>
       <c r="F332" s="23" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="G332" s="29"/>
       <c r="H332" s="36"/>
@@ -18636,25 +18698,25 @@
     </row>
     <row r="333">
       <c r="A333" s="21" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="B333" s="22" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="C333" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B333, ""en"", ""fr"")"),"poignard Dungium")</f>
-        <v>poignard Dungium</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B333, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D333" s="23"/>
       <c r="E333" s="29"/>
       <c r="F333" s="23" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="G333" s="29"/>
       <c r="H333" s="36"/>
       <c r="I333" s="29"/>
       <c r="J333" s="25" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="K333" s="30"/>
       <c r="L333" s="35"/>
@@ -18677,19 +18739,19 @@
     </row>
     <row r="334">
       <c r="A334" s="21" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="B334" s="22" t="s">
-        <v>1107</v>
+        <v>1144</v>
       </c>
       <c r="C334" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B334, ""en"", ""fr"")"),"Arme de mêlée. Utilisé pour attaquer un espace loin dans la direction que vous faites face. Inflige des dégâts de bonus quand il frappe par derrière.")</f>
-        <v>Arme de mêlée. Utilisé pour attaquer un espace loin dans la direction que vous faites face. Inflige des dégâts de bonus quand il frappe par derrière.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B334, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D334" s="23"/>
       <c r="E334" s="29"/>
       <c r="F334" s="23" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="G334" s="29"/>
       <c r="H334" s="36"/>
@@ -18716,25 +18778,25 @@
     </row>
     <row r="335">
       <c r="A335" s="21" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="B335" s="22" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="C335" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B335, ""en"", ""fr"")"),"épée Dungium")</f>
-        <v>épée Dungium</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B335, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D335" s="23"/>
       <c r="E335" s="29"/>
       <c r="F335" s="23" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="G335" s="29"/>
       <c r="H335" s="36"/>
       <c r="I335" s="29"/>
       <c r="J335" s="25" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="K335" s="30"/>
       <c r="L335" s="35"/>
@@ -18757,19 +18819,19 @@
     </row>
     <row r="336">
       <c r="A336" s="21" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="B336" s="22" t="s">
-        <v>1114</v>
+        <v>1099</v>
       </c>
       <c r="C336" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B336, ""en"", ""fr"")"),"Arme de mêlée. Utilisé pour attaquer une courte distance dans la direction que vous faites face.")</f>
-        <v>Arme de mêlée. Utilisé pour attaquer une courte distance dans la direction que vous faites face.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B336, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D336" s="23"/>
       <c r="E336" s="29"/>
       <c r="F336" s="23" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="G336" s="29"/>
       <c r="H336" s="36"/>
@@ -18796,25 +18858,25 @@
     </row>
     <row r="337">
       <c r="A337" s="21" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="B337" s="22" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
       <c r="C337" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B337, ""en"", ""fr"")"),"marteau Dungium")</f>
-        <v>marteau Dungium</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B337, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D337" s="23"/>
       <c r="E337" s="29"/>
       <c r="F337" s="23" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="G337" s="29"/>
       <c r="H337" s="36"/>
       <c r="I337" s="29"/>
       <c r="J337" s="25" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="K337" s="30"/>
       <c r="L337" s="35"/>
@@ -18837,19 +18899,19 @@
     </row>
     <row r="338">
       <c r="A338" s="21" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="B338" s="22" t="s">
-        <v>1121</v>
+        <v>1108</v>
       </c>
       <c r="C338" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B338, ""en"", ""fr"")"),"Arme de mêlée. Pousse les choses un espace quand il frappe.")</f>
-        <v>Arme de mêlée. Pousse les choses un espace quand il frappe.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B338, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D338" s="23"/>
       <c r="E338" s="29"/>
       <c r="F338" s="23" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="G338" s="29"/>
       <c r="H338" s="36"/>
@@ -18876,25 +18938,25 @@
     </row>
     <row r="339">
       <c r="A339" s="21" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="B339" s="22" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="C339" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B339, ""en"", ""fr"")"),"armure Dungium")</f>
-        <v>armure Dungium</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B339, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D339" s="23"/>
       <c r="E339" s="29"/>
       <c r="F339" s="23" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="G339" s="29"/>
       <c r="H339" s="36"/>
       <c r="I339" s="29"/>
       <c r="J339" s="25" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="K339" s="30"/>
       <c r="L339" s="35"/>
@@ -18917,19 +18979,19 @@
     </row>
     <row r="340">
       <c r="A340" s="21" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="B340" s="22" t="s">
-        <v>1171</v>
+        <v>1116</v>
       </c>
       <c r="C340" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B340, ""en"", ""fr"")"),"blindage haute durabilité avec un bon bonus de défense. Augmente légèrement votre stat Melee tout porté.")</f>
-        <v>blindage haute durabilité avec un bon bonus de défense. Augmente légèrement votre stat Melee tout porté.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B340, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D340" s="23"/>
       <c r="E340" s="29"/>
       <c r="F340" s="23" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="G340" s="29"/>
       <c r="H340" s="36"/>
@@ -18956,25 +19018,25 @@
     </row>
     <row r="341">
       <c r="A341" s="21" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="B341" s="22" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="C341" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B341, ""en"", ""fr"")"),"Noctis hache de guerre")</f>
-        <v>Noctis hache de guerre</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B341, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D341" s="23"/>
       <c r="E341" s="29"/>
       <c r="F341" s="23" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="G341" s="29"/>
       <c r="H341" s="36"/>
       <c r="I341" s="29"/>
       <c r="J341" s="25" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
       <c r="K341" s="30"/>
       <c r="L341" s="35"/>
@@ -18997,19 +19059,19 @@
     </row>
     <row r="342">
       <c r="A342" s="21" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="B342" s="22" t="s">
-        <v>1083</v>
+        <v>1123</v>
       </c>
       <c r="C342" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B342, ""en"", ""fr"")"),"Utilisé pour abattre des arbres pour le bois.")</f>
-        <v>Utilisé pour abattre des arbres pour le bois.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B342, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D342" s="23"/>
       <c r="E342" s="29"/>
       <c r="F342" s="23" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
       <c r="G342" s="29"/>
       <c r="H342" s="36"/>
@@ -19036,25 +19098,25 @@
     </row>
     <row r="343">
       <c r="A343" s="21" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="B343" s="22" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="C343" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B343, ""en"", ""fr"")"),"Noctis pickaxe")</f>
-        <v>Noctis pickaxe</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B343, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D343" s="23"/>
       <c r="E343" s="29"/>
       <c r="F343" s="23" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
       <c r="G343" s="29"/>
       <c r="H343" s="36"/>
       <c r="I343" s="29"/>
       <c r="J343" s="25" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="K343" s="30"/>
       <c r="L343" s="35"/>
@@ -19077,19 +19139,19 @@
     </row>
     <row r="344">
       <c r="A344" s="21" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="B344" s="22" t="s">
-        <v>1092</v>
+        <v>1130</v>
       </c>
       <c r="C344" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B344, ""en"", ""fr"")"),"Utilisé pour les roches de la mine pour le minerai.")</f>
-        <v>Utilisé pour les roches de la mine pour le minerai.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B344, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D344" s="23"/>
       <c r="E344" s="29"/>
       <c r="F344" s="23" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="G344" s="29"/>
       <c r="H344" s="36"/>
@@ -19116,25 +19178,25 @@
     </row>
     <row r="345">
       <c r="A345" s="21" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
       <c r="B345" s="22" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="C345" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B345, ""en"", ""fr"")"),"flèches noctis")</f>
-        <v>flèches noctis</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B345, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D345" s="23"/>
       <c r="E345" s="29"/>
       <c r="F345" s="23" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
       <c r="G345" s="29"/>
       <c r="H345" s="36"/>
       <c r="I345" s="29"/>
       <c r="J345" s="25" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="K345" s="30"/>
       <c r="L345" s="35"/>
@@ -19157,19 +19219,19 @@
     </row>
     <row r="346">
       <c r="A346" s="21" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
       <c r="B346" s="22" t="s">
-        <v>1100</v>
+        <v>1137</v>
       </c>
       <c r="C346" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B346, ""en"", ""fr"")"),"Utilisé comme munitions pour un arc.")</f>
-        <v>Utilisé comme munitions pour un arc.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B346, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D346" s="23"/>
       <c r="E346" s="29"/>
       <c r="F346" s="23" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="G346" s="29"/>
       <c r="H346" s="36"/>
@@ -19196,25 +19258,25 @@
     </row>
     <row r="347">
       <c r="A347" s="21" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
       <c r="B347" s="22" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="C347" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B347, ""en"", ""fr"")"),"poignard Noctis")</f>
-        <v>poignard Noctis</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B347, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D347" s="23"/>
       <c r="E347" s="29"/>
       <c r="F347" s="23" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
       <c r="G347" s="29"/>
       <c r="H347" s="36"/>
       <c r="I347" s="29"/>
       <c r="J347" s="25" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="K347" s="30"/>
       <c r="L347" s="35"/>
@@ -19237,19 +19299,19 @@
     </row>
     <row r="348">
       <c r="A348" s="21" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="B348" s="22" t="s">
-        <v>1107</v>
+        <v>1187</v>
       </c>
       <c r="C348" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B348, ""en"", ""fr"")"),"Arme de mêlée. Utilisé pour attaquer un espace loin dans la direction que vous faites face. Inflige des dégâts de bonus quand il frappe par derrière.")</f>
-        <v>Arme de mêlée. Utilisé pour attaquer un espace loin dans la direction que vous faites face. Inflige des dégâts de bonus quand il frappe par derrière.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B348, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D348" s="23"/>
       <c r="E348" s="29"/>
       <c r="F348" s="23" t="s">
-        <v>1153</v>
+        <v>1188</v>
       </c>
       <c r="G348" s="29"/>
       <c r="H348" s="36"/>
@@ -19276,25 +19338,25 @@
     </row>
     <row r="349">
       <c r="A349" s="21" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="B349" s="22" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="C349" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B349, ""en"", ""fr"")"),"épée Noctis")</f>
-        <v>épée Noctis</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B349, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D349" s="23"/>
       <c r="E349" s="29"/>
       <c r="F349" s="23" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="G349" s="29"/>
       <c r="H349" s="36"/>
       <c r="I349" s="29"/>
       <c r="J349" s="25" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="K349" s="30"/>
       <c r="L349" s="35"/>
@@ -19317,19 +19379,19 @@
     </row>
     <row r="350">
       <c r="A350" s="21" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="B350" s="22" t="s">
-        <v>1114</v>
+        <v>1099</v>
       </c>
       <c r="C350" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B350, ""en"", ""fr"")"),"Arme de mêlée. Utilisé pour attaquer une courte distance dans la direction que vous faites face.")</f>
-        <v>Arme de mêlée. Utilisé pour attaquer une courte distance dans la direction que vous faites face.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B350, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D350" s="23"/>
       <c r="E350" s="29"/>
       <c r="F350" s="23" t="s">
-        <v>1159</v>
+        <v>1194</v>
       </c>
       <c r="G350" s="29"/>
       <c r="H350" s="36"/>
@@ -19356,25 +19418,25 @@
     </row>
     <row r="351">
       <c r="A351" s="21" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="B351" s="22" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="C351" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B351, ""en"", ""fr"")"),"marteau Noctis")</f>
-        <v>marteau Noctis</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B351, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D351" s="23"/>
       <c r="E351" s="29"/>
       <c r="F351" s="23" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="G351" s="29"/>
       <c r="H351" s="36"/>
       <c r="I351" s="29"/>
       <c r="J351" s="25" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="K351" s="30"/>
       <c r="L351" s="35"/>
@@ -19397,19 +19459,19 @@
     </row>
     <row r="352">
       <c r="A352" s="21" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="B352" s="22" t="s">
-        <v>1121</v>
+        <v>1108</v>
       </c>
       <c r="C352" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B352, ""en"", ""fr"")"),"Arme de mêlée. Pousse les choses un espace quand il frappe.")</f>
-        <v>Arme de mêlée. Pousse les choses un espace quand il frappe.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B352, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D352" s="23"/>
       <c r="E352" s="29"/>
       <c r="F352" s="23" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="G352" s="29"/>
       <c r="H352" s="36"/>
@@ -19436,25 +19498,25 @@
     </row>
     <row r="353">
       <c r="A353" s="21" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="B353" s="22" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="C353" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B353, ""en"", ""fr"")"),"armure Noctis")</f>
-        <v>armure Noctis</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B353, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D353" s="23"/>
       <c r="E353" s="29"/>
       <c r="F353" s="23" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="G353" s="29"/>
       <c r="H353" s="36"/>
       <c r="I353" s="29"/>
       <c r="J353" s="25" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="K353" s="30"/>
       <c r="L353" s="35"/>
@@ -19477,19 +19539,19 @@
     </row>
     <row r="354">
       <c r="A354" s="21" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="B354" s="22" t="s">
-        <v>1212</v>
+        <v>1116</v>
       </c>
       <c r="C354" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B354, ""en"", ""fr"")"),"armure agressif avec un bon bonus de défense, mais une faible durabilité. Grandement augmente votre stat Melee tout porté.")</f>
-        <v>armure agressif avec un bon bonus de défense, mais une faible durabilité. Grandement augmente votre stat Melee tout porté.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B354, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D354" s="23"/>
       <c r="E354" s="29"/>
       <c r="F354" s="23" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="G354" s="29"/>
       <c r="H354" s="36"/>
@@ -19516,25 +19578,25 @@
     </row>
     <row r="355">
       <c r="A355" s="21" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="B355" s="22" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="C355" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B355, ""en"", ""fr"")"),"vampire Croc")</f>
-        <v>vampire Croc</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B355, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D355" s="23"/>
       <c r="E355" s="29"/>
       <c r="F355" s="23" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="G355" s="29"/>
       <c r="H355" s="36"/>
       <c r="I355" s="29"/>
       <c r="J355" s="25" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="K355" s="30"/>
       <c r="L355" s="35"/>
@@ -19557,26 +19619,24 @@
     </row>
     <row r="356">
       <c r="A356" s="21" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="B356" s="22" t="s">
-        <v>1219</v>
+        <v>1123</v>
       </c>
       <c r="C356" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B356, ""en"", ""fr"")"),"Arme de mêlée. Ne peut endommager les créatures adjacentes, mais vous guérit quand il frappe.")</f>
-        <v>Arme de mêlée. Ne peut endommager les créatures adjacentes, mais vous guérit quand il frappe.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B356, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D356" s="23"/>
       <c r="E356" s="29"/>
       <c r="F356" s="23" t="s">
-        <v>1220</v>
+        <v>1169</v>
       </c>
       <c r="G356" s="29"/>
       <c r="H356" s="36"/>
       <c r="I356" s="29"/>
-      <c r="J356" s="25" t="s">
-        <v>1221</v>
-      </c>
+      <c r="J356" s="30"/>
       <c r="K356" s="30"/>
       <c r="L356" s="35"/>
       <c r="M356" s="28"/>
@@ -19598,25 +19658,25 @@
     </row>
     <row r="357">
       <c r="A357" s="21" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
       <c r="B357" s="22" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="C357" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B357, ""en"", ""fr"")"),"chêne arc")</f>
-        <v>chêne arc</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B357, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D357" s="23"/>
       <c r="E357" s="29"/>
       <c r="F357" s="23" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
       <c r="G357" s="29"/>
       <c r="H357" s="36"/>
       <c r="I357" s="29"/>
       <c r="J357" s="25" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="K357" s="30"/>
       <c r="L357" s="35"/>
@@ -19639,26 +19699,24 @@
     </row>
     <row r="358">
       <c r="A358" s="21" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
       <c r="B358" s="22" t="s">
-        <v>1227</v>
+        <v>1130</v>
       </c>
       <c r="C358" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B358, ""en"", ""fr"")"),"Une arme longue portée de base aux flèches de tirer.")</f>
-        <v>Une arme longue portée de base aux flèches de tirer.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B358, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D358" s="23"/>
       <c r="E358" s="29"/>
       <c r="F358" s="23" t="s">
-        <v>1228</v>
+        <v>1175</v>
       </c>
       <c r="G358" s="29"/>
       <c r="H358" s="36"/>
       <c r="I358" s="29"/>
-      <c r="J358" s="25" t="s">
-        <v>1229</v>
-      </c>
+      <c r="J358" s="30"/>
       <c r="K358" s="30"/>
       <c r="L358" s="35"/>
       <c r="M358" s="28"/>
@@ -19680,25 +19738,25 @@
     </row>
     <row r="359">
       <c r="A359" s="21" t="s">
-        <v>1230</v>
+        <v>1217</v>
       </c>
       <c r="B359" s="22" t="s">
-        <v>1231</v>
+        <v>1218</v>
       </c>
       <c r="C359" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B359, ""en"", ""fr"")"),"shuriken")</f>
-        <v>shuriken</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B359, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D359" s="23"/>
       <c r="E359" s="29"/>
       <c r="F359" s="23" t="s">
-        <v>1232</v>
+        <v>1219</v>
       </c>
       <c r="G359" s="29"/>
       <c r="H359" s="36"/>
       <c r="I359" s="29"/>
       <c r="J359" s="25" t="s">
-        <v>1233</v>
+        <v>1220</v>
       </c>
       <c r="K359" s="30"/>
       <c r="L359" s="35"/>
@@ -19721,26 +19779,24 @@
     </row>
     <row r="360">
       <c r="A360" s="21" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="B360" s="22" t="s">
-        <v>1235</v>
+        <v>1137</v>
       </c>
       <c r="C360" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B360, ""en"", ""fr"")"),"Un milieu en mouvement rapide arme à distance.")</f>
-        <v>Un milieu en mouvement rapide arme à distance.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B360, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D360" s="23"/>
       <c r="E360" s="29"/>
       <c r="F360" s="23" t="s">
-        <v>1236</v>
+        <v>1222</v>
       </c>
       <c r="G360" s="29"/>
       <c r="H360" s="36"/>
       <c r="I360" s="29"/>
-      <c r="J360" s="25" t="s">
-        <v>1237</v>
-      </c>
+      <c r="J360" s="30"/>
       <c r="K360" s="30"/>
       <c r="L360" s="35"/>
       <c r="M360" s="28"/>
@@ -19762,25 +19818,25 @@
     </row>
     <row r="361">
       <c r="A361" s="21" t="s">
-        <v>1238</v>
+        <v>1223</v>
       </c>
       <c r="B361" s="22" t="s">
-        <v>1239</v>
+        <v>1224</v>
       </c>
       <c r="C361" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B361, ""en"", ""fr"")"),"petit bijou d'incendie")</f>
-        <v>petit bijou d'incendie</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B361, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D361" s="23"/>
       <c r="E361" s="29"/>
       <c r="F361" s="23" t="s">
-        <v>1240</v>
+        <v>1225</v>
       </c>
       <c r="G361" s="29"/>
       <c r="H361" s="36"/>
       <c r="I361" s="29"/>
       <c r="J361" s="25" t="s">
-        <v>1241</v>
+        <v>1226</v>
       </c>
       <c r="K361" s="30"/>
       <c r="L361" s="35"/>
@@ -19803,26 +19859,24 @@
     </row>
     <row r="362">
       <c r="A362" s="21" t="s">
-        <v>1242</v>
+        <v>1227</v>
       </c>
       <c r="B362" s="22" t="s">
-        <v>1243</v>
+        <v>1228</v>
       </c>
       <c r="C362" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B362, ""en"", ""fr"")"),"Utilisé pour des objets d'artisanat avec un effet de feu.")</f>
-        <v>Utilisé pour des objets d'artisanat avec un effet de feu.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B362, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D362" s="23"/>
       <c r="E362" s="29"/>
       <c r="F362" s="23" t="s">
-        <v>1244</v>
+        <v>1229</v>
       </c>
       <c r="G362" s="29"/>
       <c r="H362" s="36"/>
       <c r="I362" s="29"/>
-      <c r="J362" s="25" t="s">
-        <v>1245</v>
-      </c>
+      <c r="J362" s="30"/>
       <c r="K362" s="30"/>
       <c r="L362" s="35"/>
       <c r="M362" s="28"/>
@@ -19844,25 +19898,25 @@
     </row>
     <row r="363">
       <c r="A363" s="21" t="s">
-        <v>1246</v>
+        <v>1230</v>
       </c>
       <c r="B363" s="22" t="s">
-        <v>1247</v>
+        <v>1231</v>
       </c>
       <c r="C363" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B363, ""en"", ""fr"")"),"joyau du vent")</f>
-        <v>joyau du vent</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B363, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D363" s="23"/>
       <c r="E363" s="29"/>
       <c r="F363" s="23" t="s">
-        <v>1248</v>
+        <v>1232</v>
       </c>
       <c r="G363" s="29"/>
       <c r="H363" s="36"/>
       <c r="I363" s="29"/>
       <c r="J363" s="25" t="s">
-        <v>1249</v>
+        <v>1233</v>
       </c>
       <c r="K363" s="30"/>
       <c r="L363" s="35"/>
@@ -19885,25 +19939,25 @@
     </row>
     <row r="364">
       <c r="A364" s="21" t="s">
-        <v>1250</v>
+        <v>1234</v>
       </c>
       <c r="B364" s="22" t="s">
-        <v>1251</v>
+        <v>1235</v>
       </c>
       <c r="C364" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B364, ""en"", ""fr"")"),"Utilisé pour des objets d'artisanat avec un effet du vent.")</f>
-        <v>Utilisé pour des objets d'artisanat avec un effet du vent.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B364, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D364" s="23"/>
       <c r="E364" s="29"/>
       <c r="F364" s="23" t="s">
-        <v>1252</v>
+        <v>1236</v>
       </c>
       <c r="G364" s="29"/>
       <c r="H364" s="36"/>
       <c r="I364" s="29"/>
       <c r="J364" s="25" t="s">
-        <v>1253</v>
+        <v>1237</v>
       </c>
       <c r="K364" s="30"/>
       <c r="L364" s="35"/>
@@ -19926,25 +19980,25 @@
     </row>
     <row r="365">
       <c r="A365" s="21" t="s">
-        <v>1254</v>
+        <v>1238</v>
       </c>
       <c r="B365" s="22" t="s">
-        <v>1255</v>
+        <v>1239</v>
       </c>
       <c r="C365" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B365, ""en"", ""fr"")"),"petit bijou de sang")</f>
-        <v>petit bijou de sang</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B365, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D365" s="23"/>
       <c r="E365" s="29"/>
       <c r="F365" s="23" t="s">
-        <v>1256</v>
+        <v>1240</v>
       </c>
       <c r="G365" s="29"/>
       <c r="H365" s="36"/>
       <c r="I365" s="29"/>
       <c r="J365" s="25" t="s">
-        <v>1257</v>
+        <v>1241</v>
       </c>
       <c r="K365" s="30"/>
       <c r="L365" s="35"/>
@@ -19967,25 +20021,25 @@
     </row>
     <row r="366">
       <c r="A366" s="21" t="s">
-        <v>1258</v>
+        <v>1242</v>
       </c>
       <c r="B366" s="22" t="s">
-        <v>1259</v>
+        <v>1243</v>
       </c>
       <c r="C366" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B366, ""en"", ""fr"")"),"Utilisé pour des objets d'artisanat avec un effet lifesteal.")</f>
-        <v>Utilisé pour des objets d'artisanat avec un effet lifesteal.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B366, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D366" s="23"/>
       <c r="E366" s="29"/>
       <c r="F366" s="23" t="s">
-        <v>1260</v>
+        <v>1244</v>
       </c>
       <c r="G366" s="29"/>
       <c r="H366" s="36"/>
       <c r="I366" s="29"/>
       <c r="J366" s="25" t="s">
-        <v>1261</v>
+        <v>1245</v>
       </c>
       <c r="K366" s="30"/>
       <c r="L366" s="35"/>
@@ -20008,25 +20062,25 @@
     </row>
     <row r="367">
       <c r="A367" s="21" t="s">
-        <v>1262</v>
+        <v>1246</v>
       </c>
       <c r="B367" s="22" t="s">
-        <v>1263</v>
+        <v>1247</v>
       </c>
       <c r="C367" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B367, ""en"", ""fr"")"),"Le personnel d'incendie")</f>
-        <v>Le personnel d'incendie</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B367, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D367" s="23"/>
       <c r="E367" s="29"/>
       <c r="F367" s="23" t="s">
-        <v>1264</v>
+        <v>1248</v>
       </c>
       <c r="G367" s="29"/>
       <c r="H367" s="36"/>
       <c r="I367" s="29"/>
       <c r="J367" s="25" t="s">
-        <v>1265</v>
+        <v>1249</v>
       </c>
       <c r="K367" s="30"/>
       <c r="L367" s="35"/>
@@ -20049,25 +20103,25 @@
     </row>
     <row r="368">
       <c r="A368" s="21" t="s">
-        <v>1266</v>
+        <v>1250</v>
       </c>
       <c r="B368" s="22" t="s">
-        <v>1267</v>
+        <v>1251</v>
       </c>
       <c r="C368" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B368, ""en"", ""fr"")"),"Shoots feu qui inflige des blessures.")</f>
-        <v>Shoots feu qui inflige des blessures.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B368, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D368" s="23"/>
       <c r="E368" s="29"/>
       <c r="F368" s="23" t="s">
-        <v>1268</v>
+        <v>1252</v>
       </c>
       <c r="G368" s="29"/>
       <c r="H368" s="36"/>
       <c r="I368" s="29"/>
       <c r="J368" s="25" t="s">
-        <v>1269</v>
+        <v>1253</v>
       </c>
       <c r="K368" s="30"/>
       <c r="L368" s="35"/>
@@ -20090,25 +20144,25 @@
     </row>
     <row r="369">
       <c r="A369" s="21" t="s">
-        <v>1270</v>
+        <v>1254</v>
       </c>
       <c r="B369" s="22" t="s">
-        <v>1271</v>
+        <v>1255</v>
       </c>
       <c r="C369" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B369, ""en"", ""fr"")"),"Super personnel d'incendie")</f>
-        <v>Super personnel d'incendie</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B369, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D369" s="23"/>
       <c r="E369" s="29"/>
       <c r="F369" s="23" t="s">
-        <v>1272</v>
+        <v>1256</v>
       </c>
       <c r="G369" s="29"/>
       <c r="H369" s="36"/>
       <c r="I369" s="29"/>
       <c r="J369" s="25" t="s">
-        <v>1273</v>
+        <v>1257</v>
       </c>
       <c r="K369" s="30"/>
       <c r="L369" s="35"/>
@@ -20131,25 +20185,25 @@
     </row>
     <row r="370">
       <c r="A370" s="21" t="s">
-        <v>1274</v>
+        <v>1258</v>
       </c>
       <c r="B370" s="22" t="s">
-        <v>1275</v>
+        <v>1259</v>
       </c>
       <c r="C370" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B370, ""en"", ""fr"")"),"Shoots feu qui tire plus de feu.")</f>
-        <v>Shoots feu qui tire plus de feu.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B370, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D370" s="23"/>
       <c r="E370" s="29"/>
       <c r="F370" s="23" t="s">
-        <v>1276</v>
+        <v>1260</v>
       </c>
       <c r="G370" s="29"/>
       <c r="H370" s="36"/>
       <c r="I370" s="29"/>
       <c r="J370" s="25" t="s">
-        <v>1277</v>
+        <v>1261</v>
       </c>
       <c r="K370" s="30"/>
       <c r="L370" s="35"/>
@@ -20172,25 +20226,25 @@
     </row>
     <row r="371">
       <c r="A371" s="21" t="s">
-        <v>1278</v>
+        <v>1262</v>
       </c>
       <c r="B371" s="22" t="s">
-        <v>1279</v>
+        <v>1263</v>
       </c>
       <c r="C371" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B371, ""en"", ""fr"")"),"Le personnel du vent")</f>
-        <v>Le personnel du vent</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B371, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D371" s="23"/>
       <c r="E371" s="29"/>
       <c r="F371" s="23" t="s">
-        <v>1280</v>
+        <v>1264</v>
       </c>
       <c r="G371" s="29"/>
       <c r="H371" s="36"/>
       <c r="I371" s="29"/>
       <c r="J371" s="25" t="s">
-        <v>1281</v>
+        <v>1265</v>
       </c>
       <c r="K371" s="30"/>
       <c r="L371" s="35"/>
@@ -20213,25 +20267,25 @@
     </row>
     <row r="372">
       <c r="A372" s="21" t="s">
-        <v>1282</v>
+        <v>1266</v>
       </c>
       <c r="B372" s="22" t="s">
-        <v>1283</v>
+        <v>1267</v>
       </c>
       <c r="C372" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B372, ""en"", ""fr"")"),"Shoots vent qui frappe les choses.")</f>
-        <v>Shoots vent qui frappe les choses.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B372, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D372" s="23"/>
       <c r="E372" s="29"/>
       <c r="F372" s="23" t="s">
-        <v>1284</v>
+        <v>1268</v>
       </c>
       <c r="G372" s="29"/>
       <c r="H372" s="36"/>
       <c r="I372" s="29"/>
       <c r="J372" s="25" t="s">
-        <v>1285</v>
+        <v>1269</v>
       </c>
       <c r="K372" s="30"/>
       <c r="L372" s="35"/>
@@ -20254,25 +20308,25 @@
     </row>
     <row r="373">
       <c r="A373" s="21" t="s">
-        <v>1286</v>
+        <v>1270</v>
       </c>
       <c r="B373" s="22" t="s">
-        <v>1287</v>
+        <v>1271</v>
       </c>
       <c r="C373" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B373, ""en"", ""fr"")"),"Super personnel du vent")</f>
-        <v>Super personnel du vent</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B373, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D373" s="23"/>
       <c r="E373" s="29"/>
       <c r="F373" s="23" t="s">
-        <v>1288</v>
+        <v>1272</v>
       </c>
       <c r="G373" s="29"/>
       <c r="H373" s="36"/>
       <c r="I373" s="29"/>
       <c r="J373" s="25" t="s">
-        <v>1289</v>
+        <v>1273</v>
       </c>
       <c r="K373" s="30"/>
       <c r="L373" s="35"/>
@@ -20295,25 +20349,25 @@
     </row>
     <row r="374">
       <c r="A374" s="21" t="s">
-        <v>1290</v>
+        <v>1274</v>
       </c>
       <c r="B374" s="22" t="s">
-        <v>1291</v>
+        <v>1275</v>
       </c>
       <c r="C374" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B374, ""en"", ""fr"")"),"Shoots vent qui tire plus de vent.")</f>
-        <v>Shoots vent qui tire plus de vent.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B374, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D374" s="23"/>
       <c r="E374" s="29"/>
       <c r="F374" s="23" t="s">
-        <v>1292</v>
+        <v>1276</v>
       </c>
       <c r="G374" s="29"/>
       <c r="H374" s="36"/>
       <c r="I374" s="29"/>
       <c r="J374" s="25" t="s">
-        <v>1293</v>
+        <v>1277</v>
       </c>
       <c r="K374" s="30"/>
       <c r="L374" s="35"/>
@@ -20336,25 +20390,25 @@
     </row>
     <row r="375">
       <c r="A375" s="21" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="B375" s="22" t="s">
-        <v>1295</v>
+        <v>1279</v>
       </c>
       <c r="C375" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B375, ""en"", ""fr"")"),"Le personnel de sang")</f>
-        <v>Le personnel de sang</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B375, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D375" s="23"/>
       <c r="E375" s="29"/>
       <c r="F375" s="23" t="s">
-        <v>1296</v>
+        <v>1280</v>
       </c>
       <c r="G375" s="29"/>
       <c r="H375" s="36"/>
       <c r="I375" s="29"/>
       <c r="J375" s="25" t="s">
-        <v>1297</v>
+        <v>1281</v>
       </c>
       <c r="K375" s="30"/>
       <c r="L375" s="35"/>
@@ -20377,25 +20431,25 @@
     </row>
     <row r="376">
       <c r="A376" s="21" t="s">
-        <v>1298</v>
+        <v>1282</v>
       </c>
       <c r="B376" s="22" t="s">
-        <v>1299</v>
+        <v>1283</v>
       </c>
       <c r="C376" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B376, ""en"", ""fr"")"),"Shoots un projectile qui vole hitpoints. Consomme hitpoints lorsqu'il est utilisé.")</f>
-        <v>Shoots un projectile qui vole hitpoints. Consomme hitpoints lorsqu'il est utilisé.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B376, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D376" s="23"/>
       <c r="E376" s="29"/>
       <c r="F376" s="23" t="s">
-        <v>1300</v>
+        <v>1284</v>
       </c>
       <c r="G376" s="29"/>
       <c r="H376" s="36"/>
       <c r="I376" s="29"/>
       <c r="J376" s="25" t="s">
-        <v>1301</v>
+        <v>1285</v>
       </c>
       <c r="K376" s="30"/>
       <c r="L376" s="35"/>
@@ -20418,25 +20472,25 @@
     </row>
     <row r="377">
       <c r="A377" s="21" t="s">
-        <v>1302</v>
+        <v>1286</v>
       </c>
       <c r="B377" s="22" t="s">
-        <v>1303</v>
+        <v>1287</v>
       </c>
       <c r="C377" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B377, ""en"", ""fr"")"),"Super personnel de sang")</f>
-        <v>Super personnel de sang</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B377, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D377" s="23"/>
       <c r="E377" s="29"/>
       <c r="F377" s="23" t="s">
-        <v>1304</v>
+        <v>1288</v>
       </c>
       <c r="G377" s="29"/>
       <c r="H377" s="36"/>
       <c r="I377" s="29"/>
       <c r="J377" s="25" t="s">
-        <v>1305</v>
+        <v>1289</v>
       </c>
       <c r="K377" s="30"/>
       <c r="L377" s="35"/>
@@ -20459,25 +20513,25 @@
     </row>
     <row r="378">
       <c r="A378" s="21" t="s">
-        <v>1306</v>
+        <v>1290</v>
       </c>
       <c r="B378" s="22" t="s">
-        <v>1307</v>
+        <v>1291</v>
       </c>
       <c r="C378" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B378, ""en"", ""fr"")"),"Shoots un projectile qui tire des projectiles lifesteal plus lifesteal.")</f>
-        <v>Shoots un projectile qui tire des projectiles lifesteal plus lifesteal.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B378, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D378" s="23"/>
       <c r="E378" s="29"/>
       <c r="F378" s="23" t="s">
-        <v>1308</v>
+        <v>1292</v>
       </c>
       <c r="G378" s="29"/>
       <c r="H378" s="36"/>
       <c r="I378" s="29"/>
       <c r="J378" s="25" t="s">
-        <v>1309</v>
+        <v>1293</v>
       </c>
       <c r="K378" s="30"/>
       <c r="L378" s="35"/>
@@ -20500,25 +20554,25 @@
     </row>
     <row r="379">
       <c r="A379" s="21" t="s">
-        <v>1310</v>
+        <v>1294</v>
       </c>
       <c r="B379" s="22" t="s">
-        <v>1311</v>
+        <v>1295</v>
       </c>
       <c r="C379" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B379, ""en"", ""fr"")"),"livre blanc")</f>
-        <v>livre blanc</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B379, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D379" s="23"/>
       <c r="E379" s="29"/>
       <c r="F379" s="23" t="s">
-        <v>1312</v>
+        <v>1296</v>
       </c>
       <c r="G379" s="29"/>
       <c r="H379" s="36"/>
       <c r="I379" s="29"/>
       <c r="J379" s="25" t="s">
-        <v>1313</v>
+        <v>1297</v>
       </c>
       <c r="K379" s="30"/>
       <c r="L379" s="35"/>
@@ -20541,25 +20595,25 @@
     </row>
     <row r="380">
       <c r="A380" s="21" t="s">
-        <v>1314</v>
+        <v>1298</v>
       </c>
       <c r="B380" s="22" t="s">
-        <v>1315</v>
+        <v>1299</v>
       </c>
       <c r="C380" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B380, ""en"", ""fr"")"),"Un livre de pages vides. Peut être enchanté à l'aide de pierres précieuses.")</f>
-        <v>Un livre de pages vides. Peut être enchanté à l'aide de pierres précieuses.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B380, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D380" s="23"/>
       <c r="E380" s="29"/>
       <c r="F380" s="23" t="s">
-        <v>1316</v>
+        <v>1300</v>
       </c>
       <c r="G380" s="29"/>
       <c r="H380" s="36"/>
       <c r="I380" s="29"/>
       <c r="J380" s="25" t="s">
-        <v>1317</v>
+        <v>1301</v>
       </c>
       <c r="K380" s="30"/>
       <c r="L380" s="35"/>
@@ -20582,25 +20636,25 @@
     </row>
     <row r="381">
       <c r="A381" s="21" t="s">
-        <v>1318</v>
+        <v>1302</v>
       </c>
       <c r="B381" s="22" t="s">
-        <v>1319</v>
+        <v>1303</v>
       </c>
       <c r="C381" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B381, ""en"", ""fr"")"),"Livre de lumière")</f>
-        <v>Livre de lumière</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B381, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D381" s="23"/>
       <c r="E381" s="29"/>
       <c r="F381" s="23" t="s">
-        <v>1320</v>
+        <v>1304</v>
       </c>
       <c r="G381" s="29"/>
       <c r="H381" s="36"/>
       <c r="I381" s="29"/>
       <c r="J381" s="25" t="s">
-        <v>1321</v>
+        <v>1305</v>
       </c>
       <c r="K381" s="30"/>
       <c r="L381" s="35"/>
@@ -20623,25 +20677,25 @@
     </row>
     <row r="382">
       <c r="A382" s="21" t="s">
-        <v>1322</v>
+        <v>1306</v>
       </c>
       <c r="B382" s="22" t="s">
-        <v>1323</v>
+        <v>1307</v>
       </c>
       <c r="C382" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B382, ""en"", ""fr"")"),"Un livre de sorts de soutien.")</f>
-        <v>Un livre de sorts de soutien.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B382, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D382" s="23"/>
       <c r="E382" s="29"/>
       <c r="F382" s="23" t="s">
-        <v>1324</v>
+        <v>1308</v>
       </c>
       <c r="G382" s="29"/>
       <c r="H382" s="36"/>
       <c r="I382" s="29"/>
       <c r="J382" s="25" t="s">
-        <v>1325</v>
+        <v>1309</v>
       </c>
       <c r="K382" s="30"/>
       <c r="L382" s="35"/>
@@ -20664,25 +20718,25 @@
     </row>
     <row r="383">
       <c r="A383" s="21" t="s">
-        <v>1326</v>
+        <v>1310</v>
       </c>
       <c r="B383" s="22" t="s">
-        <v>1327</v>
+        <v>1311</v>
       </c>
       <c r="C383" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B383, ""en"", ""fr"")"),"Livre des âmes")</f>
-        <v>Livre des âmes</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B383, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D383" s="23"/>
       <c r="E383" s="29"/>
       <c r="F383" s="23" t="s">
-        <v>1328</v>
+        <v>1312</v>
       </c>
       <c r="G383" s="29"/>
       <c r="H383" s="36"/>
       <c r="I383" s="29"/>
       <c r="J383" s="25" t="s">
-        <v>1329</v>
+        <v>1313</v>
       </c>
       <c r="K383" s="30"/>
       <c r="L383" s="35"/>
@@ -20705,25 +20759,25 @@
     </row>
     <row r="384">
       <c r="A384" s="21" t="s">
-        <v>1330</v>
+        <v>1314</v>
       </c>
       <c r="B384" s="22" t="s">
-        <v>1331</v>
+        <v>1315</v>
       </c>
       <c r="C384" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B384, ""en"", ""fr"")"),"Un livre de sorts d'invocation.")</f>
-        <v>Un livre de sorts d'invocation.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B384, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D384" s="23"/>
       <c r="E384" s="29"/>
       <c r="F384" s="23" t="s">
-        <v>1332</v>
+        <v>1316</v>
       </c>
       <c r="G384" s="29"/>
       <c r="H384" s="36"/>
       <c r="I384" s="29"/>
       <c r="J384" s="25" t="s">
-        <v>1333</v>
+        <v>1317</v>
       </c>
       <c r="K384" s="30"/>
       <c r="L384" s="35"/>
@@ -20746,27 +20800,25 @@
     </row>
     <row r="385">
       <c r="A385" s="21" t="s">
-        <v>1334</v>
+        <v>1318</v>
       </c>
       <c r="B385" s="22" t="s">
-        <v>1335</v>
+        <v>1319</v>
       </c>
       <c r="C385" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B385, ""en"", ""fr"")"),"flèches d'os")</f>
-        <v>flèches d'os</v>
-      </c>
-      <c r="D385" s="23" t="s">
-        <v>1336</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B385, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D385" s="23"/>
       <c r="E385" s="29"/>
       <c r="F385" s="23" t="s">
-        <v>1337</v>
+        <v>1320</v>
       </c>
       <c r="G385" s="29"/>
       <c r="H385" s="36"/>
       <c r="I385" s="29"/>
       <c r="J385" s="25" t="s">
-        <v>1338</v>
+        <v>1321</v>
       </c>
       <c r="K385" s="30"/>
       <c r="L385" s="35"/>
@@ -20789,27 +20841,25 @@
     </row>
     <row r="386">
       <c r="A386" s="21" t="s">
-        <v>1339</v>
+        <v>1322</v>
       </c>
       <c r="B386" s="22" t="s">
-        <v>1100</v>
+        <v>1323</v>
       </c>
       <c r="C386" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B386, ""en"", ""fr"")"),"Utilisé comme munitions pour un arc.")</f>
-        <v>Utilisé comme munitions pour un arc.</v>
-      </c>
-      <c r="D386" s="23" t="s">
-        <v>1340</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B386, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D386" s="23"/>
       <c r="E386" s="29"/>
       <c r="F386" s="23" t="s">
-        <v>1147</v>
+        <v>1324</v>
       </c>
       <c r="G386" s="29"/>
       <c r="H386" s="36"/>
       <c r="I386" s="29"/>
       <c r="J386" s="25" t="s">
-        <v>1341</v>
+        <v>1325</v>
       </c>
       <c r="K386" s="30"/>
       <c r="L386" s="35"/>
@@ -20832,25 +20882,25 @@
     </row>
     <row r="387">
       <c r="A387" s="21" t="s">
-        <v>1342</v>
+        <v>1326</v>
       </c>
       <c r="B387" s="22" t="s">
-        <v>1343</v>
+        <v>1327</v>
       </c>
       <c r="C387" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B387, ""en"", ""fr"")"),"Peignoir")</f>
-        <v>Peignoir</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B387, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D387" s="23"/>
       <c r="E387" s="29"/>
       <c r="F387" s="23" t="s">
-        <v>1344</v>
+        <v>1328</v>
       </c>
       <c r="G387" s="29"/>
       <c r="H387" s="36"/>
       <c r="I387" s="29"/>
       <c r="J387" s="25" t="s">
-        <v>1345</v>
+        <v>1329</v>
       </c>
       <c r="K387" s="30"/>
       <c r="L387" s="35"/>
@@ -20873,25 +20923,25 @@
     </row>
     <row r="388">
       <c r="A388" s="21" t="s">
-        <v>1346</v>
+        <v>1330</v>
       </c>
       <c r="B388" s="22" t="s">
-        <v>1347</v>
+        <v>1331</v>
       </c>
       <c r="C388" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B388, ""en"", ""fr"")"),"Une robe simple. Augmente votre Potionry stat alors porté.")</f>
-        <v>Une robe simple. Augmente votre Potionry stat alors porté.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B388, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D388" s="23"/>
       <c r="E388" s="29"/>
       <c r="F388" s="23" t="s">
-        <v>1348</v>
+        <v>1332</v>
       </c>
       <c r="G388" s="29"/>
       <c r="H388" s="36"/>
       <c r="I388" s="29"/>
       <c r="J388" s="25" t="s">
-        <v>1349</v>
+        <v>1333</v>
       </c>
       <c r="K388" s="30"/>
       <c r="L388" s="35"/>
@@ -20914,25 +20964,25 @@
     </row>
     <row r="389">
       <c r="A389" s="21" t="s">
-        <v>1350</v>
+        <v>1334</v>
       </c>
       <c r="B389" s="22" t="s">
-        <v>1351</v>
+        <v>1335</v>
       </c>
       <c r="C389" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B389, ""en"", ""fr"")"),"robe Mage")</f>
-        <v>robe Mage</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B389, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D389" s="23"/>
       <c r="E389" s="29"/>
       <c r="F389" s="23" t="s">
-        <v>1352</v>
+        <v>1336</v>
       </c>
       <c r="G389" s="29"/>
       <c r="H389" s="36"/>
       <c r="I389" s="29"/>
       <c r="J389" s="25" t="s">
-        <v>1353</v>
+        <v>1337</v>
       </c>
       <c r="K389" s="30"/>
       <c r="L389" s="35"/>
@@ -20955,25 +21005,25 @@
     </row>
     <row r="390">
       <c r="A390" s="21" t="s">
-        <v>1354</v>
+        <v>1338</v>
       </c>
       <c r="B390" s="22" t="s">
-        <v>1355</v>
+        <v>1339</v>
       </c>
       <c r="C390" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B390, ""en"", ""fr"")"),"Une robe de base pour faire de la magie en. Augmente votre stat magique tout porté.")</f>
-        <v>Une robe de base pour faire de la magie en. Augmente votre stat magique tout porté.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B390, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D390" s="23"/>
       <c r="E390" s="29"/>
       <c r="F390" s="23" t="s">
-        <v>1356</v>
+        <v>1340</v>
       </c>
       <c r="G390" s="29"/>
       <c r="H390" s="36"/>
       <c r="I390" s="29"/>
       <c r="J390" s="25" t="s">
-        <v>1357</v>
+        <v>1341</v>
       </c>
       <c r="K390" s="30"/>
       <c r="L390" s="35"/>
@@ -20996,25 +21046,25 @@
     </row>
     <row r="391">
       <c r="A391" s="21" t="s">
-        <v>1358</v>
+        <v>1342</v>
       </c>
       <c r="B391" s="22" t="s">
-        <v>1359</v>
+        <v>1343</v>
       </c>
       <c r="C391" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B391, ""en"", ""fr"")"),"robe nécromancien")</f>
-        <v>robe nécromancien</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B391, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D391" s="23"/>
       <c r="E391" s="29"/>
       <c r="F391" s="23" t="s">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="G391" s="29"/>
       <c r="H391" s="36"/>
       <c r="I391" s="29"/>
       <c r="J391" s="25" t="s">
-        <v>1361</v>
+        <v>1345</v>
       </c>
       <c r="K391" s="30"/>
       <c r="L391" s="35"/>
@@ -21037,25 +21087,25 @@
     </row>
     <row r="392">
       <c r="A392" s="21" t="s">
-        <v>1362</v>
+        <v>1346</v>
       </c>
       <c r="B392" s="22" t="s">
-        <v>1355</v>
+        <v>1347</v>
       </c>
       <c r="C392" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B392, ""en"", ""fr"")"),"Une robe de base pour faire de la magie en. Augmente votre stat magique tout porté.")</f>
-        <v>Une robe de base pour faire de la magie en. Augmente votre stat magique tout porté.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B392, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D392" s="23"/>
       <c r="E392" s="29"/>
       <c r="F392" s="23" t="s">
-        <v>1356</v>
+        <v>1348</v>
       </c>
       <c r="G392" s="29"/>
       <c r="H392" s="36"/>
       <c r="I392" s="29"/>
       <c r="J392" s="25" t="s">
-        <v>1363</v>
+        <v>1349</v>
       </c>
       <c r="K392" s="30"/>
       <c r="L392" s="35"/>
@@ -21078,25 +21128,27 @@
     </row>
     <row r="393">
       <c r="A393" s="21" t="s">
-        <v>1364</v>
+        <v>1350</v>
       </c>
       <c r="B393" s="22" t="s">
-        <v>1365</v>
+        <v>1351</v>
       </c>
       <c r="C393" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B393, ""en"", ""fr"")"),"Manteau")</f>
-        <v>Manteau</v>
-      </c>
-      <c r="D393" s="23"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B393, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D393" s="23" t="s">
+        <v>1352</v>
+      </c>
       <c r="E393" s="29"/>
       <c r="F393" s="23" t="s">
-        <v>1366</v>
+        <v>1353</v>
       </c>
       <c r="G393" s="29"/>
       <c r="H393" s="36"/>
       <c r="I393" s="29"/>
       <c r="J393" s="25" t="s">
-        <v>1367</v>
+        <v>1354</v>
       </c>
       <c r="K393" s="30"/>
       <c r="L393" s="35"/>
@@ -21119,25 +21171,27 @@
     </row>
     <row r="394">
       <c r="A394" s="21" t="s">
-        <v>1368</v>
+        <v>1355</v>
       </c>
       <c r="B394" s="22" t="s">
-        <v>1369</v>
+        <v>1116</v>
       </c>
       <c r="C394" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B394, ""en"", ""fr"")"),"Un manteau de base pour le faire à distance. Les augmentations de votre stat tout porté à distance.")</f>
-        <v>Un manteau de base pour le faire à distance. Les augmentations de votre stat tout porté à distance.</v>
-      </c>
-      <c r="D394" s="23"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B394, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D394" s="23" t="s">
+        <v>1356</v>
+      </c>
       <c r="E394" s="29"/>
       <c r="F394" s="23" t="s">
-        <v>1370</v>
+        <v>1163</v>
       </c>
       <c r="G394" s="29"/>
       <c r="H394" s="36"/>
       <c r="I394" s="29"/>
       <c r="J394" s="25" t="s">
-        <v>1371</v>
+        <v>1357</v>
       </c>
       <c r="K394" s="30"/>
       <c r="L394" s="35"/>
@@ -21160,25 +21214,25 @@
     </row>
     <row r="395">
       <c r="A395" s="21" t="s">
-        <v>1372</v>
+        <v>1358</v>
       </c>
       <c r="B395" s="22" t="s">
-        <v>1373</v>
+        <v>1359</v>
       </c>
       <c r="C395" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B395, ""en"", ""fr"")"),"tenue Ninja")</f>
-        <v>tenue Ninja</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B395, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D395" s="23"/>
       <c r="E395" s="29"/>
       <c r="F395" s="23" t="s">
-        <v>1374</v>
+        <v>1360</v>
       </c>
       <c r="G395" s="29"/>
       <c r="H395" s="36"/>
       <c r="I395" s="29"/>
       <c r="J395" s="25" t="s">
-        <v>1375</v>
+        <v>1361</v>
       </c>
       <c r="K395" s="30"/>
       <c r="L395" s="35"/>
@@ -21201,25 +21255,25 @@
     </row>
     <row r="396">
       <c r="A396" s="21" t="s">
-        <v>1376</v>
+        <v>1362</v>
       </c>
       <c r="B396" s="22" t="s">
-        <v>1377</v>
+        <v>1363</v>
       </c>
       <c r="C396" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B396, ""en"", ""fr"")"),"Augmente vos stats mêlée et à distance et cache votre nom tout porté.")</f>
-        <v>Augmente vos stats mêlée et à distance et cache votre nom tout porté.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B396, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D396" s="23"/>
       <c r="E396" s="29"/>
       <c r="F396" s="23" t="s">
-        <v>1378</v>
+        <v>1364</v>
       </c>
       <c r="G396" s="29"/>
       <c r="H396" s="36"/>
       <c r="I396" s="29"/>
       <c r="J396" s="25" t="s">
-        <v>1379</v>
+        <v>1365</v>
       </c>
       <c r="K396" s="30"/>
       <c r="L396" s="35"/>
@@ -21242,25 +21296,25 @@
     </row>
     <row r="397">
       <c r="A397" s="21" t="s">
-        <v>1380</v>
+        <v>1366</v>
       </c>
       <c r="B397" s="22" t="s">
-        <v>1381</v>
+        <v>1367</v>
       </c>
       <c r="C397" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B397, ""en"", ""fr"")"),"Charte")</f>
-        <v>Charte</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B397, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D397" s="23"/>
       <c r="E397" s="29"/>
       <c r="F397" s="23" t="s">
-        <v>1382</v>
+        <v>1368</v>
       </c>
       <c r="G397" s="29"/>
       <c r="H397" s="36"/>
       <c r="I397" s="29"/>
       <c r="J397" s="25" t="s">
-        <v>1383</v>
+        <v>1369</v>
       </c>
       <c r="K397" s="30"/>
       <c r="L397" s="35"/>
@@ -21283,25 +21337,25 @@
     </row>
     <row r="398">
       <c r="A398" s="21" t="s">
-        <v>1384</v>
+        <v>1370</v>
       </c>
       <c r="B398" s="22" t="s">
-        <v>1385</v>
+        <v>1371</v>
       </c>
       <c r="C398" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B398, ""en"", ""fr"")"),"Structure du clan. Endroit pour commencer un clan. Utilisé pour concevoir d'autres structures de clan. Si cela est détruit, le clan et toutes les structures sont également détruites.")</f>
-        <v>Structure du clan. Endroit pour commencer un clan. Utilisé pour concevoir d'autres structures de clan. Si cela est détruit, le clan et toutes les structures sont également détruites.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B398, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D398" s="23"/>
       <c r="E398" s="29"/>
       <c r="F398" s="23" t="s">
-        <v>1386</v>
+        <v>1372</v>
       </c>
       <c r="G398" s="29"/>
       <c r="H398" s="36"/>
       <c r="I398" s="29"/>
       <c r="J398" s="25" t="s">
-        <v>1387</v>
+        <v>1373</v>
       </c>
       <c r="K398" s="30"/>
       <c r="L398" s="35"/>
@@ -21324,25 +21378,25 @@
     </row>
     <row r="399">
       <c r="A399" s="21" t="s">
-        <v>1388</v>
+        <v>1374</v>
       </c>
       <c r="B399" s="22" t="s">
-        <v>1389</v>
+        <v>1375</v>
       </c>
       <c r="C399" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B399, ""en"", ""fr"")"),"Mur de bois")</f>
-        <v>Mur de bois</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B399, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D399" s="23"/>
       <c r="E399" s="29"/>
       <c r="F399" s="23" t="s">
-        <v>1390</v>
+        <v>1376</v>
       </c>
       <c r="G399" s="29"/>
       <c r="H399" s="36"/>
       <c r="I399" s="29"/>
       <c r="J399" s="25" t="s">
-        <v>1391</v>
+        <v>1377</v>
       </c>
       <c r="K399" s="30"/>
       <c r="L399" s="35"/>
@@ -21365,25 +21419,25 @@
     </row>
     <row r="400">
       <c r="A400" s="21" t="s">
-        <v>1392</v>
+        <v>1378</v>
       </c>
       <c r="B400" s="22" t="s">
-        <v>1393</v>
+        <v>1371</v>
       </c>
       <c r="C400" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B400, ""en"", ""fr"")"),"Structure du clan. A faible profondeur d'une base.")</f>
-        <v>Structure du clan. A faible profondeur d'une base.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B400, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D400" s="23"/>
       <c r="E400" s="29"/>
       <c r="F400" s="23" t="s">
-        <v>1394</v>
+        <v>1372</v>
       </c>
       <c r="G400" s="29"/>
       <c r="H400" s="36"/>
       <c r="I400" s="29"/>
       <c r="J400" s="25" t="s">
-        <v>1395</v>
+        <v>1379</v>
       </c>
       <c r="K400" s="30"/>
       <c r="L400" s="35"/>
@@ -21406,25 +21460,25 @@
     </row>
     <row r="401">
       <c r="A401" s="21" t="s">
-        <v>1396</v>
+        <v>1380</v>
       </c>
       <c r="B401" s="22" t="s">
-        <v>1397</v>
+        <v>1381</v>
       </c>
       <c r="C401" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B401, ""en"", ""fr"")"),"porte en bois")</f>
-        <v>porte en bois</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B401, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D401" s="23"/>
       <c r="E401" s="29"/>
       <c r="F401" s="23" t="s">
-        <v>1398</v>
+        <v>1382</v>
       </c>
       <c r="G401" s="29"/>
       <c r="H401" s="36"/>
       <c r="I401" s="29"/>
       <c r="J401" s="25" t="s">
-        <v>1399</v>
+        <v>1383</v>
       </c>
       <c r="K401" s="30"/>
       <c r="L401" s="35"/>
@@ -21447,25 +21501,25 @@
     </row>
     <row r="402">
       <c r="A402" s="21" t="s">
-        <v>1400</v>
+        <v>1384</v>
       </c>
       <c r="B402" s="22" t="s">
-        <v>1401</v>
+        <v>1385</v>
       </c>
       <c r="C402" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B402, ""en"", ""fr"")"),"Structure du clan. Ne peut être ouvert par les membres du clan.")</f>
-        <v>Structure du clan. Ne peut être ouvert par les membres du clan.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B402, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D402" s="23"/>
       <c r="E402" s="29"/>
       <c r="F402" s="23" t="s">
-        <v>1402</v>
+        <v>1386</v>
       </c>
       <c r="G402" s="29"/>
       <c r="H402" s="36"/>
       <c r="I402" s="29"/>
       <c r="J402" s="25" t="s">
-        <v>1403</v>
+        <v>1387</v>
       </c>
       <c r="K402" s="30"/>
       <c r="L402" s="35"/>
@@ -21487,26 +21541,26 @@
       <c r="AB402" s="28"/>
     </row>
     <row r="403">
-      <c r="A403" s="41" t="s">
-        <v>1404</v>
+      <c r="A403" s="21" t="s">
+        <v>1388</v>
       </c>
       <c r="B403" s="22" t="s">
-        <v>1405</v>
+        <v>1389</v>
       </c>
       <c r="C403" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B403, ""en"", ""fr"")"),"Mur de briques")</f>
-        <v>Mur de briques</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B403, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D403" s="23"/>
       <c r="E403" s="29"/>
       <c r="F403" s="23" t="s">
-        <v>1406</v>
+        <v>1390</v>
       </c>
       <c r="G403" s="29"/>
       <c r="H403" s="36"/>
       <c r="I403" s="29"/>
       <c r="J403" s="25" t="s">
-        <v>1407</v>
+        <v>1391</v>
       </c>
       <c r="K403" s="30"/>
       <c r="L403" s="35"/>
@@ -21528,26 +21582,26 @@
       <c r="AB403" s="28"/>
     </row>
     <row r="404">
-      <c r="A404" s="41" t="s">
-        <v>1408</v>
+      <c r="A404" s="21" t="s">
+        <v>1392</v>
       </c>
       <c r="B404" s="22" t="s">
-        <v>1409</v>
+        <v>1393</v>
       </c>
       <c r="C404" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B404, ""en"", ""fr"")"),"Structure du clan. Une bonne défense pour une base.")</f>
-        <v>Structure du clan. Une bonne défense pour une base.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B404, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D404" s="23"/>
       <c r="E404" s="29"/>
       <c r="F404" s="23" t="s">
-        <v>1410</v>
+        <v>1394</v>
       </c>
       <c r="G404" s="29"/>
       <c r="H404" s="36"/>
       <c r="I404" s="29"/>
       <c r="J404" s="25" t="s">
-        <v>1411</v>
+        <v>1395</v>
       </c>
       <c r="K404" s="30"/>
       <c r="L404" s="35"/>
@@ -21569,26 +21623,26 @@
       <c r="AB404" s="28"/>
     </row>
     <row r="405">
-      <c r="A405" s="41" t="s">
-        <v>1412</v>
+      <c r="A405" s="21" t="s">
+        <v>1396</v>
       </c>
       <c r="B405" s="22" t="s">
-        <v>1413</v>
+        <v>1397</v>
       </c>
       <c r="C405" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B405, ""en"", ""fr"")"),"porte brique")</f>
-        <v>porte brique</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B405, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D405" s="23"/>
       <c r="E405" s="29"/>
       <c r="F405" s="23" t="s">
-        <v>1414</v>
+        <v>1398</v>
       </c>
       <c r="G405" s="29"/>
       <c r="H405" s="36"/>
       <c r="I405" s="29"/>
       <c r="J405" s="25" t="s">
-        <v>1415</v>
+        <v>1399</v>
       </c>
       <c r="K405" s="30"/>
       <c r="L405" s="35"/>
@@ -21610,26 +21664,26 @@
       <c r="AB405" s="28"/>
     </row>
     <row r="406">
-      <c r="A406" s="41" t="s">
-        <v>1416</v>
+      <c r="A406" s="21" t="s">
+        <v>1400</v>
       </c>
       <c r="B406" s="22" t="s">
-        <v>1417</v>
+        <v>1401</v>
       </c>
       <c r="C406" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B406, ""en"", ""fr"")"),"Structure du clan. Ne peut être ouvert par les membres du clan. Plus fort que une porte en bois.")</f>
-        <v>Structure du clan. Ne peut être ouvert par les membres du clan. Plus fort que une porte en bois.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B406, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D406" s="23"/>
       <c r="E406" s="29"/>
       <c r="F406" s="23" t="s">
-        <v>1418</v>
+        <v>1402</v>
       </c>
       <c r="G406" s="29"/>
       <c r="H406" s="36"/>
       <c r="I406" s="29"/>
       <c r="J406" s="25" t="s">
-        <v>1419</v>
+        <v>1403</v>
       </c>
       <c r="K406" s="30"/>
       <c r="L406" s="35"/>
@@ -21651,26 +21705,26 @@
       <c r="AB406" s="28"/>
     </row>
     <row r="407">
-      <c r="A407" s="41" t="s">
-        <v>1420</v>
+      <c r="A407" s="21" t="s">
+        <v>1404</v>
       </c>
       <c r="B407" s="22" t="s">
-        <v>1421</v>
+        <v>1405</v>
       </c>
       <c r="C407" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B407, ""en"", ""fr"")"),"Mur de fer")</f>
-        <v>Mur de fer</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B407, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D407" s="23"/>
       <c r="E407" s="29"/>
       <c r="F407" s="23" t="s">
-        <v>1422</v>
+        <v>1406</v>
       </c>
       <c r="G407" s="29"/>
       <c r="H407" s="36"/>
       <c r="I407" s="29"/>
       <c r="J407" s="25" t="s">
-        <v>1423</v>
+        <v>1407</v>
       </c>
       <c r="K407" s="30"/>
       <c r="L407" s="35"/>
@@ -21692,26 +21746,26 @@
       <c r="AB407" s="28"/>
     </row>
     <row r="408">
-      <c r="A408" s="41" t="s">
-        <v>1424</v>
+      <c r="A408" s="21" t="s">
+        <v>1408</v>
       </c>
       <c r="B408" s="22" t="s">
-        <v>1425</v>
+        <v>1409</v>
       </c>
       <c r="C408" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B408, ""en"", ""fr"")"),"Structure du clan. Une grande défense pour une base.")</f>
-        <v>Structure du clan. Une grande défense pour une base.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B408, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D408" s="23"/>
       <c r="E408" s="29"/>
       <c r="F408" s="23" t="s">
-        <v>1426</v>
+        <v>1410</v>
       </c>
       <c r="G408" s="29"/>
       <c r="H408" s="36"/>
       <c r="I408" s="29"/>
       <c r="J408" s="25" t="s">
-        <v>1427</v>
+        <v>1411</v>
       </c>
       <c r="K408" s="30"/>
       <c r="L408" s="35"/>
@@ -21733,26 +21787,26 @@
       <c r="AB408" s="28"/>
     </row>
     <row r="409">
-      <c r="A409" s="41" t="s">
-        <v>1428</v>
+      <c r="A409" s="21" t="s">
+        <v>1412</v>
       </c>
       <c r="B409" s="22" t="s">
-        <v>1429</v>
+        <v>1413</v>
       </c>
       <c r="C409" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B409, ""en"", ""fr"")"),"Porte en fer")</f>
-        <v>Porte en fer</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B409, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D409" s="23"/>
       <c r="E409" s="29"/>
       <c r="F409" s="23" t="s">
-        <v>1430</v>
+        <v>1414</v>
       </c>
       <c r="G409" s="29"/>
       <c r="H409" s="36"/>
       <c r="I409" s="29"/>
       <c r="J409" s="25" t="s">
-        <v>1431</v>
+        <v>1415</v>
       </c>
       <c r="K409" s="30"/>
       <c r="L409" s="35"/>
@@ -21774,26 +21828,26 @@
       <c r="AB409" s="28"/>
     </row>
     <row r="410">
-      <c r="A410" s="41" t="s">
-        <v>1432</v>
+      <c r="A410" s="21" t="s">
+        <v>1416</v>
       </c>
       <c r="B410" s="22" t="s">
-        <v>1433</v>
+        <v>1417</v>
       </c>
       <c r="C410" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B410, ""en"", ""fr"")"),"Structure du clan. Ne peut être ouvert par les membres du clan. Plus fort que la porte de briques.")</f>
-        <v>Structure du clan. Ne peut être ouvert par les membres du clan. Plus fort que la porte de briques.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B410, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D410" s="23"/>
       <c r="E410" s="29"/>
       <c r="F410" s="23" t="s">
-        <v>1434</v>
+        <v>1418</v>
       </c>
       <c r="G410" s="29"/>
       <c r="H410" s="36"/>
       <c r="I410" s="29"/>
       <c r="J410" s="25" t="s">
-        <v>1435</v>
+        <v>1419</v>
       </c>
       <c r="K410" s="30"/>
       <c r="L410" s="35"/>
@@ -21815,26 +21869,26 @@
       <c r="AB410" s="28"/>
     </row>
     <row r="411">
-      <c r="A411" s="21" t="s">
-        <v>1436</v>
+      <c r="A411" s="41" t="s">
+        <v>1420</v>
       </c>
       <c r="B411" s="22" t="s">
-        <v>1437</v>
+        <v>1421</v>
       </c>
       <c r="C411" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B411, ""en"", ""fr"")"),"Banque poitrine")</f>
-        <v>Banque poitrine</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B411, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D411" s="23"/>
       <c r="E411" s="29"/>
       <c r="F411" s="23" t="s">
-        <v>1438</v>
+        <v>1422</v>
       </c>
       <c r="G411" s="29"/>
       <c r="H411" s="36"/>
       <c r="I411" s="29"/>
       <c r="J411" s="25" t="s">
-        <v>1439</v>
+        <v>1423</v>
       </c>
       <c r="K411" s="30"/>
       <c r="L411" s="35"/>
@@ -21856,26 +21910,26 @@
       <c r="AB411" s="28"/>
     </row>
     <row r="412">
-      <c r="A412" s="21" t="s">
-        <v>1440</v>
+      <c r="A412" s="41" t="s">
+        <v>1424</v>
       </c>
       <c r="B412" s="22" t="s">
-        <v>1441</v>
+        <v>1425</v>
       </c>
       <c r="C412" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B412, ""en"", ""fr"")"),"Structure du clan. Permet d'accéder à votre stockage bancaire personnel.")</f>
-        <v>Structure du clan. Permet d'accéder à votre stockage bancaire personnel.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B412, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D412" s="23"/>
       <c r="E412" s="29"/>
       <c r="F412" s="23" t="s">
-        <v>1442</v>
+        <v>1426</v>
       </c>
       <c r="G412" s="29"/>
       <c r="H412" s="36"/>
       <c r="I412" s="29"/>
       <c r="J412" s="25" t="s">
-        <v>1443</v>
+        <v>1427</v>
       </c>
       <c r="K412" s="30"/>
       <c r="L412" s="35"/>
@@ -21897,26 +21951,26 @@
       <c r="AB412" s="28"/>
     </row>
     <row r="413">
-      <c r="A413" s="21" t="s">
-        <v>1444</v>
+      <c r="A413" s="41" t="s">
+        <v>1428</v>
       </c>
       <c r="B413" s="22" t="s">
-        <v>788</v>
+        <v>1429</v>
       </c>
       <c r="C413" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B413, ""en"", ""fr"")"),"Table de travail")</f>
-        <v>Table de travail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B413, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D413" s="23"/>
       <c r="E413" s="29"/>
       <c r="F413" s="23" t="s">
-        <v>790</v>
+        <v>1430</v>
       </c>
       <c r="G413" s="29"/>
       <c r="H413" s="36"/>
       <c r="I413" s="29"/>
       <c r="J413" s="25" t="s">
-        <v>1445</v>
+        <v>1431</v>
       </c>
       <c r="K413" s="30"/>
       <c r="L413" s="35"/>
@@ -21938,26 +21992,26 @@
       <c r="AB413" s="28"/>
     </row>
     <row r="414">
-      <c r="A414" s="21" t="s">
-        <v>1446</v>
+      <c r="A414" s="41" t="s">
+        <v>1432</v>
       </c>
       <c r="B414" s="22" t="s">
-        <v>1447</v>
+        <v>1433</v>
       </c>
       <c r="C414" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B414, ""en"", ""fr"")"),"Structure du clan. Utilisé pour fabriquer divers objets.")</f>
-        <v>Structure du clan. Utilisé pour fabriquer divers objets.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B414, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D414" s="23"/>
       <c r="E414" s="29"/>
       <c r="F414" s="23" t="s">
-        <v>1448</v>
+        <v>1434</v>
       </c>
       <c r="G414" s="29"/>
       <c r="H414" s="36"/>
       <c r="I414" s="29"/>
       <c r="J414" s="25" t="s">
-        <v>1449</v>
+        <v>1435</v>
       </c>
       <c r="K414" s="30"/>
       <c r="L414" s="35"/>
@@ -21979,26 +22033,26 @@
       <c r="AB414" s="28"/>
     </row>
     <row r="415">
-      <c r="A415" s="21" t="s">
-        <v>1450</v>
+      <c r="A415" s="41" t="s">
+        <v>1436</v>
       </c>
       <c r="B415" s="22" t="s">
-        <v>782</v>
+        <v>1437</v>
       </c>
       <c r="C415" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B415, ""en"", ""fr"")"),"fourneau")</f>
-        <v>fourneau</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B415, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D415" s="23"/>
       <c r="E415" s="29"/>
       <c r="F415" s="23" t="s">
-        <v>784</v>
+        <v>1438</v>
       </c>
       <c r="G415" s="29"/>
       <c r="H415" s="36"/>
       <c r="I415" s="29"/>
       <c r="J415" s="25" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="K415" s="30"/>
       <c r="L415" s="35"/>
@@ -22020,26 +22074,26 @@
       <c r="AB415" s="28"/>
     </row>
     <row r="416">
-      <c r="A416" s="21" t="s">
-        <v>1452</v>
+      <c r="A416" s="41" t="s">
+        <v>1440</v>
       </c>
       <c r="B416" s="22" t="s">
-        <v>1453</v>
+        <v>1441</v>
       </c>
       <c r="C416" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B416, ""en"", ""fr"")"),"Structure du clan. Utilisé pour transformer les minerais en barres métalliques.")</f>
-        <v>Structure du clan. Utilisé pour transformer les minerais en barres métalliques.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B416, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D416" s="23"/>
       <c r="E416" s="29"/>
       <c r="F416" s="23" t="s">
-        <v>1454</v>
+        <v>1442</v>
       </c>
       <c r="G416" s="29"/>
       <c r="H416" s="36"/>
       <c r="I416" s="29"/>
       <c r="J416" s="25" t="s">
-        <v>1455</v>
+        <v>1443</v>
       </c>
       <c r="K416" s="30"/>
       <c r="L416" s="35"/>
@@ -22061,26 +22115,26 @@
       <c r="AB416" s="28"/>
     </row>
     <row r="417">
-      <c r="A417" s="21" t="s">
-        <v>1456</v>
+      <c r="A417" s="41" t="s">
+        <v>1444</v>
       </c>
       <c r="B417" s="22" t="s">
-        <v>779</v>
+        <v>1445</v>
       </c>
       <c r="C417" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B417, ""en"", ""fr"")"),"Enclume")</f>
-        <v>Enclume</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B417, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D417" s="23"/>
       <c r="E417" s="29"/>
       <c r="F417" s="23" t="s">
-        <v>781</v>
+        <v>1446</v>
       </c>
       <c r="G417" s="29"/>
       <c r="H417" s="36"/>
       <c r="I417" s="29"/>
       <c r="J417" s="25" t="s">
-        <v>1457</v>
+        <v>1447</v>
       </c>
       <c r="K417" s="30"/>
       <c r="L417" s="35"/>
@@ -22102,26 +22156,26 @@
       <c r="AB417" s="28"/>
     </row>
     <row r="418">
-      <c r="A418" s="21" t="s">
-        <v>1458</v>
+      <c r="A418" s="41" t="s">
+        <v>1448</v>
       </c>
       <c r="B418" s="22" t="s">
-        <v>1459</v>
+        <v>1449</v>
       </c>
       <c r="C418" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B418, ""en"", ""fr"")"),"Structure du clan. Utilisé pour les objets métalliques d'artisanat.")</f>
-        <v>Structure du clan. Utilisé pour les objets métalliques d'artisanat.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B418, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D418" s="23"/>
       <c r="E418" s="29"/>
       <c r="F418" s="23" t="s">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="G418" s="29"/>
       <c r="H418" s="36"/>
       <c r="I418" s="29"/>
       <c r="J418" s="25" t="s">
-        <v>1461</v>
+        <v>1451</v>
       </c>
       <c r="K418" s="30"/>
       <c r="L418" s="35"/>
@@ -22143,26 +22197,26 @@
       <c r="AB418" s="28"/>
     </row>
     <row r="419">
-      <c r="A419" s="41" t="s">
-        <v>1462</v>
+      <c r="A419" s="21" t="s">
+        <v>1452</v>
       </c>
       <c r="B419" s="22" t="s">
-        <v>785</v>
+        <v>1453</v>
       </c>
       <c r="C419" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B419, ""en"", ""fr"")"),"Laboratoire")</f>
-        <v>Laboratoire</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B419, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D419" s="23"/>
       <c r="E419" s="29"/>
       <c r="F419" s="23" t="s">
-        <v>1463</v>
+        <v>1454</v>
       </c>
       <c r="G419" s="29"/>
       <c r="H419" s="36"/>
       <c r="I419" s="29"/>
       <c r="J419" s="25" t="s">
-        <v>1464</v>
+        <v>1455</v>
       </c>
       <c r="K419" s="30"/>
       <c r="L419" s="35"/>
@@ -22184,26 +22238,26 @@
       <c r="AB419" s="28"/>
     </row>
     <row r="420">
-      <c r="A420" s="41" t="s">
-        <v>1465</v>
+      <c r="A420" s="21" t="s">
+        <v>1456</v>
       </c>
       <c r="B420" s="22" t="s">
-        <v>1466</v>
+        <v>1457</v>
       </c>
       <c r="C420" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B420, ""en"", ""fr"")"),"Structure du clan. Utilisé pour les potions d'artisanat.")</f>
-        <v>Structure du clan. Utilisé pour les potions d'artisanat.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B420, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D420" s="23"/>
       <c r="E420" s="29"/>
       <c r="F420" s="23" t="s">
-        <v>1467</v>
+        <v>1458</v>
       </c>
       <c r="G420" s="29"/>
       <c r="H420" s="36"/>
       <c r="I420" s="29"/>
       <c r="J420" s="25" t="s">
-        <v>1468</v>
+        <v>1459</v>
       </c>
       <c r="K420" s="30"/>
       <c r="L420" s="35"/>
@@ -22225,26 +22279,26 @@
       <c r="AB420" s="28"/>
     </row>
     <row r="421">
-      <c r="A421" s="41" t="s">
-        <v>1469</v>
+      <c r="A421" s="21" t="s">
+        <v>1460</v>
       </c>
       <c r="B421" s="22" t="s">
-        <v>1470</v>
+        <v>788</v>
       </c>
       <c r="C421" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B421, ""en"", ""fr"")"),"Générateur")</f>
-        <v>Générateur</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B421, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D421" s="23"/>
       <c r="E421" s="29"/>
       <c r="F421" s="23" t="s">
-        <v>1471</v>
+        <v>790</v>
       </c>
       <c r="G421" s="29"/>
       <c r="H421" s="36"/>
       <c r="I421" s="29"/>
       <c r="J421" s="25" t="s">
-        <v>1472</v>
+        <v>1461</v>
       </c>
       <c r="K421" s="30"/>
       <c r="L421" s="35"/>
@@ -22266,26 +22320,26 @@
       <c r="AB421" s="28"/>
     </row>
     <row r="422">
-      <c r="A422" s="41" t="s">
-        <v>1473</v>
+      <c r="A422" s="21" t="s">
+        <v>1462</v>
       </c>
       <c r="B422" s="22" t="s">
-        <v>1474</v>
+        <v>1463</v>
       </c>
       <c r="C422" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B422, ""en"", ""fr"")"),"Structure du clan. La gloire des joueurs convertis en puissance qui peuvent être utilisés pour activer d'autres structures claniques qui nécessitent une alimentation, et peut protéger toutes les structures de clan des dommages.")</f>
-        <v>Structure du clan. La gloire des joueurs convertis en puissance qui peuvent être utilisés pour activer d'autres structures claniques qui nécessitent une alimentation, et peut protéger toutes les structures de clan des dommages.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B422, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D422" s="23"/>
       <c r="E422" s="29"/>
       <c r="F422" s="23" t="s">
-        <v>1475</v>
+        <v>1464</v>
       </c>
       <c r="G422" s="29"/>
       <c r="H422" s="36"/>
       <c r="I422" s="29"/>
       <c r="J422" s="25" t="s">
-        <v>1476</v>
+        <v>1465</v>
       </c>
       <c r="K422" s="30"/>
       <c r="L422" s="35"/>
@@ -22307,25 +22361,27 @@
       <c r="AB422" s="28"/>
     </row>
     <row r="423">
-      <c r="A423" s="41" t="s">
-        <v>1477</v>
+      <c r="A423" s="21" t="s">
+        <v>1466</v>
       </c>
       <c r="B423" s="22" t="s">
-        <v>1478</v>
+        <v>782</v>
       </c>
       <c r="C423" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B423, ""en"", ""fr"")"),"clé Fighter")</f>
-        <v>clé Fighter</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B423, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D423" s="23"/>
       <c r="E423" s="29"/>
       <c r="F423" s="23" t="s">
-        <v>1479</v>
+        <v>784</v>
       </c>
       <c r="G423" s="29"/>
       <c r="H423" s="36"/>
       <c r="I423" s="29"/>
-      <c r="J423" s="25"/>
+      <c r="J423" s="25" t="s">
+        <v>1467</v>
+      </c>
       <c r="K423" s="30"/>
       <c r="L423" s="35"/>
       <c r="M423" s="28"/>
@@ -22346,25 +22402,27 @@
       <c r="AB423" s="28"/>
     </row>
     <row r="424">
-      <c r="A424" s="41" t="s">
-        <v>1480</v>
+      <c r="A424" s="21" t="s">
+        <v>1468</v>
       </c>
       <c r="B424" s="22" t="s">
-        <v>1481</v>
+        <v>1469</v>
       </c>
       <c r="C424" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B424, ""en"", ""fr"")"),"Ouvre la porte à la zone de préparation de l'arène PvP. Avertissement! D'autres joueurs peuvent vous attaquer dans la fosse de combat!")</f>
-        <v>Ouvre la porte à la zone de préparation de l'arène PvP. Avertissement! D'autres joueurs peuvent vous attaquer dans la fosse de combat!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B424, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D424" s="23"/>
       <c r="E424" s="29"/>
       <c r="F424" s="23" t="s">
-        <v>1482</v>
+        <v>1470</v>
       </c>
       <c r="G424" s="29"/>
       <c r="H424" s="36"/>
       <c r="I424" s="29"/>
-      <c r="J424" s="25"/>
+      <c r="J424" s="25" t="s">
+        <v>1471</v>
+      </c>
       <c r="K424" s="30"/>
       <c r="L424" s="35"/>
       <c r="M424" s="28"/>
@@ -22385,25 +22443,27 @@
       <c r="AB424" s="28"/>
     </row>
     <row r="425">
-      <c r="A425" s="41" t="s">
-        <v>1483</v>
+      <c r="A425" s="21" t="s">
+        <v>1472</v>
       </c>
       <c r="B425" s="22" t="s">
-        <v>1484</v>
+        <v>779</v>
       </c>
       <c r="C425" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B425, ""en"", ""fr"")"),"clé Pit")</f>
-        <v>clé Pit</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B425, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D425" s="23"/>
       <c r="E425" s="29"/>
       <c r="F425" s="23" t="s">
-        <v>1485</v>
+        <v>781</v>
       </c>
       <c r="G425" s="29"/>
       <c r="H425" s="36"/>
       <c r="I425" s="29"/>
-      <c r="J425" s="25"/>
+      <c r="J425" s="25" t="s">
+        <v>1473</v>
+      </c>
       <c r="K425" s="30"/>
       <c r="L425" s="35"/>
       <c r="M425" s="28"/>
@@ -22424,25 +22484,27 @@
       <c r="AB425" s="28"/>
     </row>
     <row r="426">
-      <c r="A426" s="41" t="s">
-        <v>1486</v>
+      <c r="A426" s="21" t="s">
+        <v>1474</v>
       </c>
       <c r="B426" s="22" t="s">
-        <v>1487</v>
+        <v>1475</v>
       </c>
       <c r="C426" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B426, ""en"", ""fr"")"),"Ouvre les portes pour sortir de la fosse de combat.")</f>
-        <v>Ouvre les portes pour sortir de la fosse de combat.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B426, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D426" s="23"/>
       <c r="E426" s="29"/>
       <c r="F426" s="23" t="s">
-        <v>1488</v>
+        <v>1476</v>
       </c>
       <c r="G426" s="29"/>
       <c r="H426" s="36"/>
       <c r="I426" s="29"/>
-      <c r="J426" s="25"/>
+      <c r="J426" s="25" t="s">
+        <v>1477</v>
+      </c>
       <c r="K426" s="30"/>
       <c r="L426" s="35"/>
       <c r="M426" s="28"/>
@@ -22463,28 +22525,26 @@
       <c r="AB426" s="28"/>
     </row>
     <row r="427">
-      <c r="A427" s="21" t="s">
-        <v>1489</v>
+      <c r="A427" s="41" t="s">
+        <v>1478</v>
       </c>
       <c r="B427" s="22" t="s">
-        <v>1490</v>
+        <v>785</v>
       </c>
       <c r="C427" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B427, ""en"", ""fr"")"),"Bandit")</f>
-        <v>Bandit</v>
-      </c>
-      <c r="D427" s="29"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B427, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D427" s="23"/>
       <c r="E427" s="29"/>
       <c r="F427" s="23" t="s">
-        <v>1491</v>
+        <v>1479</v>
       </c>
       <c r="G427" s="29"/>
       <c r="H427" s="36"/>
-      <c r="I427" s="23" t="s">
-        <v>1492</v>
-      </c>
+      <c r="I427" s="29"/>
       <c r="J427" s="25" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="K427" s="30"/>
       <c r="L427" s="35"/>
@@ -22506,26 +22566,26 @@
       <c r="AB427" s="28"/>
     </row>
     <row r="428">
-      <c r="A428" s="21" t="s">
-        <v>1494</v>
+      <c r="A428" s="41" t="s">
+        <v>1481</v>
       </c>
       <c r="B428" s="22" t="s">
-        <v>1495</v>
+        <v>1482</v>
       </c>
       <c r="C428" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B428, ""en"", ""fr"")"),"Bandit leader")</f>
-        <v>Bandit leader</v>
-      </c>
-      <c r="D428" s="29"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B428, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D428" s="23"/>
       <c r="E428" s="29"/>
       <c r="F428" s="23" t="s">
-        <v>1496</v>
+        <v>1483</v>
       </c>
       <c r="G428" s="29"/>
       <c r="H428" s="36"/>
       <c r="I428" s="29"/>
       <c r="J428" s="25" t="s">
-        <v>1497</v>
+        <v>1484</v>
       </c>
       <c r="K428" s="30"/>
       <c r="L428" s="35"/>
@@ -22547,26 +22607,26 @@
       <c r="AB428" s="28"/>
     </row>
     <row r="429">
-      <c r="A429" s="21" t="s">
-        <v>1498</v>
+      <c r="A429" s="41" t="s">
+        <v>1485</v>
       </c>
       <c r="B429" s="22" t="s">
-        <v>1499</v>
+        <v>1486</v>
       </c>
       <c r="C429" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B429, ""en"", ""fr"")"),"Assassin")</f>
-        <v>Assassin</v>
-      </c>
-      <c r="D429" s="29"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B429, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D429" s="23"/>
       <c r="E429" s="29"/>
       <c r="F429" s="23" t="s">
-        <v>1500</v>
+        <v>1487</v>
       </c>
       <c r="G429" s="29"/>
       <c r="H429" s="36"/>
       <c r="I429" s="29"/>
       <c r="J429" s="25" t="s">
-        <v>1501</v>
+        <v>1488</v>
       </c>
       <c r="K429" s="30"/>
       <c r="L429" s="35"/>
@@ -22588,25 +22648,27 @@
       <c r="AB429" s="28"/>
     </row>
     <row r="430">
-      <c r="A430" s="21" t="s">
-        <v>1502</v>
+      <c r="A430" s="41" t="s">
+        <v>1489</v>
       </c>
       <c r="B430" s="22" t="s">
-        <v>1503</v>
+        <v>1490</v>
       </c>
       <c r="C430" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B430, ""en"", ""fr"")"),"maître assassin")</f>
-        <v>maître assassin</v>
-      </c>
-      <c r="D430" s="29"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B430, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D430" s="23"/>
       <c r="E430" s="29"/>
       <c r="F430" s="23" t="s">
-        <v>1504</v>
+        <v>1491</v>
       </c>
       <c r="G430" s="29"/>
       <c r="H430" s="36"/>
       <c r="I430" s="29"/>
-      <c r="J430" s="25"/>
+      <c r="J430" s="25" t="s">
+        <v>1492</v>
+      </c>
       <c r="K430" s="30"/>
       <c r="L430" s="35"/>
       <c r="M430" s="28"/>
@@ -22627,29 +22689,25 @@
       <c r="AB430" s="28"/>
     </row>
     <row r="431">
-      <c r="A431" s="21" t="s">
-        <v>1505</v>
+      <c r="A431" s="41" t="s">
+        <v>1493</v>
       </c>
       <c r="B431" s="22" t="s">
-        <v>1506</v>
+        <v>1494</v>
       </c>
       <c r="C431" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B431, ""en"", ""fr"")"),"Chauve souris")</f>
-        <v>Chauve souris</v>
-      </c>
-      <c r="D431" s="29"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B431, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D431" s="23"/>
       <c r="E431" s="29"/>
       <c r="F431" s="23" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
       <c r="G431" s="29"/>
       <c r="H431" s="36"/>
-      <c r="I431" s="23" t="s">
-        <v>1508</v>
-      </c>
-      <c r="J431" s="25" t="s">
-        <v>1509</v>
-      </c>
+      <c r="I431" s="29"/>
+      <c r="J431" s="25"/>
       <c r="K431" s="30"/>
       <c r="L431" s="35"/>
       <c r="M431" s="28"/>
@@ -22670,27 +22728,25 @@
       <c r="AB431" s="28"/>
     </row>
     <row r="432">
-      <c r="A432" s="21" t="s">
-        <v>1510</v>
+      <c r="A432" s="41" t="s">
+        <v>1496</v>
       </c>
       <c r="B432" s="22" t="s">
-        <v>1511</v>
+        <v>1497</v>
       </c>
       <c r="C432" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B432, ""en"", ""fr"")"),"Règle")</f>
-        <v>Règle</v>
-      </c>
-      <c r="D432" s="29"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B432, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D432" s="23"/>
       <c r="E432" s="29"/>
       <c r="F432" s="23" t="s">
-        <v>1512</v>
+        <v>1498</v>
       </c>
       <c r="G432" s="29"/>
       <c r="H432" s="36"/>
       <c r="I432" s="29"/>
-      <c r="J432" s="25" t="s">
-        <v>1513</v>
-      </c>
+      <c r="J432" s="25"/>
       <c r="K432" s="30"/>
       <c r="L432" s="35"/>
       <c r="M432" s="28"/>
@@ -22711,27 +22767,25 @@
       <c r="AB432" s="28"/>
     </row>
     <row r="433">
-      <c r="A433" s="21" t="s">
-        <v>1514</v>
+      <c r="A433" s="41" t="s">
+        <v>1499</v>
       </c>
       <c r="B433" s="22" t="s">
-        <v>1515</v>
+        <v>1500</v>
       </c>
       <c r="C433" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B433, ""en"", ""fr"")"),"Aubergiste")</f>
-        <v>Aubergiste</v>
-      </c>
-      <c r="D433" s="29"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B433, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D433" s="23"/>
       <c r="E433" s="29"/>
       <c r="F433" s="23" t="s">
-        <v>1516</v>
+        <v>1501</v>
       </c>
       <c r="G433" s="29"/>
       <c r="H433" s="36"/>
       <c r="I433" s="29"/>
-      <c r="J433" s="25" t="s">
-        <v>1517</v>
-      </c>
+      <c r="J433" s="25"/>
       <c r="K433" s="30"/>
       <c r="L433" s="35"/>
       <c r="M433" s="28"/>
@@ -22752,20 +22806,20 @@
       <c r="AB433" s="28"/>
     </row>
     <row r="434">
-      <c r="A434" s="21" t="s">
-        <v>1518</v>
+      <c r="A434" s="41" t="s">
+        <v>1502</v>
       </c>
       <c r="B434" s="22" t="s">
-        <v>1519</v>
+        <v>1503</v>
       </c>
       <c r="C434" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B434, ""en"", ""fr"")"),"maître Arena")</f>
-        <v>maître Arena</v>
-      </c>
-      <c r="D434" s="29"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B434, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
+      </c>
+      <c r="D434" s="23"/>
       <c r="E434" s="29"/>
       <c r="F434" s="23" t="s">
-        <v>1520</v>
+        <v>1504</v>
       </c>
       <c r="G434" s="29"/>
       <c r="H434" s="36"/>
@@ -22792,27 +22846,27 @@
     </row>
     <row r="435">
       <c r="A435" s="21" t="s">
-        <v>1521</v>
+        <v>1505</v>
       </c>
       <c r="B435" s="22" t="s">
-        <v>1522</v>
+        <v>1506</v>
       </c>
       <c r="C435" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B435, ""en"", ""fr"")"),"marchande")</f>
-        <v>marchande</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B435, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D435" s="29"/>
       <c r="E435" s="29"/>
       <c r="F435" s="23" t="s">
-        <v>1523</v>
+        <v>1507</v>
       </c>
       <c r="G435" s="29"/>
       <c r="H435" s="36"/>
       <c r="I435" s="23" t="s">
-        <v>1524</v>
+        <v>1508</v>
       </c>
       <c r="J435" s="25" t="s">
-        <v>1525</v>
+        <v>1509</v>
       </c>
       <c r="K435" s="30"/>
       <c r="L435" s="35"/>
@@ -22835,25 +22889,25 @@
     </row>
     <row r="436">
       <c r="A436" s="21" t="s">
-        <v>1526</v>
+        <v>1510</v>
       </c>
       <c r="B436" s="22" t="s">
-        <v>1527</v>
+        <v>1511</v>
       </c>
       <c r="C436" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B436, ""en"", ""fr"")"),"marchand Melee")</f>
-        <v>marchand Melee</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B436, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D436" s="29"/>
       <c r="E436" s="29"/>
       <c r="F436" s="23" t="s">
-        <v>1528</v>
+        <v>1512</v>
       </c>
       <c r="G436" s="29"/>
       <c r="H436" s="36"/>
       <c r="I436" s="29"/>
       <c r="J436" s="25" t="s">
-        <v>1529</v>
+        <v>1513</v>
       </c>
       <c r="K436" s="30"/>
       <c r="L436" s="35"/>
@@ -22876,25 +22930,25 @@
     </row>
     <row r="437">
       <c r="A437" s="21" t="s">
-        <v>1530</v>
+        <v>1514</v>
       </c>
       <c r="B437" s="22" t="s">
-        <v>1531</v>
+        <v>1515</v>
       </c>
       <c r="C437" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B437, ""en"", ""fr"")"),"marchand Ranged")</f>
-        <v>marchand Ranged</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B437, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D437" s="29"/>
       <c r="E437" s="29"/>
       <c r="F437" s="23" t="s">
-        <v>1532</v>
+        <v>1516</v>
       </c>
       <c r="G437" s="29"/>
       <c r="H437" s="36"/>
       <c r="I437" s="29"/>
       <c r="J437" s="25" t="s">
-        <v>1533</v>
+        <v>1517</v>
       </c>
       <c r="K437" s="30"/>
       <c r="L437" s="35"/>
@@ -22917,26 +22971,24 @@
     </row>
     <row r="438">
       <c r="A438" s="21" t="s">
-        <v>1534</v>
+        <v>1518</v>
       </c>
       <c r="B438" s="22" t="s">
-        <v>1535</v>
+        <v>1519</v>
       </c>
       <c r="C438" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B438, ""en"", ""fr"")"),"marchand magique")</f>
-        <v>marchand magique</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B438, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D438" s="29"/>
       <c r="E438" s="29"/>
       <c r="F438" s="23" t="s">
-        <v>1536</v>
+        <v>1520</v>
       </c>
       <c r="G438" s="29"/>
       <c r="H438" s="36"/>
       <c r="I438" s="29"/>
-      <c r="J438" s="25" t="s">
-        <v>1537</v>
-      </c>
+      <c r="J438" s="25"/>
       <c r="K438" s="30"/>
       <c r="L438" s="35"/>
       <c r="M438" s="28"/>
@@ -22958,25 +23010,27 @@
     </row>
     <row r="439">
       <c r="A439" s="21" t="s">
-        <v>1538</v>
+        <v>1521</v>
       </c>
       <c r="B439" s="22" t="s">
-        <v>1539</v>
+        <v>1522</v>
       </c>
       <c r="C439" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B439, ""en"", ""fr"")"),"marchand outil")</f>
-        <v>marchand outil</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B439, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D439" s="29"/>
       <c r="E439" s="29"/>
       <c r="F439" s="23" t="s">
-        <v>1540</v>
+        <v>1523</v>
       </c>
       <c r="G439" s="29"/>
       <c r="H439" s="36"/>
-      <c r="I439" s="29"/>
+      <c r="I439" s="23" t="s">
+        <v>1524</v>
+      </c>
       <c r="J439" s="25" t="s">
-        <v>1541</v>
+        <v>1525</v>
       </c>
       <c r="K439" s="30"/>
       <c r="L439" s="35"/>
@@ -22999,24 +23053,26 @@
     </row>
     <row r="440">
       <c r="A440" s="21" t="s">
-        <v>1542</v>
+        <v>1526</v>
       </c>
       <c r="B440" s="22" t="s">
-        <v>1543</v>
+        <v>1527</v>
       </c>
       <c r="C440" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B440, ""en"", ""fr"")"),"marchand nain")</f>
-        <v>marchand nain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B440, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D440" s="29"/>
       <c r="E440" s="29"/>
       <c r="F440" s="23" t="s">
-        <v>1544</v>
+        <v>1528</v>
       </c>
       <c r="G440" s="29"/>
       <c r="H440" s="36"/>
       <c r="I440" s="29"/>
-      <c r="J440" s="25"/>
+      <c r="J440" s="25" t="s">
+        <v>1529</v>
+      </c>
       <c r="K440" s="30"/>
       <c r="L440" s="35"/>
       <c r="M440" s="28"/>
@@ -23038,24 +23094,26 @@
     </row>
     <row r="441">
       <c r="A441" s="21" t="s">
-        <v>1545</v>
+        <v>1530</v>
       </c>
       <c r="B441" s="22" t="s">
-        <v>1546</v>
+        <v>1531</v>
       </c>
       <c r="C441" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B441, ""en"", ""fr"")"),"Bibliothécaire")</f>
-        <v>Bibliothécaire</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B441, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D441" s="29"/>
       <c r="E441" s="29"/>
       <c r="F441" s="23" t="s">
-        <v>1547</v>
+        <v>1532</v>
       </c>
       <c r="G441" s="29"/>
       <c r="H441" s="36"/>
       <c r="I441" s="29"/>
-      <c r="J441" s="25"/>
+      <c r="J441" s="25" t="s">
+        <v>1533</v>
+      </c>
       <c r="K441" s="30"/>
       <c r="L441" s="35"/>
       <c r="M441" s="28"/>
@@ -23077,26 +23135,24 @@
     </row>
     <row r="442">
       <c r="A442" s="21" t="s">
-        <v>1548</v>
+        <v>1534</v>
       </c>
       <c r="B442" s="22" t="s">
-        <v>1549</v>
+        <v>1535</v>
       </c>
       <c r="C442" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B442, ""en"", ""fr"")"),"Prêtre")</f>
-        <v>Prêtre</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B442, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D442" s="29"/>
       <c r="E442" s="29"/>
       <c r="F442" s="23" t="s">
-        <v>1550</v>
+        <v>1536</v>
       </c>
       <c r="G442" s="29"/>
       <c r="H442" s="36"/>
       <c r="I442" s="29"/>
-      <c r="J442" s="25" t="s">
-        <v>1551</v>
-      </c>
+      <c r="J442" s="25"/>
       <c r="K442" s="30"/>
       <c r="L442" s="35"/>
       <c r="M442" s="28"/>
@@ -23118,25 +23174,27 @@
     </row>
     <row r="443">
       <c r="A443" s="21" t="s">
-        <v>1552</v>
+        <v>1537</v>
       </c>
       <c r="B443" s="22" t="s">
-        <v>1553</v>
+        <v>1538</v>
       </c>
       <c r="C443" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B443, ""en"", ""fr"")"),"Citoyen")</f>
-        <v>Citoyen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B443, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D443" s="29"/>
       <c r="E443" s="29"/>
       <c r="F443" s="23" t="s">
-        <v>1554</v>
+        <v>1539</v>
       </c>
       <c r="G443" s="29"/>
       <c r="H443" s="36"/>
-      <c r="I443" s="29"/>
+      <c r="I443" s="23" t="s">
+        <v>1540</v>
+      </c>
       <c r="J443" s="25" t="s">
-        <v>1555</v>
+        <v>1541</v>
       </c>
       <c r="K443" s="30"/>
       <c r="L443" s="35"/>
@@ -23159,22 +23217,26 @@
     </row>
     <row r="444">
       <c r="A444" s="21" t="s">
-        <v>1556</v>
+        <v>1542</v>
       </c>
       <c r="B444" s="22" t="s">
-        <v>1557</v>
+        <v>1543</v>
       </c>
       <c r="C444" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B444, ""en"", ""fr"")"),"Nain")</f>
-        <v>Nain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B444, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D444" s="29"/>
       <c r="E444" s="29"/>
-      <c r="F444" s="23"/>
+      <c r="F444" s="23" t="s">
+        <v>1544</v>
+      </c>
       <c r="G444" s="29"/>
       <c r="H444" s="36"/>
       <c r="I444" s="29"/>
-      <c r="J444" s="25"/>
+      <c r="J444" s="25" t="s">
+        <v>1545</v>
+      </c>
       <c r="K444" s="30"/>
       <c r="L444" s="35"/>
       <c r="M444" s="28"/>
@@ -23196,22 +23258,26 @@
     </row>
     <row r="445">
       <c r="A445" s="21" t="s">
-        <v>1558</v>
+        <v>1546</v>
       </c>
       <c r="B445" s="22" t="s">
-        <v>1559</v>
+        <v>1547</v>
       </c>
       <c r="C445" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B445, ""en"", ""fr"")"),"guerrier nain")</f>
-        <v>guerrier nain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B445, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D445" s="29"/>
       <c r="E445" s="29"/>
-      <c r="F445" s="23"/>
+      <c r="F445" s="23" t="s">
+        <v>1548</v>
+      </c>
       <c r="G445" s="29"/>
       <c r="H445" s="36"/>
       <c r="I445" s="29"/>
-      <c r="J445" s="25"/>
+      <c r="J445" s="25" t="s">
+        <v>1549</v>
+      </c>
       <c r="K445" s="30"/>
       <c r="L445" s="35"/>
       <c r="M445" s="28"/>
@@ -23233,27 +23299,25 @@
     </row>
     <row r="446">
       <c r="A446" s="21" t="s">
-        <v>1560</v>
+        <v>1550</v>
       </c>
       <c r="B446" s="22" t="s">
-        <v>1561</v>
+        <v>1551</v>
       </c>
       <c r="C446" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B446, ""en"", ""fr"")"),"chevalier")</f>
-        <v>chevalier</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B446, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D446" s="29"/>
       <c r="E446" s="29"/>
       <c r="F446" s="23" t="s">
-        <v>1562</v>
+        <v>1552</v>
       </c>
       <c r="G446" s="29"/>
       <c r="H446" s="36"/>
-      <c r="I446" s="23" t="s">
-        <v>1563</v>
-      </c>
+      <c r="I446" s="29"/>
       <c r="J446" s="25" t="s">
-        <v>1564</v>
+        <v>1553</v>
       </c>
       <c r="K446" s="30"/>
       <c r="L446" s="35"/>
@@ -23276,27 +23340,25 @@
     </row>
     <row r="447">
       <c r="A447" s="21" t="s">
-        <v>1565</v>
+        <v>1554</v>
       </c>
       <c r="B447" s="22" t="s">
-        <v>1566</v>
+        <v>1555</v>
       </c>
       <c r="C447" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B447, ""en"", ""fr"")"),"Le commandant")</f>
-        <v>Le commandant</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B447, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D447" s="29"/>
       <c r="E447" s="29"/>
       <c r="F447" s="23" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
       <c r="G447" s="29"/>
       <c r="H447" s="36"/>
-      <c r="I447" s="23" t="s">
-        <v>1568</v>
-      </c>
+      <c r="I447" s="29"/>
       <c r="J447" s="25" t="s">
-        <v>1569</v>
+        <v>1557</v>
       </c>
       <c r="K447" s="30"/>
       <c r="L447" s="35"/>
@@ -23319,28 +23381,24 @@
     </row>
     <row r="448">
       <c r="A448" s="21" t="s">
-        <v>1570</v>
+        <v>1558</v>
       </c>
       <c r="B448" s="22" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="C448" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B448, ""en"", ""fr"")"),"guerrier")</f>
-        <v>guerrier</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B448, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D448" s="29"/>
       <c r="E448" s="29"/>
       <c r="F448" s="23" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="G448" s="29"/>
       <c r="H448" s="36"/>
-      <c r="I448" s="23" t="s">
-        <v>1573</v>
-      </c>
-      <c r="J448" s="25" t="s">
-        <v>1574</v>
-      </c>
+      <c r="I448" s="29"/>
+      <c r="J448" s="25"/>
       <c r="K448" s="30"/>
       <c r="L448" s="35"/>
       <c r="M448" s="28"/>
@@ -23362,28 +23420,24 @@
     </row>
     <row r="449">
       <c r="A449" s="21" t="s">
-        <v>1575</v>
+        <v>1561</v>
       </c>
       <c r="B449" s="22" t="s">
-        <v>1576</v>
+        <v>1562</v>
       </c>
       <c r="C449" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B449, ""en"", ""fr"")"),"Prisonnier")</f>
-        <v>Prisonnier</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B449, ""en"", ""fr"")"),"Loading...")</f>
+        <v>Loading...</v>
       </c>
       <c r="D449" s="29"/>
       <c r="E449" s="29"/>
       <c r="F449" s="23" t="s">
-        <v>1577</v>
+        <v>1563</v>
       </c>
       <c r="G449" s="29"/>
       <c r="H449" s="36"/>
-      <c r="I449" s="23" t="s">
-        <v>1578</v>
-      </c>
-      <c r="J449" s="25" t="s">
-        <v>1579</v>
-      </c>
+      <c r="I449" s="29"/>
+      <c r="J449" s="25"/>
       <c r="K449" s="30"/>
       <c r="L449" s="35"/>
       <c r="M449" s="28"/>
@@ -23405,28 +23459,22 @@
     </row>
     <row r="450">
       <c r="A450" s="21" t="s">
-        <v>1580</v>
+        <v>1564</v>
       </c>
       <c r="B450" s="22" t="s">
-        <v>1581</v>
+        <v>1565</v>
       </c>
       <c r="C450" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B450, ""en"", ""fr"")"),"Rat")</f>
-        <v>Rat</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B450, ""en"", ""fr"")"),"Omni marchand")</f>
+        <v>Omni marchand</v>
       </c>
       <c r="D450" s="29"/>
       <c r="E450" s="29"/>
-      <c r="F450" s="23" t="s">
-        <v>1582</v>
-      </c>
+      <c r="F450" s="23"/>
       <c r="G450" s="29"/>
       <c r="H450" s="36"/>
-      <c r="I450" s="23" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J450" s="25" t="s">
-        <v>1584</v>
-      </c>
+      <c r="I450" s="29"/>
+      <c r="J450" s="25"/>
       <c r="K450" s="30"/>
       <c r="L450" s="35"/>
       <c r="M450" s="28"/>
@@ -23448,25 +23496,25 @@
     </row>
     <row r="451">
       <c r="A451" s="21" t="s">
-        <v>1585</v>
+        <v>1566</v>
       </c>
       <c r="B451" s="22" t="s">
-        <v>1586</v>
+        <v>1567</v>
       </c>
       <c r="C451" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B451, ""en"", ""fr"")"),"faucon")</f>
-        <v>faucon</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B451, ""en"", ""fr"")"),"Prêtre")</f>
+        <v>Prêtre</v>
       </c>
       <c r="D451" s="29"/>
       <c r="E451" s="29"/>
       <c r="F451" s="23" t="s">
-        <v>1587</v>
+        <v>1568</v>
       </c>
       <c r="G451" s="29"/>
       <c r="H451" s="36"/>
       <c r="I451" s="29"/>
       <c r="J451" s="25" t="s">
-        <v>1588</v>
+        <v>1569</v>
       </c>
       <c r="K451" s="30"/>
       <c r="L451" s="35"/>
@@ -23489,25 +23537,25 @@
     </row>
     <row r="452">
       <c r="A452" s="21" t="s">
-        <v>1589</v>
+        <v>1570</v>
       </c>
       <c r="B452" s="22" t="s">
-        <v>1590</v>
+        <v>1571</v>
       </c>
       <c r="C452" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B452, ""en"", ""fr"")"),"vaurien de sable")</f>
-        <v>vaurien de sable</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B452, ""en"", ""fr"")"),"Citoyen")</f>
+        <v>Citoyen</v>
       </c>
       <c r="D452" s="29"/>
       <c r="E452" s="29"/>
       <c r="F452" s="23" t="s">
-        <v>1591</v>
+        <v>1572</v>
       </c>
       <c r="G452" s="29"/>
       <c r="H452" s="36"/>
       <c r="I452" s="29"/>
       <c r="J452" s="25" t="s">
-        <v>1592</v>
+        <v>1573</v>
       </c>
       <c r="K452" s="30"/>
       <c r="L452" s="35"/>
@@ -23530,20 +23578,18 @@
     </row>
     <row r="453">
       <c r="A453" s="21" t="s">
-        <v>1593</v>
+        <v>1574</v>
       </c>
       <c r="B453" s="22" t="s">
-        <v>1594</v>
+        <v>1575</v>
       </c>
       <c r="C453" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B453, ""en"", ""fr"")"),"herbe vaurien")</f>
-        <v>herbe vaurien</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B453, ""en"", ""fr"")"),"Nain")</f>
+        <v>Nain</v>
       </c>
       <c r="D453" s="29"/>
       <c r="E453" s="29"/>
-      <c r="F453" s="23" t="s">
-        <v>1595</v>
-      </c>
+      <c r="F453" s="23"/>
       <c r="G453" s="29"/>
       <c r="H453" s="36"/>
       <c r="I453" s="29"/>
@@ -23569,28 +23615,22 @@
     </row>
     <row r="454">
       <c r="A454" s="21" t="s">
-        <v>1596</v>
+        <v>1576</v>
       </c>
       <c r="B454" s="22" t="s">
-        <v>1597</v>
+        <v>1577</v>
       </c>
       <c r="C454" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B454, ""en"", ""fr"")"),"Lutin")</f>
-        <v>Lutin</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B454, ""en"", ""fr"")"),"guerrier nain")</f>
+        <v>guerrier nain</v>
       </c>
       <c r="D454" s="29"/>
       <c r="E454" s="29"/>
-      <c r="F454" s="23" t="s">
-        <v>1597</v>
-      </c>
+      <c r="F454" s="23"/>
       <c r="G454" s="29"/>
       <c r="H454" s="36"/>
-      <c r="I454" s="23" t="s">
-        <v>1597</v>
-      </c>
-      <c r="J454" s="25" t="s">
-        <v>1598</v>
-      </c>
+      <c r="I454" s="29"/>
+      <c r="J454" s="25"/>
       <c r="K454" s="30"/>
       <c r="L454" s="35"/>
       <c r="M454" s="28"/>
@@ -23612,27 +23652,27 @@
     </row>
     <row r="455">
       <c r="A455" s="21" t="s">
-        <v>1599</v>
+        <v>1578</v>
       </c>
       <c r="B455" s="22" t="s">
-        <v>1600</v>
+        <v>1579</v>
       </c>
       <c r="C455" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B455, ""en"", ""fr"")"),"Druide")</f>
-        <v>Druide</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B455, ""en"", ""fr"")"),"chevalier")</f>
+        <v>chevalier</v>
       </c>
       <c r="D455" s="29"/>
       <c r="E455" s="29"/>
       <c r="F455" s="23" t="s">
-        <v>1601</v>
+        <v>1580</v>
       </c>
       <c r="G455" s="29"/>
       <c r="H455" s="36"/>
       <c r="I455" s="23" t="s">
-        <v>1600</v>
+        <v>1581</v>
       </c>
       <c r="J455" s="25" t="s">
-        <v>1602</v>
+        <v>1582</v>
       </c>
       <c r="K455" s="30"/>
       <c r="L455" s="35"/>
@@ -23655,25 +23695,27 @@
     </row>
     <row r="456">
       <c r="A456" s="21" t="s">
-        <v>1603</v>
+        <v>1583</v>
       </c>
       <c r="B456" s="22" t="s">
-        <v>1604</v>
+        <v>1584</v>
       </c>
       <c r="C456" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B456, ""en"", ""fr"")"),"Snoovir")</f>
-        <v>Snoovir</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B456, ""en"", ""fr"")"),"Le commandant")</f>
+        <v>Le commandant</v>
       </c>
       <c r="D456" s="29"/>
       <c r="E456" s="29"/>
       <c r="F456" s="23" t="s">
-        <v>1605</v>
+        <v>1585</v>
       </c>
       <c r="G456" s="29"/>
       <c r="H456" s="36"/>
-      <c r="I456" s="29"/>
+      <c r="I456" s="23" t="s">
+        <v>1586</v>
+      </c>
       <c r="J456" s="25" t="s">
-        <v>1606</v>
+        <v>1587</v>
       </c>
       <c r="K456" s="30"/>
       <c r="L456" s="35"/>
@@ -23696,27 +23738,27 @@
     </row>
     <row r="457">
       <c r="A457" s="21" t="s">
-        <v>1607</v>
+        <v>1588</v>
       </c>
       <c r="B457" s="22" t="s">
-        <v>1608</v>
+        <v>1589</v>
       </c>
       <c r="C457" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B457, ""en"", ""fr"")"),"Zombi")</f>
-        <v>Zombi</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B457, ""en"", ""fr"")"),"guerrier")</f>
+        <v>guerrier</v>
       </c>
       <c r="D457" s="29"/>
       <c r="E457" s="29"/>
       <c r="F457" s="23" t="s">
-        <v>1609</v>
+        <v>1590</v>
       </c>
       <c r="G457" s="29"/>
       <c r="H457" s="36"/>
       <c r="I457" s="23" t="s">
-        <v>1609</v>
+        <v>1591</v>
       </c>
       <c r="J457" s="25" t="s">
-        <v>1610</v>
+        <v>1592</v>
       </c>
       <c r="K457" s="30"/>
       <c r="L457" s="35"/>
@@ -23739,27 +23781,27 @@
     </row>
     <row r="458">
       <c r="A458" s="21" t="s">
-        <v>1611</v>
+        <v>1593</v>
       </c>
       <c r="B458" s="22" t="s">
-        <v>1612</v>
+        <v>1594</v>
       </c>
       <c r="C458" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B458, ""en"", ""fr"")"),"Momie")</f>
-        <v>Momie</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B458, ""en"", ""fr"")"),"Prisonnier")</f>
+        <v>Prisonnier</v>
       </c>
       <c r="D458" s="29"/>
       <c r="E458" s="29"/>
       <c r="F458" s="23" t="s">
-        <v>1613</v>
+        <v>1595</v>
       </c>
       <c r="G458" s="29"/>
       <c r="H458" s="36"/>
       <c r="I458" s="23" t="s">
-        <v>1614</v>
+        <v>1596</v>
       </c>
       <c r="J458" s="25" t="s">
-        <v>1615</v>
+        <v>1597</v>
       </c>
       <c r="K458" s="30"/>
       <c r="L458" s="35"/>
@@ -23782,25 +23824,27 @@
     </row>
     <row r="459">
       <c r="A459" s="21" t="s">
-        <v>1616</v>
+        <v>1598</v>
       </c>
       <c r="B459" s="22" t="s">
-        <v>1617</v>
+        <v>1599</v>
       </c>
       <c r="C459" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B459, ""en"", ""fr"")"),"gardien crypte")</f>
-        <v>gardien crypte</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B459, ""en"", ""fr"")"),"Rat")</f>
+        <v>Rat</v>
       </c>
       <c r="D459" s="29"/>
       <c r="E459" s="29"/>
       <c r="F459" s="23" t="s">
-        <v>1618</v>
+        <v>1600</v>
       </c>
       <c r="G459" s="29"/>
       <c r="H459" s="36"/>
-      <c r="I459" s="29"/>
+      <c r="I459" s="23" t="s">
+        <v>1601</v>
+      </c>
       <c r="J459" s="25" t="s">
-        <v>1619</v>
+        <v>1602</v>
       </c>
       <c r="K459" s="30"/>
       <c r="L459" s="35"/>
@@ -23823,27 +23867,25 @@
     </row>
     <row r="460">
       <c r="A460" s="21" t="s">
-        <v>1620</v>
+        <v>1603</v>
       </c>
       <c r="B460" s="22" t="s">
-        <v>1621</v>
+        <v>1604</v>
       </c>
       <c r="C460" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B460, ""en"", ""fr"")"),"pharaon")</f>
-        <v>pharaon</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B460, ""en"", ""fr"")"),"faucon")</f>
+        <v>faucon</v>
       </c>
       <c r="D460" s="29"/>
       <c r="E460" s="29"/>
       <c r="F460" s="23" t="s">
-        <v>1622</v>
+        <v>1605</v>
       </c>
       <c r="G460" s="29"/>
       <c r="H460" s="36"/>
-      <c r="I460" s="23" t="s">
-        <v>1623</v>
-      </c>
+      <c r="I460" s="29"/>
       <c r="J460" s="25" t="s">
-        <v>1624</v>
+        <v>1606</v>
       </c>
       <c r="K460" s="30"/>
       <c r="L460" s="35"/>
@@ -23866,25 +23908,25 @@
     </row>
     <row r="461">
       <c r="A461" s="21" t="s">
-        <v>1625</v>
+        <v>1607</v>
       </c>
       <c r="B461" s="22" t="s">
-        <v>1626</v>
+        <v>1608</v>
       </c>
       <c r="C461" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B461, ""en"", ""fr"")"),"Vampire")</f>
-        <v>Vampire</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B461, ""en"", ""fr"")"),"vaurien de sable")</f>
+        <v>vaurien de sable</v>
       </c>
       <c r="D461" s="29"/>
       <c r="E461" s="29"/>
       <c r="F461" s="23" t="s">
-        <v>1627</v>
+        <v>1609</v>
       </c>
       <c r="G461" s="29"/>
       <c r="H461" s="36"/>
       <c r="I461" s="29"/>
       <c r="J461" s="25" t="s">
-        <v>1628</v>
+        <v>1610</v>
       </c>
       <c r="K461" s="30"/>
       <c r="L461" s="35"/>
@@ -23907,28 +23949,24 @@
     </row>
     <row r="462">
       <c r="A462" s="21" t="s">
-        <v>1629</v>
+        <v>1611</v>
       </c>
       <c r="B462" s="22" t="s">
-        <v>1630</v>
+        <v>1612</v>
       </c>
       <c r="C462" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B462, ""en"", ""fr"")"),"prêtre de sang")</f>
-        <v>prêtre de sang</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B462, ""en"", ""fr"")"),"herbe vaurien")</f>
+        <v>herbe vaurien</v>
       </c>
       <c r="D462" s="29"/>
       <c r="E462" s="29"/>
       <c r="F462" s="23" t="s">
-        <v>1631</v>
+        <v>1613</v>
       </c>
       <c r="G462" s="29"/>
       <c r="H462" s="36"/>
-      <c r="I462" s="23" t="s">
-        <v>1632</v>
-      </c>
-      <c r="J462" s="25" t="s">
-        <v>1633</v>
-      </c>
+      <c r="I462" s="29"/>
+      <c r="J462" s="25"/>
       <c r="K462" s="30"/>
       <c r="L462" s="35"/>
       <c r="M462" s="28"/>
@@ -23950,25 +23988,27 @@
     </row>
     <row r="463">
       <c r="A463" s="21" t="s">
-        <v>1634</v>
+        <v>1614</v>
       </c>
       <c r="B463" s="22" t="s">
-        <v>1635</v>
+        <v>1615</v>
       </c>
       <c r="C463" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B463, ""en"", ""fr"")"),"seigneur de sang")</f>
-        <v>seigneur de sang</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B463, ""en"", ""fr"")"),"Lutin")</f>
+        <v>Lutin</v>
       </c>
       <c r="D463" s="29"/>
       <c r="E463" s="29"/>
       <c r="F463" s="23" t="s">
-        <v>1636</v>
+        <v>1615</v>
       </c>
       <c r="G463" s="29"/>
       <c r="H463" s="36"/>
-      <c r="I463" s="29"/>
+      <c r="I463" s="23" t="s">
+        <v>1615</v>
+      </c>
       <c r="J463" s="25" t="s">
-        <v>1637</v>
+        <v>1616</v>
       </c>
       <c r="K463" s="30"/>
       <c r="L463" s="35"/>
@@ -23991,23 +24031,28 @@
     </row>
     <row r="464">
       <c r="A464" s="21" t="s">
-        <v>1638</v>
+        <v>1617</v>
       </c>
       <c r="B464" s="22" t="s">
-        <v>1639</v>
-      </c>
-      <c r="C464" s="23" t="s">
-        <v>1639</v>
+        <v>1618</v>
+      </c>
+      <c r="C464" s="23" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B464, ""en"", ""fr"")"),"Druide")</f>
+        <v>Druide</v>
       </c>
       <c r="D464" s="29"/>
       <c r="E464" s="29"/>
       <c r="F464" s="23" t="s">
-        <v>1640</v>
+        <v>1619</v>
       </c>
       <c r="G464" s="29"/>
       <c r="H464" s="36"/>
-      <c r="I464" s="29"/>
-      <c r="J464" s="30"/>
+      <c r="I464" s="23" t="s">
+        <v>1618</v>
+      </c>
+      <c r="J464" s="25" t="s">
+        <v>1620</v>
+      </c>
       <c r="K464" s="30"/>
       <c r="L464" s="35"/>
       <c r="M464" s="28"/>
@@ -24029,24 +24074,26 @@
     </row>
     <row r="465">
       <c r="A465" s="21" t="s">
-        <v>1641</v>
+        <v>1621</v>
       </c>
       <c r="B465" s="22" t="s">
-        <v>1642</v>
+        <v>1622</v>
       </c>
       <c r="C465" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B465, ""en"", ""fr"")"),"grande gnarl")</f>
-        <v>grande gnarl</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B465, ""en"", ""fr"")"),"Snoovir")</f>
+        <v>Snoovir</v>
       </c>
       <c r="D465" s="29"/>
       <c r="E465" s="29"/>
       <c r="F465" s="23" t="s">
-        <v>1643</v>
+        <v>1623</v>
       </c>
       <c r="G465" s="29"/>
       <c r="H465" s="36"/>
       <c r="I465" s="29"/>
-      <c r="J465" s="30"/>
+      <c r="J465" s="25" t="s">
+        <v>1624</v>
+      </c>
       <c r="K465" s="30"/>
       <c r="L465" s="35"/>
       <c r="M465" s="28"/>
@@ -24068,24 +24115,28 @@
     </row>
     <row r="466">
       <c r="A466" s="21" t="s">
-        <v>1644</v>
+        <v>1625</v>
       </c>
       <c r="B466" s="22" t="s">
-        <v>1645</v>
+        <v>1626</v>
       </c>
       <c r="C466" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B466, ""en"", ""fr"")"),"mage")</f>
-        <v>mage</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B466, ""en"", ""fr"")"),"Zombi")</f>
+        <v>Zombi</v>
       </c>
       <c r="D466" s="29"/>
       <c r="E466" s="29"/>
       <c r="F466" s="23" t="s">
-        <v>1646</v>
+        <v>1627</v>
       </c>
       <c r="G466" s="29"/>
       <c r="H466" s="36"/>
-      <c r="I466" s="29"/>
-      <c r="J466" s="30"/>
+      <c r="I466" s="23" t="s">
+        <v>1627</v>
+      </c>
+      <c r="J466" s="25" t="s">
+        <v>1628</v>
+      </c>
       <c r="K466" s="30"/>
       <c r="L466" s="35"/>
       <c r="M466" s="28"/>
@@ -24107,24 +24158,28 @@
     </row>
     <row r="467">
       <c r="A467" s="21" t="s">
-        <v>1647</v>
+        <v>1629</v>
       </c>
       <c r="B467" s="22" t="s">
-        <v>1648</v>
+        <v>1630</v>
       </c>
       <c r="C467" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B467, ""en"", ""fr"")"),"arc mage")</f>
-        <v>arc mage</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B467, ""en"", ""fr"")"),"Momie")</f>
+        <v>Momie</v>
       </c>
       <c r="D467" s="29"/>
       <c r="E467" s="29"/>
       <c r="F467" s="23" t="s">
-        <v>1649</v>
+        <v>1631</v>
       </c>
       <c r="G467" s="29"/>
       <c r="H467" s="36"/>
-      <c r="I467" s="29"/>
-      <c r="J467" s="30"/>
+      <c r="I467" s="23" t="s">
+        <v>1632</v>
+      </c>
+      <c r="J467" s="25" t="s">
+        <v>1633</v>
+      </c>
       <c r="K467" s="30"/>
       <c r="L467" s="35"/>
       <c r="M467" s="28"/>
@@ -24146,22 +24201,26 @@
     </row>
     <row r="468">
       <c r="A468" s="21" t="s">
-        <v>1650</v>
+        <v>1634</v>
       </c>
       <c r="B468" s="22" t="s">
-        <v>1651</v>
+        <v>1635</v>
       </c>
       <c r="C468" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B468, ""en"", ""fr"")"),"adumbral")</f>
-        <v>adumbral</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B468, ""en"", ""fr"")"),"gardien crypte")</f>
+        <v>gardien crypte</v>
       </c>
       <c r="D468" s="29"/>
       <c r="E468" s="29"/>
-      <c r="F468" s="29"/>
+      <c r="F468" s="23" t="s">
+        <v>1636</v>
+      </c>
       <c r="G468" s="29"/>
       <c r="H468" s="36"/>
       <c r="I468" s="29"/>
-      <c r="J468" s="30"/>
+      <c r="J468" s="25" t="s">
+        <v>1637</v>
+      </c>
       <c r="K468" s="30"/>
       <c r="L468" s="35"/>
       <c r="M468" s="28"/>
@@ -24182,16 +24241,29 @@
       <c r="AB468" s="28"/>
     </row>
     <row r="469">
-      <c r="A469" s="42"/>
-      <c r="B469" s="43"/>
-      <c r="C469" s="29"/>
+      <c r="A469" s="21" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B469" s="22" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C469" s="23" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B469, ""en"", ""fr"")"),"pharaon")</f>
+        <v>pharaon</v>
+      </c>
       <c r="D469" s="29"/>
       <c r="E469" s="29"/>
-      <c r="F469" s="29"/>
+      <c r="F469" s="23" t="s">
+        <v>1640</v>
+      </c>
       <c r="G469" s="29"/>
       <c r="H469" s="36"/>
-      <c r="I469" s="29"/>
-      <c r="J469" s="30"/>
+      <c r="I469" s="23" t="s">
+        <v>1641</v>
+      </c>
+      <c r="J469" s="25" t="s">
+        <v>1642</v>
+      </c>
       <c r="K469" s="30"/>
       <c r="L469" s="35"/>
       <c r="M469" s="28"/>
@@ -24212,16 +24284,27 @@
       <c r="AB469" s="28"/>
     </row>
     <row r="470">
-      <c r="A470" s="42"/>
-      <c r="B470" s="43"/>
-      <c r="C470" s="29"/>
+      <c r="A470" s="21" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B470" s="22" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C470" s="23" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B470, ""en"", ""fr"")"),"Vampire")</f>
+        <v>Vampire</v>
+      </c>
       <c r="D470" s="29"/>
       <c r="E470" s="29"/>
-      <c r="F470" s="29"/>
+      <c r="F470" s="23" t="s">
+        <v>1645</v>
+      </c>
       <c r="G470" s="29"/>
       <c r="H470" s="36"/>
       <c r="I470" s="29"/>
-      <c r="J470" s="30"/>
+      <c r="J470" s="25" t="s">
+        <v>1646</v>
+      </c>
       <c r="K470" s="30"/>
       <c r="L470" s="35"/>
       <c r="M470" s="28"/>
@@ -24242,16 +24325,29 @@
       <c r="AB470" s="28"/>
     </row>
     <row r="471">
-      <c r="A471" s="42"/>
-      <c r="B471" s="43"/>
-      <c r="C471" s="29"/>
+      <c r="A471" s="21" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B471" s="22" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C471" s="23" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B471, ""en"", ""fr"")"),"prêtre de sang")</f>
+        <v>prêtre de sang</v>
+      </c>
       <c r="D471" s="29"/>
       <c r="E471" s="29"/>
-      <c r="F471" s="29"/>
+      <c r="F471" s="23" t="s">
+        <v>1649</v>
+      </c>
       <c r="G471" s="29"/>
       <c r="H471" s="36"/>
-      <c r="I471" s="29"/>
-      <c r="J471" s="30"/>
+      <c r="I471" s="23" t="s">
+        <v>1650</v>
+      </c>
+      <c r="J471" s="25" t="s">
+        <v>1651</v>
+      </c>
       <c r="K471" s="30"/>
       <c r="L471" s="35"/>
       <c r="M471" s="28"/>
@@ -24272,16 +24368,27 @@
       <c r="AB471" s="28"/>
     </row>
     <row r="472">
-      <c r="A472" s="42"/>
-      <c r="B472" s="43"/>
-      <c r="C472" s="29"/>
+      <c r="A472" s="21" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B472" s="22" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C472" s="23" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B472, ""en"", ""fr"")"),"seigneur de sang")</f>
+        <v>seigneur de sang</v>
+      </c>
       <c r="D472" s="29"/>
       <c r="E472" s="29"/>
-      <c r="F472" s="29"/>
+      <c r="F472" s="23" t="s">
+        <v>1654</v>
+      </c>
       <c r="G472" s="29"/>
       <c r="H472" s="36"/>
       <c r="I472" s="29"/>
-      <c r="J472" s="30"/>
+      <c r="J472" s="25" t="s">
+        <v>1655</v>
+      </c>
       <c r="K472" s="30"/>
       <c r="L472" s="35"/>
       <c r="M472" s="28"/>
@@ -24302,12 +24409,20 @@
       <c r="AB472" s="28"/>
     </row>
     <row r="473">
-      <c r="A473" s="42"/>
-      <c r="B473" s="43"/>
-      <c r="C473" s="29"/>
+      <c r="A473" s="21" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B473" s="22" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C473" s="23" t="s">
+        <v>1657</v>
+      </c>
       <c r="D473" s="29"/>
       <c r="E473" s="29"/>
-      <c r="F473" s="29"/>
+      <c r="F473" s="23" t="s">
+        <v>1658</v>
+      </c>
       <c r="G473" s="29"/>
       <c r="H473" s="36"/>
       <c r="I473" s="29"/>
@@ -24332,12 +24447,21 @@
       <c r="AB473" s="28"/>
     </row>
     <row r="474">
-      <c r="A474" s="42"/>
-      <c r="B474" s="43"/>
-      <c r="C474" s="29"/>
+      <c r="A474" s="21" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B474" s="22" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C474" s="23" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B474, ""en"", ""fr"")"),"grande gnarl")</f>
+        <v>grande gnarl</v>
+      </c>
       <c r="D474" s="29"/>
       <c r="E474" s="29"/>
-      <c r="F474" s="29"/>
+      <c r="F474" s="23" t="s">
+        <v>1661</v>
+      </c>
       <c r="G474" s="29"/>
       <c r="H474" s="36"/>
       <c r="I474" s="29"/>
@@ -24362,12 +24486,21 @@
       <c r="AB474" s="28"/>
     </row>
     <row r="475">
-      <c r="A475" s="42"/>
-      <c r="B475" s="43"/>
-      <c r="C475" s="29"/>
+      <c r="A475" s="21" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B475" s="22" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C475" s="23" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B475, ""en"", ""fr"")"),"mage")</f>
+        <v>mage</v>
+      </c>
       <c r="D475" s="29"/>
       <c r="E475" s="29"/>
-      <c r="F475" s="29"/>
+      <c r="F475" s="23" t="s">
+        <v>1664</v>
+      </c>
       <c r="G475" s="29"/>
       <c r="H475" s="36"/>
       <c r="I475" s="29"/>
@@ -24392,12 +24525,21 @@
       <c r="AB475" s="28"/>
     </row>
     <row r="476">
-      <c r="A476" s="42"/>
-      <c r="B476" s="43"/>
-      <c r="C476" s="29"/>
+      <c r="A476" s="21" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B476" s="22" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C476" s="23" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B476, ""en"", ""fr"")"),"arc mage")</f>
+        <v>arc mage</v>
+      </c>
       <c r="D476" s="29"/>
       <c r="E476" s="29"/>
-      <c r="F476" s="29"/>
+      <c r="F476" s="23" t="s">
+        <v>1667</v>
+      </c>
       <c r="G476" s="29"/>
       <c r="H476" s="36"/>
       <c r="I476" s="29"/>
@@ -24422,9 +24564,16 @@
       <c r="AB476" s="28"/>
     </row>
     <row r="477">
-      <c r="A477" s="42"/>
-      <c r="B477" s="43"/>
-      <c r="C477" s="29"/>
+      <c r="A477" s="21" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B477" s="22" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C477" s="23" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B477, ""en"", ""fr"")"),"adumbral")</f>
+        <v>adumbral</v>
+      </c>
       <c r="D477" s="29"/>
       <c r="E477" s="29"/>
       <c r="F477" s="29"/>
@@ -25952,274 +26101,274 @@
       <c r="AB527" s="28"/>
     </row>
     <row r="528">
-      <c r="A528" s="1"/>
-      <c r="B528" s="44"/>
-      <c r="C528" s="44"/>
-      <c r="D528" s="44"/>
-      <c r="E528" s="44"/>
-      <c r="F528" s="44"/>
-      <c r="G528" s="44"/>
-      <c r="H528" s="45"/>
-      <c r="I528" s="44"/>
-      <c r="J528" s="46"/>
-      <c r="K528" s="46"/>
-      <c r="L528" s="47"/>
-      <c r="M528" s="47"/>
-      <c r="N528" s="47"/>
-      <c r="O528" s="47"/>
-      <c r="P528" s="47"/>
-      <c r="Q528" s="47"/>
-      <c r="R528" s="47"/>
-      <c r="S528" s="47"/>
-      <c r="T528" s="47"/>
-      <c r="U528" s="47"/>
-      <c r="V528" s="47"/>
-      <c r="W528" s="47"/>
-      <c r="X528" s="47"/>
-      <c r="Y528" s="47"/>
-      <c r="Z528" s="47"/>
-      <c r="AA528" s="47"/>
-      <c r="AB528" s="47"/>
+      <c r="A528" s="42"/>
+      <c r="B528" s="43"/>
+      <c r="C528" s="29"/>
+      <c r="D528" s="29"/>
+      <c r="E528" s="29"/>
+      <c r="F528" s="29"/>
+      <c r="G528" s="29"/>
+      <c r="H528" s="36"/>
+      <c r="I528" s="29"/>
+      <c r="J528" s="30"/>
+      <c r="K528" s="30"/>
+      <c r="L528" s="35"/>
+      <c r="M528" s="28"/>
+      <c r="N528" s="28"/>
+      <c r="O528" s="28"/>
+      <c r="P528" s="28"/>
+      <c r="Q528" s="28"/>
+      <c r="R528" s="28"/>
+      <c r="S528" s="28"/>
+      <c r="T528" s="28"/>
+      <c r="U528" s="28"/>
+      <c r="V528" s="28"/>
+      <c r="W528" s="28"/>
+      <c r="X528" s="28"/>
+      <c r="Y528" s="28"/>
+      <c r="Z528" s="28"/>
+      <c r="AA528" s="28"/>
+      <c r="AB528" s="28"/>
     </row>
     <row r="529">
-      <c r="A529" s="1"/>
-      <c r="B529" s="44"/>
-      <c r="C529" s="44"/>
-      <c r="D529" s="44"/>
-      <c r="E529" s="44"/>
-      <c r="F529" s="44"/>
-      <c r="G529" s="44"/>
-      <c r="H529" s="45"/>
-      <c r="I529" s="44"/>
-      <c r="J529" s="46"/>
-      <c r="K529" s="46"/>
-      <c r="L529" s="47"/>
-      <c r="M529" s="47"/>
-      <c r="N529" s="47"/>
-      <c r="O529" s="47"/>
-      <c r="P529" s="47"/>
-      <c r="Q529" s="47"/>
-      <c r="R529" s="47"/>
-      <c r="S529" s="47"/>
-      <c r="T529" s="47"/>
-      <c r="U529" s="47"/>
-      <c r="V529" s="47"/>
-      <c r="W529" s="47"/>
-      <c r="X529" s="47"/>
-      <c r="Y529" s="47"/>
-      <c r="Z529" s="47"/>
-      <c r="AA529" s="47"/>
-      <c r="AB529" s="47"/>
+      <c r="A529" s="42"/>
+      <c r="B529" s="43"/>
+      <c r="C529" s="29"/>
+      <c r="D529" s="29"/>
+      <c r="E529" s="29"/>
+      <c r="F529" s="29"/>
+      <c r="G529" s="29"/>
+      <c r="H529" s="36"/>
+      <c r="I529" s="29"/>
+      <c r="J529" s="30"/>
+      <c r="K529" s="30"/>
+      <c r="L529" s="35"/>
+      <c r="M529" s="28"/>
+      <c r="N529" s="28"/>
+      <c r="O529" s="28"/>
+      <c r="P529" s="28"/>
+      <c r="Q529" s="28"/>
+      <c r="R529" s="28"/>
+      <c r="S529" s="28"/>
+      <c r="T529" s="28"/>
+      <c r="U529" s="28"/>
+      <c r="V529" s="28"/>
+      <c r="W529" s="28"/>
+      <c r="X529" s="28"/>
+      <c r="Y529" s="28"/>
+      <c r="Z529" s="28"/>
+      <c r="AA529" s="28"/>
+      <c r="AB529" s="28"/>
     </row>
     <row r="530">
-      <c r="A530" s="1"/>
-      <c r="B530" s="44"/>
-      <c r="C530" s="44"/>
-      <c r="D530" s="44"/>
-      <c r="E530" s="44"/>
-      <c r="F530" s="44"/>
-      <c r="G530" s="44"/>
-      <c r="H530" s="45"/>
-      <c r="I530" s="44"/>
-      <c r="J530" s="46"/>
-      <c r="K530" s="46"/>
-      <c r="L530" s="47"/>
-      <c r="M530" s="47"/>
-      <c r="N530" s="47"/>
-      <c r="O530" s="47"/>
-      <c r="P530" s="47"/>
-      <c r="Q530" s="47"/>
-      <c r="R530" s="47"/>
-      <c r="S530" s="47"/>
-      <c r="T530" s="47"/>
-      <c r="U530" s="47"/>
-      <c r="V530" s="47"/>
-      <c r="W530" s="47"/>
-      <c r="X530" s="47"/>
-      <c r="Y530" s="47"/>
-      <c r="Z530" s="47"/>
-      <c r="AA530" s="47"/>
-      <c r="AB530" s="47"/>
+      <c r="A530" s="42"/>
+      <c r="B530" s="43"/>
+      <c r="C530" s="29"/>
+      <c r="D530" s="29"/>
+      <c r="E530" s="29"/>
+      <c r="F530" s="29"/>
+      <c r="G530" s="29"/>
+      <c r="H530" s="36"/>
+      <c r="I530" s="29"/>
+      <c r="J530" s="30"/>
+      <c r="K530" s="30"/>
+      <c r="L530" s="35"/>
+      <c r="M530" s="28"/>
+      <c r="N530" s="28"/>
+      <c r="O530" s="28"/>
+      <c r="P530" s="28"/>
+      <c r="Q530" s="28"/>
+      <c r="R530" s="28"/>
+      <c r="S530" s="28"/>
+      <c r="T530" s="28"/>
+      <c r="U530" s="28"/>
+      <c r="V530" s="28"/>
+      <c r="W530" s="28"/>
+      <c r="X530" s="28"/>
+      <c r="Y530" s="28"/>
+      <c r="Z530" s="28"/>
+      <c r="AA530" s="28"/>
+      <c r="AB530" s="28"/>
     </row>
     <row r="531">
-      <c r="A531" s="1"/>
-      <c r="B531" s="44"/>
-      <c r="C531" s="44"/>
-      <c r="D531" s="44"/>
-      <c r="E531" s="44"/>
-      <c r="F531" s="44"/>
-      <c r="G531" s="44"/>
-      <c r="H531" s="45"/>
-      <c r="I531" s="44"/>
-      <c r="J531" s="46"/>
-      <c r="K531" s="46"/>
-      <c r="L531" s="47"/>
-      <c r="M531" s="47"/>
-      <c r="N531" s="47"/>
-      <c r="O531" s="47"/>
-      <c r="P531" s="47"/>
-      <c r="Q531" s="47"/>
-      <c r="R531" s="47"/>
-      <c r="S531" s="47"/>
-      <c r="T531" s="47"/>
-      <c r="U531" s="47"/>
-      <c r="V531" s="47"/>
-      <c r="W531" s="47"/>
-      <c r="X531" s="47"/>
-      <c r="Y531" s="47"/>
-      <c r="Z531" s="47"/>
-      <c r="AA531" s="47"/>
-      <c r="AB531" s="47"/>
+      <c r="A531" s="42"/>
+      <c r="B531" s="43"/>
+      <c r="C531" s="29"/>
+      <c r="D531" s="29"/>
+      <c r="E531" s="29"/>
+      <c r="F531" s="29"/>
+      <c r="G531" s="29"/>
+      <c r="H531" s="36"/>
+      <c r="I531" s="29"/>
+      <c r="J531" s="30"/>
+      <c r="K531" s="30"/>
+      <c r="L531" s="35"/>
+      <c r="M531" s="28"/>
+      <c r="N531" s="28"/>
+      <c r="O531" s="28"/>
+      <c r="P531" s="28"/>
+      <c r="Q531" s="28"/>
+      <c r="R531" s="28"/>
+      <c r="S531" s="28"/>
+      <c r="T531" s="28"/>
+      <c r="U531" s="28"/>
+      <c r="V531" s="28"/>
+      <c r="W531" s="28"/>
+      <c r="X531" s="28"/>
+      <c r="Y531" s="28"/>
+      <c r="Z531" s="28"/>
+      <c r="AA531" s="28"/>
+      <c r="AB531" s="28"/>
     </row>
     <row r="532">
-      <c r="A532" s="1"/>
-      <c r="B532" s="44"/>
-      <c r="C532" s="44"/>
-      <c r="D532" s="44"/>
-      <c r="E532" s="44"/>
-      <c r="F532" s="44"/>
-      <c r="G532" s="44"/>
-      <c r="H532" s="45"/>
-      <c r="I532" s="44"/>
-      <c r="J532" s="46"/>
-      <c r="K532" s="46"/>
-      <c r="L532" s="47"/>
-      <c r="M532" s="47"/>
-      <c r="N532" s="47"/>
-      <c r="O532" s="47"/>
-      <c r="P532" s="47"/>
-      <c r="Q532" s="47"/>
-      <c r="R532" s="47"/>
-      <c r="S532" s="47"/>
-      <c r="T532" s="47"/>
-      <c r="U532" s="47"/>
-      <c r="V532" s="47"/>
-      <c r="W532" s="47"/>
-      <c r="X532" s="47"/>
-      <c r="Y532" s="47"/>
-      <c r="Z532" s="47"/>
-      <c r="AA532" s="47"/>
-      <c r="AB532" s="47"/>
+      <c r="A532" s="42"/>
+      <c r="B532" s="43"/>
+      <c r="C532" s="29"/>
+      <c r="D532" s="29"/>
+      <c r="E532" s="29"/>
+      <c r="F532" s="29"/>
+      <c r="G532" s="29"/>
+      <c r="H532" s="36"/>
+      <c r="I532" s="29"/>
+      <c r="J532" s="30"/>
+      <c r="K532" s="30"/>
+      <c r="L532" s="35"/>
+      <c r="M532" s="28"/>
+      <c r="N532" s="28"/>
+      <c r="O532" s="28"/>
+      <c r="P532" s="28"/>
+      <c r="Q532" s="28"/>
+      <c r="R532" s="28"/>
+      <c r="S532" s="28"/>
+      <c r="T532" s="28"/>
+      <c r="U532" s="28"/>
+      <c r="V532" s="28"/>
+      <c r="W532" s="28"/>
+      <c r="X532" s="28"/>
+      <c r="Y532" s="28"/>
+      <c r="Z532" s="28"/>
+      <c r="AA532" s="28"/>
+      <c r="AB532" s="28"/>
     </row>
     <row r="533">
-      <c r="A533" s="1"/>
-      <c r="B533" s="44"/>
-      <c r="C533" s="44"/>
-      <c r="D533" s="44"/>
-      <c r="E533" s="44"/>
-      <c r="F533" s="44"/>
-      <c r="G533" s="44"/>
-      <c r="H533" s="45"/>
-      <c r="I533" s="44"/>
-      <c r="J533" s="46"/>
-      <c r="K533" s="46"/>
-      <c r="L533" s="47"/>
-      <c r="M533" s="47"/>
-      <c r="N533" s="47"/>
-      <c r="O533" s="47"/>
-      <c r="P533" s="47"/>
-      <c r="Q533" s="47"/>
-      <c r="R533" s="47"/>
-      <c r="S533" s="47"/>
-      <c r="T533" s="47"/>
-      <c r="U533" s="47"/>
-      <c r="V533" s="47"/>
-      <c r="W533" s="47"/>
-      <c r="X533" s="47"/>
-      <c r="Y533" s="47"/>
-      <c r="Z533" s="47"/>
-      <c r="AA533" s="47"/>
-      <c r="AB533" s="47"/>
+      <c r="A533" s="42"/>
+      <c r="B533" s="43"/>
+      <c r="C533" s="29"/>
+      <c r="D533" s="29"/>
+      <c r="E533" s="29"/>
+      <c r="F533" s="29"/>
+      <c r="G533" s="29"/>
+      <c r="H533" s="36"/>
+      <c r="I533" s="29"/>
+      <c r="J533" s="30"/>
+      <c r="K533" s="30"/>
+      <c r="L533" s="35"/>
+      <c r="M533" s="28"/>
+      <c r="N533" s="28"/>
+      <c r="O533" s="28"/>
+      <c r="P533" s="28"/>
+      <c r="Q533" s="28"/>
+      <c r="R533" s="28"/>
+      <c r="S533" s="28"/>
+      <c r="T533" s="28"/>
+      <c r="U533" s="28"/>
+      <c r="V533" s="28"/>
+      <c r="W533" s="28"/>
+      <c r="X533" s="28"/>
+      <c r="Y533" s="28"/>
+      <c r="Z533" s="28"/>
+      <c r="AA533" s="28"/>
+      <c r="AB533" s="28"/>
     </row>
     <row r="534">
-      <c r="A534" s="1"/>
-      <c r="B534" s="44"/>
-      <c r="C534" s="44"/>
-      <c r="D534" s="44"/>
-      <c r="E534" s="44"/>
-      <c r="F534" s="44"/>
-      <c r="G534" s="44"/>
-      <c r="H534" s="45"/>
-      <c r="I534" s="44"/>
-      <c r="J534" s="46"/>
-      <c r="K534" s="46"/>
-      <c r="L534" s="47"/>
-      <c r="M534" s="47"/>
-      <c r="N534" s="47"/>
-      <c r="O534" s="47"/>
-      <c r="P534" s="47"/>
-      <c r="Q534" s="47"/>
-      <c r="R534" s="47"/>
-      <c r="S534" s="47"/>
-      <c r="T534" s="47"/>
-      <c r="U534" s="47"/>
-      <c r="V534" s="47"/>
-      <c r="W534" s="47"/>
-      <c r="X534" s="47"/>
-      <c r="Y534" s="47"/>
-      <c r="Z534" s="47"/>
-      <c r="AA534" s="47"/>
-      <c r="AB534" s="47"/>
+      <c r="A534" s="42"/>
+      <c r="B534" s="43"/>
+      <c r="C534" s="29"/>
+      <c r="D534" s="29"/>
+      <c r="E534" s="29"/>
+      <c r="F534" s="29"/>
+      <c r="G534" s="29"/>
+      <c r="H534" s="36"/>
+      <c r="I534" s="29"/>
+      <c r="J534" s="30"/>
+      <c r="K534" s="30"/>
+      <c r="L534" s="35"/>
+      <c r="M534" s="28"/>
+      <c r="N534" s="28"/>
+      <c r="O534" s="28"/>
+      <c r="P534" s="28"/>
+      <c r="Q534" s="28"/>
+      <c r="R534" s="28"/>
+      <c r="S534" s="28"/>
+      <c r="T534" s="28"/>
+      <c r="U534" s="28"/>
+      <c r="V534" s="28"/>
+      <c r="W534" s="28"/>
+      <c r="X534" s="28"/>
+      <c r="Y534" s="28"/>
+      <c r="Z534" s="28"/>
+      <c r="AA534" s="28"/>
+      <c r="AB534" s="28"/>
     </row>
     <row r="535">
-      <c r="A535" s="1"/>
-      <c r="B535" s="44"/>
-      <c r="C535" s="44"/>
-      <c r="D535" s="44"/>
-      <c r="E535" s="44"/>
-      <c r="F535" s="44"/>
-      <c r="G535" s="44"/>
-      <c r="H535" s="45"/>
-      <c r="I535" s="44"/>
-      <c r="J535" s="46"/>
-      <c r="K535" s="46"/>
-      <c r="L535" s="47"/>
-      <c r="M535" s="47"/>
-      <c r="N535" s="47"/>
-      <c r="O535" s="47"/>
-      <c r="P535" s="47"/>
-      <c r="Q535" s="47"/>
-      <c r="R535" s="47"/>
-      <c r="S535" s="47"/>
-      <c r="T535" s="47"/>
-      <c r="U535" s="47"/>
-      <c r="V535" s="47"/>
-      <c r="W535" s="47"/>
-      <c r="X535" s="47"/>
-      <c r="Y535" s="47"/>
-      <c r="Z535" s="47"/>
-      <c r="AA535" s="47"/>
-      <c r="AB535" s="47"/>
+      <c r="A535" s="42"/>
+      <c r="B535" s="43"/>
+      <c r="C535" s="29"/>
+      <c r="D535" s="29"/>
+      <c r="E535" s="29"/>
+      <c r="F535" s="29"/>
+      <c r="G535" s="29"/>
+      <c r="H535" s="36"/>
+      <c r="I535" s="29"/>
+      <c r="J535" s="30"/>
+      <c r="K535" s="30"/>
+      <c r="L535" s="35"/>
+      <c r="M535" s="28"/>
+      <c r="N535" s="28"/>
+      <c r="O535" s="28"/>
+      <c r="P535" s="28"/>
+      <c r="Q535" s="28"/>
+      <c r="R535" s="28"/>
+      <c r="S535" s="28"/>
+      <c r="T535" s="28"/>
+      <c r="U535" s="28"/>
+      <c r="V535" s="28"/>
+      <c r="W535" s="28"/>
+      <c r="X535" s="28"/>
+      <c r="Y535" s="28"/>
+      <c r="Z535" s="28"/>
+      <c r="AA535" s="28"/>
+      <c r="AB535" s="28"/>
     </row>
     <row r="536">
-      <c r="A536" s="1"/>
-      <c r="B536" s="44"/>
-      <c r="C536" s="44"/>
-      <c r="D536" s="44"/>
-      <c r="E536" s="44"/>
-      <c r="F536" s="44"/>
-      <c r="G536" s="44"/>
-      <c r="H536" s="45"/>
-      <c r="I536" s="44"/>
-      <c r="J536" s="46"/>
-      <c r="K536" s="46"/>
-      <c r="L536" s="47"/>
-      <c r="M536" s="47"/>
-      <c r="N536" s="47"/>
-      <c r="O536" s="47"/>
-      <c r="P536" s="47"/>
-      <c r="Q536" s="47"/>
-      <c r="R536" s="47"/>
-      <c r="S536" s="47"/>
-      <c r="T536" s="47"/>
-      <c r="U536" s="47"/>
-      <c r="V536" s="47"/>
-      <c r="W536" s="47"/>
-      <c r="X536" s="47"/>
-      <c r="Y536" s="47"/>
-      <c r="Z536" s="47"/>
-      <c r="AA536" s="47"/>
-      <c r="AB536" s="47"/>
+      <c r="A536" s="42"/>
+      <c r="B536" s="43"/>
+      <c r="C536" s="29"/>
+      <c r="D536" s="29"/>
+      <c r="E536" s="29"/>
+      <c r="F536" s="29"/>
+      <c r="G536" s="29"/>
+      <c r="H536" s="36"/>
+      <c r="I536" s="29"/>
+      <c r="J536" s="30"/>
+      <c r="K536" s="30"/>
+      <c r="L536" s="35"/>
+      <c r="M536" s="28"/>
+      <c r="N536" s="28"/>
+      <c r="O536" s="28"/>
+      <c r="P536" s="28"/>
+      <c r="Q536" s="28"/>
+      <c r="R536" s="28"/>
+      <c r="S536" s="28"/>
+      <c r="T536" s="28"/>
+      <c r="U536" s="28"/>
+      <c r="V536" s="28"/>
+      <c r="W536" s="28"/>
+      <c r="X536" s="28"/>
+      <c r="Y536" s="28"/>
+      <c r="Z536" s="28"/>
+      <c r="AA536" s="28"/>
+      <c r="AB536" s="28"/>
     </row>
     <row r="537">
       <c r="A537" s="1"/>
@@ -53221,6 +53370,276 @@
       <c r="AA1436" s="47"/>
       <c r="AB1436" s="47"/>
     </row>
+    <row r="1437">
+      <c r="A1437" s="1"/>
+      <c r="B1437" s="44"/>
+      <c r="C1437" s="44"/>
+      <c r="D1437" s="44"/>
+      <c r="E1437" s="44"/>
+      <c r="F1437" s="44"/>
+      <c r="G1437" s="44"/>
+      <c r="H1437" s="45"/>
+      <c r="I1437" s="44"/>
+      <c r="J1437" s="46"/>
+      <c r="K1437" s="46"/>
+      <c r="L1437" s="47"/>
+      <c r="M1437" s="47"/>
+      <c r="N1437" s="47"/>
+      <c r="O1437" s="47"/>
+      <c r="P1437" s="47"/>
+      <c r="Q1437" s="47"/>
+      <c r="R1437" s="47"/>
+      <c r="S1437" s="47"/>
+      <c r="T1437" s="47"/>
+      <c r="U1437" s="47"/>
+      <c r="V1437" s="47"/>
+      <c r="W1437" s="47"/>
+      <c r="X1437" s="47"/>
+      <c r="Y1437" s="47"/>
+      <c r="Z1437" s="47"/>
+      <c r="AA1437" s="47"/>
+      <c r="AB1437" s="47"/>
+    </row>
+    <row r="1438">
+      <c r="A1438" s="1"/>
+      <c r="B1438" s="44"/>
+      <c r="C1438" s="44"/>
+      <c r="D1438" s="44"/>
+      <c r="E1438" s="44"/>
+      <c r="F1438" s="44"/>
+      <c r="G1438" s="44"/>
+      <c r="H1438" s="45"/>
+      <c r="I1438" s="44"/>
+      <c r="J1438" s="46"/>
+      <c r="K1438" s="46"/>
+      <c r="L1438" s="47"/>
+      <c r="M1438" s="47"/>
+      <c r="N1438" s="47"/>
+      <c r="O1438" s="47"/>
+      <c r="P1438" s="47"/>
+      <c r="Q1438" s="47"/>
+      <c r="R1438" s="47"/>
+      <c r="S1438" s="47"/>
+      <c r="T1438" s="47"/>
+      <c r="U1438" s="47"/>
+      <c r="V1438" s="47"/>
+      <c r="W1438" s="47"/>
+      <c r="X1438" s="47"/>
+      <c r="Y1438" s="47"/>
+      <c r="Z1438" s="47"/>
+      <c r="AA1438" s="47"/>
+      <c r="AB1438" s="47"/>
+    </row>
+    <row r="1439">
+      <c r="A1439" s="1"/>
+      <c r="B1439" s="44"/>
+      <c r="C1439" s="44"/>
+      <c r="D1439" s="44"/>
+      <c r="E1439" s="44"/>
+      <c r="F1439" s="44"/>
+      <c r="G1439" s="44"/>
+      <c r="H1439" s="45"/>
+      <c r="I1439" s="44"/>
+      <c r="J1439" s="46"/>
+      <c r="K1439" s="46"/>
+      <c r="L1439" s="47"/>
+      <c r="M1439" s="47"/>
+      <c r="N1439" s="47"/>
+      <c r="O1439" s="47"/>
+      <c r="P1439" s="47"/>
+      <c r="Q1439" s="47"/>
+      <c r="R1439" s="47"/>
+      <c r="S1439" s="47"/>
+      <c r="T1439" s="47"/>
+      <c r="U1439" s="47"/>
+      <c r="V1439" s="47"/>
+      <c r="W1439" s="47"/>
+      <c r="X1439" s="47"/>
+      <c r="Y1439" s="47"/>
+      <c r="Z1439" s="47"/>
+      <c r="AA1439" s="47"/>
+      <c r="AB1439" s="47"/>
+    </row>
+    <row r="1440">
+      <c r="A1440" s="1"/>
+      <c r="B1440" s="44"/>
+      <c r="C1440" s="44"/>
+      <c r="D1440" s="44"/>
+      <c r="E1440" s="44"/>
+      <c r="F1440" s="44"/>
+      <c r="G1440" s="44"/>
+      <c r="H1440" s="45"/>
+      <c r="I1440" s="44"/>
+      <c r="J1440" s="46"/>
+      <c r="K1440" s="46"/>
+      <c r="L1440" s="47"/>
+      <c r="M1440" s="47"/>
+      <c r="N1440" s="47"/>
+      <c r="O1440" s="47"/>
+      <c r="P1440" s="47"/>
+      <c r="Q1440" s="47"/>
+      <c r="R1440" s="47"/>
+      <c r="S1440" s="47"/>
+      <c r="T1440" s="47"/>
+      <c r="U1440" s="47"/>
+      <c r="V1440" s="47"/>
+      <c r="W1440" s="47"/>
+      <c r="X1440" s="47"/>
+      <c r="Y1440" s="47"/>
+      <c r="Z1440" s="47"/>
+      <c r="AA1440" s="47"/>
+      <c r="AB1440" s="47"/>
+    </row>
+    <row r="1441">
+      <c r="A1441" s="1"/>
+      <c r="B1441" s="44"/>
+      <c r="C1441" s="44"/>
+      <c r="D1441" s="44"/>
+      <c r="E1441" s="44"/>
+      <c r="F1441" s="44"/>
+      <c r="G1441" s="44"/>
+      <c r="H1441" s="45"/>
+      <c r="I1441" s="44"/>
+      <c r="J1441" s="46"/>
+      <c r="K1441" s="46"/>
+      <c r="L1441" s="47"/>
+      <c r="M1441" s="47"/>
+      <c r="N1441" s="47"/>
+      <c r="O1441" s="47"/>
+      <c r="P1441" s="47"/>
+      <c r="Q1441" s="47"/>
+      <c r="R1441" s="47"/>
+      <c r="S1441" s="47"/>
+      <c r="T1441" s="47"/>
+      <c r="U1441" s="47"/>
+      <c r="V1441" s="47"/>
+      <c r="W1441" s="47"/>
+      <c r="X1441" s="47"/>
+      <c r="Y1441" s="47"/>
+      <c r="Z1441" s="47"/>
+      <c r="AA1441" s="47"/>
+      <c r="AB1441" s="47"/>
+    </row>
+    <row r="1442">
+      <c r="A1442" s="1"/>
+      <c r="B1442" s="44"/>
+      <c r="C1442" s="44"/>
+      <c r="D1442" s="44"/>
+      <c r="E1442" s="44"/>
+      <c r="F1442" s="44"/>
+      <c r="G1442" s="44"/>
+      <c r="H1442" s="45"/>
+      <c r="I1442" s="44"/>
+      <c r="J1442" s="46"/>
+      <c r="K1442" s="46"/>
+      <c r="L1442" s="47"/>
+      <c r="M1442" s="47"/>
+      <c r="N1442" s="47"/>
+      <c r="O1442" s="47"/>
+      <c r="P1442" s="47"/>
+      <c r="Q1442" s="47"/>
+      <c r="R1442" s="47"/>
+      <c r="S1442" s="47"/>
+      <c r="T1442" s="47"/>
+      <c r="U1442" s="47"/>
+      <c r="V1442" s="47"/>
+      <c r="W1442" s="47"/>
+      <c r="X1442" s="47"/>
+      <c r="Y1442" s="47"/>
+      <c r="Z1442" s="47"/>
+      <c r="AA1442" s="47"/>
+      <c r="AB1442" s="47"/>
+    </row>
+    <row r="1443">
+      <c r="A1443" s="1"/>
+      <c r="B1443" s="44"/>
+      <c r="C1443" s="44"/>
+      <c r="D1443" s="44"/>
+      <c r="E1443" s="44"/>
+      <c r="F1443" s="44"/>
+      <c r="G1443" s="44"/>
+      <c r="H1443" s="45"/>
+      <c r="I1443" s="44"/>
+      <c r="J1443" s="46"/>
+      <c r="K1443" s="46"/>
+      <c r="L1443" s="47"/>
+      <c r="M1443" s="47"/>
+      <c r="N1443" s="47"/>
+      <c r="O1443" s="47"/>
+      <c r="P1443" s="47"/>
+      <c r="Q1443" s="47"/>
+      <c r="R1443" s="47"/>
+      <c r="S1443" s="47"/>
+      <c r="T1443" s="47"/>
+      <c r="U1443" s="47"/>
+      <c r="V1443" s="47"/>
+      <c r="W1443" s="47"/>
+      <c r="X1443" s="47"/>
+      <c r="Y1443" s="47"/>
+      <c r="Z1443" s="47"/>
+      <c r="AA1443" s="47"/>
+      <c r="AB1443" s="47"/>
+    </row>
+    <row r="1444">
+      <c r="A1444" s="1"/>
+      <c r="B1444" s="44"/>
+      <c r="C1444" s="44"/>
+      <c r="D1444" s="44"/>
+      <c r="E1444" s="44"/>
+      <c r="F1444" s="44"/>
+      <c r="G1444" s="44"/>
+      <c r="H1444" s="45"/>
+      <c r="I1444" s="44"/>
+      <c r="J1444" s="46"/>
+      <c r="K1444" s="46"/>
+      <c r="L1444" s="47"/>
+      <c r="M1444" s="47"/>
+      <c r="N1444" s="47"/>
+      <c r="O1444" s="47"/>
+      <c r="P1444" s="47"/>
+      <c r="Q1444" s="47"/>
+      <c r="R1444" s="47"/>
+      <c r="S1444" s="47"/>
+      <c r="T1444" s="47"/>
+      <c r="U1444" s="47"/>
+      <c r="V1444" s="47"/>
+      <c r="W1444" s="47"/>
+      <c r="X1444" s="47"/>
+      <c r="Y1444" s="47"/>
+      <c r="Z1444" s="47"/>
+      <c r="AA1444" s="47"/>
+      <c r="AB1444" s="47"/>
+    </row>
+    <row r="1445">
+      <c r="A1445" s="1"/>
+      <c r="B1445" s="44"/>
+      <c r="C1445" s="44"/>
+      <c r="D1445" s="44"/>
+      <c r="E1445" s="44"/>
+      <c r="F1445" s="44"/>
+      <c r="G1445" s="44"/>
+      <c r="H1445" s="45"/>
+      <c r="I1445" s="44"/>
+      <c r="J1445" s="46"/>
+      <c r="K1445" s="46"/>
+      <c r="L1445" s="47"/>
+      <c r="M1445" s="47"/>
+      <c r="N1445" s="47"/>
+      <c r="O1445" s="47"/>
+      <c r="P1445" s="47"/>
+      <c r="Q1445" s="47"/>
+      <c r="R1445" s="47"/>
+      <c r="S1445" s="47"/>
+      <c r="T1445" s="47"/>
+      <c r="U1445" s="47"/>
+      <c r="V1445" s="47"/>
+      <c r="W1445" s="47"/>
+      <c r="X1445" s="47"/>
+      <c r="Y1445" s="47"/>
+      <c r="Z1445" s="47"/>
+      <c r="AA1445" s="47"/>
+      <c r="AB1445" s="47"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/server/Dungeonz.io translations.xlsx
+++ b/server/Dungeonz.io translations.xlsx
@@ -434,10 +434,10 @@
     <t>Hint: Open source</t>
   </si>
   <si>
-    <t>Dungeonz is open-source. github.com/Arcanorum/dungeonz</t>
-  </si>
-  <si>
-    <t>Hint: Creatures at night</t>
+    <t>Dungeonz is open-source.</t>
+  </si>
+  <si>
+    <t>Hint: Night creatures</t>
   </si>
   <si>
     <t>Some creatures only appear at night.</t>
@@ -6294,8 +6294,8 @@
         <v>139</v>
       </c>
       <c r="C34" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""fr"")"),"Dungeonz est open source. github.com/Arcanorum/dungeonz")</f>
-        <v>Dungeonz est open source. github.com/Arcanorum/dungeonz</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B34, ""en"", ""fr"")"),"Dungeonz est open source.")</f>
+        <v>Dungeonz est open source.</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="29"/>

--- a/server/Dungeonz.io translations.xlsx
+++ b/server/Dungeonz.io translations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="1577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="1581">
   <si>
     <t>Dungeonz.io translations</t>
   </si>
@@ -3528,6 +3528,18 @@
   </si>
   <si>
     <t>一件快速的中程武器。</t>
+  </si>
+  <si>
+    <t>Item name: Gem</t>
+  </si>
+  <si>
+    <t>Gem</t>
+  </si>
+  <si>
+    <t>Item description: Gem</t>
+  </si>
+  <si>
+    <t>Can be charged at a magic altar using glory to add an elemental effect.</t>
   </si>
   <si>
     <t>Item name: Fire gem</t>
@@ -19880,20 +19892,16 @@
         <v>1170</v>
       </c>
       <c r="C374" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B374, ""en"", ""fr"")"),"petit bijou d'incendie")</f>
-        <v>petit bijou d'incendie</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B374, ""en"", ""fr"")"),"Gemme")</f>
+        <v>Gemme</v>
       </c>
       <c r="D374" s="23"/>
       <c r="E374" s="29"/>
-      <c r="F374" s="23" t="s">
-        <v>1171</v>
-      </c>
+      <c r="F374" s="23"/>
       <c r="G374" s="29"/>
       <c r="H374" s="36"/>
       <c r="I374" s="29"/>
-      <c r="J374" s="25" t="s">
-        <v>1172</v>
-      </c>
+      <c r="J374" s="25"/>
       <c r="K374" s="30"/>
       <c r="L374" s="35"/>
       <c r="M374" s="28"/>
@@ -19915,26 +19923,22 @@
     </row>
     <row r="375">
       <c r="A375" s="21" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B375" s="22" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C375" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B375, ""en"", ""fr"")"),"Utilisé pour des objets d'artisanat avec un effet de feu.")</f>
-        <v>Utilisé pour des objets d'artisanat avec un effet de feu.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B375, ""en"", ""fr"")"),"Peut être chargé à un autel magique en utilisant la gloire d'ajouter un effet élémentaire.")</f>
+        <v>Peut être chargé à un autel magique en utilisant la gloire d'ajouter un effet élémentaire.</v>
       </c>
       <c r="D375" s="23"/>
       <c r="E375" s="29"/>
-      <c r="F375" s="23" t="s">
-        <v>1175</v>
-      </c>
+      <c r="F375" s="23"/>
       <c r="G375" s="29"/>
       <c r="H375" s="36"/>
       <c r="I375" s="29"/>
-      <c r="J375" s="25" t="s">
-        <v>1176</v>
-      </c>
+      <c r="J375" s="25"/>
       <c r="K375" s="30"/>
       <c r="L375" s="35"/>
       <c r="M375" s="28"/>
@@ -19956,25 +19960,25 @@
     </row>
     <row r="376">
       <c r="A376" s="21" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="B376" s="22" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="C376" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B376, ""en"", ""fr"")"),"joyau du vent")</f>
-        <v>joyau du vent</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B376, ""en"", ""fr"")"),"petit bijou d'incendie")</f>
+        <v>petit bijou d'incendie</v>
       </c>
       <c r="D376" s="23"/>
       <c r="E376" s="29"/>
       <c r="F376" s="23" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="G376" s="29"/>
       <c r="H376" s="36"/>
       <c r="I376" s="29"/>
       <c r="J376" s="25" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="K376" s="30"/>
       <c r="L376" s="35"/>
@@ -19997,25 +20001,25 @@
     </row>
     <row r="377">
       <c r="A377" s="21" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="B377" s="22" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="C377" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B377, ""en"", ""fr"")"),"Utilisé pour des objets d'artisanat avec un effet du vent.")</f>
-        <v>Utilisé pour des objets d'artisanat avec un effet du vent.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B377, ""en"", ""fr"")"),"Utilisé pour des objets d'artisanat avec un effet de feu.")</f>
+        <v>Utilisé pour des objets d'artisanat avec un effet de feu.</v>
       </c>
       <c r="D377" s="23"/>
       <c r="E377" s="29"/>
       <c r="F377" s="23" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="G377" s="29"/>
       <c r="H377" s="36"/>
       <c r="I377" s="29"/>
       <c r="J377" s="25" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="K377" s="30"/>
       <c r="L377" s="35"/>
@@ -20038,25 +20042,25 @@
     </row>
     <row r="378">
       <c r="A378" s="21" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="B378" s="22" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="C378" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B378, ""en"", ""fr"")"),"petit bijou de sang")</f>
-        <v>petit bijou de sang</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B378, ""en"", ""fr"")"),"joyau du vent")</f>
+        <v>joyau du vent</v>
       </c>
       <c r="D378" s="23"/>
       <c r="E378" s="29"/>
       <c r="F378" s="23" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="G378" s="29"/>
       <c r="H378" s="36"/>
       <c r="I378" s="29"/>
       <c r="J378" s="25" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="K378" s="30"/>
       <c r="L378" s="35"/>
@@ -20079,25 +20083,25 @@
     </row>
     <row r="379">
       <c r="A379" s="21" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="B379" s="22" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="C379" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B379, ""en"", ""fr"")"),"Utilisé pour des objets d'artisanat avec un effet lifesteal.")</f>
-        <v>Utilisé pour des objets d'artisanat avec un effet lifesteal.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B379, ""en"", ""fr"")"),"Utilisé pour des objets d'artisanat avec un effet du vent.")</f>
+        <v>Utilisé pour des objets d'artisanat avec un effet du vent.</v>
       </c>
       <c r="D379" s="23"/>
       <c r="E379" s="29"/>
       <c r="F379" s="23" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="G379" s="29"/>
       <c r="H379" s="36"/>
       <c r="I379" s="29"/>
       <c r="J379" s="25" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="K379" s="30"/>
       <c r="L379" s="35"/>
@@ -20120,25 +20124,25 @@
     </row>
     <row r="380">
       <c r="A380" s="21" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="B380" s="22" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="C380" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B380, ""en"", ""fr"")"),"Le personnel d'incendie")</f>
-        <v>Le personnel d'incendie</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B380, ""en"", ""fr"")"),"petit bijou de sang")</f>
+        <v>petit bijou de sang</v>
       </c>
       <c r="D380" s="23"/>
       <c r="E380" s="29"/>
       <c r="F380" s="23" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="G380" s="29"/>
       <c r="H380" s="36"/>
       <c r="I380" s="29"/>
       <c r="J380" s="25" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="K380" s="30"/>
       <c r="L380" s="35"/>
@@ -20161,25 +20165,25 @@
     </row>
     <row r="381">
       <c r="A381" s="21" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="B381" s="22" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="C381" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B381, ""en"", ""fr"")"),"Shoots feu qui inflige des blessures.")</f>
-        <v>Shoots feu qui inflige des blessures.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B381, ""en"", ""fr"")"),"Utilisé pour des objets d'artisanat avec un effet lifesteal.")</f>
+        <v>Utilisé pour des objets d'artisanat avec un effet lifesteal.</v>
       </c>
       <c r="D381" s="23"/>
       <c r="E381" s="29"/>
       <c r="F381" s="23" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="G381" s="29"/>
       <c r="H381" s="36"/>
       <c r="I381" s="29"/>
       <c r="J381" s="25" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="K381" s="30"/>
       <c r="L381" s="35"/>
@@ -20202,25 +20206,25 @@
     </row>
     <row r="382">
       <c r="A382" s="21" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="B382" s="22" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="C382" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B382, ""en"", ""fr"")"),"Super personnel d'incendie")</f>
-        <v>Super personnel d'incendie</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B382, ""en"", ""fr"")"),"Le personnel d'incendie")</f>
+        <v>Le personnel d'incendie</v>
       </c>
       <c r="D382" s="23"/>
       <c r="E382" s="29"/>
       <c r="F382" s="23" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="G382" s="29"/>
       <c r="H382" s="36"/>
       <c r="I382" s="29"/>
       <c r="J382" s="25" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="K382" s="30"/>
       <c r="L382" s="35"/>
@@ -20243,25 +20247,25 @@
     </row>
     <row r="383">
       <c r="A383" s="21" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="B383" s="22" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="C383" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B383, ""en"", ""fr"")"),"Shoots feu qui tire plus de feu.")</f>
-        <v>Shoots feu qui tire plus de feu.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B383, ""en"", ""fr"")"),"Shoots feu qui inflige des blessures.")</f>
+        <v>Shoots feu qui inflige des blessures.</v>
       </c>
       <c r="D383" s="23"/>
       <c r="E383" s="29"/>
       <c r="F383" s="23" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="G383" s="29"/>
       <c r="H383" s="36"/>
       <c r="I383" s="29"/>
       <c r="J383" s="25" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="K383" s="30"/>
       <c r="L383" s="35"/>
@@ -20284,25 +20288,25 @@
     </row>
     <row r="384">
       <c r="A384" s="21" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="B384" s="22" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="C384" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B384, ""en"", ""fr"")"),"Le personnel du vent")</f>
-        <v>Le personnel du vent</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B384, ""en"", ""fr"")"),"Super personnel d'incendie")</f>
+        <v>Super personnel d'incendie</v>
       </c>
       <c r="D384" s="23"/>
       <c r="E384" s="29"/>
       <c r="F384" s="23" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="G384" s="29"/>
       <c r="H384" s="36"/>
       <c r="I384" s="29"/>
       <c r="J384" s="25" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="K384" s="30"/>
       <c r="L384" s="35"/>
@@ -20325,25 +20329,25 @@
     </row>
     <row r="385">
       <c r="A385" s="21" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="B385" s="22" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="C385" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B385, ""en"", ""fr"")"),"Shoots vent qui frappe les choses.")</f>
-        <v>Shoots vent qui frappe les choses.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B385, ""en"", ""fr"")"),"Shoots feu qui tire plus de feu.")</f>
+        <v>Shoots feu qui tire plus de feu.</v>
       </c>
       <c r="D385" s="23"/>
       <c r="E385" s="29"/>
       <c r="F385" s="23" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="G385" s="29"/>
       <c r="H385" s="36"/>
       <c r="I385" s="29"/>
       <c r="J385" s="25" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="K385" s="30"/>
       <c r="L385" s="35"/>
@@ -20366,25 +20370,25 @@
     </row>
     <row r="386">
       <c r="A386" s="21" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="B386" s="22" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="C386" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B386, ""en"", ""fr"")"),"Super personnel du vent")</f>
-        <v>Super personnel du vent</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B386, ""en"", ""fr"")"),"Le personnel du vent")</f>
+        <v>Le personnel du vent</v>
       </c>
       <c r="D386" s="23"/>
       <c r="E386" s="29"/>
       <c r="F386" s="23" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="G386" s="29"/>
       <c r="H386" s="36"/>
       <c r="I386" s="29"/>
       <c r="J386" s="25" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="K386" s="30"/>
       <c r="L386" s="35"/>
@@ -20407,25 +20411,25 @@
     </row>
     <row r="387">
       <c r="A387" s="21" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="B387" s="22" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="C387" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B387, ""en"", ""fr"")"),"Shoots vent qui tire plus de vent.")</f>
-        <v>Shoots vent qui tire plus de vent.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B387, ""en"", ""fr"")"),"Shoots vent qui frappe les choses.")</f>
+        <v>Shoots vent qui frappe les choses.</v>
       </c>
       <c r="D387" s="23"/>
       <c r="E387" s="29"/>
       <c r="F387" s="23" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="G387" s="29"/>
       <c r="H387" s="36"/>
       <c r="I387" s="29"/>
       <c r="J387" s="25" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="K387" s="30"/>
       <c r="L387" s="35"/>
@@ -20448,25 +20452,25 @@
     </row>
     <row r="388">
       <c r="A388" s="21" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="B388" s="22" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="C388" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B388, ""en"", ""fr"")"),"Le personnel de sang")</f>
-        <v>Le personnel de sang</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B388, ""en"", ""fr"")"),"Super personnel du vent")</f>
+        <v>Super personnel du vent</v>
       </c>
       <c r="D388" s="23"/>
       <c r="E388" s="29"/>
       <c r="F388" s="23" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="G388" s="29"/>
       <c r="H388" s="36"/>
       <c r="I388" s="29"/>
       <c r="J388" s="25" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="K388" s="30"/>
       <c r="L388" s="35"/>
@@ -20489,25 +20493,25 @@
     </row>
     <row r="389">
       <c r="A389" s="21" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="B389" s="22" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="C389" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B389, ""en"", ""fr"")"),"Shoots un projectile qui vole hitpoints. Consomme hitpoints lorsqu'il est utilisé.")</f>
-        <v>Shoots un projectile qui vole hitpoints. Consomme hitpoints lorsqu'il est utilisé.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B389, ""en"", ""fr"")"),"Shoots vent qui tire plus de vent.")</f>
+        <v>Shoots vent qui tire plus de vent.</v>
       </c>
       <c r="D389" s="23"/>
       <c r="E389" s="29"/>
       <c r="F389" s="23" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="G389" s="29"/>
       <c r="H389" s="36"/>
       <c r="I389" s="29"/>
       <c r="J389" s="25" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="K389" s="30"/>
       <c r="L389" s="35"/>
@@ -20530,25 +20534,25 @@
     </row>
     <row r="390">
       <c r="A390" s="21" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="B390" s="22" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="C390" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B390, ""en"", ""fr"")"),"Super personnel de sang")</f>
-        <v>Super personnel de sang</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B390, ""en"", ""fr"")"),"Le personnel de sang")</f>
+        <v>Le personnel de sang</v>
       </c>
       <c r="D390" s="23"/>
       <c r="E390" s="29"/>
       <c r="F390" s="23" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="G390" s="29"/>
       <c r="H390" s="36"/>
       <c r="I390" s="29"/>
       <c r="J390" s="25" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="K390" s="30"/>
       <c r="L390" s="35"/>
@@ -20571,25 +20575,25 @@
     </row>
     <row r="391">
       <c r="A391" s="21" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="B391" s="22" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="C391" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B391, ""en"", ""fr"")"),"Shoots un projectile qui tire des projectiles lifesteal plus lifesteal.")</f>
-        <v>Shoots un projectile qui tire des projectiles lifesteal plus lifesteal.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B391, ""en"", ""fr"")"),"Shoots un projectile qui vole hitpoints. Consomme hitpoints lorsqu'il est utilisé.")</f>
+        <v>Shoots un projectile qui vole hitpoints. Consomme hitpoints lorsqu'il est utilisé.</v>
       </c>
       <c r="D391" s="23"/>
       <c r="E391" s="29"/>
       <c r="F391" s="23" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="G391" s="29"/>
       <c r="H391" s="36"/>
       <c r="I391" s="29"/>
       <c r="J391" s="25" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="K391" s="30"/>
       <c r="L391" s="35"/>
@@ -20612,25 +20616,25 @@
     </row>
     <row r="392">
       <c r="A392" s="21" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="B392" s="22" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="C392" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B392, ""en"", ""fr"")"),"Livre de lumière")</f>
-        <v>Livre de lumière</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B392, ""en"", ""fr"")"),"Super personnel de sang")</f>
+        <v>Super personnel de sang</v>
       </c>
       <c r="D392" s="23"/>
       <c r="E392" s="29"/>
       <c r="F392" s="23" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="G392" s="29"/>
       <c r="H392" s="36"/>
       <c r="I392" s="29"/>
       <c r="J392" s="25" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="K392" s="30"/>
       <c r="L392" s="35"/>
@@ -20653,25 +20657,25 @@
     </row>
     <row r="393">
       <c r="A393" s="21" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="B393" s="22" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="C393" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B393, ""en"", ""fr"")"),"Un livre de sorts de soutien.")</f>
-        <v>Un livre de sorts de soutien.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B393, ""en"", ""fr"")"),"Shoots un projectile qui tire des projectiles lifesteal plus lifesteal.")</f>
+        <v>Shoots un projectile qui tire des projectiles lifesteal plus lifesteal.</v>
       </c>
       <c r="D393" s="23"/>
       <c r="E393" s="29"/>
       <c r="F393" s="23" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="G393" s="29"/>
       <c r="H393" s="36"/>
       <c r="I393" s="29"/>
       <c r="J393" s="25" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="K393" s="30"/>
       <c r="L393" s="35"/>
@@ -20694,25 +20698,25 @@
     </row>
     <row r="394">
       <c r="A394" s="21" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="B394" s="22" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="C394" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B394, ""en"", ""fr"")"),"Livre des âmes")</f>
-        <v>Livre des âmes</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B394, ""en"", ""fr"")"),"Livre de lumière")</f>
+        <v>Livre de lumière</v>
       </c>
       <c r="D394" s="23"/>
       <c r="E394" s="29"/>
       <c r="F394" s="23" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="G394" s="29"/>
       <c r="H394" s="36"/>
       <c r="I394" s="29"/>
       <c r="J394" s="25" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="K394" s="30"/>
       <c r="L394" s="35"/>
@@ -20735,25 +20739,25 @@
     </row>
     <row r="395">
       <c r="A395" s="21" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="B395" s="22" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="C395" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B395, ""en"", ""fr"")"),"Un livre de sorts d'invocation.")</f>
-        <v>Un livre de sorts d'invocation.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B395, ""en"", ""fr"")"),"Un livre de sorts de soutien.")</f>
+        <v>Un livre de sorts de soutien.</v>
       </c>
       <c r="D395" s="23"/>
       <c r="E395" s="29"/>
       <c r="F395" s="23" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="G395" s="29"/>
       <c r="H395" s="36"/>
       <c r="I395" s="29"/>
       <c r="J395" s="25" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="K395" s="30"/>
       <c r="L395" s="35"/>
@@ -20776,27 +20780,25 @@
     </row>
     <row r="396">
       <c r="A396" s="21" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="B396" s="22" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="C396" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B396, ""en"", ""fr"")"),"flèches d'os")</f>
-        <v>flèches d'os</v>
-      </c>
-      <c r="D396" s="23" t="s">
-        <v>1259</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B396, ""en"", ""fr"")"),"Livre des âmes")</f>
+        <v>Livre des âmes</v>
+      </c>
+      <c r="D396" s="23"/>
       <c r="E396" s="29"/>
       <c r="F396" s="23" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="G396" s="29"/>
       <c r="H396" s="36"/>
       <c r="I396" s="29"/>
       <c r="J396" s="25" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="K396" s="30"/>
       <c r="L396" s="35"/>
@@ -20819,27 +20821,25 @@
     </row>
     <row r="397">
       <c r="A397" s="21" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="B397" s="22" t="s">
-        <v>1031</v>
+        <v>1258</v>
       </c>
       <c r="C397" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B397, ""en"", ""fr"")"),"Utilisé comme munitions pour un arc.")</f>
-        <v>Utilisé comme munitions pour un arc.</v>
-      </c>
-      <c r="D397" s="23" t="s">
-        <v>1263</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B397, ""en"", ""fr"")"),"Un livre de sorts d'invocation.")</f>
+        <v>Un livre de sorts d'invocation.</v>
+      </c>
+      <c r="D397" s="23"/>
       <c r="E397" s="29"/>
       <c r="F397" s="23" t="s">
-        <v>1078</v>
+        <v>1259</v>
       </c>
       <c r="G397" s="29"/>
       <c r="H397" s="36"/>
       <c r="I397" s="29"/>
       <c r="J397" s="25" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="K397" s="30"/>
       <c r="L397" s="35"/>
@@ -20862,25 +20862,27 @@
     </row>
     <row r="398">
       <c r="A398" s="21" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="B398" s="22" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="C398" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B398, ""en"", ""fr"")"),"Peignoir")</f>
-        <v>Peignoir</v>
-      </c>
-      <c r="D398" s="23"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B398, ""en"", ""fr"")"),"flèches d'os")</f>
+        <v>flèches d'os</v>
+      </c>
+      <c r="D398" s="23" t="s">
+        <v>1263</v>
+      </c>
       <c r="E398" s="29"/>
       <c r="F398" s="23" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="G398" s="29"/>
       <c r="H398" s="36"/>
       <c r="I398" s="29"/>
       <c r="J398" s="25" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="K398" s="30"/>
       <c r="L398" s="35"/>
@@ -20903,25 +20905,27 @@
     </row>
     <row r="399">
       <c r="A399" s="21" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="B399" s="22" t="s">
-        <v>1270</v>
+        <v>1031</v>
       </c>
       <c r="C399" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B399, ""en"", ""fr"")"),"Une robe simple. Augmente votre Potionry stat alors porté.")</f>
-        <v>Une robe simple. Augmente votre Potionry stat alors porté.</v>
-      </c>
-      <c r="D399" s="23"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B399, ""en"", ""fr"")"),"Utilisé comme munitions pour un arc.")</f>
+        <v>Utilisé comme munitions pour un arc.</v>
+      </c>
+      <c r="D399" s="23" t="s">
+        <v>1267</v>
+      </c>
       <c r="E399" s="29"/>
       <c r="F399" s="23" t="s">
-        <v>1271</v>
+        <v>1078</v>
       </c>
       <c r="G399" s="29"/>
       <c r="H399" s="36"/>
       <c r="I399" s="29"/>
       <c r="J399" s="25" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="K399" s="30"/>
       <c r="L399" s="35"/>
@@ -20944,25 +20948,25 @@
     </row>
     <row r="400">
       <c r="A400" s="21" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="B400" s="22" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="C400" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B400, ""en"", ""fr"")"),"robe Mage")</f>
-        <v>robe Mage</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B400, ""en"", ""fr"")"),"Peignoir")</f>
+        <v>Peignoir</v>
       </c>
       <c r="D400" s="23"/>
       <c r="E400" s="29"/>
       <c r="F400" s="23" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="G400" s="29"/>
       <c r="H400" s="36"/>
       <c r="I400" s="29"/>
       <c r="J400" s="25" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="K400" s="30"/>
       <c r="L400" s="35"/>
@@ -20985,25 +20989,25 @@
     </row>
     <row r="401">
       <c r="A401" s="21" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="B401" s="22" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="C401" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B401, ""en"", ""fr"")"),"Une robe de base pour faire de la magie en. Augmente votre stat magique tout porté.")</f>
-        <v>Une robe de base pour faire de la magie en. Augmente votre stat magique tout porté.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B401, ""en"", ""fr"")"),"Une robe simple. Augmente votre Potionry stat alors porté.")</f>
+        <v>Une robe simple. Augmente votre Potionry stat alors porté.</v>
       </c>
       <c r="D401" s="23"/>
       <c r="E401" s="29"/>
       <c r="F401" s="23" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="G401" s="29"/>
       <c r="H401" s="36"/>
       <c r="I401" s="29"/>
       <c r="J401" s="25" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="K401" s="30"/>
       <c r="L401" s="35"/>
@@ -21026,25 +21030,25 @@
     </row>
     <row r="402">
       <c r="A402" s="21" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="B402" s="22" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="C402" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B402, ""en"", ""fr"")"),"robe nécromancien")</f>
-        <v>robe nécromancien</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B402, ""en"", ""fr"")"),"robe Mage")</f>
+        <v>robe Mage</v>
       </c>
       <c r="D402" s="23"/>
       <c r="E402" s="29"/>
       <c r="F402" s="23" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="G402" s="29"/>
       <c r="H402" s="36"/>
       <c r="I402" s="29"/>
       <c r="J402" s="25" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="K402" s="30"/>
       <c r="L402" s="35"/>
@@ -21067,10 +21071,10 @@
     </row>
     <row r="403">
       <c r="A403" s="21" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="B403" s="22" t="s">
-        <v>1278</v>
+        <v>1282</v>
       </c>
       <c r="C403" s="23" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B403, ""en"", ""fr"")"),"Une robe de base pour faire de la magie en. Augmente votre stat magique tout porté.")</f>
@@ -21079,13 +21083,13 @@
       <c r="D403" s="23"/>
       <c r="E403" s="29"/>
       <c r="F403" s="23" t="s">
-        <v>1279</v>
+        <v>1283</v>
       </c>
       <c r="G403" s="29"/>
       <c r="H403" s="36"/>
       <c r="I403" s="29"/>
       <c r="J403" s="25" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="K403" s="30"/>
       <c r="L403" s="35"/>
@@ -21108,25 +21112,25 @@
     </row>
     <row r="404">
       <c r="A404" s="21" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B404" s="22" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C404" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B404, ""en"", ""fr"")"),"Manteau")</f>
-        <v>Manteau</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B404, ""en"", ""fr"")"),"robe nécromancien")</f>
+        <v>robe nécromancien</v>
       </c>
       <c r="D404" s="23"/>
       <c r="E404" s="29"/>
       <c r="F404" s="23" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="G404" s="29"/>
       <c r="H404" s="36"/>
       <c r="I404" s="29"/>
       <c r="J404" s="25" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="K404" s="30"/>
       <c r="L404" s="35"/>
@@ -21149,25 +21153,25 @@
     </row>
     <row r="405">
       <c r="A405" s="21" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B405" s="22" t="s">
-        <v>1292</v>
+        <v>1282</v>
       </c>
       <c r="C405" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B405, ""en"", ""fr"")"),"Un manteau de base pour le faire à distance. Les augmentations de votre stat tout porté à distance.")</f>
-        <v>Un manteau de base pour le faire à distance. Les augmentations de votre stat tout porté à distance.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B405, ""en"", ""fr"")"),"Une robe de base pour faire de la magie en. Augmente votre stat magique tout porté.")</f>
+        <v>Une robe de base pour faire de la magie en. Augmente votre stat magique tout porté.</v>
       </c>
       <c r="D405" s="23"/>
       <c r="E405" s="29"/>
       <c r="F405" s="23" t="s">
-        <v>1293</v>
+        <v>1283</v>
       </c>
       <c r="G405" s="29"/>
       <c r="H405" s="36"/>
       <c r="I405" s="29"/>
       <c r="J405" s="25" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="K405" s="30"/>
       <c r="L405" s="35"/>
@@ -21190,25 +21194,25 @@
     </row>
     <row r="406">
       <c r="A406" s="21" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="B406" s="22" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="C406" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B406, ""en"", ""fr"")"),"tenue Ninja")</f>
-        <v>tenue Ninja</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B406, ""en"", ""fr"")"),"Manteau")</f>
+        <v>Manteau</v>
       </c>
       <c r="D406" s="23"/>
       <c r="E406" s="29"/>
       <c r="F406" s="23" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="G406" s="29"/>
       <c r="H406" s="36"/>
       <c r="I406" s="29"/>
       <c r="J406" s="25" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="K406" s="30"/>
       <c r="L406" s="35"/>
@@ -21231,25 +21235,25 @@
     </row>
     <row r="407">
       <c r="A407" s="21" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="B407" s="22" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="C407" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B407, ""en"", ""fr"")"),"Augmente vos stats mêlée et à distance et cache votre nom tout porté.")</f>
-        <v>Augmente vos stats mêlée et à distance et cache votre nom tout porté.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B407, ""en"", ""fr"")"),"Un manteau de base pour le faire à distance. Les augmentations de votre stat tout porté à distance.")</f>
+        <v>Un manteau de base pour le faire à distance. Les augmentations de votre stat tout porté à distance.</v>
       </c>
       <c r="D407" s="23"/>
       <c r="E407" s="29"/>
       <c r="F407" s="23" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="G407" s="29"/>
       <c r="H407" s="36"/>
       <c r="I407" s="29"/>
       <c r="J407" s="25" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="K407" s="30"/>
       <c r="L407" s="35"/>
@@ -21272,25 +21276,25 @@
     </row>
     <row r="408">
       <c r="A408" s="21" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="B408" s="22" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="C408" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B408, ""en"", ""fr"")"),"Charte")</f>
-        <v>Charte</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B408, ""en"", ""fr"")"),"tenue Ninja")</f>
+        <v>tenue Ninja</v>
       </c>
       <c r="D408" s="23"/>
       <c r="E408" s="29"/>
       <c r="F408" s="23" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="G408" s="29"/>
       <c r="H408" s="36"/>
       <c r="I408" s="29"/>
       <c r="J408" s="25" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="K408" s="30"/>
       <c r="L408" s="35"/>
@@ -21313,25 +21317,25 @@
     </row>
     <row r="409">
       <c r="A409" s="21" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="B409" s="22" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="C409" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B409, ""en"", ""fr"")"),"Structure du clan. Endroit pour commencer un clan. Utilisé pour concevoir d'autres structures de clan. Si cela est détruit, le clan et toutes les structures sont également détruites.")</f>
-        <v>Structure du clan. Endroit pour commencer un clan. Utilisé pour concevoir d'autres structures de clan. Si cela est détruit, le clan et toutes les structures sont également détruites.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B409, ""en"", ""fr"")"),"Augmente vos stats mêlée et à distance et cache votre nom tout porté.")</f>
+        <v>Augmente vos stats mêlée et à distance et cache votre nom tout porté.</v>
       </c>
       <c r="D409" s="23"/>
       <c r="E409" s="29"/>
       <c r="F409" s="23" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="G409" s="29"/>
       <c r="H409" s="36"/>
       <c r="I409" s="29"/>
       <c r="J409" s="25" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="K409" s="30"/>
       <c r="L409" s="35"/>
@@ -21354,25 +21358,25 @@
     </row>
     <row r="410">
       <c r="A410" s="21" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="B410" s="22" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C410" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B410, ""en"", ""fr"")"),"Mur de bois")</f>
-        <v>Mur de bois</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B410, ""en"", ""fr"")"),"Charte")</f>
+        <v>Charte</v>
       </c>
       <c r="D410" s="23"/>
       <c r="E410" s="29"/>
       <c r="F410" s="23" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="G410" s="29"/>
       <c r="H410" s="36"/>
       <c r="I410" s="29"/>
       <c r="J410" s="25" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="K410" s="30"/>
       <c r="L410" s="35"/>
@@ -21395,25 +21399,25 @@
     </row>
     <row r="411">
       <c r="A411" s="21" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="B411" s="22" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="C411" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B411, ""en"", ""fr"")"),"Structure du clan. A faible profondeur d'une base.")</f>
-        <v>Structure du clan. A faible profondeur d'une base.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B411, ""en"", ""fr"")"),"Structure du clan. Endroit pour commencer un clan. Utilisé pour concevoir d'autres structures de clan. Si cela est détruit, le clan et toutes les structures sont également détruites.")</f>
+        <v>Structure du clan. Endroit pour commencer un clan. Utilisé pour concevoir d'autres structures de clan. Si cela est détruit, le clan et toutes les structures sont également détruites.</v>
       </c>
       <c r="D411" s="23"/>
       <c r="E411" s="29"/>
       <c r="F411" s="23" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="G411" s="29"/>
       <c r="H411" s="36"/>
       <c r="I411" s="29"/>
       <c r="J411" s="25" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="K411" s="30"/>
       <c r="L411" s="35"/>
@@ -21436,25 +21440,25 @@
     </row>
     <row r="412">
       <c r="A412" s="21" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="B412" s="22" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="C412" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B412, ""en"", ""fr"")"),"porte en bois")</f>
-        <v>porte en bois</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B412, ""en"", ""fr"")"),"Mur de bois")</f>
+        <v>Mur de bois</v>
       </c>
       <c r="D412" s="23"/>
       <c r="E412" s="29"/>
       <c r="F412" s="23" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="G412" s="29"/>
       <c r="H412" s="36"/>
       <c r="I412" s="29"/>
       <c r="J412" s="25" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="K412" s="30"/>
       <c r="L412" s="35"/>
@@ -21477,25 +21481,25 @@
     </row>
     <row r="413">
       <c r="A413" s="21" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="B413" s="22" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="C413" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B413, ""en"", ""fr"")"),"Structure du clan. Ne peut être ouvert par les membres du clan.")</f>
-        <v>Structure du clan. Ne peut être ouvert par les membres du clan.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B413, ""en"", ""fr"")"),"Structure du clan. A faible profondeur d'une base.")</f>
+        <v>Structure du clan. A faible profondeur d'une base.</v>
       </c>
       <c r="D413" s="23"/>
       <c r="E413" s="29"/>
       <c r="F413" s="23" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="G413" s="29"/>
       <c r="H413" s="36"/>
       <c r="I413" s="29"/>
       <c r="J413" s="25" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="K413" s="30"/>
       <c r="L413" s="35"/>
@@ -21517,26 +21521,26 @@
       <c r="AB413" s="28"/>
     </row>
     <row r="414">
-      <c r="A414" s="41" t="s">
-        <v>1327</v>
+      <c r="A414" s="21" t="s">
+        <v>1323</v>
       </c>
       <c r="B414" s="22" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="C414" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B414, ""en"", ""fr"")"),"Mur de briques")</f>
-        <v>Mur de briques</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B414, ""en"", ""fr"")"),"porte en bois")</f>
+        <v>porte en bois</v>
       </c>
       <c r="D414" s="23"/>
       <c r="E414" s="29"/>
       <c r="F414" s="23" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="G414" s="29"/>
       <c r="H414" s="36"/>
       <c r="I414" s="29"/>
       <c r="J414" s="25" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="K414" s="30"/>
       <c r="L414" s="35"/>
@@ -21558,26 +21562,26 @@
       <c r="AB414" s="28"/>
     </row>
     <row r="415">
-      <c r="A415" s="41" t="s">
-        <v>1331</v>
+      <c r="A415" s="21" t="s">
+        <v>1327</v>
       </c>
       <c r="B415" s="22" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="C415" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B415, ""en"", ""fr"")"),"Structure du clan. Une bonne défense pour une base.")</f>
-        <v>Structure du clan. Une bonne défense pour une base.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B415, ""en"", ""fr"")"),"Structure du clan. Ne peut être ouvert par les membres du clan.")</f>
+        <v>Structure du clan. Ne peut être ouvert par les membres du clan.</v>
       </c>
       <c r="D415" s="23"/>
       <c r="E415" s="29"/>
       <c r="F415" s="23" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="G415" s="29"/>
       <c r="H415" s="36"/>
       <c r="I415" s="29"/>
       <c r="J415" s="25" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="K415" s="30"/>
       <c r="L415" s="35"/>
@@ -21600,25 +21604,25 @@
     </row>
     <row r="416">
       <c r="A416" s="41" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="B416" s="22" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="C416" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B416, ""en"", ""fr"")"),"porte brique")</f>
-        <v>porte brique</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B416, ""en"", ""fr"")"),"Mur de briques")</f>
+        <v>Mur de briques</v>
       </c>
       <c r="D416" s="23"/>
       <c r="E416" s="29"/>
       <c r="F416" s="23" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="G416" s="29"/>
       <c r="H416" s="36"/>
       <c r="I416" s="29"/>
       <c r="J416" s="25" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="K416" s="30"/>
       <c r="L416" s="35"/>
@@ -21641,25 +21645,25 @@
     </row>
     <row r="417">
       <c r="A417" s="41" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="B417" s="22" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="C417" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B417, ""en"", ""fr"")"),"Structure du clan. Ne peut être ouvert par les membres du clan. Plus fort que une porte en bois.")</f>
-        <v>Structure du clan. Ne peut être ouvert par les membres du clan. Plus fort que une porte en bois.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B417, ""en"", ""fr"")"),"Structure du clan. Une bonne défense pour une base.")</f>
+        <v>Structure du clan. Une bonne défense pour une base.</v>
       </c>
       <c r="D417" s="23"/>
       <c r="E417" s="29"/>
       <c r="F417" s="23" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="G417" s="29"/>
       <c r="H417" s="36"/>
       <c r="I417" s="29"/>
       <c r="J417" s="25" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="K417" s="30"/>
       <c r="L417" s="35"/>
@@ -21682,25 +21686,25 @@
     </row>
     <row r="418">
       <c r="A418" s="41" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B418" s="22" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="C418" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B418, ""en"", ""fr"")"),"Mur de fer")</f>
-        <v>Mur de fer</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B418, ""en"", ""fr"")"),"porte brique")</f>
+        <v>porte brique</v>
       </c>
       <c r="D418" s="23"/>
       <c r="E418" s="29"/>
       <c r="F418" s="23" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="G418" s="29"/>
       <c r="H418" s="36"/>
       <c r="I418" s="29"/>
       <c r="J418" s="25" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="K418" s="30"/>
       <c r="L418" s="35"/>
@@ -21723,25 +21727,25 @@
     </row>
     <row r="419">
       <c r="A419" s="41" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B419" s="22" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="C419" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B419, ""en"", ""fr"")"),"Structure du clan. Une grande défense pour une base.")</f>
-        <v>Structure du clan. Une grande défense pour une base.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B419, ""en"", ""fr"")"),"Structure du clan. Ne peut être ouvert par les membres du clan. Plus fort que une porte en bois.")</f>
+        <v>Structure du clan. Ne peut être ouvert par les membres du clan. Plus fort que une porte en bois.</v>
       </c>
       <c r="D419" s="23"/>
       <c r="E419" s="29"/>
       <c r="F419" s="23" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="G419" s="29"/>
       <c r="H419" s="36"/>
       <c r="I419" s="29"/>
       <c r="J419" s="25" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="K419" s="30"/>
       <c r="L419" s="35"/>
@@ -21764,25 +21768,25 @@
     </row>
     <row r="420">
       <c r="A420" s="41" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="B420" s="22" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="C420" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B420, ""en"", ""fr"")"),"Porte en fer")</f>
-        <v>Porte en fer</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B420, ""en"", ""fr"")"),"Mur de fer")</f>
+        <v>Mur de fer</v>
       </c>
       <c r="D420" s="23"/>
       <c r="E420" s="29"/>
       <c r="F420" s="23" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="G420" s="29"/>
       <c r="H420" s="36"/>
       <c r="I420" s="29"/>
       <c r="J420" s="25" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="K420" s="30"/>
       <c r="L420" s="35"/>
@@ -21805,25 +21809,25 @@
     </row>
     <row r="421">
       <c r="A421" s="41" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="B421" s="22" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="C421" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B421, ""en"", ""fr"")"),"Structure du clan. Ne peut être ouvert par les membres du clan. Plus fort que la porte de briques.")</f>
-        <v>Structure du clan. Ne peut être ouvert par les membres du clan. Plus fort que la porte de briques.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B421, ""en"", ""fr"")"),"Structure du clan. Une grande défense pour une base.")</f>
+        <v>Structure du clan. Une grande défense pour une base.</v>
       </c>
       <c r="D421" s="23"/>
       <c r="E421" s="29"/>
       <c r="F421" s="23" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="G421" s="29"/>
       <c r="H421" s="36"/>
       <c r="I421" s="29"/>
       <c r="J421" s="25" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="K421" s="30"/>
       <c r="L421" s="35"/>
@@ -21845,26 +21849,26 @@
       <c r="AB421" s="28"/>
     </row>
     <row r="422">
-      <c r="A422" s="21" t="s">
-        <v>1359</v>
+      <c r="A422" s="41" t="s">
+        <v>1355</v>
       </c>
       <c r="B422" s="22" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="C422" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B422, ""en"", ""fr"")"),"Banque poitrine")</f>
-        <v>Banque poitrine</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B422, ""en"", ""fr"")"),"Porte en fer")</f>
+        <v>Porte en fer</v>
       </c>
       <c r="D422" s="23"/>
       <c r="E422" s="29"/>
       <c r="F422" s="23" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="G422" s="29"/>
       <c r="H422" s="36"/>
       <c r="I422" s="29"/>
       <c r="J422" s="25" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="K422" s="30"/>
       <c r="L422" s="35"/>
@@ -21886,26 +21890,26 @@
       <c r="AB422" s="28"/>
     </row>
     <row r="423">
-      <c r="A423" s="21" t="s">
-        <v>1363</v>
+      <c r="A423" s="41" t="s">
+        <v>1359</v>
       </c>
       <c r="B423" s="22" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="C423" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B423, ""en"", ""fr"")"),"Structure du clan. Permet d'accéder à votre stockage bancaire personnel.")</f>
-        <v>Structure du clan. Permet d'accéder à votre stockage bancaire personnel.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B423, ""en"", ""fr"")"),"Structure du clan. Ne peut être ouvert par les membres du clan. Plus fort que la porte de briques.")</f>
+        <v>Structure du clan. Ne peut être ouvert par les membres du clan. Plus fort que la porte de briques.</v>
       </c>
       <c r="D423" s="23"/>
       <c r="E423" s="29"/>
       <c r="F423" s="23" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="G423" s="29"/>
       <c r="H423" s="36"/>
       <c r="I423" s="29"/>
       <c r="J423" s="25" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="K423" s="30"/>
       <c r="L423" s="35"/>
@@ -21928,25 +21932,25 @@
     </row>
     <row r="424">
       <c r="A424" s="21" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="B424" s="22" t="s">
-        <v>751</v>
+        <v>1364</v>
       </c>
       <c r="C424" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B424, ""en"", ""fr"")"),"Table de travail")</f>
-        <v>Table de travail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B424, ""en"", ""fr"")"),"Banque poitrine")</f>
+        <v>Banque poitrine</v>
       </c>
       <c r="D424" s="23"/>
       <c r="E424" s="29"/>
       <c r="F424" s="23" t="s">
-        <v>753</v>
+        <v>1365</v>
       </c>
       <c r="G424" s="29"/>
       <c r="H424" s="36"/>
       <c r="I424" s="29"/>
       <c r="J424" s="25" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="K424" s="30"/>
       <c r="L424" s="35"/>
@@ -21969,25 +21973,25 @@
     </row>
     <row r="425">
       <c r="A425" s="21" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B425" s="22" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C425" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B425, ""en"", ""fr"")"),"Structure du clan. Utilisé pour fabriquer divers objets.")</f>
-        <v>Structure du clan. Utilisé pour fabriquer divers objets.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B425, ""en"", ""fr"")"),"Structure du clan. Permet d'accéder à votre stockage bancaire personnel.")</f>
+        <v>Structure du clan. Permet d'accéder à votre stockage bancaire personnel.</v>
       </c>
       <c r="D425" s="23"/>
       <c r="E425" s="29"/>
       <c r="F425" s="23" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="G425" s="29"/>
       <c r="H425" s="36"/>
       <c r="I425" s="29"/>
       <c r="J425" s="25" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="K425" s="30"/>
       <c r="L425" s="35"/>
@@ -22010,25 +22014,25 @@
     </row>
     <row r="426">
       <c r="A426" s="21" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="B426" s="22" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="C426" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B426, ""en"", ""fr"")"),"fourneau")</f>
-        <v>fourneau</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B426, ""en"", ""fr"")"),"Table de travail")</f>
+        <v>Table de travail</v>
       </c>
       <c r="D426" s="23"/>
       <c r="E426" s="29"/>
       <c r="F426" s="23" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="G426" s="29"/>
       <c r="H426" s="36"/>
       <c r="I426" s="29"/>
       <c r="J426" s="25" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="K426" s="30"/>
       <c r="L426" s="35"/>
@@ -22051,25 +22055,25 @@
     </row>
     <row r="427">
       <c r="A427" s="21" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="B427" s="22" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C427" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B427, ""en"", ""fr"")"),"Structure du clan. Utilisé pour transformer les minerais en barres métalliques.")</f>
-        <v>Structure du clan. Utilisé pour transformer les minerais en barres métalliques.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B427, ""en"", ""fr"")"),"Structure du clan. Utilisé pour fabriquer divers objets.")</f>
+        <v>Structure du clan. Utilisé pour fabriquer divers objets.</v>
       </c>
       <c r="D427" s="23"/>
       <c r="E427" s="29"/>
       <c r="F427" s="23" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="G427" s="29"/>
       <c r="H427" s="36"/>
       <c r="I427" s="29"/>
       <c r="J427" s="25" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="K427" s="30"/>
       <c r="L427" s="35"/>
@@ -22092,25 +22096,25 @@
     </row>
     <row r="428">
       <c r="A428" s="21" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="B428" s="22" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C428" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B428, ""en"", ""fr"")"),"Enclume")</f>
-        <v>Enclume</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B428, ""en"", ""fr"")"),"fourneau")</f>
+        <v>fourneau</v>
       </c>
       <c r="D428" s="23"/>
       <c r="E428" s="29"/>
       <c r="F428" s="23" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="G428" s="29"/>
       <c r="H428" s="36"/>
       <c r="I428" s="29"/>
       <c r="J428" s="25" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="K428" s="30"/>
       <c r="L428" s="35"/>
@@ -22133,25 +22137,25 @@
     </row>
     <row r="429">
       <c r="A429" s="21" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="B429" s="22" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C429" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B429, ""en"", ""fr"")"),"Structure du clan. Utilisé pour les objets métalliques d'artisanat.")</f>
-        <v>Structure du clan. Utilisé pour les objets métalliques d'artisanat.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B429, ""en"", ""fr"")"),"Structure du clan. Utilisé pour transformer les minerais en barres métalliques.")</f>
+        <v>Structure du clan. Utilisé pour transformer les minerais en barres métalliques.</v>
       </c>
       <c r="D429" s="23"/>
       <c r="E429" s="29"/>
       <c r="F429" s="23" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="G429" s="29"/>
       <c r="H429" s="36"/>
       <c r="I429" s="29"/>
       <c r="J429" s="25" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="K429" s="30"/>
       <c r="L429" s="35"/>
@@ -22173,26 +22177,26 @@
       <c r="AB429" s="28"/>
     </row>
     <row r="430">
-      <c r="A430" s="41" t="s">
-        <v>1385</v>
+      <c r="A430" s="21" t="s">
+        <v>1383</v>
       </c>
       <c r="B430" s="22" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="C430" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B430, ""en"", ""fr"")"),"Laboratoire")</f>
-        <v>Laboratoire</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B430, ""en"", ""fr"")"),"Enclume")</f>
+        <v>Enclume</v>
       </c>
       <c r="D430" s="23"/>
       <c r="E430" s="29"/>
       <c r="F430" s="23" t="s">
-        <v>1386</v>
+        <v>744</v>
       </c>
       <c r="G430" s="29"/>
       <c r="H430" s="36"/>
       <c r="I430" s="29"/>
       <c r="J430" s="25" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="K430" s="30"/>
       <c r="L430" s="35"/>
@@ -22214,26 +22218,26 @@
       <c r="AB430" s="28"/>
     </row>
     <row r="431">
-      <c r="A431" s="41" t="s">
-        <v>1388</v>
+      <c r="A431" s="21" t="s">
+        <v>1385</v>
       </c>
       <c r="B431" s="22" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="C431" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B431, ""en"", ""fr"")"),"Structure du clan. Utilisé pour les potions d'artisanat.")</f>
-        <v>Structure du clan. Utilisé pour les potions d'artisanat.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B431, ""en"", ""fr"")"),"Structure du clan. Utilisé pour les objets métalliques d'artisanat.")</f>
+        <v>Structure du clan. Utilisé pour les objets métalliques d'artisanat.</v>
       </c>
       <c r="D431" s="23"/>
       <c r="E431" s="29"/>
       <c r="F431" s="23" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="G431" s="29"/>
       <c r="H431" s="36"/>
       <c r="I431" s="29"/>
       <c r="J431" s="25" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="K431" s="30"/>
       <c r="L431" s="35"/>
@@ -22256,25 +22260,25 @@
     </row>
     <row r="432">
       <c r="A432" s="41" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="B432" s="22" t="s">
-        <v>1393</v>
+        <v>748</v>
       </c>
       <c r="C432" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B432, ""en"", ""fr"")"),"Générateur")</f>
-        <v>Générateur</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B432, ""en"", ""fr"")"),"Laboratoire")</f>
+        <v>Laboratoire</v>
       </c>
       <c r="D432" s="23"/>
       <c r="E432" s="29"/>
       <c r="F432" s="23" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="G432" s="29"/>
       <c r="H432" s="36"/>
       <c r="I432" s="29"/>
       <c r="J432" s="25" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="K432" s="30"/>
       <c r="L432" s="35"/>
@@ -22297,25 +22301,25 @@
     </row>
     <row r="433">
       <c r="A433" s="41" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="B433" s="22" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="C433" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B433, ""en"", ""fr"")"),"Structure du clan. La gloire des joueurs convertis en puissance qui peuvent être utilisés pour activer d'autres structures claniques qui nécessitent une alimentation, et peut protéger toutes les structures de clan des dommages.")</f>
-        <v>Structure du clan. La gloire des joueurs convertis en puissance qui peuvent être utilisés pour activer d'autres structures claniques qui nécessitent une alimentation, et peut protéger toutes les structures de clan des dommages.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B433, ""en"", ""fr"")"),"Structure du clan. Utilisé pour les potions d'artisanat.")</f>
+        <v>Structure du clan. Utilisé pour les potions d'artisanat.</v>
       </c>
       <c r="D433" s="23"/>
       <c r="E433" s="29"/>
       <c r="F433" s="23" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="G433" s="29"/>
       <c r="H433" s="36"/>
       <c r="I433" s="29"/>
       <c r="J433" s="25" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="K433" s="30"/>
       <c r="L433" s="35"/>
@@ -22338,24 +22342,26 @@
     </row>
     <row r="434">
       <c r="A434" s="41" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="B434" s="22" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="C434" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B434, ""en"", ""fr"")"),"clé Fighter")</f>
-        <v>clé Fighter</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B434, ""en"", ""fr"")"),"Générateur")</f>
+        <v>Générateur</v>
       </c>
       <c r="D434" s="23"/>
       <c r="E434" s="29"/>
       <c r="F434" s="23" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="G434" s="29"/>
       <c r="H434" s="36"/>
       <c r="I434" s="29"/>
-      <c r="J434" s="25"/>
+      <c r="J434" s="25" t="s">
+        <v>1399</v>
+      </c>
       <c r="K434" s="30"/>
       <c r="L434" s="35"/>
       <c r="M434" s="28"/>
@@ -22377,24 +22383,26 @@
     </row>
     <row r="435">
       <c r="A435" s="41" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="B435" s="22" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="C435" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B435, ""en"", ""fr"")"),"Ouvre la porte à la zone de préparation de l'arène PvP. Avertissement! D'autres joueurs peuvent vous attaquer dans la fosse de combat!")</f>
-        <v>Ouvre la porte à la zone de préparation de l'arène PvP. Avertissement! D'autres joueurs peuvent vous attaquer dans la fosse de combat!</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B435, ""en"", ""fr"")"),"Structure du clan. La gloire des joueurs convertis en puissance qui peuvent être utilisés pour activer d'autres structures claniques qui nécessitent une alimentation, et peut protéger toutes les structures de clan des dommages.")</f>
+        <v>Structure du clan. La gloire des joueurs convertis en puissance qui peuvent être utilisés pour activer d'autres structures claniques qui nécessitent une alimentation, et peut protéger toutes les structures de clan des dommages.</v>
       </c>
       <c r="D435" s="23"/>
       <c r="E435" s="29"/>
       <c r="F435" s="23" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="G435" s="29"/>
       <c r="H435" s="36"/>
       <c r="I435" s="29"/>
-      <c r="J435" s="25"/>
+      <c r="J435" s="25" t="s">
+        <v>1403</v>
+      </c>
       <c r="K435" s="30"/>
       <c r="L435" s="35"/>
       <c r="M435" s="28"/>
@@ -22416,19 +22424,19 @@
     </row>
     <row r="436">
       <c r="A436" s="41" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B436" s="22" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="C436" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B436, ""en"", ""fr"")"),"clé Pit")</f>
-        <v>clé Pit</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B436, ""en"", ""fr"")"),"clé Fighter")</f>
+        <v>clé Fighter</v>
       </c>
       <c r="D436" s="23"/>
       <c r="E436" s="29"/>
       <c r="F436" s="23" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="G436" s="29"/>
       <c r="H436" s="36"/>
@@ -22455,19 +22463,19 @@
     </row>
     <row r="437">
       <c r="A437" s="41" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B437" s="22" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="C437" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B437, ""en"", ""fr"")"),"Ouvre les portes pour sortir de la fosse de combat.")</f>
-        <v>Ouvre les portes pour sortir de la fosse de combat.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B437, ""en"", ""fr"")"),"Ouvre la porte à la zone de préparation de l'arène PvP. Avertissement! D'autres joueurs peuvent vous attaquer dans la fosse de combat!")</f>
+        <v>Ouvre la porte à la zone de préparation de l'arène PvP. Avertissement! D'autres joueurs peuvent vous attaquer dans la fosse de combat!</v>
       </c>
       <c r="D437" s="23"/>
       <c r="E437" s="29"/>
       <c r="F437" s="23" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="G437" s="29"/>
       <c r="H437" s="36"/>
@@ -22493,29 +22501,25 @@
       <c r="AB437" s="28"/>
     </row>
     <row r="438">
-      <c r="A438" s="21" t="s">
-        <v>1412</v>
+      <c r="A438" s="41" t="s">
+        <v>1410</v>
       </c>
       <c r="B438" s="22" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="C438" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B438, ""en"", ""fr"")"),"Bandit")</f>
-        <v>Bandit</v>
-      </c>
-      <c r="D438" s="29"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B438, ""en"", ""fr"")"),"clé Pit")</f>
+        <v>clé Pit</v>
+      </c>
+      <c r="D438" s="23"/>
       <c r="E438" s="29"/>
       <c r="F438" s="23" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="G438" s="29"/>
       <c r="H438" s="36"/>
-      <c r="I438" s="23" t="s">
-        <v>1415</v>
-      </c>
-      <c r="J438" s="25" t="s">
-        <v>1416</v>
-      </c>
+      <c r="I438" s="29"/>
+      <c r="J438" s="25"/>
       <c r="K438" s="30"/>
       <c r="L438" s="35"/>
       <c r="M438" s="28"/>
@@ -22536,27 +22540,25 @@
       <c r="AB438" s="28"/>
     </row>
     <row r="439">
-      <c r="A439" s="21" t="s">
-        <v>1417</v>
+      <c r="A439" s="41" t="s">
+        <v>1413</v>
       </c>
       <c r="B439" s="22" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="C439" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B439, ""en"", ""fr"")"),"Bandit leader")</f>
-        <v>Bandit leader</v>
-      </c>
-      <c r="D439" s="29"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B439, ""en"", ""fr"")"),"Ouvre les portes pour sortir de la fosse de combat.")</f>
+        <v>Ouvre les portes pour sortir de la fosse de combat.</v>
+      </c>
+      <c r="D439" s="23"/>
       <c r="E439" s="29"/>
       <c r="F439" s="23" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="G439" s="29"/>
       <c r="H439" s="36"/>
       <c r="I439" s="29"/>
-      <c r="J439" s="25" t="s">
-        <v>1420</v>
-      </c>
+      <c r="J439" s="25"/>
       <c r="K439" s="30"/>
       <c r="L439" s="35"/>
       <c r="M439" s="28"/>
@@ -22578,25 +22580,27 @@
     </row>
     <row r="440">
       <c r="A440" s="21" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
       <c r="B440" s="22" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
       <c r="C440" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B440, ""en"", ""fr"")"),"Assassin")</f>
-        <v>Assassin</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B440, ""en"", ""fr"")"),"Bandit")</f>
+        <v>Bandit</v>
       </c>
       <c r="D440" s="29"/>
       <c r="E440" s="29"/>
       <c r="F440" s="23" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="G440" s="29"/>
       <c r="H440" s="36"/>
-      <c r="I440" s="29"/>
+      <c r="I440" s="23" t="s">
+        <v>1419</v>
+      </c>
       <c r="J440" s="25" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="K440" s="30"/>
       <c r="L440" s="35"/>
@@ -22619,24 +22623,26 @@
     </row>
     <row r="441">
       <c r="A441" s="21" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="B441" s="22" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="C441" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B441, ""en"", ""fr"")"),"maître assassin")</f>
-        <v>maître assassin</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B441, ""en"", ""fr"")"),"Bandit leader")</f>
+        <v>Bandit leader</v>
       </c>
       <c r="D441" s="29"/>
       <c r="E441" s="29"/>
       <c r="F441" s="23" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="G441" s="29"/>
       <c r="H441" s="36"/>
       <c r="I441" s="29"/>
-      <c r="J441" s="25"/>
+      <c r="J441" s="25" t="s">
+        <v>1424</v>
+      </c>
       <c r="K441" s="30"/>
       <c r="L441" s="35"/>
       <c r="M441" s="28"/>
@@ -22658,27 +22664,25 @@
     </row>
     <row r="442">
       <c r="A442" s="21" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="B442" s="22" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C442" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B442, ""en"", ""fr"")"),"Chauve souris")</f>
-        <v>Chauve souris</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B442, ""en"", ""fr"")"),"Assassin")</f>
+        <v>Assassin</v>
       </c>
       <c r="D442" s="29"/>
       <c r="E442" s="29"/>
       <c r="F442" s="23" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="G442" s="29"/>
       <c r="H442" s="36"/>
-      <c r="I442" s="23" t="s">
-        <v>1431</v>
-      </c>
+      <c r="I442" s="29"/>
       <c r="J442" s="25" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="K442" s="30"/>
       <c r="L442" s="35"/>
@@ -22701,26 +22705,24 @@
     </row>
     <row r="443">
       <c r="A443" s="21" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="B443" s="22" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="C443" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B443, ""en"", ""fr"")"),"Règle")</f>
-        <v>Règle</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B443, ""en"", ""fr"")"),"maître assassin")</f>
+        <v>maître assassin</v>
       </c>
       <c r="D443" s="29"/>
       <c r="E443" s="29"/>
       <c r="F443" s="23" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="G443" s="29"/>
       <c r="H443" s="36"/>
       <c r="I443" s="29"/>
-      <c r="J443" s="25" t="s">
-        <v>1436</v>
-      </c>
+      <c r="J443" s="25"/>
       <c r="K443" s="30"/>
       <c r="L443" s="35"/>
       <c r="M443" s="28"/>
@@ -22742,25 +22744,27 @@
     </row>
     <row r="444">
       <c r="A444" s="21" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
       <c r="B444" s="22" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="C444" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B444, ""en"", ""fr"")"),"Aubergiste")</f>
-        <v>Aubergiste</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B444, ""en"", ""fr"")"),"Chauve souris")</f>
+        <v>Chauve souris</v>
       </c>
       <c r="D444" s="29"/>
       <c r="E444" s="29"/>
       <c r="F444" s="23" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="G444" s="29"/>
       <c r="H444" s="36"/>
-      <c r="I444" s="29"/>
+      <c r="I444" s="23" t="s">
+        <v>1435</v>
+      </c>
       <c r="J444" s="25" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="K444" s="30"/>
       <c r="L444" s="35"/>
@@ -22783,24 +22787,26 @@
     </row>
     <row r="445">
       <c r="A445" s="21" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="B445" s="22" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="C445" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B445, ""en"", ""fr"")"),"maître Arena")</f>
-        <v>maître Arena</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B445, ""en"", ""fr"")"),"Règle")</f>
+        <v>Règle</v>
       </c>
       <c r="D445" s="29"/>
       <c r="E445" s="29"/>
       <c r="F445" s="23" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="G445" s="29"/>
       <c r="H445" s="36"/>
       <c r="I445" s="29"/>
-      <c r="J445" s="25"/>
+      <c r="J445" s="25" t="s">
+        <v>1440</v>
+      </c>
       <c r="K445" s="30"/>
       <c r="L445" s="35"/>
       <c r="M445" s="28"/>
@@ -22822,27 +22828,25 @@
     </row>
     <row r="446">
       <c r="A446" s="21" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="B446" s="22" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="C446" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B446, ""en"", ""fr"")"),"marchande")</f>
-        <v>marchande</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B446, ""en"", ""fr"")"),"Aubergiste")</f>
+        <v>Aubergiste</v>
       </c>
       <c r="D446" s="29"/>
       <c r="E446" s="29"/>
       <c r="F446" s="23" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="G446" s="29"/>
       <c r="H446" s="36"/>
-      <c r="I446" s="23" t="s">
-        <v>1447</v>
-      </c>
+      <c r="I446" s="29"/>
       <c r="J446" s="25" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="K446" s="30"/>
       <c r="L446" s="35"/>
@@ -22865,26 +22869,24 @@
     </row>
     <row r="447">
       <c r="A447" s="21" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="B447" s="22" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="C447" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B447, ""en"", ""fr"")"),"marchand Melee")</f>
-        <v>marchand Melee</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B447, ""en"", ""fr"")"),"maître Arena")</f>
+        <v>maître Arena</v>
       </c>
       <c r="D447" s="29"/>
       <c r="E447" s="29"/>
       <c r="F447" s="23" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="G447" s="29"/>
       <c r="H447" s="36"/>
       <c r="I447" s="29"/>
-      <c r="J447" s="25" t="s">
-        <v>1452</v>
-      </c>
+      <c r="J447" s="25"/>
       <c r="K447" s="30"/>
       <c r="L447" s="35"/>
       <c r="M447" s="28"/>
@@ -22906,25 +22908,27 @@
     </row>
     <row r="448">
       <c r="A448" s="21" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="B448" s="22" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="C448" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B448, ""en"", ""fr"")"),"marchand Ranged")</f>
-        <v>marchand Ranged</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B448, ""en"", ""fr"")"),"marchande")</f>
+        <v>marchande</v>
       </c>
       <c r="D448" s="29"/>
       <c r="E448" s="29"/>
       <c r="F448" s="23" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="G448" s="29"/>
       <c r="H448" s="36"/>
-      <c r="I448" s="29"/>
+      <c r="I448" s="23" t="s">
+        <v>1451</v>
+      </c>
       <c r="J448" s="25" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="K448" s="30"/>
       <c r="L448" s="35"/>
@@ -22947,25 +22951,25 @@
     </row>
     <row r="449">
       <c r="A449" s="21" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="B449" s="22" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="C449" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B449, ""en"", ""fr"")"),"marchand magique")</f>
-        <v>marchand magique</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B449, ""en"", ""fr"")"),"marchand Melee")</f>
+        <v>marchand Melee</v>
       </c>
       <c r="D449" s="29"/>
       <c r="E449" s="29"/>
       <c r="F449" s="23" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="G449" s="29"/>
       <c r="H449" s="36"/>
       <c r="I449" s="29"/>
       <c r="J449" s="25" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="K449" s="30"/>
       <c r="L449" s="35"/>
@@ -22988,25 +22992,25 @@
     </row>
     <row r="450">
       <c r="A450" s="21" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="B450" s="22" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="C450" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B450, ""en"", ""fr"")"),"marchand outil")</f>
-        <v>marchand outil</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B450, ""en"", ""fr"")"),"marchand Ranged")</f>
+        <v>marchand Ranged</v>
       </c>
       <c r="D450" s="29"/>
       <c r="E450" s="29"/>
       <c r="F450" s="23" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="G450" s="29"/>
       <c r="H450" s="36"/>
       <c r="I450" s="29"/>
       <c r="J450" s="25" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="K450" s="30"/>
       <c r="L450" s="35"/>
@@ -23029,24 +23033,26 @@
     </row>
     <row r="451">
       <c r="A451" s="21" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="B451" s="22" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="C451" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B451, ""en"", ""fr"")"),"marchand nain")</f>
-        <v>marchand nain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B451, ""en"", ""fr"")"),"marchand magique")</f>
+        <v>marchand magique</v>
       </c>
       <c r="D451" s="29"/>
       <c r="E451" s="29"/>
       <c r="F451" s="23" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="G451" s="29"/>
       <c r="H451" s="36"/>
       <c r="I451" s="29"/>
-      <c r="J451" s="25"/>
+      <c r="J451" s="25" t="s">
+        <v>1464</v>
+      </c>
       <c r="K451" s="30"/>
       <c r="L451" s="35"/>
       <c r="M451" s="28"/>
@@ -23068,24 +23074,26 @@
     </row>
     <row r="452">
       <c r="A452" s="21" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="B452" s="22" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="C452" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B452, ""en"", ""fr"")"),"Bibliothécaire")</f>
-        <v>Bibliothécaire</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B452, ""en"", ""fr"")"),"marchand outil")</f>
+        <v>marchand outil</v>
       </c>
       <c r="D452" s="29"/>
       <c r="E452" s="29"/>
       <c r="F452" s="23" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="G452" s="29"/>
       <c r="H452" s="36"/>
       <c r="I452" s="29"/>
-      <c r="J452" s="25"/>
+      <c r="J452" s="25" t="s">
+        <v>1468</v>
+      </c>
       <c r="K452" s="30"/>
       <c r="L452" s="35"/>
       <c r="M452" s="28"/>
@@ -23107,18 +23115,20 @@
     </row>
     <row r="453">
       <c r="A453" s="21" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B453" s="22" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="C453" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B453, ""en"", ""fr"")"),"Omni marchand")</f>
-        <v>Omni marchand</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B453, ""en"", ""fr"")"),"marchand nain")</f>
+        <v>marchand nain</v>
       </c>
       <c r="D453" s="29"/>
       <c r="E453" s="29"/>
-      <c r="F453" s="23"/>
+      <c r="F453" s="23" t="s">
+        <v>1471</v>
+      </c>
       <c r="G453" s="29"/>
       <c r="H453" s="36"/>
       <c r="I453" s="29"/>
@@ -23144,26 +23154,24 @@
     </row>
     <row r="454">
       <c r="A454" s="21" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B454" s="22" t="s">
         <v>1473</v>
       </c>
-      <c r="B454" s="22" t="s">
-        <v>1474</v>
-      </c>
       <c r="C454" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B454, ""en"", ""fr"")"),"Prêtre")</f>
-        <v>Prêtre</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B454, ""en"", ""fr"")"),"Bibliothécaire")</f>
+        <v>Bibliothécaire</v>
       </c>
       <c r="D454" s="29"/>
       <c r="E454" s="29"/>
       <c r="F454" s="23" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="G454" s="29"/>
       <c r="H454" s="36"/>
       <c r="I454" s="29"/>
-      <c r="J454" s="25" t="s">
-        <v>1476</v>
-      </c>
+      <c r="J454" s="25"/>
       <c r="K454" s="30"/>
       <c r="L454" s="35"/>
       <c r="M454" s="28"/>
@@ -23185,26 +23193,22 @@
     </row>
     <row r="455">
       <c r="A455" s="21" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B455" s="22" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="C455" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B455, ""en"", ""fr"")"),"Citoyenne")</f>
-        <v>Citoyenne</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B455, ""en"", ""fr"")"),"Omni marchand")</f>
+        <v>Omni marchand</v>
       </c>
       <c r="D455" s="29"/>
       <c r="E455" s="29"/>
-      <c r="F455" s="23" t="s">
-        <v>1479</v>
-      </c>
+      <c r="F455" s="23"/>
       <c r="G455" s="29"/>
       <c r="H455" s="36"/>
       <c r="I455" s="29"/>
-      <c r="J455" s="25" t="s">
-        <v>1480</v>
-      </c>
+      <c r="J455" s="25"/>
       <c r="K455" s="30"/>
       <c r="L455" s="35"/>
       <c r="M455" s="28"/>
@@ -23226,22 +23230,26 @@
     </row>
     <row r="456">
       <c r="A456" s="21" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="B456" s="22" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="C456" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B456, ""en"", ""fr"")"),"Nain")</f>
-        <v>Nain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B456, ""en"", ""fr"")"),"Prêtre")</f>
+        <v>Prêtre</v>
       </c>
       <c r="D456" s="29"/>
       <c r="E456" s="29"/>
-      <c r="F456" s="23"/>
+      <c r="F456" s="23" t="s">
+        <v>1479</v>
+      </c>
       <c r="G456" s="29"/>
       <c r="H456" s="36"/>
       <c r="I456" s="29"/>
-      <c r="J456" s="25"/>
+      <c r="J456" s="25" t="s">
+        <v>1480</v>
+      </c>
       <c r="K456" s="30"/>
       <c r="L456" s="35"/>
       <c r="M456" s="28"/>
@@ -23263,22 +23271,26 @@
     </row>
     <row r="457">
       <c r="A457" s="21" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B457" s="22" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="C457" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B457, ""en"", ""fr"")"),"guerrier nain")</f>
-        <v>guerrier nain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B457, ""en"", ""fr"")"),"Citoyenne")</f>
+        <v>Citoyenne</v>
       </c>
       <c r="D457" s="29"/>
       <c r="E457" s="29"/>
-      <c r="F457" s="23"/>
+      <c r="F457" s="23" t="s">
+        <v>1483</v>
+      </c>
       <c r="G457" s="29"/>
       <c r="H457" s="36"/>
       <c r="I457" s="29"/>
-      <c r="J457" s="25"/>
+      <c r="J457" s="25" t="s">
+        <v>1484</v>
+      </c>
       <c r="K457" s="30"/>
       <c r="L457" s="35"/>
       <c r="M457" s="28"/>
@@ -23306,22 +23318,16 @@
         <v>1486</v>
       </c>
       <c r="C458" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B458, ""en"", ""fr"")"),"chevalier")</f>
-        <v>chevalier</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B458, ""en"", ""fr"")"),"Nain")</f>
+        <v>Nain</v>
       </c>
       <c r="D458" s="29"/>
       <c r="E458" s="29"/>
-      <c r="F458" s="23" t="s">
-        <v>1487</v>
-      </c>
+      <c r="F458" s="23"/>
       <c r="G458" s="29"/>
       <c r="H458" s="36"/>
-      <c r="I458" s="23" t="s">
-        <v>1488</v>
-      </c>
-      <c r="J458" s="25" t="s">
-        <v>1489</v>
-      </c>
+      <c r="I458" s="29"/>
+      <c r="J458" s="25"/>
       <c r="K458" s="30"/>
       <c r="L458" s="35"/>
       <c r="M458" s="28"/>
@@ -23343,28 +23349,22 @@
     </row>
     <row r="459">
       <c r="A459" s="21" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="B459" s="22" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="C459" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B459, ""en"", ""fr"")"),"Le commandant")</f>
-        <v>Le commandant</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B459, ""en"", ""fr"")"),"guerrier nain")</f>
+        <v>guerrier nain</v>
       </c>
       <c r="D459" s="29"/>
       <c r="E459" s="29"/>
-      <c r="F459" s="23" t="s">
-        <v>1492</v>
-      </c>
+      <c r="F459" s="23"/>
       <c r="G459" s="29"/>
       <c r="H459" s="36"/>
-      <c r="I459" s="23" t="s">
-        <v>1493</v>
-      </c>
-      <c r="J459" s="25" t="s">
-        <v>1494</v>
-      </c>
+      <c r="I459" s="29"/>
+      <c r="J459" s="25"/>
       <c r="K459" s="30"/>
       <c r="L459" s="35"/>
       <c r="M459" s="28"/>
@@ -23386,27 +23386,27 @@
     </row>
     <row r="460">
       <c r="A460" s="21" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="B460" s="22" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="C460" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B460, ""en"", ""fr"")"),"guerrier")</f>
-        <v>guerrier</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B460, ""en"", ""fr"")"),"chevalier")</f>
+        <v>chevalier</v>
       </c>
       <c r="D460" s="29"/>
       <c r="E460" s="29"/>
       <c r="F460" s="23" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="G460" s="29"/>
       <c r="H460" s="36"/>
       <c r="I460" s="23" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="J460" s="25" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="K460" s="30"/>
       <c r="L460" s="35"/>
@@ -23429,27 +23429,27 @@
     </row>
     <row r="461">
       <c r="A461" s="21" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="B461" s="22" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="C461" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B461, ""en"", ""fr"")"),"Prisonnier")</f>
-        <v>Prisonnier</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B461, ""en"", ""fr"")"),"Le commandant")</f>
+        <v>Le commandant</v>
       </c>
       <c r="D461" s="29"/>
       <c r="E461" s="29"/>
       <c r="F461" s="23" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="G461" s="29"/>
       <c r="H461" s="36"/>
       <c r="I461" s="23" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="J461" s="25" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="K461" s="30"/>
       <c r="L461" s="35"/>
@@ -23472,27 +23472,27 @@
     </row>
     <row r="462">
       <c r="A462" s="21" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="B462" s="22" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="C462" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B462, ""en"", ""fr"")"),"Rat")</f>
-        <v>Rat</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B462, ""en"", ""fr"")"),"guerrier")</f>
+        <v>guerrier</v>
       </c>
       <c r="D462" s="29"/>
       <c r="E462" s="29"/>
       <c r="F462" s="23" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="G462" s="29"/>
       <c r="H462" s="36"/>
       <c r="I462" s="23" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="J462" s="25" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="K462" s="30"/>
       <c r="L462" s="35"/>
@@ -23515,25 +23515,27 @@
     </row>
     <row r="463">
       <c r="A463" s="21" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="B463" s="22" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="C463" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B463, ""en"", ""fr"")"),"faucon")</f>
-        <v>faucon</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B463, ""en"", ""fr"")"),"Prisonnier")</f>
+        <v>Prisonnier</v>
       </c>
       <c r="D463" s="29"/>
       <c r="E463" s="29"/>
       <c r="F463" s="23" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="G463" s="29"/>
       <c r="H463" s="36"/>
-      <c r="I463" s="29"/>
+      <c r="I463" s="23" t="s">
+        <v>1507</v>
+      </c>
       <c r="J463" s="25" t="s">
-        <v>1513</v>
+        <v>1508</v>
       </c>
       <c r="K463" s="30"/>
       <c r="L463" s="35"/>
@@ -23556,25 +23558,27 @@
     </row>
     <row r="464">
       <c r="A464" s="21" t="s">
-        <v>1514</v>
+        <v>1509</v>
       </c>
       <c r="B464" s="22" t="s">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="C464" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B464, ""en"", ""fr"")"),"vaurien de sable")</f>
-        <v>vaurien de sable</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B464, ""en"", ""fr"")"),"Rat")</f>
+        <v>Rat</v>
       </c>
       <c r="D464" s="29"/>
       <c r="E464" s="29"/>
       <c r="F464" s="23" t="s">
-        <v>1516</v>
+        <v>1511</v>
       </c>
       <c r="G464" s="29"/>
       <c r="H464" s="36"/>
-      <c r="I464" s="29"/>
+      <c r="I464" s="23" t="s">
+        <v>1512</v>
+      </c>
       <c r="J464" s="25" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="K464" s="30"/>
       <c r="L464" s="35"/>
@@ -23597,24 +23601,26 @@
     </row>
     <row r="465">
       <c r="A465" s="21" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="B465" s="22" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="C465" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B465, ""en"", ""fr"")"),"herbe vaurien")</f>
-        <v>herbe vaurien</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B465, ""en"", ""fr"")"),"faucon")</f>
+        <v>faucon</v>
       </c>
       <c r="D465" s="29"/>
       <c r="E465" s="29"/>
       <c r="F465" s="23" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="G465" s="29"/>
       <c r="H465" s="36"/>
       <c r="I465" s="29"/>
-      <c r="J465" s="25"/>
+      <c r="J465" s="25" t="s">
+        <v>1517</v>
+      </c>
       <c r="K465" s="30"/>
       <c r="L465" s="35"/>
       <c r="M465" s="28"/>
@@ -23636,27 +23642,25 @@
     </row>
     <row r="466">
       <c r="A466" s="21" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="B466" s="22" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="C466" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B466, ""en"", ""fr"")"),"Lutin")</f>
-        <v>Lutin</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B466, ""en"", ""fr"")"),"vaurien de sable")</f>
+        <v>vaurien de sable</v>
       </c>
       <c r="D466" s="29"/>
       <c r="E466" s="29"/>
       <c r="F466" s="23" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="G466" s="29"/>
       <c r="H466" s="36"/>
-      <c r="I466" s="23" t="s">
-        <v>1522</v>
-      </c>
+      <c r="I466" s="29"/>
       <c r="J466" s="25" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="K466" s="30"/>
       <c r="L466" s="35"/>
@@ -23679,28 +23683,24 @@
     </row>
     <row r="467">
       <c r="A467" s="21" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="B467" s="22" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="C467" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B467, ""en"", ""fr"")"),"Druide")</f>
-        <v>Druide</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B467, ""en"", ""fr"")"),"herbe vaurien")</f>
+        <v>herbe vaurien</v>
       </c>
       <c r="D467" s="29"/>
       <c r="E467" s="29"/>
       <c r="F467" s="23" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="G467" s="29"/>
       <c r="H467" s="36"/>
-      <c r="I467" s="23" t="s">
-        <v>1525</v>
-      </c>
-      <c r="J467" s="25" t="s">
-        <v>1527</v>
-      </c>
+      <c r="I467" s="29"/>
+      <c r="J467" s="25"/>
       <c r="K467" s="30"/>
       <c r="L467" s="35"/>
       <c r="M467" s="28"/>
@@ -23722,25 +23722,27 @@
     </row>
     <row r="468">
       <c r="A468" s="21" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="B468" s="22" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C468" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B468, ""en"", ""fr"")"),"Snoovir")</f>
-        <v>Snoovir</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B468, ""en"", ""fr"")"),"Lutin")</f>
+        <v>Lutin</v>
       </c>
       <c r="D468" s="29"/>
       <c r="E468" s="29"/>
       <c r="F468" s="23" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="G468" s="29"/>
       <c r="H468" s="36"/>
-      <c r="I468" s="29"/>
+      <c r="I468" s="23" t="s">
+        <v>1526</v>
+      </c>
       <c r="J468" s="25" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="K468" s="30"/>
       <c r="L468" s="35"/>
@@ -23763,27 +23765,27 @@
     </row>
     <row r="469">
       <c r="A469" s="21" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="B469" s="22" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="C469" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B469, ""en"", ""fr"")"),"Zombi")</f>
-        <v>Zombi</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B469, ""en"", ""fr"")"),"Druide")</f>
+        <v>Druide</v>
       </c>
       <c r="D469" s="29"/>
       <c r="E469" s="29"/>
       <c r="F469" s="23" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="G469" s="29"/>
       <c r="H469" s="36"/>
       <c r="I469" s="23" t="s">
-        <v>1534</v>
+        <v>1529</v>
       </c>
       <c r="J469" s="25" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="K469" s="30"/>
       <c r="L469" s="35"/>
@@ -23806,27 +23808,25 @@
     </row>
     <row r="470">
       <c r="A470" s="21" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="B470" s="22" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="C470" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B470, ""en"", ""fr"")"),"Momie")</f>
-        <v>Momie</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B470, ""en"", ""fr"")"),"Snoovir")</f>
+        <v>Snoovir</v>
       </c>
       <c r="D470" s="29"/>
       <c r="E470" s="29"/>
       <c r="F470" s="23" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="G470" s="29"/>
       <c r="H470" s="36"/>
-      <c r="I470" s="23" t="s">
-        <v>1539</v>
-      </c>
+      <c r="I470" s="29"/>
       <c r="J470" s="25" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="K470" s="30"/>
       <c r="L470" s="35"/>
@@ -23849,25 +23849,27 @@
     </row>
     <row r="471">
       <c r="A471" s="21" t="s">
-        <v>1541</v>
+        <v>1536</v>
       </c>
       <c r="B471" s="22" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="C471" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B471, ""en"", ""fr"")"),"gardien crypte")</f>
-        <v>gardien crypte</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B471, ""en"", ""fr"")"),"Zombi")</f>
+        <v>Zombi</v>
       </c>
       <c r="D471" s="29"/>
       <c r="E471" s="29"/>
       <c r="F471" s="23" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="G471" s="29"/>
       <c r="H471" s="36"/>
-      <c r="I471" s="29"/>
+      <c r="I471" s="23" t="s">
+        <v>1538</v>
+      </c>
       <c r="J471" s="25" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="K471" s="30"/>
       <c r="L471" s="35"/>
@@ -23890,27 +23892,27 @@
     </row>
     <row r="472">
       <c r="A472" s="21" t="s">
-        <v>1545</v>
+        <v>1540</v>
       </c>
       <c r="B472" s="22" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
       <c r="C472" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B472, ""en"", ""fr"")"),"pharaon")</f>
-        <v>pharaon</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B472, ""en"", ""fr"")"),"Momie")</f>
+        <v>Momie</v>
       </c>
       <c r="D472" s="29"/>
       <c r="E472" s="29"/>
       <c r="F472" s="23" t="s">
-        <v>1547</v>
+        <v>1542</v>
       </c>
       <c r="G472" s="29"/>
       <c r="H472" s="36"/>
       <c r="I472" s="23" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="J472" s="25" t="s">
-        <v>1549</v>
+        <v>1544</v>
       </c>
       <c r="K472" s="30"/>
       <c r="L472" s="35"/>
@@ -23933,25 +23935,25 @@
     </row>
     <row r="473">
       <c r="A473" s="21" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="B473" s="22" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
       <c r="C473" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B473, ""en"", ""fr"")"),"Vampire")</f>
-        <v>Vampire</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B473, ""en"", ""fr"")"),"gardien crypte")</f>
+        <v>gardien crypte</v>
       </c>
       <c r="D473" s="29"/>
       <c r="E473" s="29"/>
       <c r="F473" s="23" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
       <c r="G473" s="29"/>
       <c r="H473" s="36"/>
       <c r="I473" s="29"/>
       <c r="J473" s="25" t="s">
-        <v>1553</v>
+        <v>1548</v>
       </c>
       <c r="K473" s="30"/>
       <c r="L473" s="35"/>
@@ -23974,27 +23976,27 @@
     </row>
     <row r="474">
       <c r="A474" s="21" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="B474" s="22" t="s">
-        <v>1555</v>
+        <v>1550</v>
       </c>
       <c r="C474" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B474, ""en"", ""fr"")"),"prêtre de sang")</f>
-        <v>prêtre de sang</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B474, ""en"", ""fr"")"),"pharaon")</f>
+        <v>pharaon</v>
       </c>
       <c r="D474" s="29"/>
       <c r="E474" s="29"/>
       <c r="F474" s="23" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="G474" s="29"/>
       <c r="H474" s="36"/>
       <c r="I474" s="23" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="J474" s="25" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="K474" s="30"/>
       <c r="L474" s="35"/>
@@ -24017,25 +24019,25 @@
     </row>
     <row r="475">
       <c r="A475" s="21" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="B475" s="22" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="C475" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B475, ""en"", ""fr"")"),"seigneur de sang")</f>
-        <v>seigneur de sang</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B475, ""en"", ""fr"")"),"Vampire")</f>
+        <v>Vampire</v>
       </c>
       <c r="D475" s="29"/>
       <c r="E475" s="29"/>
       <c r="F475" s="23" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="G475" s="29"/>
       <c r="H475" s="36"/>
       <c r="I475" s="29"/>
       <c r="J475" s="25" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="K475" s="30"/>
       <c r="L475" s="35"/>
@@ -24058,23 +24060,28 @@
     </row>
     <row r="476">
       <c r="A476" s="21" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="B476" s="22" t="s">
-        <v>1564</v>
-      </c>
-      <c r="C476" s="23" t="s">
-        <v>1564</v>
+        <v>1559</v>
+      </c>
+      <c r="C476" s="23" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B476, ""en"", ""fr"")"),"prêtre de sang")</f>
+        <v>prêtre de sang</v>
       </c>
       <c r="D476" s="29"/>
       <c r="E476" s="29"/>
       <c r="F476" s="23" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="G476" s="29"/>
       <c r="H476" s="36"/>
-      <c r="I476" s="29"/>
-      <c r="J476" s="30"/>
+      <c r="I476" s="23" t="s">
+        <v>1561</v>
+      </c>
+      <c r="J476" s="25" t="s">
+        <v>1562</v>
+      </c>
       <c r="K476" s="30"/>
       <c r="L476" s="35"/>
       <c r="M476" s="28"/>
@@ -24096,24 +24103,26 @@
     </row>
     <row r="477">
       <c r="A477" s="21" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="B477" s="22" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="C477" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B477, ""en"", ""fr"")"),"grande gnarl")</f>
-        <v>grande gnarl</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B477, ""en"", ""fr"")"),"seigneur de sang")</f>
+        <v>seigneur de sang</v>
       </c>
       <c r="D477" s="29"/>
       <c r="E477" s="29"/>
       <c r="F477" s="23" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="G477" s="29"/>
       <c r="H477" s="36"/>
       <c r="I477" s="29"/>
-      <c r="J477" s="30"/>
+      <c r="J477" s="25" t="s">
+        <v>1566</v>
+      </c>
       <c r="K477" s="30"/>
       <c r="L477" s="35"/>
       <c r="M477" s="28"/>
@@ -24135,19 +24144,18 @@
     </row>
     <row r="478">
       <c r="A478" s="21" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="B478" s="22" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C478" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B478, ""en"", ""fr"")"),"mage")</f>
-        <v>mage</v>
+        <v>1568</v>
+      </c>
+      <c r="C478" s="23" t="s">
+        <v>1568</v>
       </c>
       <c r="D478" s="29"/>
       <c r="E478" s="29"/>
       <c r="F478" s="23" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="G478" s="29"/>
       <c r="H478" s="36"/>
@@ -24174,19 +24182,19 @@
     </row>
     <row r="479">
       <c r="A479" s="21" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="B479" s="22" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="C479" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B479, ""en"", ""fr"")"),"arc mage")</f>
-        <v>arc mage</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B479, ""en"", ""fr"")"),"grande gnarl")</f>
+        <v>grande gnarl</v>
       </c>
       <c r="D479" s="29"/>
       <c r="E479" s="29"/>
       <c r="F479" s="23" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="G479" s="29"/>
       <c r="H479" s="36"/>
@@ -24213,18 +24221,20 @@
     </row>
     <row r="480">
       <c r="A480" s="21" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="B480" s="22" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="C480" s="23" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B480, ""en"", ""fr"")"),"adumbral")</f>
-        <v>adumbral</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B480, ""en"", ""fr"")"),"mage")</f>
+        <v>mage</v>
       </c>
       <c r="D480" s="29"/>
       <c r="E480" s="29"/>
-      <c r="F480" s="29"/>
+      <c r="F480" s="23" t="s">
+        <v>1575</v>
+      </c>
       <c r="G480" s="29"/>
       <c r="H480" s="36"/>
       <c r="I480" s="29"/>
@@ -24249,12 +24259,21 @@
       <c r="AB480" s="28"/>
     </row>
     <row r="481">
-      <c r="A481" s="42"/>
-      <c r="B481" s="43"/>
-      <c r="C481" s="29"/>
+      <c r="A481" s="21" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B481" s="22" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C481" s="23" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B481, ""en"", ""fr"")"),"arc mage")</f>
+        <v>arc mage</v>
+      </c>
       <c r="D481" s="29"/>
       <c r="E481" s="29"/>
-      <c r="F481" s="29"/>
+      <c r="F481" s="23" t="s">
+        <v>1578</v>
+      </c>
       <c r="G481" s="29"/>
       <c r="H481" s="36"/>
       <c r="I481" s="29"/>
@@ -24279,9 +24298,16 @@
       <c r="AB481" s="28"/>
     </row>
     <row r="482">
-      <c r="A482" s="42"/>
-      <c r="B482" s="43"/>
-      <c r="C482" s="29"/>
+      <c r="A482" s="21" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B482" s="22" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C482" s="23" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(B482, ""en"", ""fr"")"),"adumbral")</f>
+        <v>adumbral</v>
+      </c>
       <c r="D482" s="29"/>
       <c r="E482" s="29"/>
       <c r="F482" s="29"/>
@@ -26019,64 +26045,64 @@
       <c r="AB539" s="28"/>
     </row>
     <row r="540">
-      <c r="A540" s="1"/>
-      <c r="B540" s="44"/>
-      <c r="C540" s="44"/>
-      <c r="D540" s="44"/>
-      <c r="E540" s="44"/>
-      <c r="F540" s="44"/>
-      <c r="G540" s="44"/>
-      <c r="H540" s="45"/>
-      <c r="I540" s="44"/>
-      <c r="J540" s="46"/>
-      <c r="K540" s="46"/>
-      <c r="L540" s="47"/>
-      <c r="M540" s="47"/>
-      <c r="N540" s="47"/>
-      <c r="O540" s="47"/>
-      <c r="P540" s="47"/>
-      <c r="Q540" s="47"/>
-      <c r="R540" s="47"/>
-      <c r="S540" s="47"/>
-      <c r="T540" s="47"/>
-      <c r="U540" s="47"/>
-      <c r="V540" s="47"/>
-      <c r="W540" s="47"/>
-      <c r="X540" s="47"/>
-      <c r="Y540" s="47"/>
-      <c r="Z540" s="47"/>
-      <c r="AA540" s="47"/>
-      <c r="AB540" s="47"/>
+      <c r="A540" s="42"/>
+      <c r="B540" s="43"/>
+      <c r="C540" s="29"/>
+      <c r="D540" s="29"/>
+      <c r="E540" s="29"/>
+      <c r="F540" s="29"/>
+      <c r="G540" s="29"/>
+      <c r="H540" s="36"/>
+      <c r="I540" s="29"/>
+      <c r="J540" s="30"/>
+      <c r="K540" s="30"/>
+      <c r="L540" s="35"/>
+      <c r="M540" s="28"/>
+      <c r="N540" s="28"/>
+      <c r="O540" s="28"/>
+      <c r="P540" s="28"/>
+      <c r="Q540" s="28"/>
+      <c r="R540" s="28"/>
+      <c r="S540" s="28"/>
+      <c r="T540" s="28"/>
+      <c r="U540" s="28"/>
+      <c r="V540" s="28"/>
+      <c r="W540" s="28"/>
+      <c r="X540" s="28"/>
+      <c r="Y540" s="28"/>
+      <c r="Z540" s="28"/>
+      <c r="AA540" s="28"/>
+      <c r="AB540" s="28"/>
     </row>
     <row r="541">
-      <c r="A541" s="1"/>
-      <c r="B541" s="44"/>
-      <c r="C541" s="44"/>
-      <c r="D541" s="44"/>
-      <c r="E541" s="44"/>
-      <c r="F541" s="44"/>
-      <c r="G541" s="44"/>
-      <c r="H541" s="45"/>
-      <c r="I541" s="44"/>
-      <c r="J541" s="46"/>
-      <c r="K541" s="46"/>
-      <c r="L541" s="47"/>
-      <c r="M541" s="47"/>
-      <c r="N541" s="47"/>
-      <c r="O541" s="47"/>
-      <c r="P541" s="47"/>
-      <c r="Q541" s="47"/>
-      <c r="R541" s="47"/>
-      <c r="S541" s="47"/>
-      <c r="T541" s="47"/>
-      <c r="U541" s="47"/>
-      <c r="V541" s="47"/>
-      <c r="W541" s="47"/>
-      <c r="X541" s="47"/>
-      <c r="Y541" s="47"/>
-      <c r="Z541" s="47"/>
-      <c r="AA541" s="47"/>
-      <c r="AB541" s="47"/>
+      <c r="A541" s="42"/>
+      <c r="B541" s="43"/>
+      <c r="C541" s="29"/>
+      <c r="D541" s="29"/>
+      <c r="E541" s="29"/>
+      <c r="F541" s="29"/>
+      <c r="G541" s="29"/>
+      <c r="H541" s="36"/>
+      <c r="I541" s="29"/>
+      <c r="J541" s="30"/>
+      <c r="K541" s="30"/>
+      <c r="L541" s="35"/>
+      <c r="M541" s="28"/>
+      <c r="N541" s="28"/>
+      <c r="O541" s="28"/>
+      <c r="P541" s="28"/>
+      <c r="Q541" s="28"/>
+      <c r="R541" s="28"/>
+      <c r="S541" s="28"/>
+      <c r="T541" s="28"/>
+      <c r="U541" s="28"/>
+      <c r="V541" s="28"/>
+      <c r="W541" s="28"/>
+      <c r="X541" s="28"/>
+      <c r="Y541" s="28"/>
+      <c r="Z541" s="28"/>
+      <c r="AA541" s="28"/>
+      <c r="AB541" s="28"/>
     </row>
     <row r="542">
       <c r="A542" s="1"/>
@@ -53288,6 +53314,66 @@
       <c r="AA1448" s="47"/>
       <c r="AB1448" s="47"/>
     </row>
+    <row r="1449">
+      <c r="A1449" s="1"/>
+      <c r="B1449" s="44"/>
+      <c r="C1449" s="44"/>
+      <c r="D1449" s="44"/>
+      <c r="E1449" s="44"/>
+      <c r="F1449" s="44"/>
+      <c r="G1449" s="44"/>
+      <c r="H1449" s="45"/>
+      <c r="I1449" s="44"/>
+      <c r="J1449" s="46"/>
+      <c r="K1449" s="46"/>
+      <c r="L1449" s="47"/>
+      <c r="M1449" s="47"/>
+      <c r="N1449" s="47"/>
+      <c r="O1449" s="47"/>
+      <c r="P1449" s="47"/>
+      <c r="Q1449" s="47"/>
+      <c r="R1449" s="47"/>
+      <c r="S1449" s="47"/>
+      <c r="T1449" s="47"/>
+      <c r="U1449" s="47"/>
+      <c r="V1449" s="47"/>
+      <c r="W1449" s="47"/>
+      <c r="X1449" s="47"/>
+      <c r="Y1449" s="47"/>
+      <c r="Z1449" s="47"/>
+      <c r="AA1449" s="47"/>
+      <c r="AB1449" s="47"/>
+    </row>
+    <row r="1450">
+      <c r="A1450" s="1"/>
+      <c r="B1450" s="44"/>
+      <c r="C1450" s="44"/>
+      <c r="D1450" s="44"/>
+      <c r="E1450" s="44"/>
+      <c r="F1450" s="44"/>
+      <c r="G1450" s="44"/>
+      <c r="H1450" s="45"/>
+      <c r="I1450" s="44"/>
+      <c r="J1450" s="46"/>
+      <c r="K1450" s="46"/>
+      <c r="L1450" s="47"/>
+      <c r="M1450" s="47"/>
+      <c r="N1450" s="47"/>
+      <c r="O1450" s="47"/>
+      <c r="P1450" s="47"/>
+      <c r="Q1450" s="47"/>
+      <c r="R1450" s="47"/>
+      <c r="S1450" s="47"/>
+      <c r="T1450" s="47"/>
+      <c r="U1450" s="47"/>
+      <c r="V1450" s="47"/>
+      <c r="W1450" s="47"/>
+      <c r="X1450" s="47"/>
+      <c r="Y1450" s="47"/>
+      <c r="Z1450" s="47"/>
+      <c r="AA1450" s="47"/>
+      <c r="AB1450" s="47"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
